--- a/tables/lpm_coefficients.xlsx
+++ b/tables/lpm_coefficients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1416" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2124" uniqueCount="178">
   <si>
     <t>y1</t>
   </si>
@@ -1128,526 +1128,526 @@
         <v>175</v>
       </c>
       <c r="B3">
-        <v>-7.3850786564089299e-05</v>
+        <v>-7.3874060433132271e-05</v>
       </c>
       <c r="C3">
-        <v>-0.0032577205033952239</v>
+        <v>-0.0032558341403494981</v>
       </c>
       <c r="D3">
-        <v>-0.0033330523514675083</v>
+        <v>-0.0033095519948248553</v>
       </c>
       <c r="E3">
-        <v>-0.0033176918065356844</v>
+        <v>-0.003318983933104102</v>
       </c>
       <c r="F3">
-        <v>-3.0313563447494221e-05</v>
+        <v>-1.0938600899382079e-05</v>
       </c>
       <c r="G3">
-        <v>-2.4127834527820716e-06</v>
+        <v>1.028711305837393e-05</v>
       </c>
       <c r="H3">
-        <v>7.6645879454319674e-06</v>
+        <v>2.2744592121361238e-05</v>
       </c>
       <c r="I3">
-        <v>1.7818873605907505e-05</v>
+        <v>-1.2738344464854241e-05</v>
       </c>
       <c r="J3">
-        <v>-1.1910366101664193e-05</v>
+        <v>-1.1803075132854979e-05</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0020774178604852653</v>
+        <v>0.0021919201208751358</v>
       </c>
       <c r="M3">
-        <v>0.0023154304728462255</v>
+        <v>0.0024690281150933397</v>
       </c>
       <c r="N3">
-        <v>-0.0002670668896641917</v>
+        <v>-0.00013417237716553139</v>
       </c>
       <c r="O3">
-        <v>-0.00023552743747911557</v>
+        <v>-0.00010114806849619015</v>
       </c>
       <c r="P3">
-        <v>-0.00023650493803922928</v>
+        <v>-0.00014928691504665791</v>
       </c>
       <c r="Q3">
-        <v>-0.00023073066185408291</v>
+        <v>-0.00015191939643618001</v>
       </c>
       <c r="R3">
-        <v>-0.00022795876570940598</v>
+        <v>-0.00014250434303671896</v>
       </c>
       <c r="S3">
-        <v>-0.00023907438584541617</v>
+        <v>-0.00011377743596739244</v>
       </c>
       <c r="T3">
-        <v>-0.00021665867312928262</v>
+        <v>-0.00012244149046671999</v>
       </c>
       <c r="U3">
-        <v>-0.00020410258453629901</v>
+        <v>-0.00011157704055644125</v>
       </c>
       <c r="V3">
-        <v>-0.0001625157254152122</v>
+        <v>-9.6762313205347704e-05</v>
       </c>
       <c r="W3">
-        <v>-0.0001387828117156066</v>
+        <v>-9.6264043952823327e-05</v>
       </c>
       <c r="X3">
-        <v>-7.7001214786177563e-05</v>
+        <v>-5.4221357651565063e-05</v>
       </c>
       <c r="Y3">
-        <v>-0.00014611934248213629</v>
+        <v>-8.682059139941517e-05</v>
       </c>
       <c r="Z3">
-        <v>-0.0001531557624844501</v>
+        <v>-7.5694601854817012e-05</v>
       </c>
       <c r="AA3">
-        <v>-0.00014388301036860512</v>
+        <v>-4.7994214665461041e-05</v>
       </c>
       <c r="AB3">
-        <v>-0.00019161147366840512</v>
+        <v>-9.5237826938702447e-05</v>
       </c>
       <c r="AC3">
-        <v>-0.00016615990909770519</v>
+        <v>-1.3124624780926732e-05</v>
       </c>
       <c r="AD3">
-        <v>-0.00015989341222547119</v>
+        <v>-1.0922757936908717e-05</v>
       </c>
       <c r="AE3">
-        <v>-0.00019480603596786278</v>
+        <v>-8.8745062958546191e-05</v>
       </c>
       <c r="AF3">
-        <v>-7.9609926641824107e-05</v>
+        <v>-2.7924938171235549e-05</v>
       </c>
       <c r="AG3">
-        <v>-0.00010143767108528729</v>
+        <v>-2.6856242041956849e-05</v>
       </c>
       <c r="AH3">
-        <v>-4.4420556228966964e-05</v>
+        <v>-1.6742628502397363e-05</v>
       </c>
       <c r="AI3">
-        <v>-0.00013287474265486621</v>
+        <v>-3.546060549428972e-05</v>
       </c>
       <c r="AJ3">
-        <v>-9.0210979257525077e-05</v>
+        <v>5.6455308439501574e-05</v>
       </c>
       <c r="AK3">
-        <v>-0.0001344798712307701</v>
+        <v>-2.5746656757736408e-05</v>
       </c>
       <c r="AL3">
-        <v>-3.9222460843698907e-05</v>
+        <v>4.0319370311160875e-07</v>
       </c>
       <c r="AM3">
-        <v>-7.7282410901275105e-05</v>
+        <v>-6.3169428692350842e-05</v>
       </c>
       <c r="AN3">
-        <v>-7.5140482459236952e-05</v>
+        <v>5.8634553524731633e-06</v>
       </c>
       <c r="AO3">
-        <v>-5.8724656288300935e-05</v>
+        <v>1.9302068818800497e-05</v>
       </c>
       <c r="AP3">
-        <v>-7.4103935438731567e-05</v>
+        <v>-9.3515867387313015e-06</v>
       </c>
       <c r="AQ3">
-        <v>-9.8711666268076501e-05</v>
+        <v>-3.8285570606136211e-05</v>
       </c>
       <c r="AR3">
-        <v>-9.2169223032736097e-05</v>
+        <v>3.1041140122227321e-05</v>
       </c>
       <c r="AS3">
-        <v>-6.6711598522599841e-05</v>
+        <v>-5.1746898791779848e-05</v>
       </c>
       <c r="AT3">
-        <v>-0.00011211327550987899</v>
+        <v>-3.5644949486893243e-05</v>
       </c>
       <c r="AU3">
-        <v>-4.6629801379304987e-05</v>
+        <v>-3.2386867386703402e-05</v>
       </c>
       <c r="AV3">
-        <v>-0.00010751425972328667</v>
+        <v>1.6518997957681363e-06</v>
       </c>
       <c r="AW3">
-        <v>-7.650220926317628e-05</v>
+        <v>-1.3302837587896523e-05</v>
       </c>
       <c r="AX3">
-        <v>-5.2186424084595191e-05</v>
+        <v>-1.4271210007459239e-05</v>
       </c>
       <c r="AY3">
-        <v>-8.5758056147367451e-05</v>
+        <v>-1.8655133029737122e-05</v>
       </c>
       <c r="AZ3">
-        <v>-8.6287645198017743e-05</v>
+        <v>4.1008069786188267e-05</v>
       </c>
       <c r="BA3">
-        <v>-7.0160445618302708e-05</v>
+        <v>3.4026713489186572e-05</v>
       </c>
       <c r="BB3">
-        <v>-0.00011528849913288186</v>
+        <v>-6.7297862804648785e-06</v>
       </c>
       <c r="BC3">
-        <v>-5.2827865198225944e-05</v>
+        <v>-1.2753323514223165e-06</v>
       </c>
       <c r="BD3">
-        <v>-9.0329368427800335e-05</v>
+        <v>-3.3096712722827265e-05</v>
       </c>
       <c r="BE3">
-        <v>-9.3260262541908229e-05</v>
+        <v>-1.5774915994016814e-05</v>
       </c>
       <c r="BF3">
-        <v>-9.8461373178766295e-05</v>
+        <v>-4.5095924085321518e-07</v>
       </c>
       <c r="BG3">
-        <v>-5.1374327062649234e-05</v>
+        <v>-2.9005943058572786e-05</v>
       </c>
       <c r="BH3">
-        <v>-9.0051247197879851e-05</v>
+        <v>-3.8359221338454326e-06</v>
       </c>
       <c r="BI3">
-        <v>-7.1416031212949619e-05</v>
+        <v>1.9547663727605825e-06</v>
       </c>
       <c r="BJ3">
-        <v>-2.6829107050192746e-05</v>
+        <v>-2.1472386821193261e-06</v>
       </c>
       <c r="BK3">
-        <v>-0.00010874910123334328</v>
+        <v>-3.4826562142735561e-05</v>
       </c>
       <c r="BL3">
-        <v>-7.4806909062708331e-05</v>
+        <v>-9.2726643117214789e-06</v>
       </c>
       <c r="BM3">
-        <v>-4.6633865534219172e-05</v>
+        <v>-4.3149412119360444e-05</v>
       </c>
       <c r="BN3">
-        <v>-9.5836294403472584e-05</v>
+        <v>1.0927491949438003e-05</v>
       </c>
       <c r="BO3">
-        <v>-9.2858722097502558e-05</v>
+        <v>7.3345691231595147e-07</v>
       </c>
       <c r="BP3">
-        <v>-0.00010706180532608969</v>
+        <v>-4.4237686871685143e-05</v>
       </c>
       <c r="BQ3">
-        <v>-3.5418597856119902e-05</v>
+        <v>1.5018038877125573e-06</v>
       </c>
       <c r="BR3">
-        <v>-5.0820213462210715e-05</v>
+        <v>-1.2440981686297356e-05</v>
       </c>
       <c r="BS3">
-        <v>-4.8810580467707628e-05</v>
+        <v>1.4710998856581034e-05</v>
       </c>
       <c r="BT3">
-        <v>-2.6529222930303804e-05</v>
+        <v>1.3722334518933921e-05</v>
       </c>
       <c r="BU3">
-        <v>-0.00011308998983782169</v>
+        <v>-2.7425970725104776e-05</v>
       </c>
       <c r="BV3">
-        <v>-0.00014583343609889037</v>
+        <v>-7.648512582508387e-05</v>
       </c>
       <c r="BW3">
-        <v>-0.00010701966903045927</v>
+        <v>-1.2241191134796457e-05</v>
       </c>
       <c r="BX3">
-        <v>-9.8549589499128271e-05</v>
+        <v>-2.3855208494381967e-05</v>
       </c>
       <c r="BY3">
-        <v>-0.00012077871473546255</v>
+        <v>-4.6343429066409071e-05</v>
       </c>
       <c r="BZ3">
-        <v>-3.1390720188156076e-05</v>
+        <v>6.5825237459271905e-05</v>
       </c>
       <c r="CA3">
-        <v>-0.00012916492478129914</v>
+        <v>-0.00011759974180514479</v>
       </c>
       <c r="CB3">
-        <v>-4.6085613646397121e-05</v>
+        <v>6.8368062696844563e-05</v>
       </c>
       <c r="CC3">
-        <v>-0.00012034699489754427</v>
+        <v>-6.0617451750378268e-05</v>
       </c>
       <c r="CD3">
-        <v>-0.00013967959041319159</v>
+        <v>6.4620818247239755e-05</v>
       </c>
       <c r="CE3">
-        <v>-5.4495796177619356e-05</v>
+        <v>-5.162239729652632e-05</v>
       </c>
       <c r="CF3">
-        <v>-7.271536919698235e-05</v>
+        <v>1.832943016326128e-05</v>
       </c>
       <c r="CG3">
-        <v>-0.00010067196695690818</v>
+        <v>-7.1120227547368084e-05</v>
       </c>
       <c r="CH3">
-        <v>-9.9237331510441669e-05</v>
+        <v>-3.4006685162399282e-05</v>
       </c>
       <c r="CI3">
-        <v>-0.00021155853044984072</v>
+        <v>-0.00011252228367536429</v>
       </c>
       <c r="CJ3">
-        <v>-3.3983026118059758e-05</v>
+        <v>-6.0885096236735402e-05</v>
       </c>
       <c r="CK3">
-        <v>-1.8317176988025026e-05</v>
+        <v>-1.0736226775379569e-06</v>
       </c>
       <c r="CL3">
-        <v>6.2460603269772456e-05</v>
+        <v>-5.3147214764481607e-05</v>
       </c>
       <c r="CM3">
-        <v>-0.00014078321865405868</v>
+        <v>8.0148587019639636e-05</v>
       </c>
       <c r="CN3">
-        <v>-0.00010967399573143366</v>
+        <v>4.2455557682180965e-05</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>-8.2326774261275357e-05</v>
+        <v>7.9907639991890666e-05</v>
       </c>
       <c r="CQ3">
-        <v>-2.8337325073993341e-05</v>
+        <v>0.00014801102730183281</v>
       </c>
       <c r="CR3">
-        <v>3.4054555780686762e-05</v>
+        <v>-7.3390546769941034e-06</v>
       </c>
       <c r="CS3">
-        <v>7.5943984114114081e-05</v>
+        <v>0.0001561891662801476</v>
       </c>
       <c r="CT3">
-        <v>-4.1375335742847182e-05</v>
+        <v>5.3689528681033934e-06</v>
       </c>
       <c r="CU3">
-        <v>-8.5465368359145225e-05</v>
+        <v>9.4678128830300286e-06</v>
       </c>
       <c r="CV3">
-        <v>-0.00012638184216285178</v>
+        <v>1.4269450932695994e-06</v>
       </c>
       <c r="CW3">
-        <v>-0.00014207171736088078</v>
+        <v>-2.7096507375956617e-05</v>
       </c>
       <c r="CX3">
-        <v>-0.00013872100896389439</v>
+        <v>-7.3865054073466799e-05</v>
       </c>
       <c r="CY3">
-        <v>-0.00014881592677970984</v>
+        <v>0.00020373275336512815</v>
       </c>
       <c r="CZ3">
-        <v>3.7006977296205508e-05</v>
+        <v>-8.2690804727877579e-05</v>
       </c>
       <c r="DA3">
-        <v>3.540529177755465e-06</v>
+        <v>-6.4868130873237692e-05</v>
       </c>
       <c r="DB3">
-        <v>-8.5682021721608572e-05</v>
+        <v>6.0448675705994902e-05</v>
       </c>
       <c r="DC3">
-        <v>-0.00022461712251530157</v>
+        <v>2.9598354377425622e-05</v>
       </c>
       <c r="DD3">
-        <v>-3.8047723524504615e-05</v>
+        <v>0.00012007493570569568</v>
       </c>
       <c r="DE3">
-        <v>4.2246588799283901e-05</v>
+        <v>-6.8152725755399375e-05</v>
       </c>
       <c r="DF3">
-        <v>1.0940647511095686e-05</v>
+        <v>-6.1237225915517572e-05</v>
       </c>
       <c r="DG3">
-        <v>-6.5189450373404222e-05</v>
+        <v>-6.6162387974265353e-05</v>
       </c>
       <c r="DH3">
-        <v>-0.00015164087354884446</v>
+        <v>9.9028878935178641e-05</v>
       </c>
       <c r="DI3">
-        <v>0.00014159592896448775</v>
+        <v>2.376695002166419e-05</v>
       </c>
       <c r="DJ3">
-        <v>-0.00012506213816203054</v>
+        <v>-9.1538532786667313e-05</v>
       </c>
       <c r="DK3">
-        <v>1.743404602182385e-05</v>
+        <v>3.806512703601026e-05</v>
       </c>
       <c r="DL3">
-        <v>-2.437093212060021e-05</v>
+        <v>-2.9384798694024829e-05</v>
       </c>
       <c r="DM3">
-        <v>-0.00021854794277067059</v>
+        <v>-5.0343394808293624e-05</v>
       </c>
       <c r="DN3">
-        <v>-0.00011995007748514206</v>
+        <v>-6.6870708662175235e-05</v>
       </c>
       <c r="DO3">
-        <v>-3.6146956437814936e-05</v>
+        <v>-7.8890625451411703e-05</v>
       </c>
       <c r="DP3">
-        <v>-0.00024584975425311181</v>
+        <v>-1.9142651066904647e-05</v>
       </c>
       <c r="DQ3">
-        <v>-3.4419050096714696e-06</v>
+        <v>-3.4217643450735627e-05</v>
       </c>
       <c r="DR3">
-        <v>-0.00016794470651399494</v>
+        <v>0.00011173683106545784</v>
       </c>
       <c r="DS3">
-        <v>-3.6438525161580603e-05</v>
+        <v>1.650667798524705e-05</v>
       </c>
       <c r="DT3">
-        <v>-1.2369906275246295e-05</v>
+        <v>5.9877711399942159e-05</v>
       </c>
       <c r="DU3">
-        <v>-5.6693835227230457e-05</v>
+        <v>0.00012332366535842604</v>
       </c>
       <c r="DV3">
-        <v>-8.3602589292674056e-05</v>
+        <v>6.7759052566389527e-05</v>
       </c>
       <c r="DW3">
-        <v>-8.950207074197155e-05</v>
+        <v>-0.00015661544752040913</v>
       </c>
       <c r="DX3">
-        <v>-7.7348319277586932e-05</v>
+        <v>1.312489595436347e-05</v>
       </c>
       <c r="DY3">
-        <v>-1.8599507683822942e-05</v>
+        <v>2.8782655908140122e-05</v>
       </c>
       <c r="DZ3">
-        <v>-9.0973463088409319e-05</v>
+        <v>-2.2144783582390376e-05</v>
       </c>
       <c r="EA3">
-        <v>-0.00018107873175663485</v>
+        <v>9.9519053779058017e-06</v>
       </c>
       <c r="EB3">
-        <v>-0.00016807820596307616</v>
+        <v>-1.8159471143491683e-05</v>
       </c>
       <c r="EC3">
-        <v>-6.0413670034464129e-05</v>
+        <v>4.6178478882011849e-05</v>
       </c>
       <c r="ED3">
-        <v>-0.0001532835820102653</v>
+        <v>-5.1530861617614661e-05</v>
       </c>
       <c r="EE3">
-        <v>1.1447229210397089e-05</v>
+        <v>-6.0287861382976402e-05</v>
       </c>
       <c r="EF3">
-        <v>-0.00014842574580781223</v>
+        <v>-4.0158233781403027e-05</v>
       </c>
       <c r="EG3">
-        <v>-0.00012321011397804196</v>
+        <v>-3.8731891003728717e-05</v>
       </c>
       <c r="EH3">
-        <v>-7.7063592862757101e-05</v>
+        <v>-2.1844036932732757e-05</v>
       </c>
       <c r="EI3">
-        <v>-9.7929801793596296e-05</v>
+        <v>-3.0779038588459283e-05</v>
       </c>
       <c r="EJ3">
-        <v>-7.7406199230863629e-05</v>
+        <v>-0.00010246225348054022</v>
       </c>
       <c r="EK3">
-        <v>-0.0001649245346587755</v>
+        <v>-1.6295402792984888e-05</v>
       </c>
       <c r="EL3">
-        <v>-0.00027462309468933058</v>
+        <v>-5.5293758714522206e-05</v>
       </c>
       <c r="EM3">
-        <v>-0.00012175778746049249</v>
+        <v>-6.8725195601179617e-06</v>
       </c>
       <c r="EN3">
-        <v>-0.00012964421640047623</v>
+        <v>-4.4489477673717591e-05</v>
       </c>
       <c r="EO3">
-        <v>-0.00015543846249519011</v>
+        <v>-0.00016956907065897412</v>
       </c>
       <c r="EP3">
-        <v>-0.00012817688224745795</v>
+        <v>-0.00016264901897782778</v>
       </c>
       <c r="EQ3">
-        <v>-0.00011495726142054174</v>
+        <v>-0.00011100463550331316</v>
       </c>
       <c r="ER3">
-        <v>-7.1110473521365905e-05</v>
+        <v>-0.0001054804439714017</v>
       </c>
       <c r="ES3">
-        <v>1.1086717755829488e-05</v>
+        <v>-9.8152386638589747e-05</v>
       </c>
       <c r="ET3">
-        <v>-0.00017923774368986271</v>
+        <v>5.5808950350591271e-05</v>
       </c>
       <c r="EU3">
-        <v>-9.5572430938961747e-05</v>
+        <v>1.1686666297853281e-05</v>
       </c>
       <c r="EV3">
-        <v>-0.00027754732793573012</v>
+        <v>-0.00014805190922633071</v>
       </c>
       <c r="EW3">
-        <v>-0.000159292825310672</v>
+        <v>-0.0001558769446160438</v>
       </c>
       <c r="EX3">
-        <v>-7.4642725246689968e-05</v>
+        <v>-0.00015466079256526232</v>
       </c>
       <c r="EY3">
-        <v>-0.0001757012282536985</v>
+        <v>-5.9285903665383712e-05</v>
       </c>
       <c r="EZ3">
-        <v>-0.00027250449999791923</v>
+        <v>-0.00010562982913691612</v>
       </c>
       <c r="FA3">
-        <v>-0.00014880427706551069</v>
+        <v>-6.3217418854372438e-05</v>
       </c>
       <c r="FB3">
-        <v>-0.00022010845461337779</v>
+        <v>5.8266525609876687e-06</v>
       </c>
       <c r="FC3">
-        <v>-0.00014770755533604859</v>
+        <v>0.00015076795580656663</v>
       </c>
       <c r="FD3">
-        <v>-0.00015558992929238271</v>
+        <v>-0.00023807512505179428</v>
       </c>
       <c r="FE3">
-        <v>-8.7885989285556946e-05</v>
+        <v>-4.4833344230000701e-05</v>
       </c>
       <c r="FF3">
-        <v>-0.00033127838358787686</v>
+        <v>3.0934064829228241e-05</v>
       </c>
       <c r="FG3">
-        <v>-0.00043065399575333604</v>
+        <v>-0.0001997584993112693</v>
       </c>
       <c r="FH3">
-        <v>-2.5328029526408095e-05</v>
+        <v>-0.00011518018247130177</v>
       </c>
       <c r="FI3">
-        <v>-6.5404996344704792e-05</v>
+        <v>-0.0002143705479689549</v>
       </c>
       <c r="FJ3">
-        <v>-0.00026258344174104613</v>
+        <v>-5.981113356565749e-05</v>
       </c>
       <c r="FK3">
-        <v>-0.00013435026963633004</v>
+        <v>-0.00021961108198061797</v>
       </c>
       <c r="FL3">
-        <v>-0.00017020077029535424</v>
+        <v>-0.0001593937935406373</v>
       </c>
       <c r="FM3">
-        <v>-0.00014788003708099404</v>
+        <v>-0.00011415999954637322</v>
       </c>
       <c r="FN3">
-        <v>-0.0003610255862106955</v>
+        <v>-0.00016463210632492302</v>
       </c>
       <c r="FO3">
-        <v>-0.00015090744971833393</v>
+        <v>-0.00020789335580406534</v>
       </c>
       <c r="FP3">
-        <v>-0.00035997077528966139</v>
+        <v>-0.00014884228882645103</v>
       </c>
       <c r="FQ3">
-        <v>-0.00022181696313493189</v>
+        <v>-0.0003513745379415059</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0042182001469268275</v>
+        <v>0.0041397800701658003</v>
       </c>
     </row>
     <row r="4">
@@ -1655,526 +1655,526 @@
         <v>176</v>
       </c>
       <c r="B4">
-        <v>5.1695346951415506e-05</v>
+        <v>4.1737359983845864e-05</v>
       </c>
       <c r="C4">
-        <v>2.2544840093395764e-05</v>
+        <v>1.8202065799860836e-05</v>
       </c>
       <c r="D4">
-        <v>3.3003458463951701e-05</v>
+        <v>2.6646058259681322e-05</v>
       </c>
       <c r="E4">
-        <v>3.9032940365605522e-05</v>
+        <v>3.1514091293329786e-05</v>
       </c>
       <c r="F4">
-        <v>3.5719825259245023e-05</v>
+        <v>2.8839175928276809e-05</v>
       </c>
       <c r="G4">
-        <v>2.9882432335243702e-05</v>
+        <v>2.4126230098448571e-05</v>
       </c>
       <c r="H4">
-        <v>2.4219885194730022e-05</v>
+        <v>1.9554449805509747e-05</v>
       </c>
       <c r="I4">
-        <v>2.4080222438777314e-05</v>
+        <v>1.9441690049259099e-05</v>
       </c>
       <c r="J4">
-        <v>2.5415304352787581e-05</v>
+        <v>2.0519597399515169e-05</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.5138217745702592e-05</v>
+        <v>4.4517036418827116e-05</v>
       </c>
       <c r="M4">
-        <v>5.5138217745702592e-05</v>
+        <v>4.4517036418827116e-05</v>
       </c>
       <c r="N4">
-        <v>5.5138217745702599e-05</v>
+        <v>4.4517036418827122e-05</v>
       </c>
       <c r="O4">
-        <v>5.5138217745702606e-05</v>
+        <v>4.4517036418827129e-05</v>
       </c>
       <c r="P4">
-        <v>5.5138217745702599e-05</v>
+        <v>4.4517036418827122e-05</v>
       </c>
       <c r="Q4">
-        <v>5.5138217745702619e-05</v>
+        <v>4.4517036418827136e-05</v>
       </c>
       <c r="R4">
-        <v>5.5138217745702619e-05</v>
+        <v>4.4517036418827136e-05</v>
       </c>
       <c r="S4">
-        <v>5.5138217745702626e-05</v>
+        <v>4.4517036418827143e-05</v>
       </c>
       <c r="T4">
-        <v>5.5138217745702633e-05</v>
+        <v>4.4517036418827149e-05</v>
       </c>
       <c r="U4">
-        <v>5.5138217745702613e-05</v>
+        <v>4.4517036418827136e-05</v>
       </c>
       <c r="V4">
-        <v>5.513821774570264e-05</v>
+        <v>4.4517036418827149e-05</v>
       </c>
       <c r="W4">
-        <v>5.5138217745702619e-05</v>
+        <v>4.4517036418827136e-05</v>
       </c>
       <c r="X4">
-        <v>5.5138217745702633e-05</v>
+        <v>4.4517036418827149e-05</v>
       </c>
       <c r="Y4">
-        <v>5.5138217745702633e-05</v>
+        <v>4.4517036418827149e-05</v>
       </c>
       <c r="Z4">
-        <v>5.5138217745702633e-05</v>
+        <v>4.4517036418827149e-05</v>
       </c>
       <c r="AA4">
-        <v>5.5138217745702633e-05</v>
+        <v>4.4517036418827149e-05</v>
       </c>
       <c r="AB4">
-        <v>5.513821774570264e-05</v>
+        <v>4.4517036418827149e-05</v>
       </c>
       <c r="AC4">
-        <v>5.513821774570264e-05</v>
+        <v>4.4517036418827149e-05</v>
       </c>
       <c r="AD4">
-        <v>5.513821774570264e-05</v>
+        <v>4.4517036418827149e-05</v>
       </c>
       <c r="AE4">
-        <v>5.5138217745702646e-05</v>
+        <v>4.4517036418827156e-05</v>
       </c>
       <c r="AF4">
-        <v>5.5138217745702646e-05</v>
+        <v>4.4517036418827156e-05</v>
       </c>
       <c r="AG4">
-        <v>5.5138217745702646e-05</v>
+        <v>4.4517036418827156e-05</v>
       </c>
       <c r="AH4">
-        <v>5.5138217745702633e-05</v>
+        <v>4.4517036418827149e-05</v>
       </c>
       <c r="AI4">
-        <v>5.513821774570264e-05</v>
+        <v>4.4517036418827149e-05</v>
       </c>
       <c r="AJ4">
-        <v>5.5138217745702646e-05</v>
+        <v>4.4517036418827156e-05</v>
       </c>
       <c r="AK4">
-        <v>5.5138217745702653e-05</v>
+        <v>4.451703641882717e-05</v>
       </c>
       <c r="AL4">
-        <v>5.5138217745702653e-05</v>
+        <v>4.451703641882717e-05</v>
       </c>
       <c r="AM4">
-        <v>5.513821774570266e-05</v>
+        <v>4.451703641882717e-05</v>
       </c>
       <c r="AN4">
-        <v>5.513821774570266e-05</v>
+        <v>4.451703641882717e-05</v>
       </c>
       <c r="AO4">
-        <v>5.513821774570266e-05</v>
+        <v>4.451703641882717e-05</v>
       </c>
       <c r="AP4">
-        <v>5.513821774570266e-05</v>
+        <v>4.451703641882717e-05</v>
       </c>
       <c r="AQ4">
-        <v>5.5138217745702667e-05</v>
+        <v>4.4517036418827177e-05</v>
       </c>
       <c r="AR4">
-        <v>5.5138217745702667e-05</v>
+        <v>4.4517036418827177e-05</v>
       </c>
       <c r="AS4">
-        <v>5.5138217745702667e-05</v>
+        <v>4.4517036418827177e-05</v>
       </c>
       <c r="AT4">
-        <v>5.513821774570266e-05</v>
+        <v>4.451703641882717e-05</v>
       </c>
       <c r="AU4">
-        <v>5.513821774570266e-05</v>
+        <v>4.451703641882717e-05</v>
       </c>
       <c r="AV4">
-        <v>5.513821774570266e-05</v>
+        <v>4.451703641882717e-05</v>
       </c>
       <c r="AW4">
-        <v>5.513821774570266e-05</v>
+        <v>4.451703641882717e-05</v>
       </c>
       <c r="AX4">
-        <v>5.513821774570266e-05</v>
+        <v>4.451703641882717e-05</v>
       </c>
       <c r="AY4">
-        <v>5.513821774570266e-05</v>
+        <v>4.451703641882717e-05</v>
       </c>
       <c r="AZ4">
-        <v>5.513821774570266e-05</v>
+        <v>4.451703641882717e-05</v>
       </c>
       <c r="BA4">
-        <v>5.513821774570266e-05</v>
+        <v>4.451703641882717e-05</v>
       </c>
       <c r="BB4">
-        <v>5.513821774570266e-05</v>
+        <v>4.451703641882717e-05</v>
       </c>
       <c r="BC4">
-        <v>5.5138217745702667e-05</v>
+        <v>4.4517036418827177e-05</v>
       </c>
       <c r="BD4">
-        <v>5.513821774570266e-05</v>
+        <v>4.451703641882717e-05</v>
       </c>
       <c r="BE4">
-        <v>5.5138217745702667e-05</v>
+        <v>4.4517036418827177e-05</v>
       </c>
       <c r="BF4">
-        <v>5.513821774570266e-05</v>
+        <v>4.451703641882717e-05</v>
       </c>
       <c r="BG4">
-        <v>5.5138217745702667e-05</v>
+        <v>4.4517036418827177e-05</v>
       </c>
       <c r="BH4">
-        <v>5.513821774570266e-05</v>
+        <v>4.451703641882717e-05</v>
       </c>
       <c r="BI4">
-        <v>5.5138217745702667e-05</v>
+        <v>4.4517036418827177e-05</v>
       </c>
       <c r="BJ4">
-        <v>5.5138217745702667e-05</v>
+        <v>4.4517036418827177e-05</v>
       </c>
       <c r="BK4">
-        <v>5.5138217745702673e-05</v>
+        <v>4.4517036418827183e-05</v>
       </c>
       <c r="BL4">
-        <v>5.5138217745702673e-05</v>
+        <v>4.4517036418827183e-05</v>
       </c>
       <c r="BM4">
-        <v>5.513821774570268e-05</v>
+        <v>4.451703641882719e-05</v>
       </c>
       <c r="BN4">
-        <v>5.513821774570268e-05</v>
+        <v>4.451703641882719e-05</v>
       </c>
       <c r="BO4">
-        <v>5.5138217745702694e-05</v>
+        <v>4.4517036418827197e-05</v>
       </c>
       <c r="BP4">
-        <v>5.5138217745702694e-05</v>
+        <v>4.4517036418827197e-05</v>
       </c>
       <c r="BQ4">
-        <v>5.5106999184858527e-05</v>
+        <v>4.4491831436387388e-05</v>
       </c>
       <c r="BR4">
-        <v>5.5106999184858527e-05</v>
+        <v>4.4491831436387381e-05</v>
       </c>
       <c r="BS4">
-        <v>5.5106999184858541e-05</v>
+        <v>4.4491831436387388e-05</v>
       </c>
       <c r="BT4">
-        <v>5.0000487097918928e-05</v>
+        <v>4.0368978108122366e-05</v>
       </c>
       <c r="BU4">
-        <v>5.0000487097918928e-05</v>
+        <v>4.0368978108122372e-05</v>
       </c>
       <c r="BV4">
-        <v>5.7979975484297317e-05</v>
+        <v>4.681139118607682e-05</v>
       </c>
       <c r="BW4">
-        <v>5.6861528511333279e-05</v>
+        <v>4.5908388755755297e-05</v>
       </c>
       <c r="BX4">
-        <v>5.6861528511333279e-05</v>
+        <v>4.5908388755755297e-05</v>
       </c>
       <c r="BY4">
-        <v>5.6013363459758323e-05</v>
+        <v>4.5223604298914894e-05</v>
       </c>
       <c r="BZ4">
-        <v>5.601336345975833e-05</v>
+        <v>4.5223604298914908e-05</v>
       </c>
       <c r="CA4">
-        <v>5.601336345975833e-05</v>
+        <v>4.5223604298914908e-05</v>
       </c>
       <c r="CB4">
-        <v>5.5325470221398368e-05</v>
+        <v>4.4668218767856058e-05</v>
       </c>
       <c r="CC4">
-        <v>5.5325470221398382e-05</v>
+        <v>4.4668218767856071e-05</v>
       </c>
       <c r="CD4">
-        <v>5.5325470221398375e-05</v>
+        <v>4.4668218767856058e-05</v>
       </c>
       <c r="CE4">
-        <v>5.5325470221398375e-05</v>
+        <v>4.4668218767856058e-05</v>
       </c>
       <c r="CF4">
-        <v>5.5325470221398382e-05</v>
+        <v>4.4668218767856071e-05</v>
       </c>
       <c r="CG4">
-        <v>5.5175656702822661e-05</v>
+        <v>4.4547263573162853e-05</v>
       </c>
       <c r="CH4">
-        <v>5.5175656702822654e-05</v>
+        <v>4.4547263573162853e-05</v>
       </c>
       <c r="CI4">
-        <v>5.5175656702822661e-05</v>
+        <v>4.4547263573162853e-05</v>
       </c>
       <c r="CJ4">
-        <v>5.5175656702822668e-05</v>
+        <v>4.454726357316286e-05</v>
       </c>
       <c r="CK4">
-        <v>5.5900704849628516e-05</v>
+        <v>4.5132646925697407e-05</v>
       </c>
       <c r="CL4">
-        <v>5.2758624498988795e-05</v>
+        <v>4.2595820181579237e-05</v>
       </c>
       <c r="CM4">
-        <v>5.2758624498988802e-05</v>
+        <v>4.2595820181579243e-05</v>
       </c>
       <c r="CN4">
-        <v>4.7934089390353544e-05</v>
+        <v>3.8700627084740978e-05</v>
       </c>
       <c r="CO4">
         <v>0</v>
       </c>
       <c r="CP4">
-        <v>5.6207702077322818e-05</v>
+        <v>4.5380507798328014e-05</v>
       </c>
       <c r="CQ4">
-        <v>5.6880894074665544e-05</v>
+        <v>4.5924023963481979e-05</v>
       </c>
       <c r="CR4">
-        <v>5.6880894074665544e-05</v>
+        <v>4.5924023963481979e-05</v>
       </c>
       <c r="CS4">
-        <v>5.6033022158037656e-05</v>
+        <v>4.5239476175501188e-05</v>
       </c>
       <c r="CT4">
-        <v>5.6033022158037663e-05</v>
+        <v>4.5239476175501188e-05</v>
       </c>
       <c r="CU4">
-        <v>5.6033022158037656e-05</v>
+        <v>4.5239476175501188e-05</v>
       </c>
       <c r="CV4">
-        <v>5.5345373260165038e-05</v>
+        <v>4.4684287918036195e-05</v>
       </c>
       <c r="CW4">
-        <v>5.5345373260165031e-05</v>
+        <v>4.4684287918036195e-05</v>
       </c>
       <c r="CX4">
-        <v>5.5345373260165038e-05</v>
+        <v>4.4684287918036202e-05</v>
       </c>
       <c r="CY4">
-        <v>5.5345373260165018e-05</v>
+        <v>4.4684287918036182e-05</v>
       </c>
       <c r="CZ4">
-        <v>5.5345373260165038e-05</v>
+        <v>4.4684287918036202e-05</v>
       </c>
       <c r="DA4">
-        <v>5.526665222233805e-05</v>
+        <v>4.4620730780153462e-05</v>
       </c>
       <c r="DB4">
-        <v>5.5266652222338037e-05</v>
+        <v>4.4620730780153455e-05</v>
       </c>
       <c r="DC4">
-        <v>5.526665222233805e-05</v>
+        <v>4.4620730780153462e-05</v>
       </c>
       <c r="DD4">
-        <v>5.5266652222338044e-05</v>
+        <v>4.4620730780153462e-05</v>
       </c>
       <c r="DE4">
-        <v>5.526665222233805e-05</v>
+        <v>4.4620730780153462e-05</v>
       </c>
       <c r="DF4">
-        <v>5.1754898648126405e-05</v>
+        <v>4.1785440338265532e-05</v>
       </c>
       <c r="DG4">
-        <v>5.1754898648126405e-05</v>
+        <v>4.1785440338265532e-05</v>
       </c>
       <c r="DH4">
-        <v>5.1754898648126405e-05</v>
+        <v>4.1785440338265532e-05</v>
       </c>
       <c r="DI4">
-        <v>5.1754898648126419e-05</v>
+        <v>4.1785440338265539e-05</v>
       </c>
       <c r="DJ4">
-        <v>5.1754898648126419e-05</v>
+        <v>4.1785440338265539e-05</v>
       </c>
       <c r="DK4">
-        <v>5.5178151730089999e-05</v>
+        <v>4.4549277987561203e-05</v>
       </c>
       <c r="DL4">
-        <v>5.5178151730089999e-05</v>
+        <v>4.4549277987561203e-05</v>
       </c>
       <c r="DM4">
-        <v>5.5178151730089999e-05</v>
+        <v>4.4549277987561203e-05</v>
       </c>
       <c r="DN4">
-        <v>5.5178151730089992e-05</v>
+        <v>4.4549277987561196e-05</v>
       </c>
       <c r="DO4">
-        <v>5.5178151730090005e-05</v>
+        <v>4.454927798756121e-05</v>
       </c>
       <c r="DP4">
-        <v>5.5178151730089999e-05</v>
+        <v>4.4549277987561203e-05</v>
       </c>
       <c r="DQ4">
-        <v>5.5178151730090012e-05</v>
+        <v>4.454927798756121e-05</v>
       </c>
       <c r="DR4">
-        <v>5.5178151730090005e-05</v>
+        <v>4.454927798756121e-05</v>
       </c>
       <c r="DS4">
-        <v>5.5178151730090046e-05</v>
+        <v>4.4549277987561244e-05</v>
       </c>
       <c r="DT4">
-        <v>5.5178151730090012e-05</v>
+        <v>4.4549277987561216e-05</v>
       </c>
       <c r="DU4">
-        <v>5.5178151730090046e-05</v>
+        <v>4.4549277987561244e-05</v>
       </c>
       <c r="DV4">
-        <v>5.5178151730090046e-05</v>
+        <v>4.4549277987561244e-05</v>
       </c>
       <c r="DW4">
-        <v>5.5178151730090046e-05</v>
+        <v>4.4549277987561244e-05</v>
       </c>
       <c r="DX4">
-        <v>5.5178151730090039e-05</v>
+        <v>4.454927798756123e-05</v>
       </c>
       <c r="DY4">
-        <v>5.5178151730090053e-05</v>
+        <v>4.4549277987561244e-05</v>
       </c>
       <c r="DZ4">
-        <v>5.5178151730090053e-05</v>
+        <v>4.4549277987561244e-05</v>
       </c>
       <c r="EA4">
-        <v>5.5178151730090066e-05</v>
+        <v>4.4549277987561257e-05</v>
       </c>
       <c r="EB4">
-        <v>5.5178151730090073e-05</v>
+        <v>4.4549277987561257e-05</v>
       </c>
       <c r="EC4">
-        <v>5.5178151730090066e-05</v>
+        <v>4.4549277987561257e-05</v>
       </c>
       <c r="ED4">
-        <v>5.5178151730090066e-05</v>
+        <v>4.4549277987561257e-05</v>
       </c>
       <c r="EE4">
-        <v>5.5178151730090066e-05</v>
+        <v>4.4549277987561257e-05</v>
       </c>
       <c r="EF4">
-        <v>5.5178151730090087e-05</v>
+        <v>4.4549277987561271e-05</v>
       </c>
       <c r="EG4">
-        <v>5.5178151730090073e-05</v>
+        <v>4.4549277987561257e-05</v>
       </c>
       <c r="EH4">
-        <v>5.5178151730090087e-05</v>
+        <v>4.4549277987561271e-05</v>
       </c>
       <c r="EI4">
-        <v>5.517815173009008e-05</v>
+        <v>4.4549277987561271e-05</v>
       </c>
       <c r="EJ4">
-        <v>5.5178151730090087e-05</v>
+        <v>4.4549277987561271e-05</v>
       </c>
       <c r="EK4">
-        <v>5.5178151730090087e-05</v>
+        <v>4.4549277987561271e-05</v>
       </c>
       <c r="EL4">
-        <v>5.5178151730090094e-05</v>
+        <v>4.4549277987561277e-05</v>
       </c>
       <c r="EM4">
-        <v>5.5178151730090087e-05</v>
+        <v>4.4549277987561271e-05</v>
       </c>
       <c r="EN4">
-        <v>5.5178151730090107e-05</v>
+        <v>4.4549277987561291e-05</v>
       </c>
       <c r="EO4">
-        <v>5.517815173009008e-05</v>
+        <v>4.4549277987561271e-05</v>
       </c>
       <c r="EP4">
-        <v>5.5178151730090094e-05</v>
+        <v>4.4549277987561277e-05</v>
       </c>
       <c r="EQ4">
-        <v>5.5178151730090107e-05</v>
+        <v>4.4549277987561291e-05</v>
       </c>
       <c r="ER4">
-        <v>5.5178151730090114e-05</v>
+        <v>4.4549277987561291e-05</v>
       </c>
       <c r="ES4">
-        <v>5.5178151730090107e-05</v>
+        <v>4.4549277987561291e-05</v>
       </c>
       <c r="ET4">
-        <v>5.5178151730090107e-05</v>
+        <v>4.4549277987561291e-05</v>
       </c>
       <c r="EU4">
-        <v>5.5178151730090107e-05</v>
+        <v>4.4549277987561291e-05</v>
       </c>
       <c r="EV4">
-        <v>5.51781517300901e-05</v>
+        <v>4.4549277987561284e-05</v>
       </c>
       <c r="EW4">
-        <v>5.5178151730090087e-05</v>
+        <v>4.4549277987561271e-05</v>
       </c>
       <c r="EX4">
-        <v>5.5178151730090107e-05</v>
+        <v>4.4549277987561291e-05</v>
       </c>
       <c r="EY4">
-        <v>5.5178151730090114e-05</v>
+        <v>4.4549277987561298e-05</v>
       </c>
       <c r="EZ4">
-        <v>5.5178151730090114e-05</v>
+        <v>4.4549277987561298e-05</v>
       </c>
       <c r="FA4">
-        <v>5.5178151730090121e-05</v>
+        <v>4.4549277987561305e-05</v>
       </c>
       <c r="FB4">
-        <v>5.5178151730090121e-05</v>
+        <v>4.4549277987561305e-05</v>
       </c>
       <c r="FC4">
-        <v>5.5178151730090121e-05</v>
+        <v>4.4549277987561305e-05</v>
       </c>
       <c r="FD4">
-        <v>5.5178151730090121e-05</v>
+        <v>4.4549277987561305e-05</v>
       </c>
       <c r="FE4">
-        <v>5.5178151730090134e-05</v>
+        <v>4.4549277987561305e-05</v>
       </c>
       <c r="FF4">
-        <v>5.5178151730090121e-05</v>
+        <v>4.4549277987561305e-05</v>
       </c>
       <c r="FG4">
-        <v>5.5178151730090134e-05</v>
+        <v>4.4549277987561305e-05</v>
       </c>
       <c r="FH4">
-        <v>5.5178151730090127e-05</v>
+        <v>4.4549277987561305e-05</v>
       </c>
       <c r="FI4">
-        <v>5.5178151730090134e-05</v>
+        <v>4.4549277987561311e-05</v>
       </c>
       <c r="FJ4">
-        <v>5.5178151730090134e-05</v>
+        <v>4.4549277987561311e-05</v>
       </c>
       <c r="FK4">
-        <v>5.5178151730090148e-05</v>
+        <v>4.4549277987561325e-05</v>
       </c>
       <c r="FL4">
-        <v>5.5178151730090148e-05</v>
+        <v>4.4549277987561325e-05</v>
       </c>
       <c r="FM4">
-        <v>5.5178151730090148e-05</v>
+        <v>4.4549277987561325e-05</v>
       </c>
       <c r="FN4">
-        <v>5.5178151730090148e-05</v>
+        <v>4.4549277987561318e-05</v>
       </c>
       <c r="FO4">
-        <v>5.5178151730090148e-05</v>
+        <v>4.4549277987561325e-05</v>
       </c>
       <c r="FP4">
-        <v>5.5178151730090148e-05</v>
+        <v>4.4549277987561325e-05</v>
       </c>
       <c r="FQ4">
-        <v>5.5178151730090154e-05</v>
+        <v>4.4549277987561332e-05</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>4.3540670246415043e-05</v>
+        <v>3.5153504815829303e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2718,526 +2718,526 @@
         <v>175</v>
       </c>
       <c r="B3">
-        <v>-8.919056676906662e-05</v>
+        <v>-5.2661297954597196e-05</v>
       </c>
       <c r="C3">
-        <v>-0.0020180491020579346</v>
+        <v>-0.0020002651698419554</v>
       </c>
       <c r="D3">
-        <v>-0.0020616629282355419</v>
+        <v>-0.0020409904491219162</v>
       </c>
       <c r="E3">
-        <v>-0.0021100516360530218</v>
+        <v>-0.0020909026548289258</v>
       </c>
       <c r="F3">
-        <v>-3.5668926398336655e-05</v>
+        <v>-1.5258102859185374e-05</v>
       </c>
       <c r="G3">
-        <v>1.2391108057985781e-05</v>
+        <v>-1.2980310620275845e-05</v>
       </c>
       <c r="H3">
-        <v>2.1072084312688454e-05</v>
+        <v>3.0413776729928112e-06</v>
       </c>
       <c r="I3">
-        <v>1.5011350042552575e-05</v>
+        <v>5.2931727676644859e-06</v>
       </c>
       <c r="J3">
-        <v>-2.925052863127743e-05</v>
+        <v>5.5568770745667359e-06</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0046818552953459486</v>
+        <v>0.0047482381859502067</v>
       </c>
       <c r="M3">
-        <v>0.0053699843108619824</v>
+        <v>0.0055218510468116756</v>
       </c>
       <c r="N3">
-        <v>-0.00061975824710564539</v>
+        <v>-0.00046644110921820458</v>
       </c>
       <c r="O3">
-        <v>-0.00059453178267123471</v>
+        <v>-0.00042586199524720684</v>
       </c>
       <c r="P3">
-        <v>-0.00057540391454612204</v>
+        <v>-0.00038891818947180319</v>
       </c>
       <c r="Q3">
-        <v>-0.00051313531166862034</v>
+        <v>-0.00040310800122686838</v>
       </c>
       <c r="R3">
-        <v>-0.00052178361416587154</v>
+        <v>-0.0004568079966304432</v>
       </c>
       <c r="S3">
-        <v>-0.00051008482981211806</v>
+        <v>-0.00039676714850504931</v>
       </c>
       <c r="T3">
-        <v>-0.00045655094626287205</v>
+        <v>-0.00031401776990750189</v>
       </c>
       <c r="U3">
-        <v>-0.00047917065170034447</v>
+        <v>-0.00037808314321636312</v>
       </c>
       <c r="V3">
-        <v>-0.00040882484922899107</v>
+        <v>-0.00025548065646725966</v>
       </c>
       <c r="W3">
-        <v>-0.00045323389558558929</v>
+        <v>-0.00023036038461535019</v>
       </c>
       <c r="X3">
-        <v>-0.00027848426974327244</v>
+        <v>-0.00026243720930208865</v>
       </c>
       <c r="Y3">
-        <v>-0.0004035807066934523</v>
+        <v>-0.0002801664356409499</v>
       </c>
       <c r="Z3">
-        <v>-0.00037719289872588775</v>
+        <v>-0.00021745636280810624</v>
       </c>
       <c r="AA3">
-        <v>-0.00034044295160579898</v>
+        <v>-0.00023545183060866919</v>
       </c>
       <c r="AB3">
-        <v>-0.00040118033641834588</v>
+        <v>-0.00022679512410649538</v>
       </c>
       <c r="AC3">
-        <v>-0.00028950239988536491</v>
+        <v>-0.00019230496882872628</v>
       </c>
       <c r="AD3">
-        <v>-0.00029174259847763128</v>
+        <v>-0.00016226129665251814</v>
       </c>
       <c r="AE3">
-        <v>-0.00030379724573605078</v>
+        <v>-0.00024062906603903794</v>
       </c>
       <c r="AF3">
-        <v>-0.00027763573773341492</v>
+        <v>-0.00011775136054312391</v>
       </c>
       <c r="AG3">
-        <v>-0.00022720107104291394</v>
+        <v>-0.00015406054584496929</v>
       </c>
       <c r="AH3">
-        <v>-0.00019931821185175611</v>
+        <v>-9.5333194233792614e-05</v>
       </c>
       <c r="AI3">
-        <v>-0.00031308385955899345</v>
+        <v>-0.00014433951098113859</v>
       </c>
       <c r="AJ3">
-        <v>-0.0001905906795560182</v>
+        <v>-5.2693745993952726e-05</v>
       </c>
       <c r="AK3">
-        <v>-0.0003136587288009609</v>
+        <v>-2.9223398144687491e-05</v>
       </c>
       <c r="AL3">
-        <v>-0.00024121071349717188</v>
+        <v>-0.00015315846829046958</v>
       </c>
       <c r="AM3">
-        <v>-0.00018801693241415291</v>
+        <v>-0.00012715683478741309</v>
       </c>
       <c r="AN3">
-        <v>-0.00015491648409477358</v>
+        <v>-5.3418689898315148e-05</v>
       </c>
       <c r="AO3">
-        <v>-8.0948558426484197e-05</v>
+        <v>-3.4048440070240404e-05</v>
       </c>
       <c r="AP3">
-        <v>-0.00021394852115074958</v>
+        <v>-0.00010980759287217754</v>
       </c>
       <c r="AQ3">
-        <v>-0.00015689102541316841</v>
+        <v>-4.4104932467684103e-06</v>
       </c>
       <c r="AR3">
-        <v>-0.00027023684117343416</v>
+        <v>-1.0023714297443893e-05</v>
       </c>
       <c r="AS3">
-        <v>-0.00018064439140374187</v>
+        <v>-9.6120845759184388e-05</v>
       </c>
       <c r="AT3">
-        <v>-0.00022599612381916636</v>
+        <v>-0.00010693630805050369</v>
       </c>
       <c r="AU3">
-        <v>-0.000185084354128055</v>
+        <v>-9.0889363062860608e-05</v>
       </c>
       <c r="AV3">
-        <v>-0.0001293266483964532</v>
+        <v>2.4096934195819776e-05</v>
       </c>
       <c r="AW3">
-        <v>-0.00017611660266049898</v>
+        <v>-5.039055074518528e-05</v>
       </c>
       <c r="AX3">
-        <v>-0.00016775453495697528</v>
+        <v>2.2855668865854417e-05</v>
       </c>
       <c r="AY3">
-        <v>-0.0001044965847200985</v>
+        <v>-5.1194984390959783e-05</v>
       </c>
       <c r="AZ3">
-        <v>-0.00010345263491795884</v>
+        <v>9.0995356091690862e-05</v>
       </c>
       <c r="BA3">
-        <v>-3.8006177146956861e-05</v>
+        <v>3.9702863547637159e-05</v>
       </c>
       <c r="BB3">
-        <v>-0.00012371717340933002</v>
+        <v>-1.2362131117606555e-05</v>
       </c>
       <c r="BC3">
-        <v>-0.00013212827416751846</v>
+        <v>6.4615271903772723e-06</v>
       </c>
       <c r="BD3">
-        <v>-0.00011917296655335797</v>
+        <v>-7.2434948894262432e-05</v>
       </c>
       <c r="BE3">
-        <v>-0.00011758179666893289</v>
+        <v>1.1893477866559721e-05</v>
       </c>
       <c r="BF3">
-        <v>-9.9162427404105092e-05</v>
+        <v>-6.1575741312665163e-05</v>
       </c>
       <c r="BG3">
-        <v>-0.00010613603792276599</v>
+        <v>2.5132944642139365e-05</v>
       </c>
       <c r="BH3">
-        <v>-0.00014495224964986854</v>
+        <v>6.0585516703082593e-05</v>
       </c>
       <c r="BI3">
-        <v>-4.6292794945292634e-05</v>
+        <v>-9.0595495127886701e-06</v>
       </c>
       <c r="BJ3">
-        <v>-5.1992756301336742e-05</v>
+        <v>-2.3973046379175103e-05</v>
       </c>
       <c r="BK3">
-        <v>-0.00013568121594566089</v>
+        <v>3.4103508588184492e-06</v>
       </c>
       <c r="BL3">
-        <v>-9.1733073205690652e-05</v>
+        <v>5.1451954283745021e-05</v>
       </c>
       <c r="BM3">
-        <v>-0.00012645428022544882</v>
+        <v>-4.6282154875480952e-05</v>
       </c>
       <c r="BN3">
-        <v>-0.0001327567410709042</v>
+        <v>-1.8630686301931138e-05</v>
       </c>
       <c r="BO3">
-        <v>-0.00010261392184351483</v>
+        <v>-3.8820250873345458e-05</v>
       </c>
       <c r="BP3">
-        <v>-0.00019145032467739371</v>
+        <v>-0.0001355359379874417</v>
       </c>
       <c r="BQ3">
-        <v>-4.7662846551812451e-06</v>
+        <v>2.7064288611180158e-05</v>
       </c>
       <c r="BR3">
-        <v>-0.00014566457132013928</v>
+        <v>3.6916917040404521e-05</v>
       </c>
       <c r="BS3">
-        <v>-0.00014434826949494861</v>
+        <v>-2.0357987817296699e-05</v>
       </c>
       <c r="BT3">
-        <v>2.3912942614926242e-05</v>
+        <v>6.2658599265594744e-05</v>
       </c>
       <c r="BU3">
-        <v>-0.00014452174803708938</v>
+        <v>-3.7583903409999731e-05</v>
       </c>
       <c r="BV3">
-        <v>-0.0001813635116661482</v>
+        <v>-8.8966099602768377e-05</v>
       </c>
       <c r="BW3">
-        <v>-0.00015418697029840453</v>
+        <v>-5.379243855594754e-06</v>
       </c>
       <c r="BX3">
-        <v>-0.00013505552859849047</v>
+        <v>3.5577377786387127e-06</v>
       </c>
       <c r="BY3">
-        <v>-0.0001768785074049323</v>
+        <v>3.0820474006846808e-05</v>
       </c>
       <c r="BZ3">
-        <v>-7.2039239080786939e-05</v>
+        <v>9.6174663268008026e-05</v>
       </c>
       <c r="CA3">
-        <v>-0.00024864311884738375</v>
+        <v>-8.8435082623955884e-05</v>
       </c>
       <c r="CB3">
-        <v>-0.00013155310081944038</v>
+        <v>0.00014201576455054061</v>
       </c>
       <c r="CC3">
-        <v>-0.00021128153282950381</v>
+        <v>-8.1249861582124927e-06</v>
       </c>
       <c r="CD3">
-        <v>-0.00022512554771338984</v>
+        <v>0.00010399641945819086</v>
       </c>
       <c r="CE3">
-        <v>-8.0168857381132449e-05</v>
+        <v>-5.5498827028069613e-05</v>
       </c>
       <c r="CF3">
-        <v>-0.00013509887139233611</v>
+        <v>5.7755168782775142e-05</v>
       </c>
       <c r="CG3">
-        <v>-0.00016150737187960206</v>
+        <v>-9.431263082804479e-05</v>
       </c>
       <c r="CH3">
-        <v>-0.00015974295997243991</v>
+        <v>-5.1266862112350936e-05</v>
       </c>
       <c r="CI3">
-        <v>-0.00024951282965918171</v>
+        <v>-0.00011284263124253902</v>
       </c>
       <c r="CJ3">
-        <v>-4.6249449559426805e-05</v>
+        <v>-0.00010645132250228094</v>
       </c>
       <c r="CK3">
-        <v>-7.5047317277108301e-05</v>
+        <v>3.3201213239418466e-06</v>
       </c>
       <c r="CL3">
-        <v>5.5417165868819407e-05</v>
+        <v>-0.00010359287838414285</v>
       </c>
       <c r="CM3">
-        <v>-0.00021912983981703125</v>
+        <v>7.6990184153646345e-05</v>
       </c>
       <c r="CN3">
-        <v>-0.00011005134800243223</v>
+        <v>2.7779115300757633e-05</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>-0.00011585646750389406</v>
+        <v>7.1279476485323995e-05</v>
       </c>
       <c r="CQ3">
-        <v>-7.5529308208486322e-05</v>
+        <v>0.00016082897211814644</v>
       </c>
       <c r="CR3">
-        <v>-1.3137427353806063e-05</v>
+        <v>5.4788901393185768e-06</v>
       </c>
       <c r="CS3">
-        <v>1.8672373748816049e-05</v>
+        <v>0.00017848107195588453</v>
       </c>
       <c r="CT3">
-        <v>-9.8646946108145228e-05</v>
+        <v>2.7660858543839394e-05</v>
       </c>
       <c r="CU3">
-        <v>-0.00014273697872444372</v>
+        <v>3.1759718558766184e-05</v>
       </c>
       <c r="CV3">
-        <v>-0.0001829552549563937</v>
+        <v>2.1936746153865482e-05</v>
       </c>
       <c r="CW3">
-        <v>-0.0001986451301544224</v>
+        <v>-6.5867063153607303e-06</v>
       </c>
       <c r="CX3">
-        <v>-0.00019529442175743675</v>
+        <v>-5.3355253012870915e-05</v>
       </c>
       <c r="CY3">
-        <v>-0.00020538933957325146</v>
+        <v>0.00022424255442572575</v>
       </c>
       <c r="CZ3">
-        <v>-1.9566435497336881e-05</v>
+        <v>-6.2181003667282007e-05</v>
       </c>
       <c r="DA3">
-        <v>-4.4925373650481162e-05</v>
+        <v>-6.3225695653085746e-05</v>
       </c>
       <c r="DB3">
-        <v>-0.0001341479245498449</v>
+        <v>6.2091110926147485e-05</v>
       </c>
       <c r="DC3">
-        <v>-0.00027308302534353801</v>
+        <v>3.1240789597578049e-05</v>
       </c>
       <c r="DD3">
-        <v>-8.651362635274112e-05</v>
+        <v>0.0001217173709258489</v>
       </c>
       <c r="DE3">
-        <v>-6.2193140289527558e-06</v>
+        <v>-6.6510290535246792e-05</v>
       </c>
       <c r="DF3">
-        <v>-3.0258935834011918e-05</v>
+        <v>-5.92590081828168e-05</v>
       </c>
       <c r="DG3">
-        <v>-0.00010638903371851119</v>
+        <v>-6.4184170241564573e-05</v>
       </c>
       <c r="DH3">
-        <v>-0.00019284045689395174</v>
+        <v>0.00010100709666787987</v>
       </c>
       <c r="DI3">
-        <v>0.00010039634561938025</v>
+        <v>2.5745167754365268e-05</v>
       </c>
       <c r="DJ3">
-        <v>-0.00016626172150713736</v>
+        <v>-8.9560315053966534e-05</v>
       </c>
       <c r="DK3">
-        <v>-3.2435618588090422e-05</v>
+        <v>4.8723320872421936e-05</v>
       </c>
       <c r="DL3">
-        <v>-7.4240596730514198e-05</v>
+        <v>-1.8726604857614075e-05</v>
       </c>
       <c r="DM3">
-        <v>-0.00026841760738058502</v>
+        <v>-3.9685200971883473e-05</v>
       </c>
       <c r="DN3">
-        <v>-0.00016981974209505707</v>
+        <v>-5.6212514825764617e-05</v>
       </c>
       <c r="DO3">
-        <v>-8.6016621047729517e-05</v>
+        <v>-6.8232431615000949e-05</v>
       </c>
       <c r="DP3">
-        <v>-0.00029571941886302668</v>
+        <v>-8.4844572304945147e-06</v>
       </c>
       <c r="DQ3">
-        <v>-5.3311569619585758e-05</v>
+        <v>-2.3559449614325157e-05</v>
       </c>
       <c r="DR3">
-        <v>-0.00021781437112390999</v>
+        <v>0.00012239502490186941</v>
       </c>
       <c r="DS3">
-        <v>-8.6308189771494893e-05</v>
+        <v>2.7164871821658905e-05</v>
       </c>
       <c r="DT3">
-        <v>-6.2239570885160107e-05</v>
+        <v>7.0535905236353841e-05</v>
       </c>
       <c r="DU3">
-        <v>-0.00010656349983714505</v>
+        <v>0.0001339818591948377</v>
       </c>
       <c r="DV3">
-        <v>-0.00013347225390258866</v>
+        <v>7.8417246402801054e-05</v>
       </c>
       <c r="DW3">
-        <v>-0.00013937173535188662</v>
+        <v>-0.00014595725368399793</v>
       </c>
       <c r="DX3">
-        <v>-0.00012721798388750215</v>
+        <v>2.3783089790775166e-05</v>
       </c>
       <c r="DY3">
-        <v>-6.8469172293737408e-05</v>
+        <v>3.9440849744551953e-05</v>
       </c>
       <c r="DZ3">
-        <v>-0.00014084312769832436</v>
+        <v>-1.1486589745979158e-05</v>
       </c>
       <c r="EA3">
-        <v>-0.00023094839636655009</v>
+        <v>2.0610099214317189e-05</v>
       </c>
       <c r="EB3">
-        <v>-0.00021794787057299124</v>
+        <v>-7.5012773070803178e-06</v>
       </c>
       <c r="EC3">
-        <v>-0.0001102833346443786</v>
+        <v>5.6836672718424019e-05</v>
       </c>
       <c r="ED3">
-        <v>-0.00020315324662018049</v>
+        <v>-4.0872667781204192e-05</v>
       </c>
       <c r="EE3">
-        <v>-3.8422435399517383e-05</v>
+        <v>-4.9629667546566258e-05</v>
       </c>
       <c r="EF3">
-        <v>-0.00019829541041772793</v>
+        <v>-2.9500039944992269e-05</v>
       </c>
       <c r="EG3">
-        <v>-0.00017307977858795753</v>
+        <v>-2.8073697167318267e-05</v>
       </c>
       <c r="EH3">
-        <v>-0.00012693325747267233</v>
+        <v>-1.1185843096321842e-05</v>
       </c>
       <c r="EI3">
-        <v>-0.00014779946640351168</v>
+        <v>-2.0120844752048684e-05</v>
       </c>
       <c r="EJ3">
-        <v>-0.00012727586384077871</v>
+        <v>-9.1804059644129307e-05</v>
       </c>
       <c r="EK3">
-        <v>-0.00021479419926869074</v>
+        <v>-5.6372089565741374e-06</v>
       </c>
       <c r="EL3">
-        <v>-0.00032449275929924632</v>
+        <v>-4.4635564878112217e-05</v>
       </c>
       <c r="EM3">
-        <v>-0.00017162745207040806</v>
+        <v>3.7856742762927874e-06</v>
       </c>
       <c r="EN3">
-        <v>-0.00017951388101039177</v>
+        <v>-3.3831283837307745e-05</v>
       </c>
       <c r="EO3">
-        <v>-0.00020530812710510581</v>
+        <v>-0.00015891087682256338</v>
       </c>
       <c r="EP3">
-        <v>-0.00017804654685737355</v>
+        <v>-0.0001519908251414175</v>
       </c>
       <c r="EQ3">
-        <v>-0.00016482692603045731</v>
+        <v>-0.00010034644166690271</v>
       </c>
       <c r="ER3">
-        <v>-0.00012098013813128134</v>
+        <v>-9.4822250134991707e-05</v>
       </c>
       <c r="ES3">
-        <v>-3.8782946854085374e-05</v>
+        <v>-8.7494192802179332e-05</v>
       </c>
       <c r="ET3">
-        <v>-0.00022910740829977847</v>
+        <v>6.6467144187001883e-05</v>
       </c>
       <c r="EU3">
-        <v>-0.00014544209554887753</v>
+        <v>2.234486013426385e-05</v>
       </c>
       <c r="EV3">
-        <v>-0.00032741699254564601</v>
+        <v>-0.00013739371538991981</v>
       </c>
       <c r="EW3">
-        <v>-0.00020916248992058792</v>
+        <v>-0.00014521875077963352</v>
       </c>
       <c r="EX3">
-        <v>-0.00012451238985660605</v>
+        <v>-0.00014400259872885177</v>
       </c>
       <c r="EY3">
-        <v>-0.00022557089286361488</v>
+        <v>-4.8627709828973595e-05</v>
       </c>
       <c r="EZ3">
-        <v>-0.00032237416460783512</v>
+        <v>-9.4971635300506019e-05</v>
       </c>
       <c r="FA3">
-        <v>-0.00019867394167542737</v>
+        <v>-5.2559225017962491e-05</v>
       </c>
       <c r="FB3">
-        <v>-0.00026997811922329436</v>
+        <v>1.6484846397397773e-05</v>
       </c>
       <c r="FC3">
-        <v>-0.0001975772199459647</v>
+        <v>0.00016142614964297658</v>
       </c>
       <c r="FD3">
-        <v>-0.00020545959390229912</v>
+        <v>-0.00022741693121538394</v>
       </c>
       <c r="FE3">
-        <v>-0.00013775565389547307</v>
+        <v>-3.4175150393591058e-05</v>
       </c>
       <c r="FF3">
-        <v>-0.00038114804819779357</v>
+        <v>4.1592258665638385e-05</v>
       </c>
       <c r="FG3">
-        <v>-0.00048052366036325324</v>
+        <v>-0.00018910030547485918</v>
       </c>
       <c r="FH3">
-        <v>-7.5197694136323743e-05</v>
+        <v>-0.00010452198863489167</v>
       </c>
       <c r="FI3">
-        <v>-0.00011527466095462075</v>
+        <v>-0.00020371235413254511</v>
       </c>
       <c r="FJ3">
-        <v>-0.0003124531063509624</v>
+        <v>-4.9152939729247854e-05</v>
       </c>
       <c r="FK3">
-        <v>-0.00018421993424624645</v>
+        <v>-0.00020895288814420815</v>
       </c>
       <c r="FL3">
-        <v>-0.00022007043490527068</v>
+        <v>-0.00014873559970422767</v>
       </c>
       <c r="FM3">
-        <v>-0.00019774970169091064</v>
+        <v>-0.00010350180570996389</v>
       </c>
       <c r="FN3">
-        <v>-0.00041089525082061264</v>
+        <v>-0.00015397391248851355</v>
       </c>
       <c r="FO3">
-        <v>-0.00020077711432825082</v>
+        <v>-0.00019723516196765576</v>
       </c>
       <c r="FP3">
-        <v>-0.00040984043989957881</v>
+        <v>-0.00013818409499004124</v>
       </c>
       <c r="FQ3">
-        <v>-0.00027168662774484882</v>
+        <v>-0.00034071634410509589</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0042680698115367443</v>
+        <v>0.0041291218763293905</v>
       </c>
     </row>
     <row r="4">
@@ -3245,526 +3245,526 @@
         <v>176</v>
       </c>
       <c r="B4">
-        <v>5.0571434725480414e-05</v>
+        <v>4.5927385829800742e-05</v>
       </c>
       <c r="C4">
-        <v>2.2054691116611981e-05</v>
+        <v>2.0029376539704152e-05</v>
       </c>
       <c r="D4">
-        <v>3.228592791907235e-05</v>
+        <v>2.9321063886393133e-05</v>
       </c>
       <c r="E4">
-        <v>3.8184322424568597e-05</v>
+        <v>3.4677800188236893e-05</v>
       </c>
       <c r="F4">
-        <v>3.4943237990087883e-05</v>
+        <v>3.1734349282851433e-05</v>
       </c>
       <c r="G4">
-        <v>2.9232756242077665e-05</v>
+        <v>2.6548269434838797e-05</v>
       </c>
       <c r="H4">
-        <v>2.3693318942903058e-05</v>
+        <v>2.1517526773488193e-05</v>
       </c>
       <c r="I4">
-        <v>2.3556692604890838e-05</v>
+        <v>2.1393447032138906e-05</v>
       </c>
       <c r="J4">
-        <v>2.4862748407765974e-05</v>
+        <v>2.2579565818357044e-05</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.3939453820219942e-05</v>
+        <v>4.8986114799740387e-05</v>
       </c>
       <c r="M4">
-        <v>5.3939453820219942e-05</v>
+        <v>4.8986114799740387e-05</v>
       </c>
       <c r="N4">
-        <v>5.3939453820219949e-05</v>
+        <v>4.8986114799740394e-05</v>
       </c>
       <c r="O4">
-        <v>5.3939453820219956e-05</v>
+        <v>4.8986114799740401e-05</v>
       </c>
       <c r="P4">
-        <v>5.3939453820219949e-05</v>
+        <v>4.8986114799740394e-05</v>
       </c>
       <c r="Q4">
-        <v>5.3939453820219969e-05</v>
+        <v>4.8986114799740408e-05</v>
       </c>
       <c r="R4">
-        <v>5.3939453820219969e-05</v>
+        <v>4.8986114799740408e-05</v>
       </c>
       <c r="S4">
-        <v>5.3939453820219976e-05</v>
+        <v>4.8986114799740414e-05</v>
       </c>
       <c r="T4">
-        <v>5.3939453820219983e-05</v>
+        <v>4.8986114799740414e-05</v>
       </c>
       <c r="U4">
-        <v>5.3939453820219962e-05</v>
+        <v>4.8986114799740401e-05</v>
       </c>
       <c r="V4">
-        <v>5.3939453820219989e-05</v>
+        <v>4.8986114799740428e-05</v>
       </c>
       <c r="W4">
-        <v>5.3939453820219969e-05</v>
+        <v>4.8986114799740408e-05</v>
       </c>
       <c r="X4">
-        <v>5.3939453820219983e-05</v>
+        <v>4.8986114799740421e-05</v>
       </c>
       <c r="Y4">
-        <v>5.3939453820219983e-05</v>
+        <v>4.8986114799740414e-05</v>
       </c>
       <c r="Z4">
-        <v>5.3939453820219983e-05</v>
+        <v>4.8986114799740421e-05</v>
       </c>
       <c r="AA4">
-        <v>5.3939453820219983e-05</v>
+        <v>4.8986114799740421e-05</v>
       </c>
       <c r="AB4">
-        <v>5.3939453820219989e-05</v>
+        <v>4.8986114799740428e-05</v>
       </c>
       <c r="AC4">
-        <v>5.3939453820219989e-05</v>
+        <v>4.8986114799740428e-05</v>
       </c>
       <c r="AD4">
-        <v>5.3939453820219989e-05</v>
+        <v>4.8986114799740428e-05</v>
       </c>
       <c r="AE4">
-        <v>5.3939453820219996e-05</v>
+        <v>4.8986114799740428e-05</v>
       </c>
       <c r="AF4">
-        <v>5.3939453820219996e-05</v>
+        <v>4.8986114799740428e-05</v>
       </c>
       <c r="AG4">
-        <v>5.3939453820219996e-05</v>
+        <v>4.8986114799740428e-05</v>
       </c>
       <c r="AH4">
-        <v>5.3939453820219983e-05</v>
+        <v>4.8986114799740421e-05</v>
       </c>
       <c r="AI4">
-        <v>5.3939453820219989e-05</v>
+        <v>4.8986114799740428e-05</v>
       </c>
       <c r="AJ4">
-        <v>5.3939453820219996e-05</v>
+        <v>4.8986114799740428e-05</v>
       </c>
       <c r="AK4">
-        <v>5.3939453820220003e-05</v>
+        <v>4.8986114799740435e-05</v>
       </c>
       <c r="AL4">
-        <v>5.3939453820220003e-05</v>
+        <v>4.8986114799740435e-05</v>
       </c>
       <c r="AM4">
-        <v>5.393945382022001e-05</v>
+        <v>4.8986114799740448e-05</v>
       </c>
       <c r="AN4">
-        <v>5.3939453820220003e-05</v>
+        <v>4.8986114799740442e-05</v>
       </c>
       <c r="AO4">
-        <v>5.393945382022001e-05</v>
+        <v>4.8986114799740448e-05</v>
       </c>
       <c r="AP4">
-        <v>5.393945382022001e-05</v>
+        <v>4.8986114799740448e-05</v>
       </c>
       <c r="AQ4">
-        <v>5.3939453820220017e-05</v>
+        <v>4.8986114799740448e-05</v>
       </c>
       <c r="AR4">
-        <v>5.3939453820220017e-05</v>
+        <v>4.8986114799740448e-05</v>
       </c>
       <c r="AS4">
-        <v>5.3939453820220017e-05</v>
+        <v>4.8986114799740448e-05</v>
       </c>
       <c r="AT4">
-        <v>5.393945382022001e-05</v>
+        <v>4.8986114799740448e-05</v>
       </c>
       <c r="AU4">
-        <v>5.393945382022001e-05</v>
+        <v>4.8986114799740448e-05</v>
       </c>
       <c r="AV4">
-        <v>5.393945382022001e-05</v>
+        <v>4.8986114799740448e-05</v>
       </c>
       <c r="AW4">
-        <v>5.393945382022001e-05</v>
+        <v>4.8986114799740448e-05</v>
       </c>
       <c r="AX4">
-        <v>5.393945382022001e-05</v>
+        <v>4.8986114799740448e-05</v>
       </c>
       <c r="AY4">
-        <v>5.393945382022001e-05</v>
+        <v>4.8986114799740448e-05</v>
       </c>
       <c r="AZ4">
-        <v>5.393945382022001e-05</v>
+        <v>4.8986114799740448e-05</v>
       </c>
       <c r="BA4">
-        <v>5.393945382022001e-05</v>
+        <v>4.8986114799740448e-05</v>
       </c>
       <c r="BB4">
-        <v>5.393945382022001e-05</v>
+        <v>4.8986114799740448e-05</v>
       </c>
       <c r="BC4">
-        <v>5.3939453820220017e-05</v>
+        <v>4.8986114799740448e-05</v>
       </c>
       <c r="BD4">
-        <v>5.393945382022001e-05</v>
+        <v>4.8986114799740448e-05</v>
       </c>
       <c r="BE4">
-        <v>5.3939453820220017e-05</v>
+        <v>4.8986114799740448e-05</v>
       </c>
       <c r="BF4">
-        <v>5.393945382022001e-05</v>
+        <v>4.8986114799740448e-05</v>
       </c>
       <c r="BG4">
-        <v>5.3939453820220017e-05</v>
+        <v>4.8986114799740448e-05</v>
       </c>
       <c r="BH4">
-        <v>5.393945382022001e-05</v>
+        <v>4.8986114799740448e-05</v>
       </c>
       <c r="BI4">
-        <v>5.3939453820220017e-05</v>
+        <v>4.8986114799740448e-05</v>
       </c>
       <c r="BJ4">
-        <v>5.3939453820220017e-05</v>
+        <v>4.8986114799740448e-05</v>
       </c>
       <c r="BK4">
-        <v>5.3939453820220023e-05</v>
+        <v>4.8986114799740455e-05</v>
       </c>
       <c r="BL4">
-        <v>5.3939453820220023e-05</v>
+        <v>4.8986114799740455e-05</v>
       </c>
       <c r="BM4">
-        <v>5.393945382022003e-05</v>
+        <v>4.8986114799740462e-05</v>
       </c>
       <c r="BN4">
-        <v>5.393945382022003e-05</v>
+        <v>4.8986114799740462e-05</v>
       </c>
       <c r="BO4">
-        <v>5.3939453820220037e-05</v>
+        <v>4.8986114799740469e-05</v>
       </c>
       <c r="BP4">
-        <v>5.3939453820220037e-05</v>
+        <v>4.8986114799740469e-05</v>
       </c>
       <c r="BQ4">
-        <v>5.3908913984334274e-05</v>
+        <v>4.8958379481699402e-05</v>
       </c>
       <c r="BR4">
-        <v>5.3908913984334274e-05</v>
+        <v>4.8958379481699402e-05</v>
       </c>
       <c r="BS4">
-        <v>5.3908913984334281e-05</v>
+        <v>4.8958379481699409e-05</v>
       </c>
       <c r="BT4">
-        <v>4.8913422940967327e-05</v>
+        <v>4.4421631695059502e-05</v>
       </c>
       <c r="BU4">
-        <v>4.8913422940967334e-05</v>
+        <v>4.4421631695059502e-05</v>
       </c>
       <c r="BV4">
-        <v>5.6719428701093366e-05</v>
+        <v>5.1510800516966009e-05</v>
       </c>
       <c r="BW4">
-        <v>5.5625297963556786e-05</v>
+        <v>5.0517145407043479e-05</v>
       </c>
       <c r="BX4">
-        <v>5.5625297963556786e-05</v>
+        <v>5.0517145407043479e-05</v>
       </c>
       <c r="BY4">
-        <v>5.4795572928874874e-05</v>
+        <v>4.9763615237149357e-05</v>
       </c>
       <c r="BZ4">
-        <v>5.4795572928874881e-05</v>
+        <v>4.9763615237149364e-05</v>
       </c>
       <c r="CA4">
-        <v>5.4795572928874881e-05</v>
+        <v>4.9763615237149364e-05</v>
       </c>
       <c r="CB4">
-        <v>5.412263522648332e-05</v>
+        <v>4.9152474389259103e-05</v>
       </c>
       <c r="CC4">
-        <v>5.4122635226483334e-05</v>
+        <v>4.9152474389259117e-05</v>
       </c>
       <c r="CD4">
-        <v>5.4122635226483327e-05</v>
+        <v>4.915247438925911e-05</v>
       </c>
       <c r="CE4">
-        <v>5.4122635226483327e-05</v>
+        <v>4.915247438925911e-05</v>
       </c>
       <c r="CF4">
-        <v>5.4122635226483334e-05</v>
+        <v>4.9152474389259117e-05</v>
       </c>
       <c r="CG4">
-        <v>5.3976078814302428e-05</v>
+        <v>4.9019376466991302e-05</v>
       </c>
       <c r="CH4">
-        <v>5.3976078814302421e-05</v>
+        <v>4.9019376466991295e-05</v>
       </c>
       <c r="CI4">
-        <v>5.3976078814302421e-05</v>
+        <v>4.9019376466991302e-05</v>
       </c>
       <c r="CJ4">
-        <v>5.3976078814302435e-05</v>
+        <v>4.9019376466991308e-05</v>
       </c>
       <c r="CK4">
-        <v>5.4685363637624788e-05</v>
+        <v>4.9663526626479162e-05</v>
       </c>
       <c r="CL4">
-        <v>5.1611595480039374e-05</v>
+        <v>4.6872027099303346e-05</v>
       </c>
       <c r="CM4">
-        <v>5.1611595480039381e-05</v>
+        <v>4.6872027099303353e-05</v>
       </c>
       <c r="CN4">
-        <v>4.6891950933375672e-05</v>
+        <v>4.2585794421690113e-05</v>
       </c>
       <c r="CO4">
         <v>0</v>
       </c>
       <c r="CP4">
-        <v>5.4985686416691095e-05</v>
+        <v>4.9936270325022218e-05</v>
       </c>
       <c r="CQ4">
-        <v>5.5644242498795131e-05</v>
+        <v>5.0534350237872993e-05</v>
       </c>
       <c r="CR4">
-        <v>5.5644242498795131e-05</v>
+        <v>5.0534350237872993e-05</v>
       </c>
       <c r="CS4">
-        <v>5.4814804225992497e-05</v>
+        <v>4.97810804960949e-05</v>
       </c>
       <c r="CT4">
-        <v>5.4814804225992504e-05</v>
+        <v>4.9781080496094914e-05</v>
       </c>
       <c r="CU4">
-        <v>5.4814804225992497e-05</v>
+        <v>4.97810804960949e-05</v>
       </c>
       <c r="CV4">
-        <v>5.4142105551864311e-05</v>
+        <v>4.9170156726152623e-05</v>
       </c>
       <c r="CW4">
-        <v>5.4142105551864305e-05</v>
+        <v>4.9170156726152616e-05</v>
       </c>
       <c r="CX4">
-        <v>5.4142105551864318e-05</v>
+        <v>4.9170156726152623e-05</v>
       </c>
       <c r="CY4">
-        <v>5.4142105551864298e-05</v>
+        <v>4.917015672615261e-05</v>
       </c>
       <c r="CZ4">
-        <v>5.4142105551864318e-05</v>
+        <v>4.9170156726152623e-05</v>
       </c>
       <c r="DA4">
-        <v>5.4065095993736558e-05</v>
+        <v>4.9100219068502306e-05</v>
       </c>
       <c r="DB4">
-        <v>5.4065095993736545e-05</v>
+        <v>4.9100219068502299e-05</v>
       </c>
       <c r="DC4">
-        <v>5.4065095993736558e-05</v>
+        <v>4.9100219068502306e-05</v>
       </c>
       <c r="DD4">
-        <v>5.4065095993736545e-05</v>
+        <v>4.9100219068502306e-05</v>
       </c>
       <c r="DE4">
-        <v>5.4065095993736558e-05</v>
+        <v>4.9100219068502306e-05</v>
       </c>
       <c r="DF4">
-        <v>5.0629691704504803e-05</v>
+        <v>4.5980292985143589e-05</v>
       </c>
       <c r="DG4">
-        <v>5.062969170450479e-05</v>
+        <v>4.5980292985143583e-05</v>
       </c>
       <c r="DH4">
-        <v>5.0629691704504803e-05</v>
+        <v>4.5980292985143589e-05</v>
       </c>
       <c r="DI4">
-        <v>5.062969170450481e-05</v>
+        <v>4.5980292985143596e-05</v>
       </c>
       <c r="DJ4">
-        <v>5.062969170450481e-05</v>
+        <v>4.5980292985143596e-05</v>
       </c>
       <c r="DK4">
-        <v>5.3978519597003956e-05</v>
+        <v>4.9021593109043646e-05</v>
       </c>
       <c r="DL4">
-        <v>5.3978519597003956e-05</v>
+        <v>4.9021593109043646e-05</v>
       </c>
       <c r="DM4">
-        <v>5.3978519597003956e-05</v>
+        <v>4.9021593109043646e-05</v>
       </c>
       <c r="DN4">
-        <v>5.397851959700395e-05</v>
+        <v>4.9021593109043639e-05</v>
       </c>
       <c r="DO4">
-        <v>5.3978519597003963e-05</v>
+        <v>4.9021593109043653e-05</v>
       </c>
       <c r="DP4">
-        <v>5.3978519597003956e-05</v>
+        <v>4.9021593109043646e-05</v>
       </c>
       <c r="DQ4">
-        <v>5.397851959700397e-05</v>
+        <v>4.902159310904366e-05</v>
       </c>
       <c r="DR4">
-        <v>5.3978519597003963e-05</v>
+        <v>4.9021593109043653e-05</v>
       </c>
       <c r="DS4">
-        <v>5.3978519597004004e-05</v>
+        <v>4.9021593109043687e-05</v>
       </c>
       <c r="DT4">
-        <v>5.397851959700397e-05</v>
+        <v>4.902159310904366e-05</v>
       </c>
       <c r="DU4">
-        <v>5.3978519597004004e-05</v>
+        <v>4.9021593109043687e-05</v>
       </c>
       <c r="DV4">
-        <v>5.3978519597004004e-05</v>
+        <v>4.9021593109043687e-05</v>
       </c>
       <c r="DW4">
-        <v>5.3978519597004004e-05</v>
+        <v>4.9021593109043687e-05</v>
       </c>
       <c r="DX4">
-        <v>5.3978519597003997e-05</v>
+        <v>4.902159310904368e-05</v>
       </c>
       <c r="DY4">
-        <v>5.3978519597004004e-05</v>
+        <v>4.9021593109043694e-05</v>
       </c>
       <c r="DZ4">
-        <v>5.3978519597004004e-05</v>
+        <v>4.9021593109043694e-05</v>
       </c>
       <c r="EA4">
-        <v>5.3978519597004024e-05</v>
+        <v>4.90215931090437e-05</v>
       </c>
       <c r="EB4">
-        <v>5.3978519597004024e-05</v>
+        <v>4.9021593109043707e-05</v>
       </c>
       <c r="EC4">
-        <v>5.3978519597004024e-05</v>
+        <v>4.90215931090437e-05</v>
       </c>
       <c r="ED4">
-        <v>5.3978519597004024e-05</v>
+        <v>4.90215931090437e-05</v>
       </c>
       <c r="EE4">
-        <v>5.3978519597004024e-05</v>
+        <v>4.90215931090437e-05</v>
       </c>
       <c r="EF4">
-        <v>5.3978519597004038e-05</v>
+        <v>4.9021593109043721e-05</v>
       </c>
       <c r="EG4">
-        <v>5.3978519597004024e-05</v>
+        <v>4.9021593109043707e-05</v>
       </c>
       <c r="EH4">
-        <v>5.3978519597004044e-05</v>
+        <v>4.9021593109043728e-05</v>
       </c>
       <c r="EI4">
-        <v>5.3978519597004031e-05</v>
+        <v>4.9021593109043714e-05</v>
       </c>
       <c r="EJ4">
-        <v>5.3978519597004044e-05</v>
+        <v>4.9021593109043728e-05</v>
       </c>
       <c r="EK4">
-        <v>5.3978519597004038e-05</v>
+        <v>4.9021593109043721e-05</v>
       </c>
       <c r="EL4">
-        <v>5.3978519597004051e-05</v>
+        <v>4.9021593109043728e-05</v>
       </c>
       <c r="EM4">
-        <v>5.3978519597004038e-05</v>
+        <v>4.9021593109043721e-05</v>
       </c>
       <c r="EN4">
-        <v>5.3978519597004058e-05</v>
+        <v>4.9021593109043734e-05</v>
       </c>
       <c r="EO4">
-        <v>5.3978519597004031e-05</v>
+        <v>4.9021593109043714e-05</v>
       </c>
       <c r="EP4">
-        <v>5.3978519597004051e-05</v>
+        <v>4.9021593109043728e-05</v>
       </c>
       <c r="EQ4">
-        <v>5.3978519597004058e-05</v>
+        <v>4.9021593109043741e-05</v>
       </c>
       <c r="ER4">
-        <v>5.3978519597004065e-05</v>
+        <v>4.9021593109043748e-05</v>
       </c>
       <c r="ES4">
-        <v>5.3978519597004058e-05</v>
+        <v>4.9021593109043741e-05</v>
       </c>
       <c r="ET4">
-        <v>5.3978519597004058e-05</v>
+        <v>4.9021593109043741e-05</v>
       </c>
       <c r="EU4">
-        <v>5.3978519597004058e-05</v>
+        <v>4.9021593109043741e-05</v>
       </c>
       <c r="EV4">
-        <v>5.3978519597004051e-05</v>
+        <v>4.9021593109043734e-05</v>
       </c>
       <c r="EW4">
-        <v>5.3978519597004038e-05</v>
+        <v>4.9021593109043721e-05</v>
       </c>
       <c r="EX4">
-        <v>5.3978519597004058e-05</v>
+        <v>4.9021593109043734e-05</v>
       </c>
       <c r="EY4">
-        <v>5.3978519597004071e-05</v>
+        <v>4.9021593109043748e-05</v>
       </c>
       <c r="EZ4">
-        <v>5.3978519597004071e-05</v>
+        <v>4.9021593109043748e-05</v>
       </c>
       <c r="FA4">
-        <v>5.3978519597004078e-05</v>
+        <v>4.9021593109043755e-05</v>
       </c>
       <c r="FB4">
-        <v>5.3978519597004078e-05</v>
+        <v>4.9021593109043755e-05</v>
       </c>
       <c r="FC4">
-        <v>5.3978519597004078e-05</v>
+        <v>4.9021593109043755e-05</v>
       </c>
       <c r="FD4">
-        <v>5.3978519597004078e-05</v>
+        <v>4.9021593109043755e-05</v>
       </c>
       <c r="FE4">
-        <v>5.3978519597004085e-05</v>
+        <v>4.9021593109043761e-05</v>
       </c>
       <c r="FF4">
-        <v>5.3978519597004078e-05</v>
+        <v>4.9021593109043755e-05</v>
       </c>
       <c r="FG4">
-        <v>5.3978519597004085e-05</v>
+        <v>4.9021593109043761e-05</v>
       </c>
       <c r="FH4">
-        <v>5.3978519597004078e-05</v>
+        <v>4.9021593109043761e-05</v>
       </c>
       <c r="FI4">
-        <v>5.3978519597004085e-05</v>
+        <v>4.9021593109043768e-05</v>
       </c>
       <c r="FJ4">
-        <v>5.3978519597004085e-05</v>
+        <v>4.9021593109043768e-05</v>
       </c>
       <c r="FK4">
-        <v>5.3978519597004099e-05</v>
+        <v>4.9021593109043782e-05</v>
       </c>
       <c r="FL4">
-        <v>5.3978519597004099e-05</v>
+        <v>4.9021593109043782e-05</v>
       </c>
       <c r="FM4">
-        <v>5.3978519597004099e-05</v>
+        <v>4.9021593109043782e-05</v>
       </c>
       <c r="FN4">
-        <v>5.3978519597004099e-05</v>
+        <v>4.9021593109043775e-05</v>
       </c>
       <c r="FO4">
-        <v>5.3978519597004099e-05</v>
+        <v>4.9021593109043782e-05</v>
       </c>
       <c r="FP4">
-        <v>5.3978519597004099e-05</v>
+        <v>4.9021593109043782e-05</v>
       </c>
       <c r="FQ4">
-        <v>5.3978519597004112e-05</v>
+        <v>4.9021593109043789e-05</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>4.2594049428465118e-05</v>
+        <v>3.8682575504805148e-05</v>
       </c>
     </row>
   </sheetData>
@@ -4308,526 +4308,526 @@
         <v>175</v>
       </c>
       <c r="B3">
-        <v>0.10120897540018282</v>
+        <v>0.1009926150781717</v>
       </c>
       <c r="C3">
-        <v>-0.0023645054746921643</v>
+        <v>-0.0023221484064673398</v>
       </c>
       <c r="D3">
-        <v>-0.0033248577280305925</v>
+        <v>-0.0032717090812557051</v>
       </c>
       <c r="E3">
-        <v>-0.0036406620940556181</v>
+        <v>-0.0035809627305178606</v>
       </c>
       <c r="F3">
-        <v>0.00048418415260372151</v>
+        <v>0.00048665418027789439</v>
       </c>
       <c r="G3">
-        <v>0.00049061951749046397</v>
+        <v>0.00050049029388353798</v>
       </c>
       <c r="H3">
-        <v>0.0005092692050179846</v>
+        <v>0.00053595330754717158</v>
       </c>
       <c r="I3">
-        <v>0.00043141326552485098</v>
+        <v>0.00039449614320952783</v>
       </c>
       <c r="J3">
-        <v>-0.0014287278420788763</v>
+        <v>-0.0014254052991984271</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.00014757615368219689</v>
+        <v>3.3334833423232414e-05</v>
       </c>
       <c r="M3">
-        <v>0.00032513195682321966</v>
+        <v>0.00041563414335725718</v>
       </c>
       <c r="N3">
-        <v>-0.002025770636048784</v>
+        <v>-0.0019380148872778905</v>
       </c>
       <c r="O3">
-        <v>-0.0020215706812002558</v>
+        <v>-0.0019460626222785038</v>
       </c>
       <c r="P3">
-        <v>-0.0019943863664710878</v>
+        <v>-0.0019656871353862051</v>
       </c>
       <c r="Q3">
-        <v>-0.0019852611237877759</v>
+        <v>-0.0019808321821218615</v>
       </c>
       <c r="R3">
-        <v>-0.0019872202443995388</v>
+        <v>-0.00196539775138448</v>
       </c>
       <c r="S3">
-        <v>-0.001973635219041917</v>
+        <v>-0.0019516943219986614</v>
       </c>
       <c r="T3">
-        <v>-0.0019512735748247602</v>
+        <v>-0.0019137494656911113</v>
       </c>
       <c r="U3">
-        <v>-0.0019330534718735666</v>
+        <v>-0.0019371230304565455</v>
       </c>
       <c r="V3">
-        <v>-0.0019224260045175659</v>
+        <v>-0.0019220398499276382</v>
       </c>
       <c r="W3">
-        <v>-0.001884206351572035</v>
+        <v>-0.0018889710177859044</v>
       </c>
       <c r="X3">
-        <v>-0.0018819959272404869</v>
+        <v>-0.0018943533872815758</v>
       </c>
       <c r="Y3">
-        <v>-0.0019333882623532356</v>
+        <v>-0.0019033738686985336</v>
       </c>
       <c r="Z3">
-        <v>-0.0019584006111665274</v>
+        <v>-0.0018973920592088433</v>
       </c>
       <c r="AA3">
-        <v>-0.0018951471358445366</v>
+        <v>-0.0018922214359162522</v>
       </c>
       <c r="AB3">
-        <v>-0.0019335339775615153</v>
+        <v>-0.0019344114155641066</v>
       </c>
       <c r="AC3">
-        <v>-0.0019255111898446248</v>
+        <v>-0.0018700889879014334</v>
       </c>
       <c r="AD3">
-        <v>-0.0019474260868360277</v>
+        <v>-0.0018512496632600484</v>
       </c>
       <c r="AE3">
-        <v>-0.0018891642265938637</v>
+        <v>-0.0018977773195005794</v>
       </c>
       <c r="AF3">
-        <v>-0.0018956876281996896</v>
+        <v>-0.0019185316912881272</v>
       </c>
       <c r="AG3">
-        <v>-0.0018764344899107061</v>
+        <v>-0.001867518428174577</v>
       </c>
       <c r="AH3">
-        <v>-0.0018608538797980502</v>
+        <v>-0.0018660682108049031</v>
       </c>
       <c r="AI3">
-        <v>-0.0018785712760025688</v>
+        <v>-0.0018597539925646743</v>
       </c>
       <c r="AJ3">
-        <v>-0.0018913899626822469</v>
+        <v>-0.0018405037883527278</v>
       </c>
       <c r="AK3">
-        <v>-0.0018865825003230696</v>
+        <v>-0.0018496414662375535</v>
       </c>
       <c r="AL3">
-        <v>-0.0018430496717799117</v>
+        <v>-0.0018808802127186677</v>
       </c>
       <c r="AM3">
-        <v>-0.0018636660250681365</v>
+        <v>-0.0018579192001489983</v>
       </c>
       <c r="AN3">
-        <v>-0.0018681540898736141</v>
+        <v>-0.0018492418468894689</v>
       </c>
       <c r="AO3">
-        <v>-0.001848822547312864</v>
+        <v>-0.0018048831074433554</v>
       </c>
       <c r="AP3">
-        <v>-0.0019020189250429627</v>
+        <v>-0.001912439730212307</v>
       </c>
       <c r="AQ3">
-        <v>-0.0018764317915321888</v>
+        <v>-0.0018673342285250216</v>
       </c>
       <c r="AR3">
-        <v>-0.0019077214332630251</v>
+        <v>-0.0018394042355788821</v>
       </c>
       <c r="AS3">
-        <v>-0.0018705131998290445</v>
+        <v>-0.0018463950634148088</v>
       </c>
       <c r="AT3">
-        <v>-0.0018651165773417354</v>
+        <v>-0.0018896801247694538</v>
       </c>
       <c r="AU3">
-        <v>-0.0018887465637762936</v>
+        <v>-0.0018641682687535693</v>
       </c>
       <c r="AV3">
-        <v>-0.0018118834267799118</v>
+        <v>-0.0018706030354026654</v>
       </c>
       <c r="AW3">
-        <v>-0.0018265288982062271</v>
+        <v>-0.0018851874945615009</v>
       </c>
       <c r="AX3">
-        <v>-0.0018574293137812185</v>
+        <v>-0.0018206653472402988</v>
       </c>
       <c r="AY3">
-        <v>-0.0018503923036883947</v>
+        <v>-0.0018295017952305705</v>
       </c>
       <c r="AZ3">
-        <v>-0.0018699668705118079</v>
+        <v>-0.001813900641710051</v>
       </c>
       <c r="BA3">
-        <v>-0.0018160998999253626</v>
+        <v>-0.0018272756546239908</v>
       </c>
       <c r="BB3">
-        <v>-0.0018624763817551523</v>
+        <v>-0.0018282356585325823</v>
       </c>
       <c r="BC3">
-        <v>-0.0018822078253379006</v>
+        <v>-0.0018460724918350096</v>
       </c>
       <c r="BD3">
-        <v>-0.0018484913924611741</v>
+        <v>-0.0018622367239354495</v>
       </c>
       <c r="BE3">
-        <v>-0.001854148636997242</v>
+        <v>-0.0018343744442719111</v>
       </c>
       <c r="BF3">
-        <v>-0.0018585872165028953</v>
+        <v>-0.0018789757871431135</v>
       </c>
       <c r="BG3">
-        <v>-0.0018741790934163238</v>
+        <v>-0.0018661782062031165</v>
       </c>
       <c r="BH3">
-        <v>-0.0018595890358445819</v>
+        <v>-0.0018750233227274749</v>
       </c>
       <c r="BI3">
-        <v>-0.0018531660647613387</v>
+        <v>-0.0018220807731694536</v>
       </c>
       <c r="BJ3">
-        <v>-0.0018853198302267234</v>
+        <v>-0.0018383098911359415</v>
       </c>
       <c r="BK3">
-        <v>-0.0018654434382996566</v>
+        <v>-0.0018477636806697869</v>
       </c>
       <c r="BL3">
-        <v>-0.0018623231829997433</v>
+        <v>-0.0018390033830776365</v>
       </c>
       <c r="BM3">
-        <v>-0.0018431097752935161</v>
+        <v>-0.0018410595001583326</v>
       </c>
       <c r="BN3">
-        <v>-0.0019017640011585019</v>
+        <v>-0.0018447330014857446</v>
       </c>
       <c r="BO3">
-        <v>-0.0018706991579122043</v>
+        <v>-0.0018373872542841083</v>
       </c>
       <c r="BP3">
-        <v>-0.0018664412421380944</v>
+        <v>-0.0018656650409212038</v>
       </c>
       <c r="BQ3">
-        <v>-0.0013964799391878468</v>
+        <v>-0.0013734925066120262</v>
       </c>
       <c r="BR3">
-        <v>-0.0014356752147339981</v>
+        <v>-0.0013667142982332486</v>
       </c>
       <c r="BS3">
-        <v>-0.0014045156694640127</v>
+        <v>-0.0014175648714416578</v>
       </c>
       <c r="BT3">
-        <v>-0.0012449699658143216</v>
+        <v>-0.0012549615917098931</v>
       </c>
       <c r="BU3">
-        <v>-0.0012685504332573404</v>
+        <v>-0.0012668969530042671</v>
       </c>
       <c r="BV3">
-        <v>-0.008242139400383635</v>
+        <v>-0.0082066316161665855</v>
       </c>
       <c r="BW3">
-        <v>-0.0016881201514360599</v>
+        <v>-0.0015958400137460469</v>
       </c>
       <c r="BX3">
-        <v>-0.0016581088453714893</v>
+        <v>-0.001568371697917844</v>
       </c>
       <c r="BY3">
-        <v>-0.0016558495740345797</v>
+        <v>-0.0015894854011695007</v>
       </c>
       <c r="BZ3">
-        <v>-0.0015580299398760677</v>
+        <v>-0.0015011200749624352</v>
       </c>
       <c r="CA3">
-        <v>-0.0016818500852253428</v>
+        <v>-0.0016664322237479011</v>
       </c>
       <c r="CB3">
-        <v>-0.0016137605447978619</v>
+        <v>-0.0015267450203851479</v>
       </c>
       <c r="CC3">
-        <v>-0.0016744446436286449</v>
+        <v>-0.0016426701303842162</v>
       </c>
       <c r="CD3">
-        <v>-0.0016829430534257141</v>
+        <v>-0.0015169864917880262</v>
       </c>
       <c r="CE3">
-        <v>-0.0015845719918535636</v>
+        <v>-0.0016574344936847321</v>
       </c>
       <c r="CF3">
-        <v>-0.0016325542339811088</v>
+        <v>-0.0015544931886484594</v>
       </c>
       <c r="CG3">
-        <v>-0.00162020440846867</v>
+        <v>-0.0015955364036950878</v>
       </c>
       <c r="CH3">
-        <v>-0.0016141533754516488</v>
+        <v>-0.0015666287958609854</v>
       </c>
       <c r="CI3">
-        <v>-0.0017024422349056721</v>
+        <v>-0.0016253994233245508</v>
       </c>
       <c r="CJ3">
-        <v>-0.0015206309961546746</v>
+        <v>-0.0015751950884238931</v>
       </c>
       <c r="CK3">
-        <v>-0.0011012114317456901</v>
+        <v>-0.0010594492828101744</v>
       </c>
       <c r="CL3">
-        <v>-9.4306411488750342e-05</v>
+        <v>-0.00021962706310659915</v>
       </c>
       <c r="CM3">
-        <v>-0.00030456500632354148</v>
+        <v>-9.5451369163110703e-05</v>
       </c>
       <c r="CN3">
-        <v>-8.6170518385077224e-05</v>
+        <v>5.6715408505858603e-07</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.0068479331453386583</v>
+        <v>0.0069775501073484486</v>
       </c>
       <c r="CQ3">
-        <v>-0.0010841694781617631</v>
+        <v>-0.00091845384753824993</v>
       </c>
       <c r="CR3">
-        <v>-0.0010217775973070827</v>
+        <v>-0.0010738039295170774</v>
       </c>
       <c r="CS3">
-        <v>-0.000969155461419671</v>
+        <v>-0.00090658090838387966</v>
       </c>
       <c r="CT3">
-        <v>-0.0010864747812766328</v>
+        <v>-0.001057401121795925</v>
       </c>
       <c r="CU3">
-        <v>-0.0011305648138929313</v>
+        <v>-0.0010533022617809985</v>
       </c>
       <c r="CV3">
-        <v>-0.0011757674457612856</v>
+        <v>-0.001072845896871077</v>
       </c>
       <c r="CW3">
-        <v>-0.0011914573209593142</v>
+        <v>-0.0011013693493403028</v>
       </c>
       <c r="CX3">
-        <v>-0.0011881066125623287</v>
+        <v>-0.0011481378960378126</v>
       </c>
       <c r="CY3">
-        <v>-0.0011982015303781438</v>
+        <v>-0.00087054008859921699</v>
       </c>
       <c r="CZ3">
-        <v>-0.0010123786263022284</v>
+        <v>-0.0011569636466922239</v>
       </c>
       <c r="DA3">
-        <v>-0.0010018399618438748</v>
+        <v>-0.0010861538589618707</v>
       </c>
       <c r="DB3">
-        <v>-0.0010910625127432388</v>
+        <v>-0.00096083705238263835</v>
       </c>
       <c r="DC3">
-        <v>-0.0012299976135369322</v>
+        <v>-0.00099168737371120802</v>
       </c>
       <c r="DD3">
-        <v>-0.0010434282145461349</v>
+        <v>-0.00090121079238293699</v>
       </c>
       <c r="DE3">
-        <v>-0.00096313390222234644</v>
+        <v>-0.0010894384538440317</v>
       </c>
       <c r="DF3">
-        <v>-7.9233909562468859e-05</v>
+        <v>-0.00017210459813418508</v>
       </c>
       <c r="DG3">
-        <v>-0.00015536400744696881</v>
+        <v>-0.00017702976019293322</v>
       </c>
       <c r="DH3">
-        <v>-0.00024181543062240887</v>
+        <v>-1.1838493283489064e-05</v>
       </c>
       <c r="DI3">
-        <v>5.1421371890923365e-05</v>
+        <v>-8.7100422197003842e-05</v>
       </c>
       <c r="DJ3">
-        <v>-0.00021523669523559508</v>
+        <v>-0.0002024059050053353</v>
       </c>
       <c r="DK3">
-        <v>-0.00078114924904033813</v>
+        <v>-0.00077960335721543531</v>
       </c>
       <c r="DL3">
-        <v>-0.00082295422718276195</v>
+        <v>-0.00084705328294547061</v>
       </c>
       <c r="DM3">
-        <v>-0.0010171312378328327</v>
+        <v>-0.00086801187905974006</v>
       </c>
       <c r="DN3">
-        <v>-0.00091853337254730477</v>
+        <v>-0.00088453919291362122</v>
       </c>
       <c r="DO3">
-        <v>-0.0008347302514999772</v>
+        <v>-0.00089655910970285781</v>
       </c>
       <c r="DP3">
-        <v>-0.0010444330493152745</v>
+        <v>-0.00083681113531835116</v>
       </c>
       <c r="DQ3">
-        <v>-0.00080202520007183317</v>
+        <v>-0.00085188612770218189</v>
       </c>
       <c r="DR3">
-        <v>-0.00096652800157615774</v>
+        <v>-0.00070593165318598764</v>
       </c>
       <c r="DS3">
-        <v>-0.00083502182022374258</v>
+        <v>-0.00080116180626619833</v>
       </c>
       <c r="DT3">
-        <v>-0.00081095320133740812</v>
+        <v>-0.00075779077285150355</v>
       </c>
       <c r="DU3">
-        <v>-0.00085527713028939331</v>
+        <v>-0.00069434481889301943</v>
       </c>
       <c r="DV3">
-        <v>-0.00088218588435483639</v>
+        <v>-0.00074990943168505607</v>
       </c>
       <c r="DW3">
-        <v>-0.00088808536580413464</v>
+        <v>-0.00097428393177185547</v>
       </c>
       <c r="DX3">
-        <v>-0.00087593161433975023</v>
+        <v>-0.00080454358829708218</v>
       </c>
       <c r="DY3">
-        <v>-0.00081718280274598563</v>
+        <v>-0.00078888582834330586</v>
       </c>
       <c r="DZ3">
-        <v>-0.00088955675815057293</v>
+        <v>-0.0008398132678338364</v>
       </c>
       <c r="EA3">
-        <v>-0.00097966202681879833</v>
+        <v>-0.00080771657887354013</v>
       </c>
       <c r="EB3">
-        <v>-0.00096666150102523948</v>
+        <v>-0.00083582795539493724</v>
       </c>
       <c r="EC3">
-        <v>-0.00085899696509662686</v>
+        <v>-0.00077149000536943331</v>
       </c>
       <c r="ED3">
-        <v>-0.00095186687707242857</v>
+        <v>-0.0008691993458690609</v>
       </c>
       <c r="EE3">
-        <v>-0.00078713606585176503</v>
+        <v>-0.00087795634563442293</v>
       </c>
       <c r="EF3">
-        <v>-0.00094700904086997609</v>
+        <v>-0.00085782671803284933</v>
       </c>
       <c r="EG3">
-        <v>-0.00092179340904020586</v>
+        <v>-0.00085640037525517524</v>
       </c>
       <c r="EH3">
-        <v>-0.0008756468879249212</v>
+        <v>-0.00083951252118417898</v>
       </c>
       <c r="EI3">
-        <v>-0.00089651309685576022</v>
+        <v>-0.00084844752283990538</v>
       </c>
       <c r="EJ3">
-        <v>-0.00087598949429302738</v>
+        <v>-0.00092013073773198673</v>
       </c>
       <c r="EK3">
-        <v>-0.00096350782972093915</v>
+        <v>-0.00083396388704443146</v>
       </c>
       <c r="EL3">
-        <v>-0.0010732063897514945</v>
+        <v>-0.00087296224296596898</v>
       </c>
       <c r="EM3">
-        <v>-0.00092034108252265676</v>
+        <v>-0.00082454100381156416</v>
       </c>
       <c r="EN3">
-        <v>-0.00092822751146264047</v>
+        <v>-0.00086215796192516464</v>
       </c>
       <c r="EO3">
-        <v>-0.00095402175755735375</v>
+        <v>-0.0009872375549104214</v>
       </c>
       <c r="EP3">
-        <v>-0.00092676017730962184</v>
+        <v>-0.00098031750322927517</v>
       </c>
       <c r="EQ3">
-        <v>-0.00091354055648270585</v>
+        <v>-0.00092867311975476001</v>
       </c>
       <c r="ER3">
-        <v>-0.00086969376858352999</v>
+        <v>-0.00092314892822284922</v>
       </c>
       <c r="ES3">
-        <v>-0.00078749657730633332</v>
+        <v>-0.00091582087089003708</v>
       </c>
       <c r="ET3">
-        <v>-0.00097782103875202679</v>
+        <v>-0.00076185953390085553</v>
       </c>
       <c r="EU3">
-        <v>-0.00089415572600112651</v>
+        <v>-0.00080598181795359385</v>
       </c>
       <c r="EV3">
-        <v>-0.0010761306229978944</v>
+        <v>-0.00096572039347777802</v>
       </c>
       <c r="EW3">
-        <v>-0.00095787612037283624</v>
+        <v>-0.0009735454288674919</v>
       </c>
       <c r="EX3">
-        <v>-0.00087322602030885492</v>
+        <v>-0.00097232927681671015</v>
       </c>
       <c r="EY3">
-        <v>-0.00097428452331586347</v>
+        <v>-0.00087695438791683157</v>
       </c>
       <c r="EZ3">
-        <v>-0.0010710877950600836</v>
+        <v>-0.00092329831338836411</v>
       </c>
       <c r="FA3">
-        <v>-0.00094738757212767559</v>
+        <v>-0.00088088590310582079</v>
       </c>
       <c r="FB3">
-        <v>-0.001018691749675543</v>
+        <v>-0.00081184183169046031</v>
       </c>
       <c r="FC3">
-        <v>-0.00094629085039821302</v>
+        <v>-0.0006669005284448816</v>
       </c>
       <c r="FD3">
-        <v>-0.00095417322435454699</v>
+        <v>-0.0010557436093032431</v>
       </c>
       <c r="FE3">
-        <v>-0.0008864692843477221</v>
+        <v>-0.00086250182848144979</v>
       </c>
       <c r="FF3">
-        <v>-0.0011298616786500424</v>
+        <v>-0.00078673441942221959</v>
       </c>
       <c r="FG3">
-        <v>-0.0012292372908155017</v>
+        <v>-0.0010174269835627183</v>
       </c>
       <c r="FH3">
-        <v>-0.00082391132458857258</v>
+        <v>-0.00093284866672275037</v>
       </c>
       <c r="FI3">
-        <v>-0.00086398829140686955</v>
+        <v>-0.0010320390322204045</v>
       </c>
       <c r="FJ3">
-        <v>-0.0010611667368032114</v>
+        <v>-0.00087747961781710663</v>
       </c>
       <c r="FK3">
-        <v>-0.00093293356469849515</v>
+        <v>-0.0010372795662320676</v>
       </c>
       <c r="FL3">
-        <v>-0.00096878406535751951</v>
+        <v>-0.00097706227779208697</v>
       </c>
       <c r="FM3">
-        <v>-0.00094646333214315926</v>
+        <v>-0.00093182848379782266</v>
       </c>
       <c r="FN3">
-        <v>-0.0011596088812728612</v>
+        <v>-0.00098230059057637228</v>
       </c>
       <c r="FO3">
-        <v>-0.00094949074478049942</v>
+        <v>-0.0010255618400555151</v>
       </c>
       <c r="FP3">
-        <v>-0.0011585540703518279</v>
+        <v>-0.00096651077307790048</v>
       </c>
       <c r="FQ3">
-        <v>-0.0010204002581970979</v>
+        <v>-0.0011690430221929558</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0050167834419889944</v>
+        <v>0.0049574485544172514</v>
       </c>
     </row>
     <row r="4">
@@ -4835,526 +4835,526 @@
         <v>176</v>
       </c>
       <c r="B4">
-        <v>0.0011587707862295562</v>
+        <v>0.0011567991839847509</v>
       </c>
       <c r="C4">
-        <v>0.00050535113160176802</v>
+        <v>0.00050449129682053151</v>
       </c>
       <c r="D4">
-        <v>0.00073978502453054217</v>
+        <v>0.00073852630983703167</v>
       </c>
       <c r="E4">
-        <v>0.00087493814557067413</v>
+        <v>0.00087344947323584081</v>
       </c>
       <c r="F4">
-        <v>0.0008006734153179788</v>
+        <v>0.00079931110145767389</v>
       </c>
       <c r="G4">
-        <v>0.00066982604148309549</v>
+        <v>0.00066868635920709141</v>
       </c>
       <c r="H4">
-        <v>0.00054289790212382776</v>
+        <v>0.00054197418301108564</v>
       </c>
       <c r="I4">
-        <v>0.00053976730853917882</v>
+        <v>0.00053884891600647507</v>
       </c>
       <c r="J4">
-        <v>0.00056969367542539966</v>
+        <v>0.00056872436437383714</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0012359440393838923</v>
+        <v>0.001233841129928924</v>
       </c>
       <c r="M4">
-        <v>0.0012359440393838923</v>
+        <v>0.001233841129928924</v>
       </c>
       <c r="N4">
-        <v>0.0012359440393838923</v>
+        <v>0.0012338411299289242</v>
       </c>
       <c r="O4">
-        <v>0.0012359440393838925</v>
+        <v>0.0012338411299289242</v>
       </c>
       <c r="P4">
-        <v>0.0012359440393838923</v>
+        <v>0.0012338411299289242</v>
       </c>
       <c r="Q4">
-        <v>0.0012359440393838927</v>
+        <v>0.0012338411299289247</v>
       </c>
       <c r="R4">
-        <v>0.0012359440393838927</v>
+        <v>0.0012338411299289247</v>
       </c>
       <c r="S4">
-        <v>0.001235944039383893</v>
+        <v>0.0012338411299289247</v>
       </c>
       <c r="T4">
-        <v>0.0012359440393838932</v>
+        <v>0.0012338411299289249</v>
       </c>
       <c r="U4">
-        <v>0.0012359440393838927</v>
+        <v>0.0012338411299289245</v>
       </c>
       <c r="V4">
-        <v>0.0012359440393838932</v>
+        <v>0.0012338411299289251</v>
       </c>
       <c r="W4">
-        <v>0.0012359440393838927</v>
+        <v>0.0012338411299289247</v>
       </c>
       <c r="X4">
-        <v>0.0012359440393838932</v>
+        <v>0.0012338411299289249</v>
       </c>
       <c r="Y4">
-        <v>0.0012359440393838932</v>
+        <v>0.0012338411299289249</v>
       </c>
       <c r="Z4">
-        <v>0.0012359440393838932</v>
+        <v>0.0012338411299289249</v>
       </c>
       <c r="AA4">
-        <v>0.0012359440393838932</v>
+        <v>0.0012338411299289249</v>
       </c>
       <c r="AB4">
-        <v>0.0012359440393838932</v>
+        <v>0.0012338411299289251</v>
       </c>
       <c r="AC4">
-        <v>0.0012359440393838932</v>
+        <v>0.0012338411299289251</v>
       </c>
       <c r="AD4">
-        <v>0.0012359440393838932</v>
+        <v>0.0012338411299289251</v>
       </c>
       <c r="AE4">
-        <v>0.0012359440393838934</v>
+        <v>0.0012338411299289251</v>
       </c>
       <c r="AF4">
-        <v>0.0012359440393838934</v>
+        <v>0.0012338411299289251</v>
       </c>
       <c r="AG4">
-        <v>0.0012359440393838934</v>
+        <v>0.0012338411299289251</v>
       </c>
       <c r="AH4">
-        <v>0.0012359440393838932</v>
+        <v>0.0012338411299289249</v>
       </c>
       <c r="AI4">
-        <v>0.0012359440393838932</v>
+        <v>0.0012338411299289251</v>
       </c>
       <c r="AJ4">
-        <v>0.0012359440393838934</v>
+        <v>0.0012338411299289251</v>
       </c>
       <c r="AK4">
-        <v>0.0012359440393838936</v>
+        <v>0.0012338411299289253</v>
       </c>
       <c r="AL4">
-        <v>0.0012359440393838936</v>
+        <v>0.0012338411299289253</v>
       </c>
       <c r="AM4">
-        <v>0.0012359440393838938</v>
+        <v>0.0012338411299289255</v>
       </c>
       <c r="AN4">
-        <v>0.0012359440393838936</v>
+        <v>0.0012338411299289255</v>
       </c>
       <c r="AO4">
-        <v>0.0012359440393838938</v>
+        <v>0.0012338411299289255</v>
       </c>
       <c r="AP4">
-        <v>0.0012359440393838938</v>
+        <v>0.0012338411299289255</v>
       </c>
       <c r="AQ4">
-        <v>0.001235944039383894</v>
+        <v>0.0012338411299289258</v>
       </c>
       <c r="AR4">
-        <v>0.001235944039383894</v>
+        <v>0.0012338411299289258</v>
       </c>
       <c r="AS4">
-        <v>0.001235944039383894</v>
+        <v>0.0012338411299289258</v>
       </c>
       <c r="AT4">
-        <v>0.0012359440393838938</v>
+        <v>0.0012338411299289255</v>
       </c>
       <c r="AU4">
-        <v>0.0012359440393838938</v>
+        <v>0.0012338411299289255</v>
       </c>
       <c r="AV4">
-        <v>0.0012359440393838938</v>
+        <v>0.0012338411299289255</v>
       </c>
       <c r="AW4">
-        <v>0.0012359440393838938</v>
+        <v>0.0012338411299289255</v>
       </c>
       <c r="AX4">
-        <v>0.0012359440393838938</v>
+        <v>0.0012338411299289255</v>
       </c>
       <c r="AY4">
-        <v>0.0012359440393838938</v>
+        <v>0.0012338411299289255</v>
       </c>
       <c r="AZ4">
-        <v>0.0012359440393838938</v>
+        <v>0.0012338411299289255</v>
       </c>
       <c r="BA4">
-        <v>0.0012359440393838938</v>
+        <v>0.0012338411299289255</v>
       </c>
       <c r="BB4">
-        <v>0.0012359440393838938</v>
+        <v>0.0012338411299289255</v>
       </c>
       <c r="BC4">
-        <v>0.001235944039383894</v>
+        <v>0.0012338411299289258</v>
       </c>
       <c r="BD4">
-        <v>0.0012359440393838938</v>
+        <v>0.0012338411299289255</v>
       </c>
       <c r="BE4">
-        <v>0.001235944039383894</v>
+        <v>0.0012338411299289258</v>
       </c>
       <c r="BF4">
-        <v>0.0012359440393838938</v>
+        <v>0.0012338411299289255</v>
       </c>
       <c r="BG4">
-        <v>0.001235944039383894</v>
+        <v>0.0012338411299289258</v>
       </c>
       <c r="BH4">
-        <v>0.0012359440393838938</v>
+        <v>0.0012338411299289255</v>
       </c>
       <c r="BI4">
-        <v>0.001235944039383894</v>
+        <v>0.0012338411299289258</v>
       </c>
       <c r="BJ4">
-        <v>0.001235944039383894</v>
+        <v>0.0012338411299289258</v>
       </c>
       <c r="BK4">
-        <v>0.001235944039383894</v>
+        <v>0.0012338411299289258</v>
       </c>
       <c r="BL4">
-        <v>0.001235944039383894</v>
+        <v>0.0012338411299289258</v>
       </c>
       <c r="BM4">
-        <v>0.0012359440393838943</v>
+        <v>0.001233841129928926</v>
       </c>
       <c r="BN4">
-        <v>0.0012359440393838943</v>
+        <v>0.001233841129928926</v>
       </c>
       <c r="BO4">
-        <v>0.0012359440393838945</v>
+        <v>0.0012338411299289262</v>
       </c>
       <c r="BP4">
-        <v>0.0012359440393838945</v>
+        <v>0.0012338411299289262</v>
       </c>
       <c r="BQ4">
-        <v>0.0012352442635157038</v>
+        <v>0.0012331425447014465</v>
       </c>
       <c r="BR4">
-        <v>0.0012352442635157038</v>
+        <v>0.0012331425447014463</v>
       </c>
       <c r="BS4">
-        <v>0.001235244263515704</v>
+        <v>0.0012331425447014465</v>
       </c>
       <c r="BT4">
-        <v>0.0011207798605311387</v>
+        <v>0.0011188728983301448</v>
       </c>
       <c r="BU4">
-        <v>0.0011207798605311387</v>
+        <v>0.0011188728983301448</v>
       </c>
       <c r="BV4">
-        <v>0.0012996431156686518</v>
+        <v>0.0012974318247776933</v>
       </c>
       <c r="BW4">
-        <v>0.0012745727030561659</v>
+        <v>0.0012724040684716767</v>
       </c>
       <c r="BX4">
-        <v>0.0012745727030561659</v>
+        <v>0.0012724040684716767</v>
       </c>
       <c r="BY4">
-        <v>0.001255560762105472</v>
+        <v>0.0012534244755797205</v>
       </c>
       <c r="BZ4">
-        <v>0.0012555607621054722</v>
+        <v>0.0012534244755797207</v>
       </c>
       <c r="CA4">
-        <v>0.0012555607621054722</v>
+        <v>0.0012534244755797207</v>
       </c>
       <c r="CB4">
-        <v>0.0012401413745655159</v>
+        <v>0.001238031323512257</v>
       </c>
       <c r="CC4">
-        <v>0.0012401413745655164</v>
+        <v>0.0012380313235122575</v>
       </c>
       <c r="CD4">
-        <v>0.0012401413745655161</v>
+        <v>0.0012380313235122572</v>
       </c>
       <c r="CE4">
-        <v>0.0012401413745655161</v>
+        <v>0.0012380313235122572</v>
       </c>
       <c r="CF4">
-        <v>0.0012401413745655164</v>
+        <v>0.0012380313235122575</v>
       </c>
       <c r="CG4">
-        <v>0.001236783247791148</v>
+        <v>0.0012346789104565688</v>
       </c>
       <c r="CH4">
-        <v>0.001236783247791148</v>
+        <v>0.0012346789104565685</v>
       </c>
       <c r="CI4">
-        <v>0.001236783247791148</v>
+        <v>0.0012346789104565685</v>
       </c>
       <c r="CJ4">
-        <v>0.0012367832477911483</v>
+        <v>0.001234678910456569</v>
       </c>
       <c r="CK4">
-        <v>0.0012530354766797191</v>
+        <v>0.0012509034868263325</v>
       </c>
       <c r="CL4">
-        <v>0.0011826045552714719</v>
+        <v>0.0011805924008198765</v>
       </c>
       <c r="CM4">
-        <v>0.0011826045552714719</v>
+        <v>0.0011805924008198769</v>
       </c>
       <c r="CN4">
-        <v>0.0010744607730800207</v>
+        <v>0.0010726326209576733</v>
       </c>
       <c r="CO4">
         <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.0012599169358416039</v>
+        <v>0.0012577732374601004</v>
       </c>
       <c r="CQ4">
-        <v>0.0012750067894947267</v>
+        <v>0.0012728374163294871</v>
       </c>
       <c r="CR4">
-        <v>0.0012750067894947267</v>
+        <v>0.0012728374163294871</v>
       </c>
       <c r="CS4">
-        <v>0.001256001419274923</v>
+        <v>0.0012538643829885848</v>
       </c>
       <c r="CT4">
-        <v>0.0012560014192749232</v>
+        <v>0.001253864382988585</v>
       </c>
       <c r="CU4">
-        <v>0.001256001419274923</v>
+        <v>0.0012538643829885848</v>
       </c>
       <c r="CV4">
-        <v>0.0012405875087195567</v>
+        <v>0.0012384766985868404</v>
       </c>
       <c r="CW4">
-        <v>0.0012405875087195565</v>
+        <v>0.0012384766985868404</v>
       </c>
       <c r="CX4">
-        <v>0.0012405875087195567</v>
+        <v>0.0012384766985868406</v>
       </c>
       <c r="CY4">
-        <v>0.0012405875087195563</v>
+        <v>0.0012384766985868401</v>
       </c>
       <c r="CZ4">
-        <v>0.0012405875087195567</v>
+        <v>0.0012384766985868406</v>
       </c>
       <c r="DA4">
-        <v>0.0012388229468339132</v>
+        <v>0.0012367151390328195</v>
       </c>
       <c r="DB4">
-        <v>0.001238822946833913</v>
+        <v>0.0012367151390328193</v>
       </c>
       <c r="DC4">
-        <v>0.0012388229468339132</v>
+        <v>0.0012367151390328195</v>
       </c>
       <c r="DD4">
-        <v>0.001238822946833913</v>
+        <v>0.0012367151390328193</v>
       </c>
       <c r="DE4">
-        <v>0.0012388229468339132</v>
+        <v>0.0012367151390328195</v>
       </c>
       <c r="DF4">
-        <v>0.0011601056600719516</v>
+        <v>0.0011581317865925797</v>
       </c>
       <c r="DG4">
-        <v>0.0011601056600719513</v>
+        <v>0.0011581317865925797</v>
       </c>
       <c r="DH4">
-        <v>0.0011601056600719516</v>
+        <v>0.0011581317865925797</v>
       </c>
       <c r="DI4">
-        <v>0.0011601056600719518</v>
+        <v>0.0011581317865925799</v>
       </c>
       <c r="DJ4">
-        <v>0.0011601056600719518</v>
+        <v>0.0011581317865925799</v>
       </c>
       <c r="DK4">
-        <v>0.001236839174772564</v>
+        <v>0.0012347347422804579</v>
       </c>
       <c r="DL4">
-        <v>0.001236839174772564</v>
+        <v>0.0012347347422804579</v>
       </c>
       <c r="DM4">
-        <v>0.001236839174772564</v>
+        <v>0.0012347347422804579</v>
       </c>
       <c r="DN4">
-        <v>0.0012368391747725638</v>
+        <v>0.0012347347422804577</v>
       </c>
       <c r="DO4">
-        <v>0.001236839174772564</v>
+        <v>0.0012347347422804579</v>
       </c>
       <c r="DP4">
-        <v>0.001236839174772564</v>
+        <v>0.0012347347422804579</v>
       </c>
       <c r="DQ4">
-        <v>0.0012368391747725643</v>
+        <v>0.0012347347422804582</v>
       </c>
       <c r="DR4">
-        <v>0.001236839174772564</v>
+        <v>0.0012347347422804579</v>
       </c>
       <c r="DS4">
-        <v>0.0012368391747725651</v>
+        <v>0.0012347347422804588</v>
       </c>
       <c r="DT4">
-        <v>0.0012368391747725643</v>
+        <v>0.0012347347422804582</v>
       </c>
       <c r="DU4">
-        <v>0.0012368391747725651</v>
+        <v>0.0012347347422804588</v>
       </c>
       <c r="DV4">
-        <v>0.0012368391747725651</v>
+        <v>0.0012347347422804588</v>
       </c>
       <c r="DW4">
-        <v>0.0012368391747725651</v>
+        <v>0.0012347347422804588</v>
       </c>
       <c r="DX4">
-        <v>0.0012368391747725649</v>
+        <v>0.0012347347422804588</v>
       </c>
       <c r="DY4">
-        <v>0.0012368391747725651</v>
+        <v>0.001234734742280459</v>
       </c>
       <c r="DZ4">
-        <v>0.0012368391747725651</v>
+        <v>0.001234734742280459</v>
       </c>
       <c r="EA4">
-        <v>0.0012368391747725656</v>
+        <v>0.0012347347422804592</v>
       </c>
       <c r="EB4">
-        <v>0.0012368391747725656</v>
+        <v>0.0012347347422804595</v>
       </c>
       <c r="EC4">
-        <v>0.0012368391747725656</v>
+        <v>0.0012347347422804592</v>
       </c>
       <c r="ED4">
-        <v>0.0012368391747725656</v>
+        <v>0.0012347347422804592</v>
       </c>
       <c r="EE4">
-        <v>0.0012368391747725656</v>
+        <v>0.0012347347422804592</v>
       </c>
       <c r="EF4">
-        <v>0.0012368391747725658</v>
+        <v>0.0012347347422804597</v>
       </c>
       <c r="EG4">
-        <v>0.0012368391747725656</v>
+        <v>0.0012347347422804595</v>
       </c>
       <c r="EH4">
-        <v>0.001236839174772566</v>
+        <v>0.0012347347422804599</v>
       </c>
       <c r="EI4">
-        <v>0.0012368391747725658</v>
+        <v>0.0012347347422804597</v>
       </c>
       <c r="EJ4">
-        <v>0.001236839174772566</v>
+        <v>0.0012347347422804599</v>
       </c>
       <c r="EK4">
-        <v>0.0012368391747725658</v>
+        <v>0.0012347347422804597</v>
       </c>
       <c r="EL4">
-        <v>0.001236839174772566</v>
+        <v>0.0012347347422804599</v>
       </c>
       <c r="EM4">
-        <v>0.0012368391747725658</v>
+        <v>0.0012347347422804597</v>
       </c>
       <c r="EN4">
-        <v>0.0012368391747725662</v>
+        <v>0.0012347347422804601</v>
       </c>
       <c r="EO4">
-        <v>0.0012368391747725658</v>
+        <v>0.0012347347422804597</v>
       </c>
       <c r="EP4">
-        <v>0.001236839174772566</v>
+        <v>0.0012347347422804599</v>
       </c>
       <c r="EQ4">
-        <v>0.0012368391747725664</v>
+        <v>0.0012347347422804603</v>
       </c>
       <c r="ER4">
-        <v>0.0012368391747725664</v>
+        <v>0.0012347347422804603</v>
       </c>
       <c r="ES4">
-        <v>0.0012368391747725664</v>
+        <v>0.0012347347422804603</v>
       </c>
       <c r="ET4">
-        <v>0.0012368391747725664</v>
+        <v>0.0012347347422804603</v>
       </c>
       <c r="EU4">
-        <v>0.0012368391747725664</v>
+        <v>0.0012347347422804603</v>
       </c>
       <c r="EV4">
-        <v>0.0012368391747725662</v>
+        <v>0.0012347347422804601</v>
       </c>
       <c r="EW4">
-        <v>0.0012368391747725658</v>
+        <v>0.0012347347422804597</v>
       </c>
       <c r="EX4">
-        <v>0.0012368391747725662</v>
+        <v>0.0012347347422804601</v>
       </c>
       <c r="EY4">
-        <v>0.0012368391747725666</v>
+        <v>0.0012347347422804603</v>
       </c>
       <c r="EZ4">
-        <v>0.0012368391747725666</v>
+        <v>0.0012347347422804603</v>
       </c>
       <c r="FA4">
-        <v>0.0012368391747725666</v>
+        <v>0.0012347347422804605</v>
       </c>
       <c r="FB4">
-        <v>0.0012368391747725666</v>
+        <v>0.0012347347422804605</v>
       </c>
       <c r="FC4">
-        <v>0.0012368391747725666</v>
+        <v>0.0012347347422804605</v>
       </c>
       <c r="FD4">
-        <v>0.0012368391747725666</v>
+        <v>0.0012347347422804605</v>
       </c>
       <c r="FE4">
-        <v>0.0012368391747725669</v>
+        <v>0.0012347347422804608</v>
       </c>
       <c r="FF4">
-        <v>0.0012368391747725666</v>
+        <v>0.0012347347422804605</v>
       </c>
       <c r="FG4">
-        <v>0.0012368391747725669</v>
+        <v>0.0012347347422804608</v>
       </c>
       <c r="FH4">
-        <v>0.0012368391747725669</v>
+        <v>0.0012347347422804608</v>
       </c>
       <c r="FI4">
-        <v>0.0012368391747725671</v>
+        <v>0.0012347347422804608</v>
       </c>
       <c r="FJ4">
-        <v>0.0012368391747725671</v>
+        <v>0.0012347347422804608</v>
       </c>
       <c r="FK4">
-        <v>0.0012368391747725673</v>
+        <v>0.0012347347422804612</v>
       </c>
       <c r="FL4">
-        <v>0.0012368391747725673</v>
+        <v>0.0012347347422804612</v>
       </c>
       <c r="FM4">
-        <v>0.0012368391747725673</v>
+        <v>0.0012347347422804612</v>
       </c>
       <c r="FN4">
-        <v>0.0012368391747725671</v>
+        <v>0.0012347347422804612</v>
       </c>
       <c r="FO4">
-        <v>0.0012368391747725673</v>
+        <v>0.0012347347422804612</v>
       </c>
       <c r="FP4">
-        <v>0.0012368391747725673</v>
+        <v>0.0012347347422804612</v>
       </c>
       <c r="FQ4">
-        <v>0.0012368391747725675</v>
+        <v>0.0012347347422804614</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.0009759806185616227</v>
+        <v>0.00097432002649172438</v>
       </c>
     </row>
   </sheetData>
@@ -5898,526 +5898,526 @@
         <v>175</v>
       </c>
       <c r="B3">
-        <v>0.0088069116184404557</v>
+        <v>0.00873541144614365</v>
       </c>
       <c r="C3">
-        <v>-0.003084244154584366</v>
+        <v>-0.0030752621139738209</v>
       </c>
       <c r="D3">
-        <v>-0.0030732709929550267</v>
+        <v>-0.003063824216295836</v>
       </c>
       <c r="E3">
-        <v>-0.0030509604772018693</v>
+        <v>-0.0030447035308068574</v>
       </c>
       <c r="F3">
-        <v>0.0069763399434365301</v>
+        <v>0.0069785161377974971</v>
       </c>
       <c r="G3">
-        <v>0.0055584452027837425</v>
+        <v>0.0055930626471037042</v>
       </c>
       <c r="H3">
-        <v>0.0040663747900833427</v>
+        <v>0.0040518411245851864</v>
       </c>
       <c r="I3">
-        <v>0.0027441778487953647</v>
+        <v>0.0026941595086344412</v>
       </c>
       <c r="J3">
-        <v>0.0018942760445866229</v>
+        <v>0.0018647100388580219</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0020659951494788045</v>
+        <v>0.0020266356718200737</v>
       </c>
       <c r="M3">
-        <v>0.002264238115976481</v>
+        <v>0.0024456569012692555</v>
       </c>
       <c r="N3">
-        <v>-6.0415304914258098e-05</v>
+        <v>-5.0091667173075963e-06</v>
       </c>
       <c r="O3">
-        <v>-5.4218428500535911e-05</v>
+        <v>-2.080678520630806e-06</v>
       </c>
       <c r="P3">
-        <v>-5.029780629728945e-05</v>
+        <v>-9.0383594277407515e-06</v>
       </c>
       <c r="Q3">
-        <v>-4.3854561015704775e-05</v>
+        <v>2.3370467695540562e-05</v>
       </c>
       <c r="R3">
-        <v>-4.0576464225901703e-05</v>
+        <v>-3.6026959425604797e-06</v>
       </c>
       <c r="S3">
-        <v>-5.3441774021935398e-05</v>
+        <v>2.7912194141129049e-05</v>
       </c>
       <c r="T3">
-        <v>-5.7467549522213971e-05</v>
+        <v>2.3198280919772708e-05</v>
       </c>
       <c r="U3">
-        <v>1.0215239184249927e-05</v>
+        <v>-2.1502378599363094e-05</v>
       </c>
       <c r="V3">
-        <v>-1.9243995624606236e-05</v>
+        <v>6.3955630611759433e-05</v>
       </c>
       <c r="W3">
-        <v>-2.0627612214277996e-07</v>
+        <v>9.8018304019105703e-05</v>
       </c>
       <c r="X3">
-        <v>4.5216981697954212e-05</v>
+        <v>4.2587938035516908e-05</v>
       </c>
       <c r="Y3">
-        <v>9.2079803793602472e-06</v>
+        <v>6.4128539218313805e-05</v>
       </c>
       <c r="Z3">
-        <v>2.0520417436049767e-05</v>
+        <v>5.887106107861268e-05</v>
       </c>
       <c r="AA3">
-        <v>2.4430334760927439e-05</v>
+        <v>6.6362939422238919e-05</v>
       </c>
       <c r="AB3">
-        <v>-6.2987371756657967e-05</v>
+        <v>8.4334429880216692e-05</v>
       </c>
       <c r="AC3">
-        <v>4.6967219090454247e-05</v>
+        <v>9.8596982122101015e-05</v>
       </c>
       <c r="AD3">
-        <v>4.3974816837266361e-05</v>
+        <v>0.00011638910832162957</v>
       </c>
       <c r="AE3">
-        <v>-8.4724749734978548e-07</v>
+        <v>5.3603244890119063e-05</v>
       </c>
       <c r="AF3">
-        <v>3.5933790360536719e-05</v>
+        <v>6.4663925505844394e-05</v>
       </c>
       <c r="AG3">
-        <v>5.5649936915738408e-05</v>
+        <v>8.6741110924893445e-05</v>
       </c>
       <c r="AH3">
-        <v>4.1476885912606777e-05</v>
+        <v>0.00011045449695924171</v>
       </c>
       <c r="AI3">
-        <v>5.3649127084269683e-05</v>
+        <v>0.00010893992736622463</v>
       </c>
       <c r="AJ3">
-        <v>7.7436029034894059e-05</v>
+        <v>0.00014273608547355233</v>
       </c>
       <c r="AK3">
-        <v>1.810922999513069e-05</v>
+        <v>0.00012787738605061886</v>
       </c>
       <c r="AL3">
-        <v>4.4949251467537805e-05</v>
+        <v>9.2479227304142881e-05</v>
       </c>
       <c r="AM3">
-        <v>7.6041034795485692e-05</v>
+        <v>7.6196633206714019e-05</v>
       </c>
       <c r="AN3">
-        <v>3.4184355198880511e-05</v>
+        <v>0.00010891173453440636</v>
       </c>
       <c r="AO3">
-        <v>7.3521704400723653e-05</v>
+        <v>0.0001477303238801102</v>
       </c>
       <c r="AP3">
-        <v>3.561580079240874e-05</v>
+        <v>0.00011603364911983126</v>
       </c>
       <c r="AQ3">
-        <v>7.8512186545420912e-05</v>
+        <v>0.00011872024843807232</v>
       </c>
       <c r="AR3">
-        <v>2.7374905409596265e-06</v>
+        <v>0.00015844305573352446</v>
       </c>
       <c r="AS3">
-        <v>5.0332744470409248e-05</v>
+        <v>0.00013239618175605984</v>
       </c>
       <c r="AT3">
-        <v>8.8609562850814545e-05</v>
+        <v>8.5016421058002823e-05</v>
       </c>
       <c r="AU3">
-        <v>6.3887112874227956e-05</v>
+        <v>6.0030832475677314e-05</v>
       </c>
       <c r="AV3">
-        <v>5.2895616282302914e-05</v>
+        <v>0.00013184659176733622</v>
       </c>
       <c r="AW3">
-        <v>0.00010184045361407978</v>
+        <v>9.786058605231818e-05</v>
       </c>
       <c r="AX3">
-        <v>0.00011405039800584135</v>
+        <v>0.00016427650917370752</v>
       </c>
       <c r="AY3">
-        <v>8.1280051224116902e-05</v>
+        <v>9.9100230979445514e-05</v>
       </c>
       <c r="AZ3">
-        <v>0.00010649767746290002</v>
+        <v>0.00019413540551327526</v>
       </c>
       <c r="BA3">
-        <v>0.0001355357056701024</v>
+        <v>0.00015432381432762526</v>
       </c>
       <c r="BB3">
-        <v>9.9585143378761883e-05</v>
+        <v>0.00017590514236842086</v>
       </c>
       <c r="BC3">
-        <v>0.00010193736282799784</v>
+        <v>0.00013576555268249787</v>
       </c>
       <c r="BD3">
-        <v>3.2804814124350291e-05</v>
+        <v>9.1256309250833012e-05</v>
       </c>
       <c r="BE3">
-        <v>8.731408141987762e-05</v>
+        <v>9.9396061017423815e-05</v>
       </c>
       <c r="BF3">
-        <v>8.3431936230906787e-05</v>
+        <v>9.8805641026278472e-05</v>
       </c>
       <c r="BG3">
-        <v>4.9613484018846806e-05</v>
+        <v>0.00012052224624079983</v>
       </c>
       <c r="BH3">
-        <v>4.414804684853653e-05</v>
+        <v>0.00015793776779191374</v>
       </c>
       <c r="BI3">
-        <v>0.00010100969566023338</v>
+        <v>9.1970504841244128e-05</v>
       </c>
       <c r="BJ3">
-        <v>6.0781637755513025e-05</v>
+        <v>0.00014646562581409215</v>
       </c>
       <c r="BK3">
-        <v>7.5240066509902056e-05</v>
+        <v>0.00013371323139260157</v>
       </c>
       <c r="BL3">
-        <v>6.6694551909806928e-05</v>
+        <v>0.0001543640232964724</v>
       </c>
       <c r="BM3">
-        <v>9.7588111745959669e-05</v>
+        <v>0.00011368884938169946</v>
       </c>
       <c r="BN3">
-        <v>5.7869104399930742e-05</v>
+        <v>0.00010305925984606914</v>
       </c>
       <c r="BO3">
-        <v>0.00011046777911361378</v>
+        <v>0.0001221599046427877</v>
       </c>
       <c r="BP3">
-        <v>4.0839218685407016e-05</v>
+        <v>7.0270175465951451e-05</v>
       </c>
       <c r="BQ3">
-        <v>8.2157759951277898e-05</v>
+        <v>0.00010195455184898844</v>
       </c>
       <c r="BR3">
-        <v>8.0465751942983149e-05</v>
+        <v>0.00012242123693743937</v>
       </c>
       <c r="BS3">
-        <v>5.2441932661045042e-05</v>
+        <v>9.546741712197433e-05</v>
       </c>
       <c r="BT3">
-        <v>7.2914603089068662e-05</v>
+        <v>0.00011274950224437103</v>
       </c>
       <c r="BU3">
-        <v>7.1653650393839583e-06</v>
+        <v>9.7774069384801672e-05</v>
       </c>
       <c r="BV3">
-        <v>-0.0002970754637313084</v>
+        <v>-0.0001721662744131366</v>
       </c>
       <c r="BW3">
-        <v>0.00028757377105795333</v>
+        <v>0.00043119041893724007</v>
       </c>
       <c r="BX3">
-        <v>-4.4440795442526698e-06</v>
+        <v>7.0799541650600251e-05</v>
       </c>
       <c r="BY3">
-        <v>0.00032291438481196337</v>
+        <v>0.00044271087513383418</v>
       </c>
       <c r="BZ3">
-        <v>0.00013319848506771341</v>
+        <v>0.00028520252182376418</v>
       </c>
       <c r="CA3">
-        <v>-0.00017569667001823334</v>
+        <v>-0.0002247473778614426</v>
       </c>
       <c r="CB3">
-        <v>0.00043831761506734566</v>
+        <v>0.00047401496268258564</v>
       </c>
       <c r="CC3">
-        <v>0.00012124855059181895</v>
+        <v>0.00021757229576711056</v>
       </c>
       <c r="CD3">
-        <v>-1.9932745512326729e-05</v>
+        <v>9.562340437949769e-05</v>
       </c>
       <c r="CE3">
-        <v>-9.9227349001852351e-05</v>
+        <v>-8.1912404480484558e-05</v>
       </c>
       <c r="CF3">
-        <v>-0.00026966869637225455</v>
+        <v>-0.00018453247066918511</v>
       </c>
       <c r="CG3">
-        <v>0.00026197799844698014</v>
+        <v>0.00028074332856008085</v>
       </c>
       <c r="CH3">
-        <v>8.3663958638883256e-05</v>
+        <v>0.00015205528785296161</v>
       </c>
       <c r="CI3">
-        <v>-0.00010278553837446049</v>
+        <v>-2.4051205919120087e-06</v>
       </c>
       <c r="CJ3">
-        <v>-4.1914500831556537e-05</v>
+        <v>-5.3824342580211315e-05</v>
       </c>
       <c r="CK3">
-        <v>-0.00014193511941618781</v>
+        <v>-0.00013126917830977235</v>
       </c>
       <c r="CL3">
-        <v>0.00022810042216008563</v>
+        <v>0.0001250822409396406</v>
       </c>
       <c r="CM3">
-        <v>-4.456360342271252e-05</v>
+        <v>0.00019917721882831599</v>
       </c>
       <c r="CN3">
-        <v>2.7761460109924869e-06</v>
+        <v>5.3553709254888788e-05</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>-8.4303845407222887e-05</v>
+        <v>8.228725358128655e-05</v>
       </c>
       <c r="CQ3">
-        <v>0.0015207278458894745</v>
+        <v>0.0017408162488265668</v>
       </c>
       <c r="CR3">
-        <v>0.0012351152264368332</v>
+        <v>0.0011509906930984946</v>
       </c>
       <c r="CS3">
-        <v>0.0016541986564879731</v>
+        <v>0.0017492194921891768</v>
       </c>
       <c r="CT3">
-        <v>0.001183339661777458</v>
+        <v>0.0012444601193803196</v>
       </c>
       <c r="CU3">
-        <v>0.00087012057395753791</v>
+        <v>0.00090173382682163139</v>
       </c>
       <c r="CV3">
-        <v>0.001428457190903322</v>
+        <v>0.0015839238244631077</v>
       </c>
       <c r="CW3">
-        <v>0.0010632553233241462</v>
+        <v>0.0012333416091661429</v>
       </c>
       <c r="CX3">
-        <v>0.00093871064599659957</v>
+        <v>0.00098812612232721865</v>
       </c>
       <c r="CY3">
-        <v>0.00072828076515795434</v>
+        <v>0.0010309056007341488</v>
       </c>
       <c r="CZ3">
-        <v>0.00071914197256760281</v>
+        <v>0.00063074494299319452</v>
       </c>
       <c r="DA3">
-        <v>0.0011001122278075286</v>
+        <v>0.0010937415314584383</v>
       </c>
       <c r="DB3">
-        <v>0.00093861570826854002</v>
+        <v>0.0010564845585910255</v>
       </c>
       <c r="DC3">
-        <v>0.00068693274831795363</v>
+        <v>0.00094119682513517714</v>
       </c>
       <c r="DD3">
-        <v>0.00073532130182674756</v>
+        <v>0.00084772770589804731</v>
       </c>
       <c r="DE3">
-        <v>0.0006607394895974852</v>
+        <v>0.00057461139049308962</v>
       </c>
       <c r="DF3">
-        <v>0.00096484997160996408</v>
+        <v>0.00084913637006126712</v>
       </c>
       <c r="DG3">
-        <v>0.00075946539817341456</v>
+        <v>0.00072880577062456125</v>
       </c>
       <c r="DH3">
-        <v>0.00060940176304918187</v>
+        <v>0.00084400729983037941</v>
       </c>
       <c r="DI3">
-        <v>0.00074326222495922579</v>
+        <v>0.00064149443313591011</v>
       </c>
       <c r="DJ3">
-        <v>0.00041621442908600727</v>
+        <v>0.00042604332850662856</v>
       </c>
       <c r="DK3">
-        <v>0.0014577221502369117</v>
+        <v>0.0014699785970977404</v>
       </c>
       <c r="DL3">
-        <v>0.0013233167250199707</v>
+        <v>0.0013377846290042403</v>
       </c>
       <c r="DM3">
-        <v>0.0010958365479285259</v>
+        <v>0.0011882417851142805</v>
       </c>
       <c r="DN3">
-        <v>0.0011459332279585377</v>
+        <v>0.0011196670562082069</v>
       </c>
       <c r="DO3">
-        <v>0.0011553799978520154</v>
+        <v>0.0011200319631648852</v>
       </c>
       <c r="DP3">
-        <v>0.00088925869034515873</v>
+        <v>0.0010856161862750563</v>
       </c>
       <c r="DQ3">
-        <v>0.0010520041001419891</v>
+        <v>0.0010285245618025444</v>
       </c>
       <c r="DR3">
-        <v>0.0008644750219794537</v>
+        <v>0.0011025517983733475</v>
       </c>
       <c r="DS3">
-        <v>0.00097103093630071177</v>
+        <v>0.00099487509469614556</v>
       </c>
       <c r="DT3">
-        <v>0.00094495764973623287</v>
+        <v>0.0010023325844833947</v>
       </c>
       <c r="DU3">
-        <v>0.00087820339103651332</v>
+        <v>0.0010325033166352171</v>
       </c>
       <c r="DV3">
-        <v>0.0007932236750441984</v>
+        <v>0.00091753579069974475</v>
       </c>
       <c r="DW3">
-        <v>0.00077041777879562989</v>
+        <v>0.00069839796188945146</v>
       </c>
       <c r="DX3">
-        <v>0.00075226359257443481</v>
+        <v>0.00085449118788639142</v>
       </c>
       <c r="DY3">
-        <v>0.00078645977899735619</v>
+        <v>0.0008297986557023291</v>
       </c>
       <c r="DZ3">
-        <v>0.00069650386605338505</v>
+        <v>0.00073915661254673017</v>
       </c>
       <c r="EA3">
-        <v>0.000576384527014158</v>
+        <v>0.00072785283395871824</v>
       </c>
       <c r="EB3">
-        <v>0.00057983718457916276</v>
+        <v>0.00072527716130848163</v>
       </c>
       <c r="EC3">
-        <v>0.00065132452416513697</v>
+        <v>0.00075465835705739695</v>
       </c>
       <c r="ED3">
-        <v>0.00052115325499413172</v>
+        <v>0.00062329552293794029</v>
       </c>
       <c r="EE3">
-        <v>0.00067644528112176835</v>
+        <v>0.00059419820066057582</v>
       </c>
       <c r="EF3">
-        <v>0.00050601773561735858</v>
+        <v>0.00059432350077680751</v>
       </c>
       <c r="EG3">
-        <v>0.00050930611294784276</v>
+        <v>0.00059874797026999516</v>
       </c>
       <c r="EH3">
-        <v>0.0005477335285984865</v>
+        <v>0.00060218437343246135</v>
       </c>
       <c r="EI3">
-        <v>0.00053223747473228654</v>
+        <v>0.00058833549383422183</v>
       </c>
       <c r="EJ3">
-        <v>0.00051480358549327331</v>
+        <v>0.00049806112749694556</v>
       </c>
       <c r="EK3">
-        <v>0.00044304403249878504</v>
+        <v>0.00056226058027378776</v>
       </c>
       <c r="EL3">
-        <v>0.00032574184822901898</v>
+        <v>0.00050663858085362964</v>
       </c>
       <c r="EM3">
-        <v>0.00044729760932837702</v>
+        <v>0.00055278870889953285</v>
       </c>
       <c r="EN3">
-        <v>0.00043900133417451012</v>
+        <v>0.00049557273966027477</v>
       </c>
       <c r="EO3">
-        <v>0.00040750321107970859</v>
+        <v>0.0003994054830626111</v>
       </c>
       <c r="EP3">
-        <v>0.00043414006730982559</v>
+        <v>0.0003464963482841544</v>
       </c>
       <c r="EQ3">
-        <v>0.00043881568084548492</v>
+        <v>0.00040425188593834146</v>
       </c>
       <c r="ER3">
-        <v>0.00045868495283049002</v>
+        <v>0.00041698902776628394</v>
       </c>
       <c r="ES3">
-        <v>0.00055158888433208422</v>
+        <v>0.00042983322598063835</v>
       </c>
       <c r="ET3">
-        <v>0.00033656113291861397</v>
+        <v>0.00056832519240974087</v>
       </c>
       <c r="EU3">
-        <v>0.00041272924016887483</v>
+        <v>0.00050350561339026307</v>
       </c>
       <c r="EV3">
-        <v>0.00023276051994050234</v>
+        <v>0.00036120523501023233</v>
       </c>
       <c r="EW3">
-        <v>0.00035434464442048457</v>
+        <v>0.00033326525852290904</v>
       </c>
       <c r="EX3">
-        <v>0.00042221617897427474</v>
+        <v>0.00031961916815922698</v>
       </c>
       <c r="EY3">
-        <v>0.00033397946308032266</v>
+        <v>0.00041728266701189672</v>
       </c>
       <c r="EZ3">
-        <v>0.00021123353094185354</v>
+        <v>0.00036331843899783559</v>
       </c>
       <c r="FA3">
-        <v>0.00032137017949290071</v>
+        <v>0.00040529893873501551</v>
       </c>
       <c r="FB3">
-        <v>0.00027207180873428568</v>
+        <v>0.00047200910613861077</v>
       </c>
       <c r="FC3">
-        <v>0.00033561442726741852</v>
+        <v>0.00061920125934082138</v>
       </c>
       <c r="FD3">
-        <v>0.00031700768438427398</v>
+        <v>0.00022293239466671707</v>
       </c>
       <c r="FE3">
-        <v>0.00039738849207122988</v>
+        <v>0.00042304416906361719</v>
       </c>
       <c r="FF3">
-        <v>0.0001472406391900778</v>
+        <v>0.0004917025272021694</v>
       </c>
       <c r="FG3">
-        <v>4.5585234748345008e-05</v>
+        <v>0.00024554537232216578</v>
       </c>
       <c r="FH3">
-        <v>0.00044236607327665479</v>
+        <v>0.0003284694040233307</v>
       </c>
       <c r="FI3">
-        <v>0.00039218874180393124</v>
+        <v>0.00022971639339630046</v>
       </c>
       <c r="FJ3">
-        <v>0.00019069764751013078</v>
+        <v>0.00038930548657223389</v>
       </c>
       <c r="FK3">
-        <v>0.00031910952991334306</v>
+        <v>0.00022131446820342022</v>
       </c>
       <c r="FL3">
-        <v>0.00029234535256810948</v>
+        <v>0.00028762069927176505</v>
       </c>
       <c r="FM3">
-        <v>0.00031013048091774219</v>
+        <v>0.00033807377012873052</v>
       </c>
       <c r="FN3">
-        <v>9.5513162596145537e-05</v>
+        <v>0.00026549898987155248</v>
       </c>
       <c r="FO3">
-        <v>0.00031366351659410722</v>
+        <v>0.00023036565569849144</v>
       </c>
       <c r="FP3">
-        <v>8.6336246045438765e-05</v>
+        <v>0.00027582359068602903</v>
       </c>
       <c r="FQ3">
-        <v>0.00022760144140632121</v>
+        <v>7.260768943015407e-05</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0037991056531262507</v>
+        <v>0.0037362011671563666</v>
       </c>
     </row>
     <row r="4">
@@ -6425,526 +6425,526 @@
         <v>176</v>
       </c>
       <c r="B4">
-        <v>0.00030628116711369744</v>
+        <v>0.00030905463776629779</v>
       </c>
       <c r="C4">
-        <v>0.00013357217512606061</v>
+        <v>0.00013478171246460223</v>
       </c>
       <c r="D4">
-        <v>0.00019553670442772373</v>
+        <v>0.0001973073497349331</v>
       </c>
       <c r="E4">
-        <v>0.00023125977938193645</v>
+        <v>0.00023335390817636061</v>
       </c>
       <c r="F4">
-        <v>0.00021163045447360776</v>
+        <v>0.0002135468336627374</v>
       </c>
       <c r="G4">
-        <v>0.00017704545556945767</v>
+        <v>0.00017864865690183301</v>
       </c>
       <c r="H4">
-        <v>0.00014349637138083958</v>
+        <v>0.00014479577538445453</v>
       </c>
       <c r="I4">
-        <v>0.00014266890673618379</v>
+        <v>0.00014396081779163728</v>
       </c>
       <c r="J4">
-        <v>0.00015057891161921044</v>
+        <v>0.0001519424502141948</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.00032667925992632414</v>
+        <v>0.00032963744161525091</v>
       </c>
       <c r="M4">
-        <v>0.00032667925992632414</v>
+        <v>0.00032963744161525091</v>
       </c>
       <c r="N4">
-        <v>0.00032667925992632419</v>
+        <v>0.00032963744161525096</v>
       </c>
       <c r="O4">
-        <v>0.00032667925992632425</v>
+        <v>0.00032963744161525102</v>
       </c>
       <c r="P4">
-        <v>0.00032667925992632419</v>
+        <v>0.00032963744161525096</v>
       </c>
       <c r="Q4">
-        <v>0.0003266792599263243</v>
+        <v>0.00032963744161525107</v>
       </c>
       <c r="R4">
-        <v>0.0003266792599263243</v>
+        <v>0.00032963744161525107</v>
       </c>
       <c r="S4">
-        <v>0.0003266792599263243</v>
+        <v>0.00032963744161525112</v>
       </c>
       <c r="T4">
-        <v>0.00032667925992632435</v>
+        <v>0.00032963744161525118</v>
       </c>
       <c r="U4">
-        <v>0.00032667925992632425</v>
+        <v>0.00032963744161525102</v>
       </c>
       <c r="V4">
-        <v>0.00032667925992632441</v>
+        <v>0.00032963744161525118</v>
       </c>
       <c r="W4">
-        <v>0.0003266792599263243</v>
+        <v>0.00032963744161525107</v>
       </c>
       <c r="X4">
-        <v>0.00032667925992632441</v>
+        <v>0.00032963744161525118</v>
       </c>
       <c r="Y4">
-        <v>0.00032667925992632435</v>
+        <v>0.00032963744161525118</v>
       </c>
       <c r="Z4">
-        <v>0.00032667925992632441</v>
+        <v>0.00032963744161525118</v>
       </c>
       <c r="AA4">
-        <v>0.00032667925992632441</v>
+        <v>0.00032963744161525118</v>
       </c>
       <c r="AB4">
-        <v>0.00032667925992632441</v>
+        <v>0.00032963744161525118</v>
       </c>
       <c r="AC4">
-        <v>0.00032667925992632441</v>
+        <v>0.00032963744161525118</v>
       </c>
       <c r="AD4">
-        <v>0.00032667925992632441</v>
+        <v>0.00032963744161525118</v>
       </c>
       <c r="AE4">
-        <v>0.00032667925992632446</v>
+        <v>0.00032963744161525123</v>
       </c>
       <c r="AF4">
-        <v>0.00032667925992632446</v>
+        <v>0.00032963744161525123</v>
       </c>
       <c r="AG4">
-        <v>0.00032667925992632446</v>
+        <v>0.00032963744161525123</v>
       </c>
       <c r="AH4">
-        <v>0.00032667925992632441</v>
+        <v>0.00032963744161525118</v>
       </c>
       <c r="AI4">
-        <v>0.00032667925992632441</v>
+        <v>0.00032963744161525118</v>
       </c>
       <c r="AJ4">
-        <v>0.00032667925992632446</v>
+        <v>0.00032963744161525123</v>
       </c>
       <c r="AK4">
-        <v>0.00032667925992632446</v>
+        <v>0.00032963744161525129</v>
       </c>
       <c r="AL4">
-        <v>0.00032667925992632446</v>
+        <v>0.00032963744161525129</v>
       </c>
       <c r="AM4">
-        <v>0.00032667925992632457</v>
+        <v>0.00032963744161525134</v>
       </c>
       <c r="AN4">
-        <v>0.00032667925992632452</v>
+        <v>0.00032963744161525129</v>
       </c>
       <c r="AO4">
-        <v>0.00032667925992632457</v>
+        <v>0.00032963744161525134</v>
       </c>
       <c r="AP4">
-        <v>0.00032667925992632457</v>
+        <v>0.00032963744161525134</v>
       </c>
       <c r="AQ4">
-        <v>0.00032667925992632457</v>
+        <v>0.0003296374416152514</v>
       </c>
       <c r="AR4">
-        <v>0.00032667925992632457</v>
+        <v>0.0003296374416152514</v>
       </c>
       <c r="AS4">
-        <v>0.00032667925992632457</v>
+        <v>0.0003296374416152514</v>
       </c>
       <c r="AT4">
-        <v>0.00032667925992632457</v>
+        <v>0.00032963744161525134</v>
       </c>
       <c r="AU4">
-        <v>0.00032667925992632457</v>
+        <v>0.00032963744161525134</v>
       </c>
       <c r="AV4">
-        <v>0.00032667925992632457</v>
+        <v>0.00032963744161525134</v>
       </c>
       <c r="AW4">
-        <v>0.00032667925992632457</v>
+        <v>0.00032963744161525134</v>
       </c>
       <c r="AX4">
-        <v>0.00032667925992632457</v>
+        <v>0.00032963744161525134</v>
       </c>
       <c r="AY4">
-        <v>0.00032667925992632457</v>
+        <v>0.00032963744161525134</v>
       </c>
       <c r="AZ4">
-        <v>0.00032667925992632457</v>
+        <v>0.00032963744161525134</v>
       </c>
       <c r="BA4">
-        <v>0.00032667925992632457</v>
+        <v>0.00032963744161525134</v>
       </c>
       <c r="BB4">
-        <v>0.00032667925992632457</v>
+        <v>0.00032963744161525134</v>
       </c>
       <c r="BC4">
-        <v>0.00032667925992632457</v>
+        <v>0.0003296374416152514</v>
       </c>
       <c r="BD4">
-        <v>0.00032667925992632457</v>
+        <v>0.00032963744161525134</v>
       </c>
       <c r="BE4">
-        <v>0.00032667925992632457</v>
+        <v>0.0003296374416152514</v>
       </c>
       <c r="BF4">
-        <v>0.00032667925992632457</v>
+        <v>0.00032963744161525134</v>
       </c>
       <c r="BG4">
-        <v>0.00032667925992632457</v>
+        <v>0.0003296374416152514</v>
       </c>
       <c r="BH4">
-        <v>0.00032667925992632457</v>
+        <v>0.00032963744161525134</v>
       </c>
       <c r="BI4">
-        <v>0.00032667925992632457</v>
+        <v>0.0003296374416152514</v>
       </c>
       <c r="BJ4">
-        <v>0.00032667925992632457</v>
+        <v>0.0003296374416152514</v>
       </c>
       <c r="BK4">
-        <v>0.00032667925992632463</v>
+        <v>0.0003296374416152514</v>
       </c>
       <c r="BL4">
-        <v>0.00032667925992632463</v>
+        <v>0.0003296374416152514</v>
       </c>
       <c r="BM4">
-        <v>0.00032667925992632468</v>
+        <v>0.00032963744161525145</v>
       </c>
       <c r="BN4">
-        <v>0.00032667925992632468</v>
+        <v>0.00032963744161525145</v>
       </c>
       <c r="BO4">
-        <v>0.00032667925992632473</v>
+        <v>0.0003296374416152515</v>
       </c>
       <c r="BP4">
-        <v>0.00032667925992632473</v>
+        <v>0.0003296374416152515</v>
       </c>
       <c r="BQ4">
-        <v>0.00032649429826507608</v>
+        <v>0.00032945080506898078</v>
       </c>
       <c r="BR4">
-        <v>0.00032649429826507603</v>
+        <v>0.00032945080506898078</v>
       </c>
       <c r="BS4">
-        <v>0.00032649429826507608</v>
+        <v>0.00032945080506898084</v>
       </c>
       <c r="BT4">
-        <v>0.00029623957372791463</v>
+        <v>0.00029892211464812804</v>
       </c>
       <c r="BU4">
-        <v>0.00029623957372791463</v>
+        <v>0.00029892211464812804</v>
       </c>
       <c r="BV4">
-        <v>0.00034351591792668873</v>
+        <v>0.0003466265607587277</v>
       </c>
       <c r="BW4">
-        <v>0.00033688941739161828</v>
+        <v>0.00033994005521278226</v>
       </c>
       <c r="BX4">
-        <v>0.00033688941739161828</v>
+        <v>0.00033994005521278226</v>
       </c>
       <c r="BY4">
-        <v>0.00033186426527985138</v>
+        <v>0.00033486939879515755</v>
       </c>
       <c r="BZ4">
-        <v>0.00033186426527985144</v>
+        <v>0.0003348693987951576</v>
       </c>
       <c r="CA4">
-        <v>0.00033186426527985144</v>
+        <v>0.0003348693987951576</v>
       </c>
       <c r="CB4">
-        <v>0.00032778868098998258</v>
+        <v>0.00033075690882960947</v>
       </c>
       <c r="CC4">
-        <v>0.00032778868098998264</v>
+        <v>0.00033075690882960958</v>
       </c>
       <c r="CD4">
-        <v>0.00032778868098998264</v>
+        <v>0.00033075690882960953</v>
       </c>
       <c r="CE4">
-        <v>0.00032778868098998264</v>
+        <v>0.00033075690882960953</v>
       </c>
       <c r="CF4">
-        <v>0.00032778868098998264</v>
+        <v>0.00033075690882960958</v>
       </c>
       <c r="CG4">
-        <v>0.00032690107577936466</v>
+        <v>0.00032986126607941336</v>
       </c>
       <c r="CH4">
-        <v>0.0003269010757793646</v>
+        <v>0.00032986126607941325</v>
       </c>
       <c r="CI4">
-        <v>0.00032690107577936466</v>
+        <v>0.00032986126607941331</v>
       </c>
       <c r="CJ4">
-        <v>0.00032690107577936471</v>
+        <v>0.00032986126607941336</v>
       </c>
       <c r="CK4">
-        <v>0.00033119679300950585</v>
+        <v>0.00033419588235706021</v>
       </c>
       <c r="CL4">
-        <v>0.00031258080349185353</v>
+        <v>0.00031541131929934053</v>
       </c>
       <c r="CM4">
-        <v>0.00031258080349185358</v>
+        <v>0.00031541131929934058</v>
       </c>
       <c r="CN4">
-        <v>0.00028399671747648047</v>
+        <v>0.00028656839554855556</v>
       </c>
       <c r="CO4">
         <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.0003330156698474396</v>
+        <v>0.00033603122968705283</v>
       </c>
       <c r="CQ4">
-        <v>0.00033700415319839783</v>
+        <v>0.00034005582998776186</v>
       </c>
       <c r="CR4">
-        <v>0.00033700415319839783</v>
+        <v>0.00034005582998776186</v>
       </c>
       <c r="CS4">
-        <v>0.00033198073783314696</v>
+        <v>0.00033498692604342972</v>
       </c>
       <c r="CT4">
-        <v>0.00033198073783314701</v>
+        <v>0.00033498692604342977</v>
       </c>
       <c r="CU4">
-        <v>0.00033198073783314696</v>
+        <v>0.00033498692604342972</v>
       </c>
       <c r="CV4">
-        <v>0.0003279066011956114</v>
+        <v>0.00033087589683915438</v>
       </c>
       <c r="CW4">
-        <v>0.00032790660119561135</v>
+        <v>0.00033087589683915432</v>
       </c>
       <c r="CX4">
-        <v>0.0003279066011956114</v>
+        <v>0.00033087589683915438</v>
       </c>
       <c r="CY4">
-        <v>0.00032790660119561129</v>
+        <v>0.00033087589683915427</v>
       </c>
       <c r="CZ4">
-        <v>0.0003279066011956114</v>
+        <v>0.00033087589683915438</v>
       </c>
       <c r="DA4">
-        <v>0.00032744020000548664</v>
+        <v>0.00033040527224206882</v>
       </c>
       <c r="DB4">
-        <v>0.00032744020000548659</v>
+        <v>0.00033040527224206876</v>
       </c>
       <c r="DC4">
-        <v>0.0003274402000054867</v>
+        <v>0.00033040527224206882</v>
       </c>
       <c r="DD4">
-        <v>0.00032744020000548664</v>
+        <v>0.00033040527224206882</v>
       </c>
       <c r="DE4">
-        <v>0.00032744020000548664</v>
+        <v>0.00033040527224206882</v>
       </c>
       <c r="DF4">
-        <v>0.0003066339950614305</v>
+        <v>0.00030941066068017152</v>
       </c>
       <c r="DG4">
-        <v>0.00030663399506143045</v>
+        <v>0.00030941066068017152</v>
       </c>
       <c r="DH4">
-        <v>0.0003066339950614305</v>
+        <v>0.00030941066068017152</v>
       </c>
       <c r="DI4">
-        <v>0.00030663399506143055</v>
+        <v>0.00030941066068017158</v>
       </c>
       <c r="DJ4">
-        <v>0.00030663399506143055</v>
+        <v>0.00030941066068017158</v>
       </c>
       <c r="DK4">
-        <v>0.00032691585815163775</v>
+        <v>0.00032987618231063718</v>
       </c>
       <c r="DL4">
-        <v>0.00032691585815163775</v>
+        <v>0.00032987618231063718</v>
       </c>
       <c r="DM4">
-        <v>0.00032691585815163775</v>
+        <v>0.00032987618231063718</v>
       </c>
       <c r="DN4">
-        <v>0.00032691585815163769</v>
+        <v>0.00032987618231063712</v>
       </c>
       <c r="DO4">
-        <v>0.00032691585815163775</v>
+        <v>0.00032987618231063723</v>
       </c>
       <c r="DP4">
-        <v>0.00032691585815163775</v>
+        <v>0.00032987618231063718</v>
       </c>
       <c r="DQ4">
-        <v>0.0003269158581516378</v>
+        <v>0.00032987618231063723</v>
       </c>
       <c r="DR4">
-        <v>0.00032691585815163775</v>
+        <v>0.00032987618231063723</v>
       </c>
       <c r="DS4">
-        <v>0.00032691585815163802</v>
+        <v>0.00032987618231063745</v>
       </c>
       <c r="DT4">
-        <v>0.0003269158581516378</v>
+        <v>0.00032987618231063729</v>
       </c>
       <c r="DU4">
-        <v>0.00032691585815163802</v>
+        <v>0.00032987618231063745</v>
       </c>
       <c r="DV4">
-        <v>0.00032691585815163802</v>
+        <v>0.00032987618231063745</v>
       </c>
       <c r="DW4">
-        <v>0.00032691585815163802</v>
+        <v>0.00032987618231063745</v>
       </c>
       <c r="DX4">
-        <v>0.00032691585815163796</v>
+        <v>0.0003298761823106374</v>
       </c>
       <c r="DY4">
-        <v>0.00032691585815163802</v>
+        <v>0.0003298761823106375</v>
       </c>
       <c r="DZ4">
-        <v>0.00032691585815163802</v>
+        <v>0.0003298761823106375</v>
       </c>
       <c r="EA4">
-        <v>0.00032691585815163813</v>
+        <v>0.00032987618231063756</v>
       </c>
       <c r="EB4">
-        <v>0.00032691585815163813</v>
+        <v>0.00032987618231063761</v>
       </c>
       <c r="EC4">
-        <v>0.00032691585815163813</v>
+        <v>0.00032987618231063756</v>
       </c>
       <c r="ED4">
-        <v>0.00032691585815163813</v>
+        <v>0.00032987618231063756</v>
       </c>
       <c r="EE4">
-        <v>0.00032691585815163813</v>
+        <v>0.00032987618231063756</v>
       </c>
       <c r="EF4">
-        <v>0.00032691585815163823</v>
+        <v>0.00032987618231063767</v>
       </c>
       <c r="EG4">
-        <v>0.00032691585815163813</v>
+        <v>0.00032987618231063761</v>
       </c>
       <c r="EH4">
-        <v>0.00032691585815163823</v>
+        <v>0.00032987618231063772</v>
       </c>
       <c r="EI4">
-        <v>0.00032691585815163818</v>
+        <v>0.00032987618231063767</v>
       </c>
       <c r="EJ4">
-        <v>0.00032691585815163823</v>
+        <v>0.00032987618231063772</v>
       </c>
       <c r="EK4">
-        <v>0.00032691585815163823</v>
+        <v>0.00032987618231063767</v>
       </c>
       <c r="EL4">
-        <v>0.00032691585815163829</v>
+        <v>0.00032987618231063772</v>
       </c>
       <c r="EM4">
-        <v>0.00032691585815163823</v>
+        <v>0.00032987618231063767</v>
       </c>
       <c r="EN4">
-        <v>0.00032691585815163834</v>
+        <v>0.00032987618231063778</v>
       </c>
       <c r="EO4">
-        <v>0.00032691585815163818</v>
+        <v>0.00032987618231063767</v>
       </c>
       <c r="EP4">
-        <v>0.00032691585815163829</v>
+        <v>0.00032987618231063772</v>
       </c>
       <c r="EQ4">
-        <v>0.0003269158581516384</v>
+        <v>0.00032987618231063783</v>
       </c>
       <c r="ER4">
-        <v>0.0003269158581516384</v>
+        <v>0.00032987618231063788</v>
       </c>
       <c r="ES4">
-        <v>0.0003269158581516384</v>
+        <v>0.00032987618231063783</v>
       </c>
       <c r="ET4">
-        <v>0.0003269158581516384</v>
+        <v>0.00032987618231063783</v>
       </c>
       <c r="EU4">
-        <v>0.0003269158581516384</v>
+        <v>0.00032987618231063783</v>
       </c>
       <c r="EV4">
-        <v>0.00032691585815163829</v>
+        <v>0.00032987618231063778</v>
       </c>
       <c r="EW4">
-        <v>0.00032691585815163823</v>
+        <v>0.00032987618231063767</v>
       </c>
       <c r="EX4">
-        <v>0.00032691585815163834</v>
+        <v>0.00032987618231063778</v>
       </c>
       <c r="EY4">
-        <v>0.0003269158581516384</v>
+        <v>0.00032987618231063788</v>
       </c>
       <c r="EZ4">
-        <v>0.0003269158581516384</v>
+        <v>0.00032987618231063788</v>
       </c>
       <c r="FA4">
-        <v>0.00032691585815163845</v>
+        <v>0.00032987618231063788</v>
       </c>
       <c r="FB4">
-        <v>0.00032691585815163845</v>
+        <v>0.00032987618231063788</v>
       </c>
       <c r="FC4">
-        <v>0.00032691585815163845</v>
+        <v>0.00032987618231063788</v>
       </c>
       <c r="FD4">
-        <v>0.00032691585815163845</v>
+        <v>0.00032987618231063788</v>
       </c>
       <c r="FE4">
-        <v>0.0003269158581516385</v>
+        <v>0.00032987618231063794</v>
       </c>
       <c r="FF4">
-        <v>0.00032691585815163845</v>
+        <v>0.00032987618231063788</v>
       </c>
       <c r="FG4">
-        <v>0.0003269158581516385</v>
+        <v>0.00032987618231063794</v>
       </c>
       <c r="FH4">
-        <v>0.00032691585815163845</v>
+        <v>0.00032987618231063794</v>
       </c>
       <c r="FI4">
-        <v>0.00032691585815163856</v>
+        <v>0.00032987618231063799</v>
       </c>
       <c r="FJ4">
-        <v>0.00032691585815163856</v>
+        <v>0.00032987618231063799</v>
       </c>
       <c r="FK4">
-        <v>0.00032691585815163861</v>
+        <v>0.0003298761823106381</v>
       </c>
       <c r="FL4">
-        <v>0.00032691585815163861</v>
+        <v>0.0003298761823106381</v>
       </c>
       <c r="FM4">
-        <v>0.00032691585815163861</v>
+        <v>0.0003298761823106381</v>
       </c>
       <c r="FN4">
-        <v>0.00032691585815163856</v>
+        <v>0.00032987618231063805</v>
       </c>
       <c r="FO4">
-        <v>0.00032691585815163861</v>
+        <v>0.0003298761823106381</v>
       </c>
       <c r="FP4">
-        <v>0.00032691585815163861</v>
+        <v>0.0003298761823106381</v>
       </c>
       <c r="FQ4">
-        <v>0.00032691585815163867</v>
+        <v>0.0003298761823106381</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.00025796687876991772</v>
+        <v>0.00026030284860558735</v>
       </c>
     </row>
   </sheetData>

--- a/tables/lpm_coefficients.xlsx
+++ b/tables/lpm_coefficients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2124" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4248" uniqueCount="178">
   <si>
     <t>y1</t>
   </si>
@@ -1128,526 +1128,526 @@
         <v>175</v>
       </c>
       <c r="B3">
-        <v>-7.3874060433132271e-05</v>
+        <v>-1.9395045555487076e-05</v>
       </c>
       <c r="C3">
-        <v>-0.0032558341403494981</v>
+        <v>-0.0032772682861628697</v>
       </c>
       <c r="D3">
-        <v>-0.0033095519948248553</v>
+        <v>-0.0033351706685129648</v>
       </c>
       <c r="E3">
-        <v>-0.003318983933104102</v>
+        <v>-0.003329891339902196</v>
       </c>
       <c r="F3">
-        <v>-1.0938600899382079e-05</v>
+        <v>-3.0660452077399998e-05</v>
       </c>
       <c r="G3">
-        <v>1.028711305837393e-05</v>
+        <v>9.386357506266681e-06</v>
       </c>
       <c r="H3">
-        <v>2.2744592121361238e-05</v>
+        <v>-1.9580311055478916e-05</v>
       </c>
       <c r="I3">
-        <v>-1.2738344464854241e-05</v>
+        <v>2.9325375169436365e-05</v>
       </c>
       <c r="J3">
-        <v>-1.1803075132854979e-05</v>
+        <v>-3.1126977876821948e-06</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0021919201208751358</v>
+        <v>0.002137685975924686</v>
       </c>
       <c r="M3">
-        <v>0.0024690281150933397</v>
+        <v>0.0023944427483806223</v>
       </c>
       <c r="N3">
-        <v>-0.00013417237716553139</v>
+        <v>-0.00019140152061932904</v>
       </c>
       <c r="O3">
-        <v>-0.00010114806849619015</v>
+        <v>-0.00015451646296561826</v>
       </c>
       <c r="P3">
-        <v>-0.00014928691504665791</v>
+        <v>-0.00014792881397581681</v>
       </c>
       <c r="Q3">
-        <v>-0.00015191939643618001</v>
+        <v>-0.00014140590490270915</v>
       </c>
       <c r="R3">
-        <v>-0.00014250434303671896</v>
+        <v>-0.00013997277003102395</v>
       </c>
       <c r="S3">
-        <v>-0.00011377743596739244</v>
+        <v>-0.00010740212835770073</v>
       </c>
       <c r="T3">
-        <v>-0.00012244149046671999</v>
+        <v>-0.00013406363813834785</v>
       </c>
       <c r="U3">
-        <v>-0.00011157704055644125</v>
+        <v>-0.00012907335873136157</v>
       </c>
       <c r="V3">
-        <v>-9.6762313205347704e-05</v>
+        <v>-6.8641031242645023e-05</v>
       </c>
       <c r="W3">
-        <v>-9.6264043952823327e-05</v>
+        <v>-9.4376723633869425e-05</v>
       </c>
       <c r="X3">
-        <v>-5.4221357651565063e-05</v>
+        <v>-5.5624248862723277e-05</v>
       </c>
       <c r="Y3">
-        <v>-8.682059139941517e-05</v>
+        <v>-0.00013240916632840594</v>
       </c>
       <c r="Z3">
-        <v>-7.5694601854817012e-05</v>
+        <v>-5.4328110974334491e-05</v>
       </c>
       <c r="AA3">
-        <v>-4.7994214665461041e-05</v>
+        <v>-8.7544149251491727e-05</v>
       </c>
       <c r="AB3">
-        <v>-9.5237826938702447e-05</v>
+        <v>-9.0051538715924187e-05</v>
       </c>
       <c r="AC3">
-        <v>-1.3124624780926732e-05</v>
+        <v>-8.0405796292768472e-05</v>
       </c>
       <c r="AD3">
-        <v>-1.0922757936908717e-05</v>
+        <v>-7.513489928212277e-05</v>
       </c>
       <c r="AE3">
-        <v>-8.8745062958546191e-05</v>
+        <v>-3.1097407437221518e-05</v>
       </c>
       <c r="AF3">
-        <v>-2.7924938171235549e-05</v>
+        <v>-6.697366097486803e-05</v>
       </c>
       <c r="AG3">
-        <v>-2.6856242041956849e-05</v>
+        <v>-4.1398732309839653e-05</v>
       </c>
       <c r="AH3">
-        <v>-1.6742628502397363e-05</v>
+        <v>-0.00010288596827719813</v>
       </c>
       <c r="AI3">
-        <v>-3.546060549428972e-05</v>
+        <v>-4.2464405827450562e-05</v>
       </c>
       <c r="AJ3">
-        <v>5.6455308439501574e-05</v>
+        <v>-3.9726767873709976e-05</v>
       </c>
       <c r="AK3">
-        <v>-2.5746656757736408e-05</v>
+        <v>-3.9560650140632086e-05</v>
       </c>
       <c r="AL3">
-        <v>4.0319370311160875e-07</v>
+        <v>-1.3137046799523842e-05</v>
       </c>
       <c r="AM3">
-        <v>-6.3169428692350842e-05</v>
+        <v>-3.5001982457188932e-05</v>
       </c>
       <c r="AN3">
-        <v>5.8634553524731633e-06</v>
+        <v>-4.9075004074872533e-05</v>
       </c>
       <c r="AO3">
-        <v>1.9302068818800497e-05</v>
+        <v>-5.5761679047941625e-05</v>
       </c>
       <c r="AP3">
-        <v>-9.3515867387313015e-06</v>
+        <v>2.937899050440012e-07</v>
       </c>
       <c r="AQ3">
-        <v>-3.8285570606136211e-05</v>
+        <v>1.1136751489322877e-05</v>
       </c>
       <c r="AR3">
-        <v>3.1041140122227321e-05</v>
+        <v>-3.5538969155973245e-05</v>
       </c>
       <c r="AS3">
-        <v>-5.1746898791779848e-05</v>
+        <v>1.728980650204522e-06</v>
       </c>
       <c r="AT3">
-        <v>-3.5644949486893243e-05</v>
+        <v>-1.7204960197921479e-05</v>
       </c>
       <c r="AU3">
-        <v>-3.2386867386703402e-05</v>
+        <v>1.0124732518542014e-05</v>
       </c>
       <c r="AV3">
-        <v>1.6518997957681363e-06</v>
+        <v>4.4411833625904052e-06</v>
       </c>
       <c r="AW3">
-        <v>-1.3302837587896523e-05</v>
+        <v>-9.7100824267178697e-06</v>
       </c>
       <c r="AX3">
-        <v>-1.4271210007459239e-05</v>
+        <v>-8.3207379373326971e-07</v>
       </c>
       <c r="AY3">
-        <v>-1.8655133029737122e-05</v>
+        <v>-4.4446112701370874e-05</v>
       </c>
       <c r="AZ3">
-        <v>4.1008069786188267e-05</v>
+        <v>-3.0302781147831476e-05</v>
       </c>
       <c r="BA3">
-        <v>3.4026713489186572e-05</v>
+        <v>-5.563011422489359e-05</v>
       </c>
       <c r="BB3">
-        <v>-6.7297862804648785e-06</v>
+        <v>6.1088533178006884e-07</v>
       </c>
       <c r="BC3">
-        <v>-1.2753323514223165e-06</v>
+        <v>-1.7039598280877541e-05</v>
       </c>
       <c r="BD3">
-        <v>-3.3096712722827265e-05</v>
+        <v>-3.8439482950068753e-05</v>
       </c>
       <c r="BE3">
-        <v>-1.5774915994016814e-05</v>
+        <v>-5.9111230986987469e-06</v>
       </c>
       <c r="BF3">
-        <v>-4.5095924085321518e-07</v>
+        <v>-5.089250527657078e-05</v>
       </c>
       <c r="BG3">
-        <v>-2.9005943058572786e-05</v>
+        <v>-3.0890060614916804e-05</v>
       </c>
       <c r="BH3">
-        <v>-3.8359221338454326e-06</v>
+        <v>-1.6465183362775683e-05</v>
       </c>
       <c r="BI3">
-        <v>1.9547663727605825e-06</v>
+        <v>-1.7786845974688965e-05</v>
       </c>
       <c r="BJ3">
-        <v>-2.1472386821193261e-06</v>
+        <v>-3.5448908974107852e-07</v>
       </c>
       <c r="BK3">
-        <v>-3.4826562142735561e-05</v>
+        <v>1.3454172550710906e-05</v>
       </c>
       <c r="BL3">
-        <v>-9.2726643117214789e-06</v>
+        <v>-1.4336410579565433e-05</v>
       </c>
       <c r="BM3">
-        <v>-4.3149412119360444e-05</v>
+        <v>-4.7166491396816977e-05</v>
       </c>
       <c r="BN3">
-        <v>1.0927491949438003e-05</v>
+        <v>-3.4506927795559928e-05</v>
       </c>
       <c r="BO3">
-        <v>7.3345691231595147e-07</v>
+        <v>-7.5590567368514583e-05</v>
       </c>
       <c r="BP3">
-        <v>-4.4237686871685143e-05</v>
+        <v>1.8611051181086423e-05</v>
       </c>
       <c r="BQ3">
-        <v>1.5018038877125573e-06</v>
+        <v>-1.8024438902055764e-05</v>
       </c>
       <c r="BR3">
-        <v>-1.2440981686297356e-05</v>
+        <v>1.5631297660177603e-05</v>
       </c>
       <c r="BS3">
-        <v>1.4710998856581034e-05</v>
+        <v>-4.6133861722891374e-05</v>
       </c>
       <c r="BT3">
-        <v>1.3722334518933921e-05</v>
+        <v>-2.6872168832078846e-06</v>
       </c>
       <c r="BU3">
-        <v>-2.7425970725104776e-05</v>
+        <v>4.8494749597676669e-05</v>
       </c>
       <c r="BV3">
-        <v>-7.648512582508387e-05</v>
+        <v>-6.1161818872947524e-05</v>
       </c>
       <c r="BW3">
-        <v>-1.2241191134796457e-05</v>
+        <v>1.7685590476348309e-05</v>
       </c>
       <c r="BX3">
-        <v>-2.3855208494381967e-05</v>
+        <v>-2.0987738660074615e-05</v>
       </c>
       <c r="BY3">
-        <v>-4.6343429066409071e-05</v>
+        <v>-5.8854217981249542e-05</v>
       </c>
       <c r="BZ3">
-        <v>6.5825237459271905e-05</v>
+        <v>3.6305714505854275e-05</v>
       </c>
       <c r="CA3">
-        <v>-0.00011759974180514479</v>
+        <v>-8.2576789416817007e-05</v>
       </c>
       <c r="CB3">
-        <v>6.8368062696844563e-05</v>
+        <v>-3.2316975741102967e-05</v>
       </c>
       <c r="CC3">
-        <v>-6.0617451750378268e-05</v>
+        <v>-1.0775962209463324e-05</v>
       </c>
       <c r="CD3">
-        <v>6.4620818247239755e-05</v>
+        <v>-2.5504529784004547e-05</v>
       </c>
       <c r="CE3">
-        <v>-5.162239729652632e-05</v>
+        <v>-7.1522324515259334e-05</v>
       </c>
       <c r="CF3">
-        <v>1.832943016326128e-05</v>
+        <v>-4.8531410730378108e-05</v>
       </c>
       <c r="CG3">
-        <v>-7.1120227547368084e-05</v>
+        <v>-7.8476127375781484e-05</v>
       </c>
       <c r="CH3">
-        <v>-3.4006685162399282e-05</v>
+        <v>1.2357856482820241e-05</v>
       </c>
       <c r="CI3">
-        <v>-0.00011252228367536429</v>
+        <v>1.8665726038652262e-05</v>
       </c>
       <c r="CJ3">
-        <v>-6.0885096236735402e-05</v>
+        <v>-6.0554087057556493e-05</v>
       </c>
       <c r="CK3">
-        <v>-1.0736226775379569e-06</v>
+        <v>0.00015661959662656259</v>
       </c>
       <c r="CL3">
-        <v>-5.3147214764481607e-05</v>
+        <v>-3.4479626768779577e-05</v>
       </c>
       <c r="CM3">
-        <v>8.0148587019639636e-05</v>
+        <v>5.3470165538195654e-05</v>
       </c>
       <c r="CN3">
-        <v>4.2455557682180965e-05</v>
+        <v>-2.7626168286155037e-05</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>7.9907639991890666e-05</v>
+        <v>4.7897213536126856e-05</v>
       </c>
       <c r="CQ3">
-        <v>0.00014801102730183281</v>
+        <v>4.3780184282444235e-05</v>
       </c>
       <c r="CR3">
-        <v>-7.3390546769941034e-06</v>
+        <v>4.6976659848906172e-05</v>
       </c>
       <c r="CS3">
-        <v>0.0001561891662801476</v>
+        <v>-2.9421166838996582e-05</v>
       </c>
       <c r="CT3">
-        <v>5.3689528681033934e-06</v>
+        <v>-2.0959291474697182e-05</v>
       </c>
       <c r="CU3">
-        <v>9.4678128830300286e-06</v>
+        <v>-8.56748750027918e-05</v>
       </c>
       <c r="CV3">
-        <v>1.4269450932695994e-06</v>
+        <v>4.2589357962700289e-05</v>
       </c>
       <c r="CW3">
-        <v>-2.7096507375956617e-05</v>
+        <v>0.00011934015501861675</v>
       </c>
       <c r="CX3">
-        <v>-7.3865054073466799e-05</v>
+        <v>-4.9141141546758427e-05</v>
       </c>
       <c r="CY3">
-        <v>0.00020373275336512815</v>
+        <v>1.8407947108098364e-05</v>
       </c>
       <c r="CZ3">
-        <v>-8.2690804727877579e-05</v>
+        <v>-4.4706187256297437e-06</v>
       </c>
       <c r="DA3">
-        <v>-6.4868130873237692e-05</v>
+        <v>-2.8140225936121454e-05</v>
       </c>
       <c r="DB3">
-        <v>6.0448675705994902e-05</v>
+        <v>-2.7419290352816862e-05</v>
       </c>
       <c r="DC3">
-        <v>2.9598354377425622e-05</v>
+        <v>-0.0001403039065377559</v>
       </c>
       <c r="DD3">
-        <v>0.00012007493570569568</v>
+        <v>4.9360853436075616e-05</v>
       </c>
       <c r="DE3">
-        <v>-6.8152725755399375e-05</v>
+        <v>2.9156754747822729e-05</v>
       </c>
       <c r="DF3">
-        <v>-6.1237225915517572e-05</v>
+        <v>-0.00012692273089761767</v>
       </c>
       <c r="DG3">
-        <v>-6.6162387974265353e-05</v>
+        <v>-2.1294288223854278e-05</v>
       </c>
       <c r="DH3">
-        <v>9.9028878935178641e-05</v>
+        <v>1.6024446770896874e-05</v>
       </c>
       <c r="DI3">
-        <v>2.376695002166419e-05</v>
+        <v>-7.5079793981984222e-05</v>
       </c>
       <c r="DJ3">
-        <v>-9.1538532786667313e-05</v>
+        <v>-2.8688816096547352e-05</v>
       </c>
       <c r="DK3">
-        <v>3.806512703601026e-05</v>
+        <v>-8.1935285469529885e-05</v>
       </c>
       <c r="DL3">
-        <v>-2.9384798694024829e-05</v>
+        <v>-4.162825961976073e-05</v>
       </c>
       <c r="DM3">
-        <v>-5.0343394808293624e-05</v>
+        <v>-9.8714896502735157e-05</v>
       </c>
       <c r="DN3">
-        <v>-6.6870708662175235e-05</v>
+        <v>0.0001238373687487587</v>
       </c>
       <c r="DO3">
-        <v>-7.8890625451411703e-05</v>
+        <v>7.0672066486227711e-06</v>
       </c>
       <c r="DP3">
-        <v>-1.9142651066904647e-05</v>
+        <v>-7.9308986031660354e-05</v>
       </c>
       <c r="DQ3">
-        <v>-3.4217643450735627e-05</v>
+        <v>-0.00014597307574254343</v>
       </c>
       <c r="DR3">
-        <v>0.00011173683106545784</v>
+        <v>-4.1178752083310855e-06</v>
       </c>
       <c r="DS3">
-        <v>1.650667798524705e-05</v>
+        <v>5.0467473069540013e-05</v>
       </c>
       <c r="DT3">
-        <v>5.9877711399942159e-05</v>
+        <v>0.000105670384342593</v>
       </c>
       <c r="DU3">
-        <v>0.00012332366535842604</v>
+        <v>-6.0352948359140473e-05</v>
       </c>
       <c r="DV3">
-        <v>6.7759052566389527e-05</v>
+        <v>-7.4009743475921448e-06</v>
       </c>
       <c r="DW3">
-        <v>-0.00015661544752040913</v>
+        <v>-2.4587744438676505e-05</v>
       </c>
       <c r="DX3">
-        <v>1.312489595436347e-05</v>
+        <v>-9.4916264059818781e-05</v>
       </c>
       <c r="DY3">
-        <v>2.8782655908140122e-05</v>
+        <v>-0.0001429650785020446</v>
       </c>
       <c r="DZ3">
-        <v>-2.2144783582390376e-05</v>
+        <v>-6.8341216585890969e-06</v>
       </c>
       <c r="EA3">
-        <v>9.9519053779058017e-06</v>
+        <v>-2.7932342667776407e-05</v>
       </c>
       <c r="EB3">
-        <v>-1.8159471143491683e-05</v>
+        <v>-6.6156941701586957e-05</v>
       </c>
       <c r="EC3">
-        <v>4.6178478882011849e-05</v>
+        <v>-0.0001504473078035575</v>
       </c>
       <c r="ED3">
-        <v>-5.1530861617614661e-05</v>
+        <v>1.1526747531739886e-06</v>
       </c>
       <c r="EE3">
-        <v>-6.0287861382976402e-05</v>
+        <v>-8.617621595287577e-06</v>
       </c>
       <c r="EF3">
-        <v>-4.0158233781403027e-05</v>
+        <v>-0.00013977550235424836</v>
       </c>
       <c r="EG3">
-        <v>-3.8731891003728717e-05</v>
+        <v>-0.00011494066659446965</v>
       </c>
       <c r="EH3">
-        <v>-2.1844036932732757e-05</v>
+        <v>1.1657979320578681e-05</v>
       </c>
       <c r="EI3">
-        <v>-3.0779038588459283e-05</v>
+        <v>-6.4139622957625294e-05</v>
       </c>
       <c r="EJ3">
-        <v>-0.00010246225348054022</v>
+        <v>0.00010196576344353593</v>
       </c>
       <c r="EK3">
-        <v>-1.6295402792984888e-05</v>
+        <v>-4.7038027994656471e-05</v>
       </c>
       <c r="EL3">
-        <v>-5.5293758714522206e-05</v>
+        <v>-7.900620306566439e-05</v>
       </c>
       <c r="EM3">
-        <v>-6.8725195601179617e-06</v>
+        <v>-0.00012900874863162531</v>
       </c>
       <c r="EN3">
-        <v>-4.4489477673717591e-05</v>
+        <v>-6.1497731097814176e-05</v>
       </c>
       <c r="EO3">
-        <v>-0.00016956907065897412</v>
+        <v>-4.4591896504304082e-05</v>
       </c>
       <c r="EP3">
-        <v>-0.00016264901897782778</v>
+        <v>-0.00010936482776088251</v>
       </c>
       <c r="EQ3">
-        <v>-0.00011100463550331316</v>
+        <v>-0.00011071101189867346</v>
       </c>
       <c r="ER3">
-        <v>-0.0001054804439714017</v>
+        <v>-7.0897772199190315e-05</v>
       </c>
       <c r="ES3">
-        <v>-9.8152386638589747e-05</v>
+        <v>-0.00025933211270192432</v>
       </c>
       <c r="ET3">
-        <v>5.5808950350591271e-05</v>
+        <v>-0.00027655718878118304</v>
       </c>
       <c r="EU3">
-        <v>1.1686666297853281e-05</v>
+        <v>1.0819363017246293e-05</v>
       </c>
       <c r="EV3">
-        <v>-0.00014805190922633071</v>
+        <v>-0.00016483337473667233</v>
       </c>
       <c r="EW3">
-        <v>-0.0001558769446160438</v>
+        <v>-0.00014876999766409135</v>
       </c>
       <c r="EX3">
-        <v>-0.00015466079256526232</v>
+        <v>-0.00016196858481589858</v>
       </c>
       <c r="EY3">
-        <v>-5.9285903665383712e-05</v>
+        <v>-5.3664569048205875e-05</v>
       </c>
       <c r="EZ3">
-        <v>-0.00010562982913691612</v>
+        <v>-0.00015521975379652998</v>
       </c>
       <c r="FA3">
-        <v>-6.3217418854372438e-05</v>
+        <v>-2.3794848764587642e-05</v>
       </c>
       <c r="FB3">
-        <v>5.8266525609876687e-06</v>
+        <v>-0.0001783542488390228</v>
       </c>
       <c r="FC3">
-        <v>0.00015076795580656663</v>
+        <v>-4.8047373650553866e-05</v>
       </c>
       <c r="FD3">
-        <v>-0.00023807512505179428</v>
+        <v>-0.00011950188051442643</v>
       </c>
       <c r="FE3">
-        <v>-4.4833344230000701e-05</v>
+        <v>-0.00025427317410608958</v>
       </c>
       <c r="FF3">
-        <v>3.0934064829228241e-05</v>
+        <v>-0.00015733161365545978</v>
       </c>
       <c r="FG3">
-        <v>-0.0001997584993112693</v>
+        <v>-0.00017549913671469151</v>
       </c>
       <c r="FH3">
-        <v>-0.00011518018247130177</v>
+        <v>-0.00016908500385069163</v>
       </c>
       <c r="FI3">
-        <v>-0.0002143705479689549</v>
+        <v>-0.0001223297886954542</v>
       </c>
       <c r="FJ3">
-        <v>-5.981113356565749e-05</v>
+        <v>-0.00020811561529216534</v>
       </c>
       <c r="FK3">
-        <v>-0.00021961108198061797</v>
+        <v>-0.00020594949681921012</v>
       </c>
       <c r="FL3">
-        <v>-0.0001593937935406373</v>
+        <v>-0.00022519876374611954</v>
       </c>
       <c r="FM3">
-        <v>-0.00011415999954637322</v>
+        <v>-0.00018034934319447935</v>
       </c>
       <c r="FN3">
-        <v>-0.00016463210632492302</v>
+        <v>-0.00020946799474907412</v>
       </c>
       <c r="FO3">
-        <v>-0.00020789335580406534</v>
+        <v>-0.00016819346741558808</v>
       </c>
       <c r="FP3">
-        <v>-0.00014884228882645103</v>
+        <v>-0.00015808118639358207</v>
       </c>
       <c r="FQ3">
-        <v>-0.0003513745379415059</v>
+        <v>-0.00012213709989817467</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0041397800701658003</v>
+        <v>0.0041647240383176215</v>
       </c>
     </row>
     <row r="4">
@@ -1655,526 +1655,526 @@
         <v>176</v>
       </c>
       <c r="B4">
-        <v>4.1737359983845864e-05</v>
+        <v>4.2240096958218983e-05</v>
       </c>
       <c r="C4">
-        <v>1.8202065799860836e-05</v>
+        <v>1.8421314249956967e-05</v>
       </c>
       <c r="D4">
-        <v>2.6646058259681322e-05</v>
+        <v>2.6967016717849897e-05</v>
       </c>
       <c r="E4">
-        <v>3.1514091293329786e-05</v>
+        <v>3.1893686430948908e-05</v>
       </c>
       <c r="F4">
-        <v>2.8839175928276809e-05</v>
+        <v>2.9186551039093774e-05</v>
       </c>
       <c r="G4">
-        <v>2.4126230098448571e-05</v>
+        <v>2.4416836594101819e-05</v>
       </c>
       <c r="H4">
-        <v>1.9554449805509747e-05</v>
+        <v>1.9789988060314501e-05</v>
       </c>
       <c r="I4">
-        <v>1.9441690049259099e-05</v>
+        <v>1.9675870084504442e-05</v>
       </c>
       <c r="J4">
-        <v>2.0519597399515169e-05</v>
+        <v>2.0766761099279111e-05</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>4.4517036418827116e-05</v>
+        <v>4.5053255293377906e-05</v>
       </c>
       <c r="M4">
-        <v>4.4517036418827116e-05</v>
+        <v>4.5053255293377906e-05</v>
       </c>
       <c r="N4">
-        <v>4.4517036418827122e-05</v>
+        <v>4.5053255293377913e-05</v>
       </c>
       <c r="O4">
-        <v>4.4517036418827129e-05</v>
+        <v>4.505325529337792e-05</v>
       </c>
       <c r="P4">
-        <v>4.4517036418827122e-05</v>
+        <v>4.5053255293377913e-05</v>
       </c>
       <c r="Q4">
-        <v>4.4517036418827136e-05</v>
+        <v>4.5053255293377933e-05</v>
       </c>
       <c r="R4">
-        <v>4.4517036418827136e-05</v>
+        <v>4.5053255293377933e-05</v>
       </c>
       <c r="S4">
-        <v>4.4517036418827143e-05</v>
+        <v>4.505325529337794e-05</v>
       </c>
       <c r="T4">
-        <v>4.4517036418827149e-05</v>
+        <v>4.505325529337794e-05</v>
       </c>
       <c r="U4">
-        <v>4.4517036418827136e-05</v>
+        <v>4.5053255293377926e-05</v>
       </c>
       <c r="V4">
-        <v>4.4517036418827149e-05</v>
+        <v>4.5053255293377947e-05</v>
       </c>
       <c r="W4">
-        <v>4.4517036418827136e-05</v>
+        <v>4.5053255293377933e-05</v>
       </c>
       <c r="X4">
-        <v>4.4517036418827149e-05</v>
+        <v>4.505325529337794e-05</v>
       </c>
       <c r="Y4">
-        <v>4.4517036418827149e-05</v>
+        <v>4.505325529337794e-05</v>
       </c>
       <c r="Z4">
-        <v>4.4517036418827149e-05</v>
+        <v>4.505325529337794e-05</v>
       </c>
       <c r="AA4">
-        <v>4.4517036418827149e-05</v>
+        <v>4.505325529337794e-05</v>
       </c>
       <c r="AB4">
-        <v>4.4517036418827149e-05</v>
+        <v>4.5053255293377947e-05</v>
       </c>
       <c r="AC4">
-        <v>4.4517036418827149e-05</v>
+        <v>4.5053255293377947e-05</v>
       </c>
       <c r="AD4">
-        <v>4.4517036418827149e-05</v>
+        <v>4.5053255293377947e-05</v>
       </c>
       <c r="AE4">
-        <v>4.4517036418827156e-05</v>
+        <v>4.5053255293377954e-05</v>
       </c>
       <c r="AF4">
-        <v>4.4517036418827156e-05</v>
+        <v>4.5053255293377954e-05</v>
       </c>
       <c r="AG4">
-        <v>4.4517036418827156e-05</v>
+        <v>4.5053255293377954e-05</v>
       </c>
       <c r="AH4">
-        <v>4.4517036418827149e-05</v>
+        <v>4.505325529337794e-05</v>
       </c>
       <c r="AI4">
-        <v>4.4517036418827149e-05</v>
+        <v>4.5053255293377947e-05</v>
       </c>
       <c r="AJ4">
-        <v>4.4517036418827156e-05</v>
+        <v>4.5053255293377954e-05</v>
       </c>
       <c r="AK4">
-        <v>4.451703641882717e-05</v>
+        <v>4.5053255293377954e-05</v>
       </c>
       <c r="AL4">
-        <v>4.451703641882717e-05</v>
+        <v>4.5053255293377954e-05</v>
       </c>
       <c r="AM4">
-        <v>4.451703641882717e-05</v>
+        <v>4.5053255293377967e-05</v>
       </c>
       <c r="AN4">
-        <v>4.451703641882717e-05</v>
+        <v>4.505325529337796e-05</v>
       </c>
       <c r="AO4">
-        <v>4.451703641882717e-05</v>
+        <v>4.5053255293377967e-05</v>
       </c>
       <c r="AP4">
-        <v>4.451703641882717e-05</v>
+        <v>4.5053255293377967e-05</v>
       </c>
       <c r="AQ4">
-        <v>4.4517036418827177e-05</v>
+        <v>4.5053255293377967e-05</v>
       </c>
       <c r="AR4">
-        <v>4.4517036418827177e-05</v>
+        <v>4.5053255293377967e-05</v>
       </c>
       <c r="AS4">
-        <v>4.4517036418827177e-05</v>
+        <v>4.5053255293377967e-05</v>
       </c>
       <c r="AT4">
-        <v>4.451703641882717e-05</v>
+        <v>4.5053255293377967e-05</v>
       </c>
       <c r="AU4">
-        <v>4.451703641882717e-05</v>
+        <v>4.5053255293377967e-05</v>
       </c>
       <c r="AV4">
-        <v>4.451703641882717e-05</v>
+        <v>4.5053255293377967e-05</v>
       </c>
       <c r="AW4">
-        <v>4.451703641882717e-05</v>
+        <v>4.5053255293377967e-05</v>
       </c>
       <c r="AX4">
-        <v>4.451703641882717e-05</v>
+        <v>4.5053255293377967e-05</v>
       </c>
       <c r="AY4">
-        <v>4.451703641882717e-05</v>
+        <v>4.5053255293377967e-05</v>
       </c>
       <c r="AZ4">
-        <v>4.451703641882717e-05</v>
+        <v>4.5053255293377967e-05</v>
       </c>
       <c r="BA4">
-        <v>4.451703641882717e-05</v>
+        <v>4.5053255293377967e-05</v>
       </c>
       <c r="BB4">
-        <v>4.451703641882717e-05</v>
+        <v>4.5053255293377967e-05</v>
       </c>
       <c r="BC4">
-        <v>4.4517036418827177e-05</v>
+        <v>4.5053255293377967e-05</v>
       </c>
       <c r="BD4">
-        <v>4.451703641882717e-05</v>
+        <v>4.5053255293377967e-05</v>
       </c>
       <c r="BE4">
-        <v>4.4517036418827177e-05</v>
+        <v>4.5053255293377967e-05</v>
       </c>
       <c r="BF4">
-        <v>4.451703641882717e-05</v>
+        <v>4.5053255293377967e-05</v>
       </c>
       <c r="BG4">
-        <v>4.4517036418827177e-05</v>
+        <v>4.5053255293377967e-05</v>
       </c>
       <c r="BH4">
-        <v>4.451703641882717e-05</v>
+        <v>4.5053255293377967e-05</v>
       </c>
       <c r="BI4">
-        <v>4.4517036418827177e-05</v>
+        <v>4.5053255293377967e-05</v>
       </c>
       <c r="BJ4">
-        <v>4.4517036418827177e-05</v>
+        <v>4.5053255293377967e-05</v>
       </c>
       <c r="BK4">
-        <v>4.4517036418827183e-05</v>
+        <v>4.5053255293377974e-05</v>
       </c>
       <c r="BL4">
-        <v>4.4517036418827183e-05</v>
+        <v>4.5053255293377974e-05</v>
       </c>
       <c r="BM4">
-        <v>4.451703641882719e-05</v>
+        <v>4.5053255293377981e-05</v>
       </c>
       <c r="BN4">
-        <v>4.451703641882719e-05</v>
+        <v>4.5053255293377981e-05</v>
       </c>
       <c r="BO4">
-        <v>4.4517036418827197e-05</v>
+        <v>4.5053255293377987e-05</v>
       </c>
       <c r="BP4">
-        <v>4.4517036418827197e-05</v>
+        <v>4.5053255293377987e-05</v>
       </c>
       <c r="BQ4">
-        <v>4.4491831436387388e-05</v>
+        <v>4.5027746710599875e-05</v>
       </c>
       <c r="BR4">
-        <v>4.4491831436387381e-05</v>
+        <v>4.5027746710599875e-05</v>
       </c>
       <c r="BS4">
-        <v>4.4491831436387388e-05</v>
+        <v>4.5027746710599882e-05</v>
       </c>
       <c r="BT4">
-        <v>4.0368978108122366e-05</v>
+        <v>4.0855232579427384e-05</v>
       </c>
       <c r="BU4">
-        <v>4.0368978108122372e-05</v>
+        <v>4.0855232579427391e-05</v>
       </c>
       <c r="BV4">
-        <v>4.681139118607682e-05</v>
+        <v>4.7375246139533227e-05</v>
       </c>
       <c r="BW4">
-        <v>4.5908388755755297e-05</v>
+        <v>4.6461366818343497e-05</v>
       </c>
       <c r="BX4">
-        <v>4.5908388755755297e-05</v>
+        <v>4.6461366818343497e-05</v>
       </c>
       <c r="BY4">
-        <v>4.5223604298914894e-05</v>
+        <v>4.5768333960884012e-05</v>
       </c>
       <c r="BZ4">
-        <v>4.5223604298914908e-05</v>
+        <v>4.5768333960884018e-05</v>
       </c>
       <c r="CA4">
-        <v>4.5223604298914908e-05</v>
+        <v>4.5768333960884018e-05</v>
       </c>
       <c r="CB4">
-        <v>4.4668218767856058e-05</v>
+        <v>4.5206258671737852e-05</v>
       </c>
       <c r="CC4">
-        <v>4.4668218767856071e-05</v>
+        <v>4.5206258671737866e-05</v>
       </c>
       <c r="CD4">
-        <v>4.4668218767856058e-05</v>
+        <v>4.5206258671737859e-05</v>
       </c>
       <c r="CE4">
-        <v>4.4668218767856058e-05</v>
+        <v>4.5206258671737859e-05</v>
       </c>
       <c r="CF4">
-        <v>4.4668218767856071e-05</v>
+        <v>4.5206258671737866e-05</v>
       </c>
       <c r="CG4">
-        <v>4.4547263573162853e-05</v>
+        <v>4.5083846541372675e-05</v>
       </c>
       <c r="CH4">
-        <v>4.4547263573162853e-05</v>
+        <v>4.5083846541372668e-05</v>
       </c>
       <c r="CI4">
-        <v>4.4547263573162853e-05</v>
+        <v>4.5083846541372675e-05</v>
       </c>
       <c r="CJ4">
-        <v>4.454726357316286e-05</v>
+        <v>4.5083846541372681e-05</v>
       </c>
       <c r="CK4">
-        <v>4.5132646925697407e-05</v>
+        <v>4.5676280983281721e-05</v>
       </c>
       <c r="CL4">
-        <v>4.2595820181579237e-05</v>
+        <v>4.3108897524451828e-05</v>
       </c>
       <c r="CM4">
-        <v>4.2595820181579243e-05</v>
+        <v>4.3108897524451835e-05</v>
       </c>
       <c r="CN4">
-        <v>3.8700627084740978e-05</v>
+        <v>3.9166785849321567e-05</v>
       </c>
       <c r="CO4">
         <v>0</v>
       </c>
       <c r="CP4">
-        <v>4.5380507798328014e-05</v>
+        <v>4.5927127402320155e-05</v>
       </c>
       <c r="CQ4">
-        <v>4.5924023963481979e-05</v>
+        <v>4.6477190356070671e-05</v>
       </c>
       <c r="CR4">
-        <v>4.5924023963481979e-05</v>
+        <v>4.6477190356070671e-05</v>
       </c>
       <c r="CS4">
-        <v>4.5239476175501188e-05</v>
+        <v>4.5784397018206594e-05</v>
       </c>
       <c r="CT4">
-        <v>4.5239476175501188e-05</v>
+        <v>4.5784397018206601e-05</v>
       </c>
       <c r="CU4">
-        <v>4.5239476175501188e-05</v>
+        <v>4.5784397018206594e-05</v>
       </c>
       <c r="CV4">
-        <v>4.4684287918036195e-05</v>
+        <v>4.5222521378864231e-05</v>
       </c>
       <c r="CW4">
-        <v>4.4684287918036195e-05</v>
+        <v>4.5222521378864224e-05</v>
       </c>
       <c r="CX4">
-        <v>4.4684287918036202e-05</v>
+        <v>4.5222521378864231e-05</v>
       </c>
       <c r="CY4">
-        <v>4.4684287918036182e-05</v>
+        <v>4.5222521378864217e-05</v>
       </c>
       <c r="CZ4">
-        <v>4.4684287918036202e-05</v>
+        <v>4.5222521378864231e-05</v>
       </c>
       <c r="DA4">
-        <v>4.4620730780153462e-05</v>
+        <v>4.5158198679306978e-05</v>
       </c>
       <c r="DB4">
-        <v>4.4620730780153455e-05</v>
+        <v>4.5158198679306971e-05</v>
       </c>
       <c r="DC4">
-        <v>4.4620730780153462e-05</v>
+        <v>4.5158198679306985e-05</v>
       </c>
       <c r="DD4">
-        <v>4.4620730780153462e-05</v>
+        <v>4.5158198679306978e-05</v>
       </c>
       <c r="DE4">
-        <v>4.4620730780153462e-05</v>
+        <v>4.5158198679306978e-05</v>
       </c>
       <c r="DF4">
-        <v>4.1785440338265532e-05</v>
+        <v>4.2288756452572686e-05</v>
       </c>
       <c r="DG4">
-        <v>4.1785440338265532e-05</v>
+        <v>4.2288756452572679e-05</v>
       </c>
       <c r="DH4">
-        <v>4.1785440338265532e-05</v>
+        <v>4.2288756452572686e-05</v>
       </c>
       <c r="DI4">
-        <v>4.1785440338265539e-05</v>
+        <v>4.2288756452572692e-05</v>
       </c>
       <c r="DJ4">
-        <v>4.1785440338265539e-05</v>
+        <v>4.2288756452572692e-05</v>
       </c>
       <c r="DK4">
-        <v>4.4549277987561203e-05</v>
+        <v>4.5085885219897939e-05</v>
       </c>
       <c r="DL4">
-        <v>4.4549277987561203e-05</v>
+        <v>4.5085885219897939e-05</v>
       </c>
       <c r="DM4">
-        <v>4.4549277987561203e-05</v>
+        <v>4.5085885219897939e-05</v>
       </c>
       <c r="DN4">
-        <v>4.4549277987561196e-05</v>
+        <v>4.5085885219897926e-05</v>
       </c>
       <c r="DO4">
-        <v>4.454927798756121e-05</v>
+        <v>4.5085885219897946e-05</v>
       </c>
       <c r="DP4">
-        <v>4.4549277987561203e-05</v>
+        <v>4.5085885219897939e-05</v>
       </c>
       <c r="DQ4">
-        <v>4.454927798756121e-05</v>
+        <v>4.5085885219897946e-05</v>
       </c>
       <c r="DR4">
-        <v>4.454927798756121e-05</v>
+        <v>4.5085885219897946e-05</v>
       </c>
       <c r="DS4">
-        <v>4.4549277987561244e-05</v>
+        <v>4.5085885219897973e-05</v>
       </c>
       <c r="DT4">
-        <v>4.4549277987561216e-05</v>
+        <v>4.5085885219897946e-05</v>
       </c>
       <c r="DU4">
-        <v>4.4549277987561244e-05</v>
+        <v>4.5085885219897973e-05</v>
       </c>
       <c r="DV4">
-        <v>4.4549277987561244e-05</v>
+        <v>4.5085885219897973e-05</v>
       </c>
       <c r="DW4">
-        <v>4.4549277987561244e-05</v>
+        <v>4.5085885219897973e-05</v>
       </c>
       <c r="DX4">
-        <v>4.454927798756123e-05</v>
+        <v>4.5085885219897966e-05</v>
       </c>
       <c r="DY4">
-        <v>4.4549277987561244e-05</v>
+        <v>4.508588521989798e-05</v>
       </c>
       <c r="DZ4">
-        <v>4.4549277987561244e-05</v>
+        <v>4.508588521989798e-05</v>
       </c>
       <c r="EA4">
-        <v>4.4549277987561257e-05</v>
+        <v>4.5085885219897987e-05</v>
       </c>
       <c r="EB4">
-        <v>4.4549277987561257e-05</v>
+        <v>4.5085885219897993e-05</v>
       </c>
       <c r="EC4">
-        <v>4.4549277987561257e-05</v>
+        <v>4.5085885219897987e-05</v>
       </c>
       <c r="ED4">
-        <v>4.4549277987561257e-05</v>
+        <v>4.5085885219897987e-05</v>
       </c>
       <c r="EE4">
-        <v>4.4549277987561257e-05</v>
+        <v>4.5085885219897987e-05</v>
       </c>
       <c r="EF4">
-        <v>4.4549277987561271e-05</v>
+        <v>4.5085885219898007e-05</v>
       </c>
       <c r="EG4">
-        <v>4.4549277987561257e-05</v>
+        <v>4.5085885219897993e-05</v>
       </c>
       <c r="EH4">
-        <v>4.4549277987561271e-05</v>
+        <v>4.5085885219898007e-05</v>
       </c>
       <c r="EI4">
-        <v>4.4549277987561271e-05</v>
+        <v>4.5085885219898e-05</v>
       </c>
       <c r="EJ4">
-        <v>4.4549277987561271e-05</v>
+        <v>4.5085885219898007e-05</v>
       </c>
       <c r="EK4">
-        <v>4.4549277987561271e-05</v>
+        <v>4.5085885219898007e-05</v>
       </c>
       <c r="EL4">
-        <v>4.4549277987561277e-05</v>
+        <v>4.5085885219898014e-05</v>
       </c>
       <c r="EM4">
-        <v>4.4549277987561271e-05</v>
+        <v>4.5085885219898007e-05</v>
       </c>
       <c r="EN4">
-        <v>4.4549277987561291e-05</v>
+        <v>4.5085885219898021e-05</v>
       </c>
       <c r="EO4">
-        <v>4.4549277987561271e-05</v>
+        <v>4.5085885219898e-05</v>
       </c>
       <c r="EP4">
-        <v>4.4549277987561277e-05</v>
+        <v>4.5085885219898014e-05</v>
       </c>
       <c r="EQ4">
-        <v>4.4549277987561291e-05</v>
+        <v>4.5085885219898027e-05</v>
       </c>
       <c r="ER4">
-        <v>4.4549277987561291e-05</v>
+        <v>4.5085885219898027e-05</v>
       </c>
       <c r="ES4">
-        <v>4.4549277987561291e-05</v>
+        <v>4.5085885219898027e-05</v>
       </c>
       <c r="ET4">
-        <v>4.4549277987561291e-05</v>
+        <v>4.5085885219898027e-05</v>
       </c>
       <c r="EU4">
-        <v>4.4549277987561291e-05</v>
+        <v>4.5085885219898027e-05</v>
       </c>
       <c r="EV4">
-        <v>4.4549277987561284e-05</v>
+        <v>4.5085885219898014e-05</v>
       </c>
       <c r="EW4">
-        <v>4.4549277987561271e-05</v>
+        <v>4.5085885219898007e-05</v>
       </c>
       <c r="EX4">
-        <v>4.4549277987561291e-05</v>
+        <v>4.5085885219898021e-05</v>
       </c>
       <c r="EY4">
-        <v>4.4549277987561298e-05</v>
+        <v>4.5085885219898027e-05</v>
       </c>
       <c r="EZ4">
-        <v>4.4549277987561298e-05</v>
+        <v>4.5085885219898027e-05</v>
       </c>
       <c r="FA4">
-        <v>4.4549277987561305e-05</v>
+        <v>4.5085885219898034e-05</v>
       </c>
       <c r="FB4">
-        <v>4.4549277987561305e-05</v>
+        <v>4.5085885219898034e-05</v>
       </c>
       <c r="FC4">
-        <v>4.4549277987561305e-05</v>
+        <v>4.5085885219898034e-05</v>
       </c>
       <c r="FD4">
-        <v>4.4549277987561305e-05</v>
+        <v>4.5085885219898034e-05</v>
       </c>
       <c r="FE4">
-        <v>4.4549277987561305e-05</v>
+        <v>4.5085885219898041e-05</v>
       </c>
       <c r="FF4">
-        <v>4.4549277987561305e-05</v>
+        <v>4.5085885219898034e-05</v>
       </c>
       <c r="FG4">
-        <v>4.4549277987561305e-05</v>
+        <v>4.5085885219898041e-05</v>
       </c>
       <c r="FH4">
-        <v>4.4549277987561305e-05</v>
+        <v>4.5085885219898041e-05</v>
       </c>
       <c r="FI4">
-        <v>4.4549277987561311e-05</v>
+        <v>4.5085885219898048e-05</v>
       </c>
       <c r="FJ4">
-        <v>4.4549277987561311e-05</v>
+        <v>4.5085885219898048e-05</v>
       </c>
       <c r="FK4">
-        <v>4.4549277987561325e-05</v>
+        <v>4.5085885219898054e-05</v>
       </c>
       <c r="FL4">
-        <v>4.4549277987561325e-05</v>
+        <v>4.5085885219898054e-05</v>
       </c>
       <c r="FM4">
-        <v>4.4549277987561325e-05</v>
+        <v>4.5085885219898054e-05</v>
       </c>
       <c r="FN4">
-        <v>4.4549277987561318e-05</v>
+        <v>4.5085885219898054e-05</v>
       </c>
       <c r="FO4">
-        <v>4.4549277987561325e-05</v>
+        <v>4.5085885219898054e-05</v>
       </c>
       <c r="FP4">
-        <v>4.4549277987561325e-05</v>
+        <v>4.5085885219898054e-05</v>
       </c>
       <c r="FQ4">
-        <v>4.4549277987561332e-05</v>
+        <v>4.5085885219898068e-05</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>3.5153504815829303e-05</v>
+        <v>3.5576937602583449e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2718,526 +2718,526 @@
         <v>175</v>
       </c>
       <c r="B3">
-        <v>-5.2661297954597196e-05</v>
+        <v>-3.5382707662420119e-05</v>
       </c>
       <c r="C3">
-        <v>-0.0020002651698419554</v>
+        <v>-0.0020071081391974197</v>
       </c>
       <c r="D3">
-        <v>-0.0020409904491219162</v>
+        <v>-0.0020563999644462446</v>
       </c>
       <c r="E3">
-        <v>-0.0020909026548289258</v>
+        <v>-0.0020684378761115381</v>
       </c>
       <c r="F3">
-        <v>-1.5258102859185374e-05</v>
+        <v>-1.0584603694397451e-05</v>
       </c>
       <c r="G3">
-        <v>-1.2980310620275845e-05</v>
+        <v>5.4893565821356221e-08</v>
       </c>
       <c r="H3">
-        <v>3.0413776729928112e-06</v>
+        <v>-1.1126341916925484e-05</v>
       </c>
       <c r="I3">
-        <v>5.2931727676644859e-06</v>
+        <v>3.0660470072410584e-05</v>
       </c>
       <c r="J3">
-        <v>5.5568770745667359e-06</v>
+        <v>-1.5333222817835302e-05</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0047482381859502067</v>
+        <v>0.0045868332695978035</v>
       </c>
       <c r="M3">
-        <v>0.0055218510468116756</v>
+        <v>0.0053918013794055</v>
       </c>
       <c r="N3">
-        <v>-0.00046644110921820458</v>
+        <v>-0.00053544199307528802</v>
       </c>
       <c r="O3">
-        <v>-0.00042586199524720684</v>
+        <v>-0.0004735322318864092</v>
       </c>
       <c r="P3">
-        <v>-0.00038891818947180319</v>
+        <v>-0.00045436987997153389</v>
       </c>
       <c r="Q3">
-        <v>-0.00040310800122686838</v>
+        <v>-0.00046437419755836678</v>
       </c>
       <c r="R3">
-        <v>-0.0004568079966304432</v>
+        <v>-0.00036832636828146</v>
       </c>
       <c r="S3">
-        <v>-0.00039676714850504931</v>
+        <v>-0.00034598814497130973</v>
       </c>
       <c r="T3">
-        <v>-0.00031401776990750189</v>
+        <v>-0.00035212959635352349</v>
       </c>
       <c r="U3">
-        <v>-0.00037808314321636312</v>
+        <v>-0.00038974432962350078</v>
       </c>
       <c r="V3">
-        <v>-0.00025548065646725966</v>
+        <v>-0.00037440558595293658</v>
       </c>
       <c r="W3">
-        <v>-0.00023036038461535019</v>
+        <v>-0.00030685862097729521</v>
       </c>
       <c r="X3">
-        <v>-0.00026243720930208865</v>
+        <v>-0.00034850866080576208</v>
       </c>
       <c r="Y3">
-        <v>-0.0002801664356409499</v>
+        <v>-0.00031227564792392831</v>
       </c>
       <c r="Z3">
-        <v>-0.00021745636280810624</v>
+        <v>-0.00024292595983261655</v>
       </c>
       <c r="AA3">
-        <v>-0.00023545183060866919</v>
+        <v>-0.00019965907736760221</v>
       </c>
       <c r="AB3">
-        <v>-0.00022679512410649538</v>
+        <v>-0.00029059045852387389</v>
       </c>
       <c r="AC3">
-        <v>-0.00019230496882872628</v>
+        <v>-0.00028291920314693181</v>
       </c>
       <c r="AD3">
-        <v>-0.00016226129665251814</v>
+        <v>-0.00025806084787811847</v>
       </c>
       <c r="AE3">
-        <v>-0.00024062906603903794</v>
+        <v>-0.00022390166255320111</v>
       </c>
       <c r="AF3">
-        <v>-0.00011775136054312391</v>
+        <v>-0.00020954666597495052</v>
       </c>
       <c r="AG3">
-        <v>-0.00015406054584496929</v>
+        <v>-0.00018037523490610255</v>
       </c>
       <c r="AH3">
-        <v>-9.5333194233792614e-05</v>
+        <v>-0.00024635962136723152</v>
       </c>
       <c r="AI3">
-        <v>-0.00014433951098113859</v>
+        <v>-0.00010450242399880114</v>
       </c>
       <c r="AJ3">
-        <v>-5.2693745993952726e-05</v>
+        <v>-0.00024068767805255975</v>
       </c>
       <c r="AK3">
-        <v>-2.9223398144687491e-05</v>
+        <v>-0.00015455508563645551</v>
       </c>
       <c r="AL3">
-        <v>-0.00015315846829046958</v>
+        <v>-0.00016203642578085697</v>
       </c>
       <c r="AM3">
-        <v>-0.00012715683478741309</v>
+        <v>-0.00010205785211871687</v>
       </c>
       <c r="AN3">
-        <v>-5.3418689898315148e-05</v>
+        <v>-0.00015814089435168112</v>
       </c>
       <c r="AO3">
-        <v>-3.4048440070240404e-05</v>
+        <v>-3.5559053160646413e-05</v>
       </c>
       <c r="AP3">
-        <v>-0.00010980759287217754</v>
+        <v>-7.752493412934721e-05</v>
       </c>
       <c r="AQ3">
-        <v>-4.4104932467684103e-06</v>
+        <v>-9.3342055400913785e-05</v>
       </c>
       <c r="AR3">
-        <v>-1.0023714297443893e-05</v>
+        <v>-0.00015649952470208036</v>
       </c>
       <c r="AS3">
-        <v>-9.6120845759184388e-05</v>
+        <v>-8.0415003090232573e-05</v>
       </c>
       <c r="AT3">
-        <v>-0.00010693630805050369</v>
+        <v>-9.9979614113133745e-05</v>
       </c>
       <c r="AU3">
-        <v>-9.0889363062860608e-05</v>
+        <v>-3.6520695361738936e-05</v>
       </c>
       <c r="AV3">
-        <v>2.4096934195819776e-05</v>
+        <v>-3.6475526709481666e-05</v>
       </c>
       <c r="AW3">
-        <v>-5.039055074518528e-05</v>
+        <v>-2.1710763096827309e-05</v>
       </c>
       <c r="AX3">
-        <v>2.2855668865854417e-05</v>
+        <v>5.6681714955161006e-07</v>
       </c>
       <c r="AY3">
-        <v>-5.1194984390959783e-05</v>
+        <v>-1.7663638121139544e-05</v>
       </c>
       <c r="AZ3">
-        <v>9.0995356091690862e-05</v>
+        <v>-3.0470634920744901e-05</v>
       </c>
       <c r="BA3">
-        <v>3.9702863547637159e-05</v>
+        <v>-6.3637409583078053e-05</v>
       </c>
       <c r="BB3">
-        <v>-1.2362131117606555e-05</v>
+        <v>-1.5393994672064728e-05</v>
       </c>
       <c r="BC3">
-        <v>6.4615271903772723e-06</v>
+        <v>-9.1222880460945784e-05</v>
       </c>
       <c r="BD3">
-        <v>-7.2434948894262432e-05</v>
+        <v>-4.661590854731344e-05</v>
       </c>
       <c r="BE3">
-        <v>1.1893477866559721e-05</v>
+        <v>2.6490094162317075e-05</v>
       </c>
       <c r="BF3">
-        <v>-6.1575741312665163e-05</v>
+        <v>-0.00010127746355841416</v>
       </c>
       <c r="BG3">
-        <v>2.5132944642139365e-05</v>
+        <v>-2.3220644772100448e-05</v>
       </c>
       <c r="BH3">
-        <v>6.0585516703082593e-05</v>
+        <v>-2.6775237995876692e-05</v>
       </c>
       <c r="BI3">
-        <v>-9.0595495127886701e-06</v>
+        <v>-6.3042221852517067e-05</v>
       </c>
       <c r="BJ3">
-        <v>-2.3973046379175103e-05</v>
+        <v>-4.6664388574769089e-06</v>
       </c>
       <c r="BK3">
-        <v>3.4103508588184492e-06</v>
+        <v>-4.1036249493497718e-05</v>
       </c>
       <c r="BL3">
-        <v>5.1451954283745021e-05</v>
+        <v>-3.6149841277221384e-05</v>
       </c>
       <c r="BM3">
-        <v>-4.6282154875480952e-05</v>
+        <v>-4.8414363724450353e-05</v>
       </c>
       <c r="BN3">
-        <v>-1.8630686301931138e-05</v>
+        <v>7.5087326960547376e-05</v>
       </c>
       <c r="BO3">
-        <v>-3.8820250873345458e-05</v>
+        <v>-9.0538212765202286e-05</v>
       </c>
       <c r="BP3">
-        <v>-0.0001355359379874417</v>
+        <v>-5.6654394489508805e-05</v>
       </c>
       <c r="BQ3">
-        <v>2.7064288611180158e-05</v>
+        <v>-5.4294964602564957e-05</v>
       </c>
       <c r="BR3">
-        <v>3.6916917040404521e-05</v>
+        <v>-5.8253019238654248e-06</v>
       </c>
       <c r="BS3">
-        <v>-2.0357987817296699e-05</v>
+        <v>-8.8480614409140948e-05</v>
       </c>
       <c r="BT3">
-        <v>6.2658599265594744e-05</v>
+        <v>-5.2903215199296064e-05</v>
       </c>
       <c r="BU3">
-        <v>-3.7583903409999731e-05</v>
+        <v>1.9659889963819502e-06</v>
       </c>
       <c r="BV3">
-        <v>-8.8966099602768377e-05</v>
+        <v>-3.9156983835846296e-05</v>
       </c>
       <c r="BW3">
-        <v>-5.379243855594754e-06</v>
+        <v>-2.8523245924361053e-05</v>
       </c>
       <c r="BX3">
-        <v>3.5577377786387127e-06</v>
+        <v>-2.6739238624817466e-05</v>
       </c>
       <c r="BY3">
-        <v>3.0820474006846808e-05</v>
+        <v>-8.0550353253355827e-06</v>
       </c>
       <c r="BZ3">
-        <v>9.6174663268008026e-05</v>
+        <v>3.0928663541907983e-05</v>
       </c>
       <c r="CA3">
-        <v>-8.8435082623955884e-05</v>
+        <v>-7.3606520201397664e-05</v>
       </c>
       <c r="CB3">
-        <v>0.00014201576455054061</v>
+        <v>-5.0152618919558999e-05</v>
       </c>
       <c r="CC3">
-        <v>-8.1249861582124927e-06</v>
+        <v>-1.2058700499526927e-05</v>
       </c>
       <c r="CD3">
-        <v>0.00010399641945819086</v>
+        <v>-7.4635672784611469e-06</v>
       </c>
       <c r="CE3">
-        <v>-5.5498827028069613e-05</v>
+        <v>-6.7555964975465622e-05</v>
       </c>
       <c r="CF3">
-        <v>5.7755168782775142e-05</v>
+        <v>-9.4157097887455208e-05</v>
       </c>
       <c r="CG3">
-        <v>-9.431263082804479e-05</v>
+        <v>-8.1136412554021453e-05</v>
       </c>
       <c r="CH3">
-        <v>-5.1266862112350936e-05</v>
+        <v>1.5391683775938376e-05</v>
       </c>
       <c r="CI3">
-        <v>-0.00011284263124253902</v>
+        <v>5.364467247568506e-06</v>
       </c>
       <c r="CJ3">
-        <v>-0.00010645132250228094</v>
+        <v>-5.9754190859051346e-05</v>
       </c>
       <c r="CK3">
-        <v>3.3201213239418466e-06</v>
+        <v>0.00017940222729085175</v>
       </c>
       <c r="CL3">
-        <v>-0.00010359287838414285</v>
+        <v>1.0379865536722652e-05</v>
       </c>
       <c r="CM3">
-        <v>7.6990184153646345e-05</v>
+        <v>6.0230791854812702e-05</v>
       </c>
       <c r="CN3">
-        <v>2.7779115300757633e-05</v>
+        <v>1.4837974816440631e-05</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>7.1279476485323995e-05</v>
+        <v>6.6134911496451004e-05</v>
       </c>
       <c r="CQ3">
-        <v>0.00016082897211814644</v>
+        <v>3.7875864482724289e-05</v>
       </c>
       <c r="CR3">
-        <v>5.4788901393185768e-06</v>
+        <v>4.1072340049185596e-05</v>
       </c>
       <c r="CS3">
-        <v>0.00017848107195588453</v>
+        <v>-2.0621830476992681e-05</v>
       </c>
       <c r="CT3">
-        <v>2.7660858543839394e-05</v>
+        <v>-1.2159955112692971e-05</v>
       </c>
       <c r="CU3">
-        <v>3.1759718558766184e-05</v>
+        <v>-7.6875538640788058e-05</v>
       </c>
       <c r="CV3">
-        <v>2.1936746153865482e-05</v>
+        <v>4.2495977785205463e-05</v>
       </c>
       <c r="CW3">
-        <v>-6.5867063153607303e-06</v>
+        <v>0.00011924677484112115</v>
       </c>
       <c r="CX3">
-        <v>-5.3355253012870915e-05</v>
+        <v>-4.9234521724253396e-05</v>
       </c>
       <c r="CY3">
-        <v>0.00022424255442572575</v>
+        <v>1.8314566930602766e-05</v>
       </c>
       <c r="CZ3">
-        <v>-6.2181003667282007e-05</v>
+        <v>-4.5639989031250218e-06</v>
       </c>
       <c r="DA3">
-        <v>-6.3225695653085746e-05</v>
+        <v>-2.4674168995827025e-05</v>
       </c>
       <c r="DB3">
-        <v>6.2091110926147485e-05</v>
+        <v>-2.3953233412521813e-05</v>
       </c>
       <c r="DC3">
-        <v>3.1240789597578049e-05</v>
+        <v>-0.0001368378495974601</v>
       </c>
       <c r="DD3">
-        <v>0.0001217173709258489</v>
+        <v>5.2826910376370838e-05</v>
       </c>
       <c r="DE3">
-        <v>-6.6510290535246792e-05</v>
+        <v>3.2622811688117144e-05</v>
       </c>
       <c r="DF3">
-        <v>-5.92590081828168e-05</v>
+        <v>-0.00011667886399075813</v>
       </c>
       <c r="DG3">
-        <v>-6.4184170241564573e-05</v>
+        <v>-1.1050421316996425e-05</v>
       </c>
       <c r="DH3">
-        <v>0.00010100709666787987</v>
+        <v>2.6268313677754717e-05</v>
       </c>
       <c r="DI3">
-        <v>2.5745167754365268e-05</v>
+        <v>-6.4835927075125921e-05</v>
       </c>
       <c r="DJ3">
-        <v>-8.9560315053966534e-05</v>
+        <v>-1.8444949189688584e-05</v>
       </c>
       <c r="DK3">
-        <v>4.8723320872421936e-05</v>
+        <v>-7.7801681077747906e-05</v>
       </c>
       <c r="DL3">
-        <v>-1.8726604857614075e-05</v>
+        <v>-3.7494655227978432e-05</v>
       </c>
       <c r="DM3">
-        <v>-3.9685200971883473e-05</v>
+        <v>-9.4581292110951931e-05</v>
       </c>
       <c r="DN3">
-        <v>-5.6212514825764617e-05</v>
+        <v>0.00012797097314054144</v>
       </c>
       <c r="DO3">
-        <v>-6.8232431615000949e-05</v>
+        <v>1.1200811040404286e-05</v>
       </c>
       <c r="DP3">
-        <v>-8.4844572304945147e-06</v>
+        <v>-7.5175381639877779e-05</v>
       </c>
       <c r="DQ3">
-        <v>-2.3559449614325157e-05</v>
+        <v>-0.00014183947135075993</v>
       </c>
       <c r="DR3">
-        <v>0.00012239502490186941</v>
+        <v>1.5729183451353272e-08</v>
       </c>
       <c r="DS3">
-        <v>2.7164871821658905e-05</v>
+        <v>5.4601077461322324e-05</v>
       </c>
       <c r="DT3">
-        <v>7.0535905236353841e-05</v>
+        <v>0.00010980398873437608</v>
       </c>
       <c r="DU3">
-        <v>0.0001339818591948377</v>
+        <v>-5.6219343967357247e-05</v>
       </c>
       <c r="DV3">
-        <v>7.8417246402801054e-05</v>
+        <v>-3.2673699558098518e-06</v>
       </c>
       <c r="DW3">
-        <v>-0.00014595725368399793</v>
+        <v>-2.0454140046893012e-05</v>
       </c>
       <c r="DX3">
-        <v>2.3783089790775166e-05</v>
+        <v>-9.078265966803527e-05</v>
       </c>
       <c r="DY3">
-        <v>3.9440849744551953e-05</v>
+        <v>-0.00013883147411026094</v>
       </c>
       <c r="DZ3">
-        <v>-1.1486589745979158e-05</v>
+        <v>-2.7005172668055986e-06</v>
       </c>
       <c r="EA3">
-        <v>2.0610099214317189e-05</v>
+        <v>-2.379873827599276e-05</v>
       </c>
       <c r="EB3">
-        <v>-7.5012773070803178e-06</v>
+        <v>-6.2023337309803311e-05</v>
       </c>
       <c r="EC3">
-        <v>5.6836672718424019e-05</v>
+        <v>-0.00014631370341177384</v>
       </c>
       <c r="ED3">
-        <v>-4.0872667781204192e-05</v>
+        <v>5.2862791449567053e-06</v>
       </c>
       <c r="EE3">
-        <v>-4.9629667546566258e-05</v>
+        <v>-4.4840172035045534e-06</v>
       </c>
       <c r="EF3">
-        <v>-2.9500039944992269e-05</v>
+        <v>-0.00013564189796246454</v>
       </c>
       <c r="EG3">
-        <v>-2.8073697167318267e-05</v>
+        <v>-0.00011080706220268584</v>
       </c>
       <c r="EH3">
-        <v>-1.1185843096321842e-05</v>
+        <v>1.5791583712361082e-05</v>
       </c>
       <c r="EI3">
-        <v>-2.0120844752048684e-05</v>
+        <v>-6.0006018565842116e-05</v>
       </c>
       <c r="EJ3">
-        <v>-9.1804059644129307e-05</v>
+        <v>0.00010609936783531757</v>
       </c>
       <c r="EK3">
-        <v>-5.6372089565741374e-06</v>
+        <v>-4.2904423602872995e-05</v>
       </c>
       <c r="EL3">
-        <v>-4.4635564878112217e-05</v>
+        <v>-7.4872598673881191e-05</v>
       </c>
       <c r="EM3">
-        <v>3.7856742762927874e-06</v>
+        <v>-0.00012487514423984168</v>
       </c>
       <c r="EN3">
-        <v>-3.3831283837307745e-05</v>
+        <v>-5.7364126706031167e-05</v>
       </c>
       <c r="EO3">
-        <v>-0.00015891087682256338</v>
+        <v>-4.0458292112521073e-05</v>
       </c>
       <c r="EP3">
-        <v>-0.0001519908251414175</v>
+        <v>-0.00010523122336909934</v>
       </c>
       <c r="EQ3">
-        <v>-0.00010034644166690271</v>
+        <v>-0.00010657740750689027</v>
       </c>
       <c r="ER3">
-        <v>-9.4822250134991707e-05</v>
+        <v>-6.6764167807407333e-05</v>
       </c>
       <c r="ES3">
-        <v>-8.7494192802179332e-05</v>
+        <v>-0.00025519850831014115</v>
       </c>
       <c r="ET3">
-        <v>6.6467144187001883e-05</v>
+        <v>-0.00027242358438940031</v>
       </c>
       <c r="EU3">
-        <v>2.234486013426385e-05</v>
+        <v>1.4952967409028362e-05</v>
       </c>
       <c r="EV3">
-        <v>-0.00013739371538991981</v>
+        <v>-0.00016069977034488918</v>
       </c>
       <c r="EW3">
-        <v>-0.00014521875077963352</v>
+        <v>-0.00014463639327230824</v>
       </c>
       <c r="EX3">
-        <v>-0.00014400259872885177</v>
+        <v>-0.00015783498042411609</v>
       </c>
       <c r="EY3">
-        <v>-4.8627709828973595e-05</v>
+        <v>-4.9530964656423509e-05</v>
       </c>
       <c r="EZ3">
-        <v>-9.4971635300506019e-05</v>
+        <v>-0.00015108614940474729</v>
       </c>
       <c r="FA3">
-        <v>-5.2559225017962491e-05</v>
+        <v>-1.9661244372805903e-05</v>
       </c>
       <c r="FB3">
-        <v>1.6484846397397773e-05</v>
+        <v>-0.00017422064444724028</v>
       </c>
       <c r="FC3">
-        <v>0.00016142614964297658</v>
+        <v>-4.3913769258771847e-05</v>
       </c>
       <c r="FD3">
-        <v>-0.00022741693121538394</v>
+        <v>-0.00011536827612264379</v>
       </c>
       <c r="FE3">
-        <v>-3.4175150393591058e-05</v>
+        <v>-0.00025013956971430733</v>
       </c>
       <c r="FF3">
-        <v>4.1592258665638385e-05</v>
+        <v>-0.00015319800926367729</v>
       </c>
       <c r="FG3">
-        <v>-0.00018910030547485918</v>
+        <v>-0.00017136553232290888</v>
       </c>
       <c r="FH3">
-        <v>-0.00010452198863489167</v>
+        <v>-0.00016495139945890916</v>
       </c>
       <c r="FI3">
-        <v>-0.00020371235413254511</v>
+        <v>-0.00011819618430367159</v>
       </c>
       <c r="FJ3">
-        <v>-4.9152939729247854e-05</v>
+        <v>-0.00020398201090038255</v>
       </c>
       <c r="FK3">
-        <v>-0.00020895288814420815</v>
+        <v>-0.00020181589242742747</v>
       </c>
       <c r="FL3">
-        <v>-0.00014873559970422767</v>
+        <v>-0.00022106515935433666</v>
       </c>
       <c r="FM3">
-        <v>-0.00010350180570996389</v>
+        <v>-0.00017621573880269658</v>
       </c>
       <c r="FN3">
-        <v>-0.00015397391248851355</v>
+        <v>-0.00020533439035729149</v>
       </c>
       <c r="FO3">
-        <v>-0.00019723516196765576</v>
+        <v>-0.00016405986302380575</v>
       </c>
       <c r="FP3">
-        <v>-0.00013818409499004124</v>
+        <v>-0.00015394758200180006</v>
       </c>
       <c r="FQ3">
-        <v>-0.00034071634410509589</v>
+        <v>-0.00011800349550639238</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0041291218763293905</v>
+        <v>0.0041605904339258393</v>
       </c>
     </row>
     <row r="4">
@@ -3245,526 +3245,526 @@
         <v>176</v>
       </c>
       <c r="B4">
-        <v>4.5927385829800742e-05</v>
+        <v>4.8656730213782544e-05</v>
       </c>
       <c r="C4">
-        <v>2.0029376539704152e-05</v>
+        <v>2.1219669986317583e-05</v>
       </c>
       <c r="D4">
-        <v>2.9321063886393133e-05</v>
+        <v>3.1063538002975046e-05</v>
       </c>
       <c r="E4">
-        <v>3.4677800188236893e-05</v>
+        <v>3.6738611128867306e-05</v>
       </c>
       <c r="F4">
-        <v>3.1734349282851433e-05</v>
+        <v>3.3620238636873113e-05</v>
       </c>
       <c r="G4">
-        <v>2.6548269434838797e-05</v>
+        <v>2.8125963631389306e-05</v>
       </c>
       <c r="H4">
-        <v>2.1517526773488193e-05</v>
+        <v>2.2796257095175498e-05</v>
       </c>
       <c r="I4">
-        <v>2.1393447032138906e-05</v>
+        <v>2.2664803619417015e-05</v>
       </c>
       <c r="J4">
-        <v>2.2579565818357044e-05</v>
+        <v>2.3921410341959173e-05</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>4.8986114799740387e-05</v>
+        <v>5.1897231444115251e-05</v>
       </c>
       <c r="M4">
-        <v>4.8986114799740387e-05</v>
+        <v>5.1897231444115251e-05</v>
       </c>
       <c r="N4">
-        <v>4.8986114799740394e-05</v>
+        <v>5.1897231444115251e-05</v>
       </c>
       <c r="O4">
-        <v>4.8986114799740401e-05</v>
+        <v>5.1897231444115258e-05</v>
       </c>
       <c r="P4">
-        <v>4.8986114799740394e-05</v>
+        <v>5.1897231444115251e-05</v>
       </c>
       <c r="Q4">
-        <v>4.8986114799740408e-05</v>
+        <v>5.1897231444115271e-05</v>
       </c>
       <c r="R4">
-        <v>4.8986114799740408e-05</v>
+        <v>5.1897231444115271e-05</v>
       </c>
       <c r="S4">
-        <v>4.8986114799740414e-05</v>
+        <v>5.1897231444115278e-05</v>
       </c>
       <c r="T4">
-        <v>4.8986114799740414e-05</v>
+        <v>5.1897231444115278e-05</v>
       </c>
       <c r="U4">
-        <v>4.8986114799740401e-05</v>
+        <v>5.1897231444115264e-05</v>
       </c>
       <c r="V4">
-        <v>4.8986114799740428e-05</v>
+        <v>5.1897231444115292e-05</v>
       </c>
       <c r="W4">
-        <v>4.8986114799740408e-05</v>
+        <v>5.1897231444115271e-05</v>
       </c>
       <c r="X4">
-        <v>4.8986114799740421e-05</v>
+        <v>5.1897231444115285e-05</v>
       </c>
       <c r="Y4">
-        <v>4.8986114799740414e-05</v>
+        <v>5.1897231444115278e-05</v>
       </c>
       <c r="Z4">
-        <v>4.8986114799740421e-05</v>
+        <v>5.1897231444115285e-05</v>
       </c>
       <c r="AA4">
-        <v>4.8986114799740421e-05</v>
+        <v>5.1897231444115285e-05</v>
       </c>
       <c r="AB4">
-        <v>4.8986114799740428e-05</v>
+        <v>5.1897231444115292e-05</v>
       </c>
       <c r="AC4">
-        <v>4.8986114799740428e-05</v>
+        <v>5.1897231444115292e-05</v>
       </c>
       <c r="AD4">
-        <v>4.8986114799740428e-05</v>
+        <v>5.1897231444115292e-05</v>
       </c>
       <c r="AE4">
-        <v>4.8986114799740428e-05</v>
+        <v>5.1897231444115298e-05</v>
       </c>
       <c r="AF4">
-        <v>4.8986114799740428e-05</v>
+        <v>5.1897231444115298e-05</v>
       </c>
       <c r="AG4">
-        <v>4.8986114799740428e-05</v>
+        <v>5.1897231444115298e-05</v>
       </c>
       <c r="AH4">
-        <v>4.8986114799740421e-05</v>
+        <v>5.1897231444115285e-05</v>
       </c>
       <c r="AI4">
-        <v>4.8986114799740428e-05</v>
+        <v>5.1897231444115292e-05</v>
       </c>
       <c r="AJ4">
-        <v>4.8986114799740428e-05</v>
+        <v>5.1897231444115298e-05</v>
       </c>
       <c r="AK4">
-        <v>4.8986114799740435e-05</v>
+        <v>5.1897231444115305e-05</v>
       </c>
       <c r="AL4">
-        <v>4.8986114799740435e-05</v>
+        <v>5.1897231444115305e-05</v>
       </c>
       <c r="AM4">
-        <v>4.8986114799740448e-05</v>
+        <v>5.1897231444115312e-05</v>
       </c>
       <c r="AN4">
-        <v>4.8986114799740442e-05</v>
+        <v>5.1897231444115305e-05</v>
       </c>
       <c r="AO4">
-        <v>4.8986114799740448e-05</v>
+        <v>5.1897231444115312e-05</v>
       </c>
       <c r="AP4">
-        <v>4.8986114799740448e-05</v>
+        <v>5.1897231444115312e-05</v>
       </c>
       <c r="AQ4">
-        <v>4.8986114799740448e-05</v>
+        <v>5.1897231444115319e-05</v>
       </c>
       <c r="AR4">
-        <v>4.8986114799740448e-05</v>
+        <v>5.1897231444115319e-05</v>
       </c>
       <c r="AS4">
-        <v>4.8986114799740448e-05</v>
+        <v>5.1897231444115319e-05</v>
       </c>
       <c r="AT4">
-        <v>4.8986114799740448e-05</v>
+        <v>5.1897231444115312e-05</v>
       </c>
       <c r="AU4">
-        <v>4.8986114799740448e-05</v>
+        <v>5.1897231444115312e-05</v>
       </c>
       <c r="AV4">
-        <v>4.8986114799740448e-05</v>
+        <v>5.1897231444115312e-05</v>
       </c>
       <c r="AW4">
-        <v>4.8986114799740448e-05</v>
+        <v>5.1897231444115312e-05</v>
       </c>
       <c r="AX4">
-        <v>4.8986114799740448e-05</v>
+        <v>5.1897231444115312e-05</v>
       </c>
       <c r="AY4">
-        <v>4.8986114799740448e-05</v>
+        <v>5.1897231444115312e-05</v>
       </c>
       <c r="AZ4">
-        <v>4.8986114799740448e-05</v>
+        <v>5.1897231444115312e-05</v>
       </c>
       <c r="BA4">
-        <v>4.8986114799740448e-05</v>
+        <v>5.1897231444115312e-05</v>
       </c>
       <c r="BB4">
-        <v>4.8986114799740448e-05</v>
+        <v>5.1897231444115312e-05</v>
       </c>
       <c r="BC4">
-        <v>4.8986114799740448e-05</v>
+        <v>5.1897231444115319e-05</v>
       </c>
       <c r="BD4">
-        <v>4.8986114799740448e-05</v>
+        <v>5.1897231444115312e-05</v>
       </c>
       <c r="BE4">
-        <v>4.8986114799740448e-05</v>
+        <v>5.1897231444115319e-05</v>
       </c>
       <c r="BF4">
-        <v>4.8986114799740448e-05</v>
+        <v>5.1897231444115312e-05</v>
       </c>
       <c r="BG4">
-        <v>4.8986114799740448e-05</v>
+        <v>5.1897231444115319e-05</v>
       </c>
       <c r="BH4">
-        <v>4.8986114799740448e-05</v>
+        <v>5.1897231444115312e-05</v>
       </c>
       <c r="BI4">
-        <v>4.8986114799740448e-05</v>
+        <v>5.1897231444115319e-05</v>
       </c>
       <c r="BJ4">
-        <v>4.8986114799740448e-05</v>
+        <v>5.1897231444115319e-05</v>
       </c>
       <c r="BK4">
-        <v>4.8986114799740455e-05</v>
+        <v>5.1897231444115319e-05</v>
       </c>
       <c r="BL4">
-        <v>4.8986114799740455e-05</v>
+        <v>5.1897231444115319e-05</v>
       </c>
       <c r="BM4">
-        <v>4.8986114799740462e-05</v>
+        <v>5.1897231444115325e-05</v>
       </c>
       <c r="BN4">
-        <v>4.8986114799740462e-05</v>
+        <v>5.1897231444115325e-05</v>
       </c>
       <c r="BO4">
-        <v>4.8986114799740469e-05</v>
+        <v>5.1897231444115339e-05</v>
       </c>
       <c r="BP4">
-        <v>4.8986114799740469e-05</v>
+        <v>5.1897231444115339e-05</v>
       </c>
       <c r="BQ4">
-        <v>4.8958379481699402e-05</v>
+        <v>5.1867847888684627e-05</v>
       </c>
       <c r="BR4">
-        <v>4.8958379481699402e-05</v>
+        <v>5.186784788868462e-05</v>
       </c>
       <c r="BS4">
-        <v>4.8958379481699409e-05</v>
+        <v>5.1867847888684634e-05</v>
       </c>
       <c r="BT4">
-        <v>4.4421631695059502e-05</v>
+        <v>4.7061493050189119e-05</v>
       </c>
       <c r="BU4">
-        <v>4.4421631695059502e-05</v>
+        <v>4.7061493050189119e-05</v>
       </c>
       <c r="BV4">
-        <v>5.1510800516966009e-05</v>
+        <v>5.4571952628396729e-05</v>
       </c>
       <c r="BW4">
-        <v>5.0517145407043479e-05</v>
+        <v>5.3519247194906207e-05</v>
       </c>
       <c r="BX4">
-        <v>5.0517145407043479e-05</v>
+        <v>5.3519247194906207e-05</v>
       </c>
       <c r="BY4">
-        <v>4.9763615237149357e-05</v>
+        <v>5.2720936698411676e-05</v>
       </c>
       <c r="BZ4">
-        <v>4.9763615237149364e-05</v>
+        <v>5.2720936698411683e-05</v>
       </c>
       <c r="CA4">
-        <v>4.9763615237149364e-05</v>
+        <v>5.2720936698411683e-05</v>
       </c>
       <c r="CB4">
-        <v>4.9152474389259103e-05</v>
+        <v>5.2073477348806723e-05</v>
       </c>
       <c r="CC4">
-        <v>4.9152474389259117e-05</v>
+        <v>5.2073477348806744e-05</v>
       </c>
       <c r="CD4">
-        <v>4.915247438925911e-05</v>
+        <v>5.2073477348806737e-05</v>
       </c>
       <c r="CE4">
-        <v>4.915247438925911e-05</v>
+        <v>5.2073477348806737e-05</v>
       </c>
       <c r="CF4">
-        <v>4.9152474389259117e-05</v>
+        <v>5.2073477348806744e-05</v>
       </c>
       <c r="CG4">
-        <v>4.9019376466991302e-05</v>
+        <v>5.1932469765231242e-05</v>
       </c>
       <c r="CH4">
-        <v>4.9019376466991295e-05</v>
+        <v>5.1932469765231228e-05</v>
       </c>
       <c r="CI4">
-        <v>4.9019376466991302e-05</v>
+        <v>5.1932469765231235e-05</v>
       </c>
       <c r="CJ4">
-        <v>4.9019376466991308e-05</v>
+        <v>5.1932469765231242e-05</v>
       </c>
       <c r="CK4">
-        <v>4.9663526626479162e-05</v>
+        <v>5.2614900083462605e-05</v>
       </c>
       <c r="CL4">
-        <v>4.6872027099303346e-05</v>
+        <v>4.9657509042547693e-05</v>
       </c>
       <c r="CM4">
-        <v>4.6872027099303353e-05</v>
+        <v>4.96575090425477e-05</v>
       </c>
       <c r="CN4">
-        <v>4.2585794421690113e-05</v>
+        <v>4.5116556770607103e-05</v>
       </c>
       <c r="CO4">
         <v>0</v>
       </c>
       <c r="CP4">
-        <v>4.9936270325022218e-05</v>
+        <v>5.2903852226454112e-05</v>
       </c>
       <c r="CQ4">
-        <v>5.0534350237872993e-05</v>
+        <v>5.3537474463820398e-05</v>
       </c>
       <c r="CR4">
-        <v>5.0534350237872993e-05</v>
+        <v>5.3537474463820398e-05</v>
       </c>
       <c r="CS4">
-        <v>4.97810804960949e-05</v>
+        <v>5.2739439872003497e-05</v>
       </c>
       <c r="CT4">
-        <v>4.9781080496094914e-05</v>
+        <v>5.2739439872003504e-05</v>
       </c>
       <c r="CU4">
-        <v>4.97810804960949e-05</v>
+        <v>5.2739439872003497e-05</v>
       </c>
       <c r="CV4">
-        <v>4.9170156726152623e-05</v>
+        <v>5.2092210500721043e-05</v>
       </c>
       <c r="CW4">
-        <v>4.9170156726152616e-05</v>
+        <v>5.2092210500721036e-05</v>
       </c>
       <c r="CX4">
-        <v>4.9170156726152623e-05</v>
+        <v>5.209221050072105e-05</v>
       </c>
       <c r="CY4">
-        <v>4.917015672615261e-05</v>
+        <v>5.2092210500721029e-05</v>
       </c>
       <c r="CZ4">
-        <v>4.9170156726152623e-05</v>
+        <v>5.209221050072105e-05</v>
       </c>
       <c r="DA4">
-        <v>4.9100219068502306e-05</v>
+        <v>5.201811663104847e-05</v>
       </c>
       <c r="DB4">
-        <v>4.9100219068502299e-05</v>
+        <v>5.2018116631048456e-05</v>
       </c>
       <c r="DC4">
-        <v>4.9100219068502306e-05</v>
+        <v>5.2018116631048476e-05</v>
       </c>
       <c r="DD4">
-        <v>4.9100219068502306e-05</v>
+        <v>5.2018116631048463e-05</v>
       </c>
       <c r="DE4">
-        <v>4.9100219068502306e-05</v>
+        <v>5.201811663104847e-05</v>
       </c>
       <c r="DF4">
-        <v>4.5980292985143589e-05</v>
+        <v>4.8712781502950953e-05</v>
       </c>
       <c r="DG4">
-        <v>4.5980292985143583e-05</v>
+        <v>4.8712781502950953e-05</v>
       </c>
       <c r="DH4">
-        <v>4.5980292985143589e-05</v>
+        <v>4.8712781502950953e-05</v>
       </c>
       <c r="DI4">
-        <v>4.5980292985143596e-05</v>
+        <v>4.8712781502950966e-05</v>
       </c>
       <c r="DJ4">
-        <v>4.5980292985143596e-05</v>
+        <v>4.8712781502950966e-05</v>
       </c>
       <c r="DK4">
-        <v>4.9021593109043646e-05</v>
+        <v>5.1934818136521544e-05</v>
       </c>
       <c r="DL4">
-        <v>4.9021593109043646e-05</v>
+        <v>5.1934818136521544e-05</v>
       </c>
       <c r="DM4">
-        <v>4.9021593109043646e-05</v>
+        <v>5.1934818136521544e-05</v>
       </c>
       <c r="DN4">
-        <v>4.9021593109043639e-05</v>
+        <v>5.193481813652153e-05</v>
       </c>
       <c r="DO4">
-        <v>4.9021593109043653e-05</v>
+        <v>5.1934818136521544e-05</v>
       </c>
       <c r="DP4">
-        <v>4.9021593109043646e-05</v>
+        <v>5.1934818136521544e-05</v>
       </c>
       <c r="DQ4">
-        <v>4.902159310904366e-05</v>
+        <v>5.193481813652155e-05</v>
       </c>
       <c r="DR4">
-        <v>4.9021593109043653e-05</v>
+        <v>5.1934818136521544e-05</v>
       </c>
       <c r="DS4">
-        <v>4.9021593109043687e-05</v>
+        <v>5.1934818136521584e-05</v>
       </c>
       <c r="DT4">
-        <v>4.902159310904366e-05</v>
+        <v>5.1934818136521557e-05</v>
       </c>
       <c r="DU4">
-        <v>4.9021593109043687e-05</v>
+        <v>5.1934818136521584e-05</v>
       </c>
       <c r="DV4">
-        <v>4.9021593109043687e-05</v>
+        <v>5.1934818136521584e-05</v>
       </c>
       <c r="DW4">
-        <v>4.9021593109043687e-05</v>
+        <v>5.1934818136521584e-05</v>
       </c>
       <c r="DX4">
-        <v>4.902159310904368e-05</v>
+        <v>5.1934818136521571e-05</v>
       </c>
       <c r="DY4">
-        <v>4.9021593109043694e-05</v>
+        <v>5.1934818136521591e-05</v>
       </c>
       <c r="DZ4">
-        <v>4.9021593109043694e-05</v>
+        <v>5.1934818136521591e-05</v>
       </c>
       <c r="EA4">
-        <v>4.90215931090437e-05</v>
+        <v>5.1934818136521605e-05</v>
       </c>
       <c r="EB4">
-        <v>4.9021593109043707e-05</v>
+        <v>5.1934818136521605e-05</v>
       </c>
       <c r="EC4">
-        <v>4.90215931090437e-05</v>
+        <v>5.1934818136521605e-05</v>
       </c>
       <c r="ED4">
-        <v>4.90215931090437e-05</v>
+        <v>5.1934818136521605e-05</v>
       </c>
       <c r="EE4">
-        <v>4.90215931090437e-05</v>
+        <v>5.1934818136521605e-05</v>
       </c>
       <c r="EF4">
-        <v>4.9021593109043721e-05</v>
+        <v>5.1934818136521618e-05</v>
       </c>
       <c r="EG4">
-        <v>4.9021593109043707e-05</v>
+        <v>5.1934818136521605e-05</v>
       </c>
       <c r="EH4">
-        <v>4.9021593109043728e-05</v>
+        <v>5.1934818136521625e-05</v>
       </c>
       <c r="EI4">
-        <v>4.9021593109043714e-05</v>
+        <v>5.1934818136521611e-05</v>
       </c>
       <c r="EJ4">
-        <v>4.9021593109043728e-05</v>
+        <v>5.1934818136521625e-05</v>
       </c>
       <c r="EK4">
-        <v>4.9021593109043721e-05</v>
+        <v>5.1934818136521618e-05</v>
       </c>
       <c r="EL4">
-        <v>4.9021593109043728e-05</v>
+        <v>5.1934818136521632e-05</v>
       </c>
       <c r="EM4">
-        <v>4.9021593109043721e-05</v>
+        <v>5.1934818136521618e-05</v>
       </c>
       <c r="EN4">
-        <v>4.9021593109043734e-05</v>
+        <v>5.1934818136521639e-05</v>
       </c>
       <c r="EO4">
-        <v>4.9021593109043714e-05</v>
+        <v>5.1934818136521611e-05</v>
       </c>
       <c r="EP4">
-        <v>4.9021593109043728e-05</v>
+        <v>5.1934818136521632e-05</v>
       </c>
       <c r="EQ4">
-        <v>4.9021593109043741e-05</v>
+        <v>5.1934818136521639e-05</v>
       </c>
       <c r="ER4">
-        <v>4.9021593109043748e-05</v>
+        <v>5.1934818136521645e-05</v>
       </c>
       <c r="ES4">
-        <v>4.9021593109043741e-05</v>
+        <v>5.1934818136521639e-05</v>
       </c>
       <c r="ET4">
-        <v>4.9021593109043741e-05</v>
+        <v>5.1934818136521639e-05</v>
       </c>
       <c r="EU4">
-        <v>4.9021593109043741e-05</v>
+        <v>5.1934818136521639e-05</v>
       </c>
       <c r="EV4">
-        <v>4.9021593109043734e-05</v>
+        <v>5.1934818136521632e-05</v>
       </c>
       <c r="EW4">
-        <v>4.9021593109043721e-05</v>
+        <v>5.1934818136521618e-05</v>
       </c>
       <c r="EX4">
-        <v>4.9021593109043734e-05</v>
+        <v>5.1934818136521639e-05</v>
       </c>
       <c r="EY4">
-        <v>4.9021593109043748e-05</v>
+        <v>5.1934818136521652e-05</v>
       </c>
       <c r="EZ4">
-        <v>4.9021593109043748e-05</v>
+        <v>5.1934818136521652e-05</v>
       </c>
       <c r="FA4">
-        <v>4.9021593109043755e-05</v>
+        <v>5.1934818136521652e-05</v>
       </c>
       <c r="FB4">
-        <v>4.9021593109043755e-05</v>
+        <v>5.1934818136521652e-05</v>
       </c>
       <c r="FC4">
-        <v>4.9021593109043755e-05</v>
+        <v>5.1934818136521652e-05</v>
       </c>
       <c r="FD4">
-        <v>4.9021593109043755e-05</v>
+        <v>5.1934818136521652e-05</v>
       </c>
       <c r="FE4">
-        <v>4.9021593109043761e-05</v>
+        <v>5.1934818136521659e-05</v>
       </c>
       <c r="FF4">
-        <v>4.9021593109043755e-05</v>
+        <v>5.1934818136521652e-05</v>
       </c>
       <c r="FG4">
-        <v>4.9021593109043761e-05</v>
+        <v>5.1934818136521659e-05</v>
       </c>
       <c r="FH4">
-        <v>4.9021593109043761e-05</v>
+        <v>5.1934818136521659e-05</v>
       </c>
       <c r="FI4">
-        <v>4.9021593109043768e-05</v>
+        <v>5.1934818136521666e-05</v>
       </c>
       <c r="FJ4">
-        <v>4.9021593109043768e-05</v>
+        <v>5.1934818136521666e-05</v>
       </c>
       <c r="FK4">
-        <v>4.9021593109043782e-05</v>
+        <v>5.1934818136521679e-05</v>
       </c>
       <c r="FL4">
-        <v>4.9021593109043782e-05</v>
+        <v>5.1934818136521679e-05</v>
       </c>
       <c r="FM4">
-        <v>4.9021593109043782e-05</v>
+        <v>5.1934818136521679e-05</v>
       </c>
       <c r="FN4">
-        <v>4.9021593109043775e-05</v>
+        <v>5.1934818136521679e-05</v>
       </c>
       <c r="FO4">
-        <v>4.9021593109043782e-05</v>
+        <v>5.1934818136521679e-05</v>
       </c>
       <c r="FP4">
-        <v>4.9021593109043782e-05</v>
+        <v>5.1934818136521679e-05</v>
       </c>
       <c r="FQ4">
-        <v>4.9021593109043789e-05</v>
+        <v>5.1934818136521686e-05</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>3.8682575504805148e-05</v>
+        <v>4.0981379765148784e-05</v>
       </c>
     </row>
   </sheetData>
@@ -4308,526 +4308,526 @@
         <v>175</v>
       </c>
       <c r="B3">
-        <v>0.1009926150781717</v>
+        <v>0.10052389663273584</v>
       </c>
       <c r="C3">
-        <v>-0.0023221484064673398</v>
+        <v>-0.0023629411928344892</v>
       </c>
       <c r="D3">
-        <v>-0.0032717090812557051</v>
+        <v>-0.0033241758342423531</v>
       </c>
       <c r="E3">
-        <v>-0.0035809627305178606</v>
+        <v>-0.0036166583669064371</v>
       </c>
       <c r="F3">
-        <v>0.00048665418027789439</v>
+        <v>0.00047921342472266918</v>
       </c>
       <c r="G3">
-        <v>0.00050049029388353798</v>
+        <v>0.00048799617155874885</v>
       </c>
       <c r="H3">
-        <v>0.00053595330754717158</v>
+        <v>0.00048579616718944342</v>
       </c>
       <c r="I3">
-        <v>0.00039449614320952783</v>
+        <v>0.0004416628159203893</v>
       </c>
       <c r="J3">
-        <v>-0.0014254052991984271</v>
+        <v>-0.0014119420559345858</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>3.3334833423232414e-05</v>
+        <v>0.00013840612180921708</v>
       </c>
       <c r="M3">
-        <v>0.00041563414335725718</v>
+        <v>0.00038200194697694497</v>
       </c>
       <c r="N3">
-        <v>-0.0019380148872778905</v>
+        <v>-0.0019761310248399191</v>
       </c>
       <c r="O3">
-        <v>-0.0019460626222785038</v>
+        <v>-0.001919555224355202</v>
       </c>
       <c r="P3">
-        <v>-0.0019656871353862051</v>
+        <v>-0.0019289874655185068</v>
       </c>
       <c r="Q3">
-        <v>-0.0019808321821218615</v>
+        <v>-0.0019107657582671629</v>
       </c>
       <c r="R3">
-        <v>-0.00196539775138448</v>
+        <v>-0.0018678271464439102</v>
       </c>
       <c r="S3">
-        <v>-0.0019516943219986614</v>
+        <v>-0.0018752060756726196</v>
       </c>
       <c r="T3">
-        <v>-0.0019137494656911113</v>
+        <v>-0.0019076261350357744</v>
       </c>
       <c r="U3">
-        <v>-0.0019371230304565455</v>
+        <v>-0.0019068896184011193</v>
       </c>
       <c r="V3">
-        <v>-0.0019220398499276382</v>
+        <v>-0.0018813400527752807</v>
       </c>
       <c r="W3">
-        <v>-0.0018889710177859044</v>
+        <v>-0.001877627441617061</v>
       </c>
       <c r="X3">
-        <v>-0.0018943533872815758</v>
+        <v>-0.0018533046098508853</v>
       </c>
       <c r="Y3">
-        <v>-0.0019033738686985336</v>
+        <v>-0.0018629335682048894</v>
       </c>
       <c r="Z3">
-        <v>-0.0018973920592088433</v>
+        <v>-0.0018305715261049786</v>
       </c>
       <c r="AA3">
-        <v>-0.0018922214359162522</v>
+        <v>-0.0018280405208757602</v>
       </c>
       <c r="AB3">
-        <v>-0.0019344114155641066</v>
+        <v>-0.0018465619038752507</v>
       </c>
       <c r="AC3">
-        <v>-0.0018700889879014334</v>
+        <v>-0.0018815035760411433</v>
       </c>
       <c r="AD3">
-        <v>-0.0018512496632600484</v>
+        <v>-0.0018629050023116634</v>
       </c>
       <c r="AE3">
-        <v>-0.0018977773195005794</v>
+        <v>-0.0018582311683015514</v>
       </c>
       <c r="AF3">
-        <v>-0.0019185316912881272</v>
+        <v>-0.0018520088969398267</v>
       </c>
       <c r="AG3">
-        <v>-0.001867518428174577</v>
+        <v>-0.0018565793283984839</v>
       </c>
       <c r="AH3">
-        <v>-0.0018660682108049031</v>
+        <v>-0.0018584438267302906</v>
       </c>
       <c r="AI3">
-        <v>-0.0018597539925646743</v>
+        <v>-0.0018448803547008365</v>
       </c>
       <c r="AJ3">
-        <v>-0.0018405037883527278</v>
+        <v>-0.0018365288342384214</v>
       </c>
       <c r="AK3">
-        <v>-0.0018496414662375535</v>
+        <v>-0.001808188107105262</v>
       </c>
       <c r="AL3">
-        <v>-0.0018808802127186677</v>
+        <v>-0.0018287533253314074</v>
       </c>
       <c r="AM3">
-        <v>-0.0018579192001489983</v>
+        <v>-0.0018226506233442632</v>
       </c>
       <c r="AN3">
-        <v>-0.0018492418468894689</v>
+        <v>-0.0018003558182493303</v>
       </c>
       <c r="AO3">
-        <v>-0.0018048831074433554</v>
+        <v>-0.0018086088967103702</v>
       </c>
       <c r="AP3">
-        <v>-0.001912439730212307</v>
+        <v>-0.0018218791667404201</v>
       </c>
       <c r="AQ3">
-        <v>-0.0018673342285250216</v>
+        <v>-0.0018392362026867259</v>
       </c>
       <c r="AR3">
-        <v>-0.0018394042355788821</v>
+        <v>-0.0018434622409630949</v>
       </c>
       <c r="AS3">
-        <v>-0.0018463950634148088</v>
+        <v>-0.0017922121209240794</v>
       </c>
       <c r="AT3">
-        <v>-0.0018896801247694538</v>
+        <v>-0.0017972556512574399</v>
       </c>
       <c r="AU3">
-        <v>-0.0018641682687535693</v>
+        <v>-0.0017454786846269226</v>
       </c>
       <c r="AV3">
-        <v>-0.0018706030354026654</v>
+        <v>-0.0017960518806159008</v>
       </c>
       <c r="AW3">
-        <v>-0.0018851874945615009</v>
+        <v>-0.0018007946369263765</v>
       </c>
       <c r="AX3">
-        <v>-0.0018206653472402988</v>
+        <v>-0.0017350603129390016</v>
       </c>
       <c r="AY3">
-        <v>-0.0018295017952305705</v>
+        <v>-0.0017964968154249262</v>
       </c>
       <c r="AZ3">
-        <v>-0.001813900641710051</v>
+        <v>-0.0018348242479257028</v>
       </c>
       <c r="BA3">
-        <v>-0.0018272756546239908</v>
+        <v>-0.0018256248158979131</v>
       </c>
       <c r="BB3">
-        <v>-0.0018282356585325823</v>
+        <v>-0.001794294872619456</v>
       </c>
       <c r="BC3">
-        <v>-0.0018460724918350096</v>
+        <v>-0.0018131082068865245</v>
       </c>
       <c r="BD3">
-        <v>-0.0018622367239354495</v>
+        <v>-0.0018161295895349156</v>
       </c>
       <c r="BE3">
-        <v>-0.0018343744442719111</v>
+        <v>-0.0018056001351561574</v>
       </c>
       <c r="BF3">
-        <v>-0.0018789757871431135</v>
+        <v>-0.0018080205551522382</v>
       </c>
       <c r="BG3">
-        <v>-0.0018661782062031165</v>
+        <v>-0.001857515381756899</v>
       </c>
       <c r="BH3">
-        <v>-0.0018750233227274749</v>
+        <v>-0.0018118192399499686</v>
       </c>
       <c r="BI3">
-        <v>-0.0018220807731694536</v>
+        <v>-0.001772726732705502</v>
       </c>
       <c r="BJ3">
-        <v>-0.0018383098911359415</v>
+        <v>-0.001769072930351592</v>
       </c>
       <c r="BK3">
-        <v>-0.0018477636806697869</v>
+        <v>-0.0018177966387380074</v>
       </c>
       <c r="BL3">
-        <v>-0.0018390033830776365</v>
+        <v>-0.0017803445914671479</v>
       </c>
       <c r="BM3">
-        <v>-0.0018410595001583326</v>
+        <v>-0.0018400198827431258</v>
       </c>
       <c r="BN3">
-        <v>-0.0018447330014857446</v>
+        <v>-0.0017811355518032299</v>
       </c>
       <c r="BO3">
-        <v>-0.0018373872542841083</v>
+        <v>-0.0018031150882997916</v>
       </c>
       <c r="BP3">
-        <v>-0.0018656650409212038</v>
+        <v>-0.0017607634714963247</v>
       </c>
       <c r="BQ3">
-        <v>-0.0013734925066120262</v>
+        <v>-0.0013239922600110411</v>
       </c>
       <c r="BR3">
-        <v>-0.0013667142982332486</v>
+        <v>-0.001341570977566695</v>
       </c>
       <c r="BS3">
-        <v>-0.0014175648714416578</v>
+        <v>-0.0013582852702538502</v>
       </c>
       <c r="BT3">
-        <v>-0.0012549615917098931</v>
+        <v>-0.0011507972213823504</v>
       </c>
       <c r="BU3">
-        <v>-0.0012668969530042671</v>
+        <v>-0.001214608852934598</v>
       </c>
       <c r="BV3">
-        <v>-0.0082066316161665855</v>
+        <v>-0.0080390684199052372</v>
       </c>
       <c r="BW3">
-        <v>-0.0015958400137460469</v>
+        <v>-0.0015476950582127638</v>
       </c>
       <c r="BX3">
-        <v>-0.001568371697917844</v>
+        <v>-0.0015648818321104417</v>
       </c>
       <c r="BY3">
-        <v>-0.0015894854011695007</v>
+        <v>-0.0015562714592873286</v>
       </c>
       <c r="BZ3">
-        <v>-0.0015011200749624352</v>
+        <v>-0.0014989166617498111</v>
       </c>
       <c r="CA3">
-        <v>-0.0016664322237479011</v>
+        <v>-0.0015731610027001179</v>
       </c>
       <c r="CB3">
-        <v>-0.0015267450203851479</v>
+        <v>-0.0015902546743066003</v>
       </c>
       <c r="CC3">
-        <v>-0.0016426701303842162</v>
+        <v>-0.0015449951235069976</v>
       </c>
       <c r="CD3">
-        <v>-0.0015169864917880262</v>
+        <v>-0.0015480757787449159</v>
       </c>
       <c r="CE3">
-        <v>-0.0016574344936847321</v>
+        <v>-0.0016433598543458901</v>
       </c>
       <c r="CF3">
-        <v>-0.0015544931886484594</v>
+        <v>-0.0016014221382610809</v>
       </c>
       <c r="CG3">
-        <v>-0.0015955364036950878</v>
+        <v>-0.0015653620409547717</v>
       </c>
       <c r="CH3">
-        <v>-0.0015666287958609854</v>
+        <v>-0.0014874790470287228</v>
       </c>
       <c r="CI3">
-        <v>-0.0016253994233245508</v>
+        <v>-0.0014789286298245352</v>
       </c>
       <c r="CJ3">
-        <v>-0.0015751950884238931</v>
+        <v>-0.0015405102088508777</v>
       </c>
       <c r="CK3">
-        <v>-0.0010594492828101744</v>
+        <v>-0.00092077069360688179</v>
       </c>
       <c r="CL3">
-        <v>-0.00021962706310659915</v>
+        <v>-0.00015477597533356384</v>
       </c>
       <c r="CM3">
-        <v>-9.5451369163110703e-05</v>
+        <v>-9.3809562719108258e-05</v>
       </c>
       <c r="CN3">
-        <v>5.6715408505858603e-07</v>
+        <v>5.1997639346278145e-06</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.0069775501073484486</v>
+        <v>0.006899734764891057</v>
       </c>
       <c r="CQ3">
-        <v>-0.00091845384753824993</v>
+        <v>-0.0010009833099872308</v>
       </c>
       <c r="CR3">
-        <v>-0.0010738039295170774</v>
+        <v>-0.0009977868344207691</v>
       </c>
       <c r="CS3">
-        <v>-0.00090658090838387966</v>
+        <v>-0.0010585526297348794</v>
       </c>
       <c r="CT3">
-        <v>-0.001057401121795925</v>
+        <v>-0.0010500907543705797</v>
       </c>
       <c r="CU3">
-        <v>-0.0010533022617809985</v>
+        <v>-0.0011148063378986735</v>
       </c>
       <c r="CV3">
-        <v>-0.001072845896871077</v>
+        <v>-0.00099992543702939665</v>
       </c>
       <c r="CW3">
-        <v>-0.0011013693493403028</v>
+        <v>-0.00092317463997347994</v>
       </c>
       <c r="CX3">
-        <v>-0.0011481378960378126</v>
+        <v>-0.0010916559365388551</v>
       </c>
       <c r="CY3">
-        <v>-0.00087054008859921699</v>
+        <v>-0.0010241068478839999</v>
       </c>
       <c r="CZ3">
-        <v>-0.0011569636466922239</v>
+        <v>-0.0010469854137177272</v>
       </c>
       <c r="DA3">
-        <v>-0.0010861538589618707</v>
+        <v>-0.0010241355021812348</v>
       </c>
       <c r="DB3">
-        <v>-0.00096083705238263835</v>
+        <v>-0.0010234145665979301</v>
       </c>
       <c r="DC3">
-        <v>-0.00099168737371120802</v>
+        <v>-0.0011362991827828682</v>
       </c>
       <c r="DD3">
-        <v>-0.00090121079238293699</v>
+        <v>-0.00094663442280903693</v>
       </c>
       <c r="DE3">
-        <v>-0.0010894384538440317</v>
+        <v>-0.00096683852149729091</v>
       </c>
       <c r="DF3">
-        <v>-0.00017210459813418508</v>
+        <v>-0.0002123346076938133</v>
       </c>
       <c r="DG3">
-        <v>-0.00017702976019293322</v>
+        <v>-0.00010670616502005227</v>
       </c>
       <c r="DH3">
-        <v>-1.1838493283489064e-05</v>
+        <v>-6.9387430025300692e-05</v>
       </c>
       <c r="DI3">
-        <v>-8.7100422197003842e-05</v>
+        <v>-0.00016049167077818085</v>
       </c>
       <c r="DJ3">
-        <v>-0.0002024059050053353</v>
+        <v>-0.00011410069289274482</v>
       </c>
       <c r="DK3">
-        <v>-0.00077960335721543531</v>
+        <v>-0.00087176184133916921</v>
       </c>
       <c r="DL3">
-        <v>-0.00084705328294547061</v>
+        <v>-0.00083145481548940053</v>
       </c>
       <c r="DM3">
-        <v>-0.00086801187905974006</v>
+        <v>-0.0008885414523723739</v>
       </c>
       <c r="DN3">
-        <v>-0.00088453919291362122</v>
+        <v>-0.00066598918712087985</v>
       </c>
       <c r="DO3">
-        <v>-0.00089655910970285781</v>
+        <v>-0.00078275934922101772</v>
       </c>
       <c r="DP3">
-        <v>-0.00083681113531835116</v>
+        <v>-0.00086913554190129938</v>
       </c>
       <c r="DQ3">
-        <v>-0.00085188612770218189</v>
+        <v>-0.00093579963161218146</v>
       </c>
       <c r="DR3">
-        <v>-0.00070593165318598764</v>
+        <v>-0.00079394443107797018</v>
       </c>
       <c r="DS3">
-        <v>-0.00080116180626619833</v>
+        <v>-0.00073935908280009944</v>
       </c>
       <c r="DT3">
-        <v>-0.00075779077285150355</v>
+        <v>-0.0006841561715270455</v>
       </c>
       <c r="DU3">
-        <v>-0.00069434481889301943</v>
+        <v>-0.00085017950422877923</v>
       </c>
       <c r="DV3">
-        <v>-0.00074990943168505607</v>
+        <v>-0.0007972275302172313</v>
       </c>
       <c r="DW3">
-        <v>-0.00097428393177185547</v>
+        <v>-0.00081441430030831539</v>
       </c>
       <c r="DX3">
-        <v>-0.00080454358829708218</v>
+        <v>-0.00088474281992945711</v>
       </c>
       <c r="DY3">
-        <v>-0.00078888582834330586</v>
+        <v>-0.00093279163437168288</v>
       </c>
       <c r="DZ3">
-        <v>-0.0008398132678338364</v>
+        <v>-0.00079666067752822767</v>
       </c>
       <c r="EA3">
-        <v>-0.00080771657887354013</v>
+        <v>-0.00081775889853741507</v>
       </c>
       <c r="EB3">
-        <v>-0.00083582795539493724</v>
+        <v>-0.00085598349757122526</v>
       </c>
       <c r="EC3">
-        <v>-0.00077149000536943331</v>
+        <v>-0.00094027386367319529</v>
       </c>
       <c r="ED3">
-        <v>-0.0008691993458690609</v>
+        <v>-0.0007886738811164651</v>
       </c>
       <c r="EE3">
-        <v>-0.00087795634563442293</v>
+        <v>-0.00079844417746492615</v>
       </c>
       <c r="EF3">
-        <v>-0.00085782671803284933</v>
+        <v>-0.00092960205822388629</v>
       </c>
       <c r="EG3">
-        <v>-0.00085640037525517524</v>
+        <v>-0.00090476722246410758</v>
       </c>
       <c r="EH3">
-        <v>-0.00083951252118417898</v>
+        <v>-0.00077816857654906086</v>
       </c>
       <c r="EI3">
-        <v>-0.00084844752283990538</v>
+        <v>-0.00085396617882726425</v>
       </c>
       <c r="EJ3">
-        <v>-0.00092013073773198673</v>
+        <v>-0.00068786079242610346</v>
       </c>
       <c r="EK3">
-        <v>-0.00083396388704443146</v>
+        <v>-0.00083686458386429566</v>
       </c>
       <c r="EL3">
-        <v>-0.00087296224296596898</v>
+        <v>-0.00086883275893530354</v>
       </c>
       <c r="EM3">
-        <v>-0.00082454100381156416</v>
+        <v>-0.00091883530450126427</v>
       </c>
       <c r="EN3">
-        <v>-0.00086215796192516464</v>
+        <v>-0.00085132428696745401</v>
       </c>
       <c r="EO3">
-        <v>-0.0009872375549104214</v>
+        <v>-0.00083441845237394372</v>
       </c>
       <c r="EP3">
-        <v>-0.00098031750322927517</v>
+        <v>-0.00089919138363052202</v>
       </c>
       <c r="EQ3">
-        <v>-0.00092867311975476001</v>
+        <v>-0.00090053756776831357</v>
       </c>
       <c r="ER3">
-        <v>-0.00092314892822284922</v>
+        <v>-0.00086072432806883023</v>
       </c>
       <c r="ES3">
-        <v>-0.00091582087089003708</v>
+        <v>-0.0010491586685715641</v>
       </c>
       <c r="ET3">
-        <v>-0.00076185953390085553</v>
+        <v>-0.0010663837446508232</v>
       </c>
       <c r="EU3">
-        <v>-0.00080598181795359385</v>
+        <v>-0.00077900719285239407</v>
       </c>
       <c r="EV3">
-        <v>-0.00096572039347777802</v>
+        <v>-0.00095465993060631234</v>
       </c>
       <c r="EW3">
-        <v>-0.0009735454288674919</v>
+        <v>-0.00093859655353373099</v>
       </c>
       <c r="EX3">
-        <v>-0.00097232927681671015</v>
+        <v>-0.00095179514068553903</v>
       </c>
       <c r="EY3">
-        <v>-0.00087695438791683157</v>
+        <v>-0.00084349112491784628</v>
       </c>
       <c r="EZ3">
-        <v>-0.00092329831338836411</v>
+        <v>-0.00094504630966617037</v>
       </c>
       <c r="FA3">
-        <v>-0.00088088590310582079</v>
+        <v>-0.00081362140463422862</v>
       </c>
       <c r="FB3">
-        <v>-0.00081184183169046031</v>
+        <v>-0.00096818080470866333</v>
       </c>
       <c r="FC3">
-        <v>-0.0006669005284448816</v>
+        <v>-0.0008378739295201948</v>
       </c>
       <c r="FD3">
-        <v>-0.0010557436093032431</v>
+        <v>-0.00090932843638406652</v>
       </c>
       <c r="FE3">
-        <v>-0.00086250182848144979</v>
+        <v>-0.0010440997299757304</v>
       </c>
       <c r="FF3">
-        <v>-0.00078673441942221959</v>
+        <v>-0.00094715816952510037</v>
       </c>
       <c r="FG3">
-        <v>-0.0010174269835627183</v>
+        <v>-0.00096532569258433196</v>
       </c>
       <c r="FH3">
-        <v>-0.00093284866672275037</v>
+        <v>-0.00095891155972033227</v>
       </c>
       <c r="FI3">
-        <v>-0.0010320390322204045</v>
+        <v>-0.00091215634456509489</v>
       </c>
       <c r="FJ3">
-        <v>-0.00087747961781710663</v>
+        <v>-0.00099794217116180601</v>
       </c>
       <c r="FK3">
-        <v>-0.0010372795662320676</v>
+        <v>-0.00099577605268885054</v>
       </c>
       <c r="FL3">
-        <v>-0.00097706227779208697</v>
+        <v>-0.00101502531961576</v>
       </c>
       <c r="FM3">
-        <v>-0.00093182848379782266</v>
+        <v>-0.00097017589906411991</v>
       </c>
       <c r="FN3">
-        <v>-0.00098230059057637228</v>
+        <v>-0.00099929455061871465</v>
       </c>
       <c r="FO3">
-        <v>-0.0010255618400555151</v>
+        <v>-0.00095802002328522896</v>
       </c>
       <c r="FP3">
-        <v>-0.00096651077307790048</v>
+        <v>-0.00094790774226322333</v>
       </c>
       <c r="FQ3">
-        <v>-0.0011690430221929558</v>
+        <v>-0.00091196365576781582</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0049574485544172514</v>
+        <v>0.0049545505941872639</v>
       </c>
     </row>
     <row r="4">
@@ -4835,526 +4835,526 @@
         <v>176</v>
       </c>
       <c r="B4">
-        <v>0.0011567991839847509</v>
+        <v>0.0011400982016784649</v>
       </c>
       <c r="C4">
-        <v>0.00050449129682053151</v>
+        <v>0.00049720783713407826</v>
       </c>
       <c r="D4">
-        <v>0.00073852630983703167</v>
+        <v>0.00072786403154009491</v>
       </c>
       <c r="E4">
-        <v>0.00087344947323584081</v>
+        <v>0.00086083927744740854</v>
       </c>
       <c r="F4">
-        <v>0.00079931110145767389</v>
+        <v>0.00078777125880609194</v>
       </c>
       <c r="G4">
-        <v>0.00066868635920709141</v>
+        <v>0.00065903237672838356</v>
       </c>
       <c r="H4">
-        <v>0.00054197418301108564</v>
+        <v>0.00053414957406750679</v>
       </c>
       <c r="I4">
-        <v>0.00053884891600647507</v>
+        <v>0.00053106942727880664</v>
       </c>
       <c r="J4">
-        <v>0.00056872436437383714</v>
+        <v>0.00056051355676084837</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.001233841129928924</v>
+        <v>0.0012160278749016086</v>
       </c>
       <c r="M4">
-        <v>0.001233841129928924</v>
+        <v>0.0012160278749016086</v>
       </c>
       <c r="N4">
-        <v>0.0012338411299289242</v>
+        <v>0.0012160278749016088</v>
       </c>
       <c r="O4">
-        <v>0.0012338411299289242</v>
+        <v>0.001216027874901609</v>
       </c>
       <c r="P4">
-        <v>0.0012338411299289242</v>
+        <v>0.0012160278749016088</v>
       </c>
       <c r="Q4">
-        <v>0.0012338411299289247</v>
+        <v>0.0012160278749016092</v>
       </c>
       <c r="R4">
-        <v>0.0012338411299289247</v>
+        <v>0.0012160278749016092</v>
       </c>
       <c r="S4">
-        <v>0.0012338411299289247</v>
+        <v>0.0012160278749016094</v>
       </c>
       <c r="T4">
-        <v>0.0012338411299289249</v>
+        <v>0.0012160278749016094</v>
       </c>
       <c r="U4">
-        <v>0.0012338411299289245</v>
+        <v>0.001216027874901609</v>
       </c>
       <c r="V4">
-        <v>0.0012338411299289251</v>
+        <v>0.0012160278749016097</v>
       </c>
       <c r="W4">
-        <v>0.0012338411299289247</v>
+        <v>0.0012160278749016092</v>
       </c>
       <c r="X4">
-        <v>0.0012338411299289249</v>
+        <v>0.0012160278749016097</v>
       </c>
       <c r="Y4">
-        <v>0.0012338411299289249</v>
+        <v>0.0012160278749016094</v>
       </c>
       <c r="Z4">
-        <v>0.0012338411299289249</v>
+        <v>0.0012160278749016097</v>
       </c>
       <c r="AA4">
-        <v>0.0012338411299289249</v>
+        <v>0.0012160278749016097</v>
       </c>
       <c r="AB4">
-        <v>0.0012338411299289251</v>
+        <v>0.0012160278749016097</v>
       </c>
       <c r="AC4">
-        <v>0.0012338411299289251</v>
+        <v>0.0012160278749016097</v>
       </c>
       <c r="AD4">
-        <v>0.0012338411299289251</v>
+        <v>0.0012160278749016097</v>
       </c>
       <c r="AE4">
-        <v>0.0012338411299289251</v>
+        <v>0.0012160278749016099</v>
       </c>
       <c r="AF4">
-        <v>0.0012338411299289251</v>
+        <v>0.0012160278749016099</v>
       </c>
       <c r="AG4">
-        <v>0.0012338411299289251</v>
+        <v>0.0012160278749016099</v>
       </c>
       <c r="AH4">
-        <v>0.0012338411299289249</v>
+        <v>0.0012160278749016097</v>
       </c>
       <c r="AI4">
-        <v>0.0012338411299289251</v>
+        <v>0.0012160278749016097</v>
       </c>
       <c r="AJ4">
-        <v>0.0012338411299289251</v>
+        <v>0.0012160278749016099</v>
       </c>
       <c r="AK4">
-        <v>0.0012338411299289253</v>
+        <v>0.0012160278749016099</v>
       </c>
       <c r="AL4">
-        <v>0.0012338411299289253</v>
+        <v>0.0012160278749016099</v>
       </c>
       <c r="AM4">
-        <v>0.0012338411299289255</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="AN4">
-        <v>0.0012338411299289255</v>
+        <v>0.0012160278749016101</v>
       </c>
       <c r="AO4">
-        <v>0.0012338411299289255</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="AP4">
-        <v>0.0012338411299289255</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="AQ4">
-        <v>0.0012338411299289258</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="AR4">
-        <v>0.0012338411299289258</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="AS4">
-        <v>0.0012338411299289258</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="AT4">
-        <v>0.0012338411299289255</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="AU4">
-        <v>0.0012338411299289255</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="AV4">
-        <v>0.0012338411299289255</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="AW4">
-        <v>0.0012338411299289255</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="AX4">
-        <v>0.0012338411299289255</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="AY4">
-        <v>0.0012338411299289255</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="AZ4">
-        <v>0.0012338411299289255</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="BA4">
-        <v>0.0012338411299289255</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="BB4">
-        <v>0.0012338411299289255</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="BC4">
-        <v>0.0012338411299289258</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="BD4">
-        <v>0.0012338411299289255</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="BE4">
-        <v>0.0012338411299289258</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="BF4">
-        <v>0.0012338411299289255</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="BG4">
-        <v>0.0012338411299289258</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="BH4">
-        <v>0.0012338411299289255</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="BI4">
-        <v>0.0012338411299289258</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="BJ4">
-        <v>0.0012338411299289258</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="BK4">
-        <v>0.0012338411299289258</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="BL4">
-        <v>0.0012338411299289258</v>
+        <v>0.0012160278749016103</v>
       </c>
       <c r="BM4">
-        <v>0.001233841129928926</v>
+        <v>0.0012160278749016105</v>
       </c>
       <c r="BN4">
-        <v>0.001233841129928926</v>
+        <v>0.0012160278749016105</v>
       </c>
       <c r="BO4">
-        <v>0.0012338411299289262</v>
+        <v>0.0012160278749016107</v>
       </c>
       <c r="BP4">
-        <v>0.0012338411299289262</v>
+        <v>0.0012160278749016107</v>
       </c>
       <c r="BQ4">
-        <v>0.0012331425447014465</v>
+        <v>0.0012153393753136137</v>
       </c>
       <c r="BR4">
-        <v>0.0012331425447014463</v>
+        <v>0.0012153393753136137</v>
       </c>
       <c r="BS4">
-        <v>0.0012331425447014465</v>
+        <v>0.0012153393753136139</v>
       </c>
       <c r="BT4">
-        <v>0.0011188728983301448</v>
+        <v>0.0011027194667434909</v>
       </c>
       <c r="BU4">
-        <v>0.0011188728983301448</v>
+        <v>0.0011027194667434911</v>
       </c>
       <c r="BV4">
-        <v>0.0012974318247776933</v>
+        <v>0.0012787004959098904</v>
       </c>
       <c r="BW4">
-        <v>0.0012724040684716767</v>
+        <v>0.0012540340712170178</v>
       </c>
       <c r="BX4">
-        <v>0.0012724040684716767</v>
+        <v>0.0012540340712170178</v>
       </c>
       <c r="BY4">
-        <v>0.0012534244755797205</v>
+        <v>0.001235328491178336</v>
       </c>
       <c r="BZ4">
-        <v>0.0012534244755797207</v>
+        <v>0.0012353284911783362</v>
       </c>
       <c r="CA4">
-        <v>0.0012534244755797207</v>
+        <v>0.0012353284911783362</v>
       </c>
       <c r="CB4">
-        <v>0.001238031323512257</v>
+        <v>0.0012201575736731679</v>
       </c>
       <c r="CC4">
-        <v>0.0012380313235122575</v>
+        <v>0.0012201575736731684</v>
       </c>
       <c r="CD4">
-        <v>0.0012380313235122572</v>
+        <v>0.0012201575736731681</v>
       </c>
       <c r="CE4">
-        <v>0.0012380313235122572</v>
+        <v>0.0012201575736731681</v>
       </c>
       <c r="CF4">
-        <v>0.0012380313235122575</v>
+        <v>0.0012201575736731684</v>
       </c>
       <c r="CG4">
-        <v>0.0012346789104565688</v>
+        <v>0.0012168535601944344</v>
       </c>
       <c r="CH4">
-        <v>0.0012346789104565685</v>
+        <v>0.0012168535601944342</v>
       </c>
       <c r="CI4">
-        <v>0.0012346789104565685</v>
+        <v>0.0012168535601944342</v>
       </c>
       <c r="CJ4">
-        <v>0.001234678910456569</v>
+        <v>0.0012168535601944346</v>
       </c>
       <c r="CK4">
-        <v>0.0012509034868263325</v>
+        <v>0.0012328438985334061</v>
       </c>
       <c r="CL4">
-        <v>0.0011805924008198765</v>
+        <v>0.0011635479102375871</v>
       </c>
       <c r="CM4">
-        <v>0.0011805924008198769</v>
+        <v>0.0011635479102375874</v>
       </c>
       <c r="CN4">
-        <v>0.0010726326209576733</v>
+        <v>0.0010571467711474652</v>
       </c>
       <c r="CO4">
         <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.0012577732374601004</v>
+        <v>0.0012396144689590866</v>
       </c>
       <c r="CQ4">
-        <v>0.0012728374163294871</v>
+        <v>0.0012544611627297287</v>
       </c>
       <c r="CR4">
-        <v>0.0012728374163294871</v>
+        <v>0.0012544611627297287</v>
       </c>
       <c r="CS4">
-        <v>0.0012538643829885848</v>
+        <v>0.001235762047540317</v>
       </c>
       <c r="CT4">
-        <v>0.001253864382988585</v>
+        <v>0.0012357620475403172</v>
       </c>
       <c r="CU4">
-        <v>0.0012538643829885848</v>
+        <v>0.001235762047540317</v>
       </c>
       <c r="CV4">
-        <v>0.0012384766985868404</v>
+        <v>0.0012205965187628903</v>
       </c>
       <c r="CW4">
-        <v>0.0012384766985868404</v>
+        <v>0.0012205965187628901</v>
       </c>
       <c r="CX4">
-        <v>0.0012384766985868406</v>
+        <v>0.0012205965187628903</v>
       </c>
       <c r="CY4">
-        <v>0.0012384766985868401</v>
+        <v>0.0012205965187628901</v>
       </c>
       <c r="CZ4">
-        <v>0.0012384766985868406</v>
+        <v>0.0012205965187628903</v>
       </c>
       <c r="DA4">
-        <v>0.0012367151390328195</v>
+        <v>0.0012188603912590907</v>
       </c>
       <c r="DB4">
-        <v>0.0012367151390328193</v>
+        <v>0.0012188603912590904</v>
       </c>
       <c r="DC4">
-        <v>0.0012367151390328195</v>
+        <v>0.0012188603912590909</v>
       </c>
       <c r="DD4">
-        <v>0.0012367151390328193</v>
+        <v>0.0012188603912590907</v>
       </c>
       <c r="DE4">
-        <v>0.0012367151390328195</v>
+        <v>0.0012188603912590907</v>
       </c>
       <c r="DF4">
-        <v>0.0011581317865925797</v>
+        <v>0.0011414115651885465</v>
       </c>
       <c r="DG4">
-        <v>0.0011581317865925797</v>
+        <v>0.0011414115651885465</v>
       </c>
       <c r="DH4">
-        <v>0.0011581317865925797</v>
+        <v>0.0011414115651885465</v>
       </c>
       <c r="DI4">
-        <v>0.0011581317865925799</v>
+        <v>0.001141411565188547</v>
       </c>
       <c r="DJ4">
-        <v>0.0011581317865925799</v>
+        <v>0.001141411565188547</v>
       </c>
       <c r="DK4">
-        <v>0.0012347347422804579</v>
+        <v>0.0012169085859611308</v>
       </c>
       <c r="DL4">
-        <v>0.0012347347422804579</v>
+        <v>0.0012169085859611308</v>
       </c>
       <c r="DM4">
-        <v>0.0012347347422804579</v>
+        <v>0.0012169085859611308</v>
       </c>
       <c r="DN4">
-        <v>0.0012347347422804577</v>
+        <v>0.0012169085859611304</v>
       </c>
       <c r="DO4">
-        <v>0.0012347347422804579</v>
+        <v>0.0012169085859611308</v>
       </c>
       <c r="DP4">
-        <v>0.0012347347422804579</v>
+        <v>0.0012169085859611308</v>
       </c>
       <c r="DQ4">
-        <v>0.0012347347422804582</v>
+        <v>0.0012169085859611308</v>
       </c>
       <c r="DR4">
-        <v>0.0012347347422804579</v>
+        <v>0.0012169085859611308</v>
       </c>
       <c r="DS4">
-        <v>0.0012347347422804588</v>
+        <v>0.0012169085859611317</v>
       </c>
       <c r="DT4">
-        <v>0.0012347347422804582</v>
+        <v>0.001216908585961131</v>
       </c>
       <c r="DU4">
-        <v>0.0012347347422804588</v>
+        <v>0.0012169085859611317</v>
       </c>
       <c r="DV4">
-        <v>0.0012347347422804588</v>
+        <v>0.0012169085859611317</v>
       </c>
       <c r="DW4">
-        <v>0.0012347347422804588</v>
+        <v>0.0012169085859611317</v>
       </c>
       <c r="DX4">
-        <v>0.0012347347422804588</v>
+        <v>0.0012169085859611314</v>
       </c>
       <c r="DY4">
-        <v>0.001234734742280459</v>
+        <v>0.0012169085859611317</v>
       </c>
       <c r="DZ4">
-        <v>0.001234734742280459</v>
+        <v>0.0012169085859611317</v>
       </c>
       <c r="EA4">
-        <v>0.0012347347422804592</v>
+        <v>0.0012169085859611321</v>
       </c>
       <c r="EB4">
-        <v>0.0012347347422804595</v>
+        <v>0.0012169085859611321</v>
       </c>
       <c r="EC4">
-        <v>0.0012347347422804592</v>
+        <v>0.0012169085859611321</v>
       </c>
       <c r="ED4">
-        <v>0.0012347347422804592</v>
+        <v>0.0012169085859611321</v>
       </c>
       <c r="EE4">
-        <v>0.0012347347422804592</v>
+        <v>0.0012169085859611321</v>
       </c>
       <c r="EF4">
-        <v>0.0012347347422804597</v>
+        <v>0.0012169085859611325</v>
       </c>
       <c r="EG4">
-        <v>0.0012347347422804595</v>
+        <v>0.0012169085859611321</v>
       </c>
       <c r="EH4">
-        <v>0.0012347347422804599</v>
+        <v>0.0012169085859611325</v>
       </c>
       <c r="EI4">
-        <v>0.0012347347422804597</v>
+        <v>0.0012169085859611323</v>
       </c>
       <c r="EJ4">
-        <v>0.0012347347422804599</v>
+        <v>0.0012169085859611325</v>
       </c>
       <c r="EK4">
-        <v>0.0012347347422804597</v>
+        <v>0.0012169085859611325</v>
       </c>
       <c r="EL4">
-        <v>0.0012347347422804599</v>
+        <v>0.0012169085859611327</v>
       </c>
       <c r="EM4">
-        <v>0.0012347347422804597</v>
+        <v>0.0012169085859611325</v>
       </c>
       <c r="EN4">
-        <v>0.0012347347422804601</v>
+        <v>0.001216908585961133</v>
       </c>
       <c r="EO4">
-        <v>0.0012347347422804597</v>
+        <v>0.0012169085859611323</v>
       </c>
       <c r="EP4">
-        <v>0.0012347347422804599</v>
+        <v>0.0012169085859611327</v>
       </c>
       <c r="EQ4">
-        <v>0.0012347347422804603</v>
+        <v>0.001216908585961133</v>
       </c>
       <c r="ER4">
-        <v>0.0012347347422804603</v>
+        <v>0.0012169085859611332</v>
       </c>
       <c r="ES4">
-        <v>0.0012347347422804603</v>
+        <v>0.001216908585961133</v>
       </c>
       <c r="ET4">
-        <v>0.0012347347422804603</v>
+        <v>0.001216908585961133</v>
       </c>
       <c r="EU4">
-        <v>0.0012347347422804603</v>
+        <v>0.001216908585961133</v>
       </c>
       <c r="EV4">
-        <v>0.0012347347422804601</v>
+        <v>0.0012169085859611327</v>
       </c>
       <c r="EW4">
-        <v>0.0012347347422804597</v>
+        <v>0.0012169085859611325</v>
       </c>
       <c r="EX4">
-        <v>0.0012347347422804601</v>
+        <v>0.001216908585961133</v>
       </c>
       <c r="EY4">
-        <v>0.0012347347422804603</v>
+        <v>0.0012169085859611332</v>
       </c>
       <c r="EZ4">
-        <v>0.0012347347422804603</v>
+        <v>0.0012169085859611332</v>
       </c>
       <c r="FA4">
-        <v>0.0012347347422804605</v>
+        <v>0.0012169085859611334</v>
       </c>
       <c r="FB4">
-        <v>0.0012347347422804605</v>
+        <v>0.0012169085859611334</v>
       </c>
       <c r="FC4">
-        <v>0.0012347347422804605</v>
+        <v>0.0012169085859611334</v>
       </c>
       <c r="FD4">
-        <v>0.0012347347422804605</v>
+        <v>0.0012169085859611334</v>
       </c>
       <c r="FE4">
-        <v>0.0012347347422804608</v>
+        <v>0.0012169085859611334</v>
       </c>
       <c r="FF4">
-        <v>0.0012347347422804605</v>
+        <v>0.0012169085859611334</v>
       </c>
       <c r="FG4">
-        <v>0.0012347347422804608</v>
+        <v>0.0012169085859611334</v>
       </c>
       <c r="FH4">
-        <v>0.0012347347422804608</v>
+        <v>0.0012169085859611334</v>
       </c>
       <c r="FI4">
-        <v>0.0012347347422804608</v>
+        <v>0.0012169085859611336</v>
       </c>
       <c r="FJ4">
-        <v>0.0012347347422804608</v>
+        <v>0.0012169085859611336</v>
       </c>
       <c r="FK4">
-        <v>0.0012347347422804612</v>
+        <v>0.0012169085859611338</v>
       </c>
       <c r="FL4">
-        <v>0.0012347347422804612</v>
+        <v>0.0012169085859611338</v>
       </c>
       <c r="FM4">
-        <v>0.0012347347422804612</v>
+        <v>0.0012169085859611338</v>
       </c>
       <c r="FN4">
-        <v>0.0012347347422804612</v>
+        <v>0.0012169085859611338</v>
       </c>
       <c r="FO4">
-        <v>0.0012347347422804612</v>
+        <v>0.0012169085859611338</v>
       </c>
       <c r="FP4">
-        <v>0.0012347347422804612</v>
+        <v>0.0012169085859611338</v>
       </c>
       <c r="FQ4">
-        <v>0.0012347347422804614</v>
+        <v>0.0012169085859611341</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.00097432002649172438</v>
+        <v>0.00096025353876561209</v>
       </c>
     </row>
   </sheetData>
@@ -5898,526 +5898,526 @@
         <v>175</v>
       </c>
       <c r="B3">
-        <v>0.00873541144614365</v>
+        <v>0.0087975008449648461</v>
       </c>
       <c r="C3">
-        <v>-0.0030752621139738209</v>
+        <v>-0.0030658577257634844</v>
       </c>
       <c r="D3">
-        <v>-0.003063824216295836</v>
+        <v>-0.003111082877305819</v>
       </c>
       <c r="E3">
-        <v>-0.0030447035308068574</v>
+        <v>-0.0029956829778639</v>
       </c>
       <c r="F3">
-        <v>0.0069785161377974971</v>
+        <v>0.0068267752712041696</v>
       </c>
       <c r="G3">
-        <v>0.0055930626471037042</v>
+        <v>0.0055884879913141693</v>
       </c>
       <c r="H3">
-        <v>0.0040518411245851864</v>
+        <v>0.0039893736581575511</v>
       </c>
       <c r="I3">
-        <v>0.0026941595086344412</v>
+        <v>0.0027235013518929351</v>
       </c>
       <c r="J3">
-        <v>0.0018647100388580219</v>
+        <v>0.0018445636712084135</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0020266356718200737</v>
+        <v>0.0020943857198864658</v>
       </c>
       <c r="M3">
-        <v>0.0024456569012692555</v>
+        <v>0.0023433673650840982</v>
       </c>
       <c r="N3">
-        <v>-5.0091667173075963e-06</v>
+        <v>8.4290444380103615e-06</v>
       </c>
       <c r="O3">
-        <v>-2.080678520630806e-06</v>
+        <v>2.5016484694396861e-05</v>
       </c>
       <c r="P3">
-        <v>-9.0383594277407515e-06</v>
+        <v>4.8509724776311971e-05</v>
       </c>
       <c r="Q3">
-        <v>2.3370467695540562e-05</v>
+        <v>9.6215207147406256e-05</v>
       </c>
       <c r="R3">
-        <v>-3.6026959425604797e-06</v>
+        <v>9.8567616853794071e-05</v>
       </c>
       <c r="S3">
-        <v>2.7912194141129049e-05</v>
+        <v>0.00010247255601776795</v>
       </c>
       <c r="T3">
-        <v>2.3198280919772708e-05</v>
+        <v>4.0831560483319474e-05</v>
       </c>
       <c r="U3">
-        <v>-2.1502378599363094e-05</v>
+        <v>0.00014040212712277466</v>
       </c>
       <c r="V3">
-        <v>6.3955630611759433e-05</v>
+        <v>8.0447045027194319e-05</v>
       </c>
       <c r="W3">
-        <v>9.8018304019105703e-05</v>
+        <v>9.837525956720507e-05</v>
       </c>
       <c r="X3">
-        <v>4.2587938035516908e-05</v>
+        <v>0.00010803059195618224</v>
       </c>
       <c r="Y3">
-        <v>6.4128539218313805e-05</v>
+        <v>0.00010935372601271904</v>
       </c>
       <c r="Z3">
-        <v>5.887106107861268e-05</v>
+        <v>0.00011809910123609116</v>
       </c>
       <c r="AA3">
-        <v>6.6362939422238919e-05</v>
+        <v>0.0001220355952104218</v>
       </c>
       <c r="AB3">
-        <v>8.4334429880216692e-05</v>
+        <v>0.00013374621664696929</v>
       </c>
       <c r="AC3">
-        <v>9.8596982122101015e-05</v>
+        <v>0.00012848391200706989</v>
       </c>
       <c r="AD3">
-        <v>0.00011638910832162957</v>
+        <v>0.00012539750208777521</v>
       </c>
       <c r="AE3">
-        <v>5.3603244890119063e-05</v>
+        <v>0.00012557461650745551</v>
       </c>
       <c r="AF3">
-        <v>6.4663925505844394e-05</v>
+        <v>0.00013274076624850031</v>
       </c>
       <c r="AG3">
-        <v>8.6741110924893445e-05</v>
+        <v>0.00015166073216775898</v>
       </c>
       <c r="AH3">
-        <v>0.00011045449695924171</v>
+        <v>0.0001467365092704106</v>
       </c>
       <c r="AI3">
-        <v>0.00010893992736622463</v>
+        <v>0.0001290217515648972</v>
       </c>
       <c r="AJ3">
-        <v>0.00014273608547355233</v>
+        <v>0.0001347362862698572</v>
       </c>
       <c r="AK3">
-        <v>0.00012787738605061886</v>
+        <v>0.0001593332656509619</v>
       </c>
       <c r="AL3">
-        <v>9.2479227304142881e-05</v>
+        <v>0.00013911584944692004</v>
       </c>
       <c r="AM3">
-        <v>7.6196633206714019e-05</v>
+        <v>0.00015830011289468278</v>
       </c>
       <c r="AN3">
-        <v>0.00010891173453440636</v>
+        <v>0.00018370189557999591</v>
       </c>
       <c r="AO3">
-        <v>0.0001477303238801102</v>
+        <v>0.00015693389800086778</v>
       </c>
       <c r="AP3">
-        <v>0.00011603364911983126</v>
+        <v>0.00015579364100917414</v>
       </c>
       <c r="AQ3">
-        <v>0.00011872024843807232</v>
+        <v>0.00015080300404942586</v>
       </c>
       <c r="AR3">
-        <v>0.00015844305573352446</v>
+        <v>0.00013520222776748126</v>
       </c>
       <c r="AS3">
-        <v>0.00013239618175605984</v>
+        <v>0.00018160595743420057</v>
       </c>
       <c r="AT3">
-        <v>8.5016421058002823e-05</v>
+        <v>0.00017164117674118795</v>
       </c>
       <c r="AU3">
-        <v>6.0030832475677314e-05</v>
+        <v>0.00016368257720543293</v>
       </c>
       <c r="AV3">
-        <v>0.00013184659176733622</v>
+        <v>0.00017991172317906575</v>
       </c>
       <c r="AW3">
-        <v>9.786058605231818e-05</v>
+        <v>0.00020339214934841405</v>
       </c>
       <c r="AX3">
-        <v>0.00016427650917370752</v>
+        <v>0.00017641908094132927</v>
       </c>
       <c r="AY3">
-        <v>9.9100230979445514e-05</v>
+        <v>0.00019754479890577269</v>
       </c>
       <c r="AZ3">
-        <v>0.00019413540551327526</v>
+        <v>0.0001648581244210214</v>
       </c>
       <c r="BA3">
-        <v>0.00015432381432762526</v>
+        <v>0.0001789083527523537</v>
       </c>
       <c r="BB3">
-        <v>0.00017590514236842086</v>
+        <v>0.00015973252957607233</v>
       </c>
       <c r="BC3">
-        <v>0.00013576555268249787</v>
+        <v>0.00015133328850308538</v>
       </c>
       <c r="BD3">
-        <v>9.1256309250833012e-05</v>
+        <v>0.0001728747895532303</v>
       </c>
       <c r="BE3">
-        <v>9.9396061017423815e-05</v>
+        <v>0.00017909766771108786</v>
       </c>
       <c r="BF3">
-        <v>9.8805641026278472e-05</v>
+        <v>0.00018555582298423277</v>
       </c>
       <c r="BG3">
-        <v>0.00012052224624079983</v>
+        <v>0.00013784867803528467</v>
       </c>
       <c r="BH3">
-        <v>0.00015793776779191374</v>
+        <v>0.00013370366346734434</v>
       </c>
       <c r="BI3">
-        <v>9.1970504841244128e-05</v>
+        <v>0.00016883660200734619</v>
       </c>
       <c r="BJ3">
-        <v>0.00014646562581409215</v>
+        <v>0.00020435903751401843</v>
       </c>
       <c r="BK3">
-        <v>0.00013371323139260157</v>
+        <v>0.00016102417301597742</v>
       </c>
       <c r="BL3">
-        <v>0.0001543640232964724</v>
+        <v>0.00016902965213868757</v>
       </c>
       <c r="BM3">
-        <v>0.00011368884938169946</v>
+        <v>0.00017895963205216198</v>
       </c>
       <c r="BN3">
-        <v>0.00010305925984606914</v>
+        <v>0.00023037052993454433</v>
       </c>
       <c r="BO3">
-        <v>0.0001221599046427877</v>
+        <v>0.00013222060546948285</v>
       </c>
       <c r="BP3">
-        <v>7.0270175465951451e-05</v>
+        <v>0.00017702314201522684</v>
       </c>
       <c r="BQ3">
-        <v>0.00010195455184898844</v>
+        <v>0.00018043030345874829</v>
       </c>
       <c r="BR3">
-        <v>0.00012242123693743937</v>
+        <v>0.00017434354691114141</v>
       </c>
       <c r="BS3">
-        <v>9.546741712197433e-05</v>
+        <v>0.00019820113786271802</v>
       </c>
       <c r="BT3">
-        <v>0.00011274950224437103</v>
+        <v>0.00011777074330172251</v>
       </c>
       <c r="BU3">
-        <v>9.7774069384801672e-05</v>
+        <v>0.0001300524099446278</v>
       </c>
       <c r="BV3">
-        <v>-0.0001721662744131366</v>
+        <v>-0.00010750448592362469</v>
       </c>
       <c r="BW3">
-        <v>0.00043119041893724007</v>
+        <v>0.00038644869424354043</v>
       </c>
       <c r="BX3">
-        <v>7.0799541650600251e-05</v>
+        <v>0.00024993040843857798</v>
       </c>
       <c r="BY3">
-        <v>0.00044271087513383418</v>
+        <v>0.00054963805737385412</v>
       </c>
       <c r="BZ3">
-        <v>0.00028520252182376418</v>
+        <v>0.00019938389748463031</v>
       </c>
       <c r="CA3">
-        <v>-0.0002247473778614426</v>
+        <v>-0.00010945237128497654</v>
       </c>
       <c r="CB3">
-        <v>0.00047401496268258564</v>
+        <v>0.00049544950916147396</v>
       </c>
       <c r="CC3">
-        <v>0.00021757229576711056</v>
+        <v>0.00031520998435265928</v>
       </c>
       <c r="CD3">
-        <v>9.562340437949769e-05</v>
+        <v>0.0001527094261619822</v>
       </c>
       <c r="CE3">
-        <v>-8.1912404480484558e-05</v>
+        <v>-9.1060685307460017e-05</v>
       </c>
       <c r="CF3">
-        <v>-0.00018453247066918511</v>
+        <v>-0.00021161380822411091</v>
       </c>
       <c r="CG3">
-        <v>0.00028074332856008085</v>
+        <v>0.000286298770550248</v>
       </c>
       <c r="CH3">
-        <v>0.00015205528785296161</v>
+        <v>0.00025206706101238142</v>
       </c>
       <c r="CI3">
-        <v>-2.4051205919120087e-06</v>
+        <v>0.00016854083874026188</v>
       </c>
       <c r="CJ3">
-        <v>-5.3824342580211315e-05</v>
+        <v>-3.7774700826154977e-05</v>
       </c>
       <c r="CK3">
-        <v>-0.00013126917830977235</v>
+        <v>0.00010608545862845021</v>
       </c>
       <c r="CL3">
-        <v>0.0001250822409396406</v>
+        <v>0.00029449975651345175</v>
       </c>
       <c r="CM3">
-        <v>0.00019917721882831599</v>
+        <v>0.00019854429985747632</v>
       </c>
       <c r="CN3">
-        <v>5.3553709254888788e-05</v>
+        <v>8.0879720310159307e-05</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>8.228725358128655e-05</v>
+        <v>0.00025075309172743033</v>
       </c>
       <c r="CQ3">
-        <v>0.0017408162488265668</v>
+        <v>0.0017252510352242574</v>
       </c>
       <c r="CR3">
-        <v>0.0011509906930984946</v>
+        <v>0.0012830858403020087</v>
       </c>
       <c r="CS3">
-        <v>0.0017492194921891768</v>
+        <v>0.0016158753244856655</v>
       </c>
       <c r="CT3">
-        <v>0.0012444601193803196</v>
+        <v>0.0013737613309030056</v>
       </c>
       <c r="CU3">
-        <v>0.00090173382682163139</v>
+        <v>0.00095815266706382484</v>
       </c>
       <c r="CV3">
-        <v>0.0015839238244631077</v>
+        <v>0.0016733581699062768</v>
       </c>
       <c r="CW3">
-        <v>0.0012333416091661429</v>
+        <v>0.0014892640025401624</v>
       </c>
       <c r="CX3">
-        <v>0.00098812612232721865</v>
+        <v>0.001028546608547648</v>
       </c>
       <c r="CY3">
-        <v>0.0010309056007341488</v>
+        <v>0.00093439720523202918</v>
       </c>
       <c r="CZ3">
-        <v>0.00063074494299319452</v>
+        <v>0.00074466595100331672</v>
       </c>
       <c r="DA3">
-        <v>0.0010937415314584383</v>
+        <v>0.001203155220843552</v>
       </c>
       <c r="DB3">
-        <v>0.0010564845585910255</v>
+        <v>0.0010983687509346217</v>
       </c>
       <c r="DC3">
-        <v>0.00094119682513517714</v>
+        <v>0.00083667060243063996</v>
       </c>
       <c r="DD3">
-        <v>0.00084772770589804731</v>
+        <v>0.00083285956011486489</v>
       </c>
       <c r="DE3">
-        <v>0.00057461139049308962</v>
+        <v>0.00074066924989710009</v>
       </c>
       <c r="DF3">
-        <v>0.00084913637006126712</v>
+        <v>0.00087953144773160648</v>
       </c>
       <c r="DG3">
-        <v>0.00072880577062456125</v>
+        <v>0.00089755144512438626</v>
       </c>
       <c r="DH3">
-        <v>0.00084400729983037941</v>
+        <v>0.00088648628322383005</v>
       </c>
       <c r="DI3">
-        <v>0.00064149443313591011</v>
+        <v>0.00063698978942102922</v>
       </c>
       <c r="DJ3">
-        <v>0.00042604332850662856</v>
+        <v>0.00062558338785165843</v>
       </c>
       <c r="DK3">
-        <v>0.0014699785970977404</v>
+        <v>0.0014056390553978154</v>
       </c>
       <c r="DL3">
-        <v>0.0013377846290042403</v>
+        <v>0.0013515353690710219</v>
       </c>
       <c r="DM3">
-        <v>0.0011882417851142805</v>
+        <v>0.0012766449777359163</v>
       </c>
       <c r="DN3">
-        <v>0.0011196670562082069</v>
+        <v>0.0014139568813589286</v>
       </c>
       <c r="DO3">
-        <v>0.0011200319631648852</v>
+        <v>0.0012547912883485101</v>
       </c>
       <c r="DP3">
-        <v>0.0010856161862750563</v>
+        <v>0.0010816436044625338</v>
       </c>
       <c r="DQ3">
-        <v>0.0010285245618025444</v>
+        <v>0.00096629788253624154</v>
       </c>
       <c r="DR3">
-        <v>0.0011025517983733475</v>
+        <v>0.0011226810329969404</v>
       </c>
       <c r="DS3">
-        <v>0.00099487509469614556</v>
+        <v>0.0011050804192490197</v>
       </c>
       <c r="DT3">
-        <v>0.0010023325844833947</v>
+        <v>0.0011315989481051737</v>
       </c>
       <c r="DU3">
-        <v>0.0010325033166352171</v>
+        <v>0.00091323639490910715</v>
       </c>
       <c r="DV3">
-        <v>0.00091753579069974475</v>
+        <v>0.00095815603159211569</v>
       </c>
       <c r="DW3">
-        <v>0.00069839796188945146</v>
+        <v>0.00088221903358142524</v>
       </c>
       <c r="DX3">
-        <v>0.00085449118788639142</v>
+        <v>0.00081694888345540742</v>
       </c>
       <c r="DY3">
-        <v>0.0008297986557023291</v>
+        <v>0.00073773290630994523</v>
       </c>
       <c r="DZ3">
-        <v>0.00073915661254673017</v>
+        <v>0.00083203829035577166</v>
       </c>
       <c r="EA3">
-        <v>0.00072785283395871824</v>
+        <v>0.00079191017573036694</v>
       </c>
       <c r="EB3">
-        <v>0.00072527716130848163</v>
+        <v>0.00072194183959110544</v>
       </c>
       <c r="EC3">
-        <v>0.00075465835705739695</v>
+        <v>0.00065073748919464722</v>
       </c>
       <c r="ED3">
-        <v>0.00062329552293794029</v>
+        <v>0.00075984181745965284</v>
       </c>
       <c r="EE3">
-        <v>0.00059419820066057582</v>
+        <v>0.00073140217971454395</v>
       </c>
       <c r="EF3">
-        <v>0.00059432350077680751</v>
+        <v>0.00061071467953365682</v>
       </c>
       <c r="EG3">
-        <v>0.00059874797026999516</v>
+        <v>0.00057898527385304491</v>
       </c>
       <c r="EH3">
-        <v>0.00060218437343246135</v>
+        <v>0.00071117977540886997</v>
       </c>
       <c r="EI3">
-        <v>0.00058833549383422183</v>
+        <v>0.00061691408973624121</v>
       </c>
       <c r="EJ3">
-        <v>0.00049806112749694556</v>
+        <v>0.00077811242981248559</v>
       </c>
       <c r="EK3">
-        <v>0.00056226058027378776</v>
+        <v>0.00060011614626782504</v>
       </c>
       <c r="EL3">
-        <v>0.00050663858085362964</v>
+        <v>0.00057480302030812034</v>
       </c>
       <c r="EM3">
-        <v>0.00055278870889953285</v>
+        <v>0.00051938029606638794</v>
       </c>
       <c r="EN3">
-        <v>0.00049557273966027477</v>
+        <v>0.00058281107425946796</v>
       </c>
       <c r="EO3">
-        <v>0.0003994054830626111</v>
+        <v>0.00059484024610445606</v>
       </c>
       <c r="EP3">
-        <v>0.0003464963482841544</v>
+        <v>0.00051289075987149884</v>
       </c>
       <c r="EQ3">
-        <v>0.00040425188593834146</v>
+        <v>0.00051005948943919099</v>
       </c>
       <c r="ER3">
-        <v>0.00041698902776628394</v>
+        <v>0.00053569642064001241</v>
       </c>
       <c r="ES3">
-        <v>0.00042983322598063835</v>
+        <v>0.00034868312493164589</v>
       </c>
       <c r="ET3">
-        <v>0.00056832519240974087</v>
+        <v>0.00030723170203853536</v>
       </c>
       <c r="EU3">
-        <v>0.00050350561339026307</v>
+        <v>0.00059299976158169591</v>
       </c>
       <c r="EV3">
-        <v>0.00036120523501023233</v>
+        <v>0.00041122039669900899</v>
       </c>
       <c r="EW3">
-        <v>0.00033326525852290904</v>
+        <v>0.00041154645768039103</v>
       </c>
       <c r="EX3">
-        <v>0.00031961916815922698</v>
+        <v>0.00041727394106893606</v>
       </c>
       <c r="EY3">
-        <v>0.00041728266701189672</v>
+        <v>0.00051327384716456784</v>
       </c>
       <c r="EZ3">
-        <v>0.00036331843899783559</v>
+        <v>0.0004088321525695414</v>
       </c>
       <c r="FA3">
-        <v>0.00040529893873501551</v>
+        <v>0.00054160928743429563</v>
       </c>
       <c r="FB3">
-        <v>0.00047200910613861077</v>
+        <v>0.00037672767224000247</v>
       </c>
       <c r="FC3">
-        <v>0.00061920125934082138</v>
+        <v>0.00049150873096581466</v>
       </c>
       <c r="FD3">
-        <v>0.00022293239466671707</v>
+        <v>0.00044310580809856398</v>
       </c>
       <c r="FE3">
-        <v>0.00042304416906361719</v>
+        <v>0.00029778232511310627</v>
       </c>
       <c r="FF3">
-        <v>0.0004917025272021694</v>
+        <v>0.00039985808965572176</v>
       </c>
       <c r="FG3">
-        <v>0.00024554537232216578</v>
+        <v>0.00036323296253330264</v>
       </c>
       <c r="FH3">
-        <v>0.0003284694040233307</v>
+        <v>0.0003719559401898519</v>
       </c>
       <c r="FI3">
-        <v>0.00022971639339630046</v>
+        <v>0.00042291683856249805</v>
       </c>
       <c r="FJ3">
-        <v>0.00038930548657223389</v>
+        <v>0.00032803521717852415</v>
       </c>
       <c r="FK3">
-        <v>0.00022131446820342022</v>
+        <v>0.00032767432787288425</v>
       </c>
       <c r="FL3">
-        <v>0.00028762069927176505</v>
+        <v>0.00030588009523610022</v>
       </c>
       <c r="FM3">
-        <v>0.00033807377012873052</v>
+        <v>0.00034906711192804615</v>
       </c>
       <c r="FN3">
-        <v>0.00026549898987155248</v>
+        <v>0.00031931185224386475</v>
       </c>
       <c r="FO3">
-        <v>0.00023036565569849144</v>
+        <v>0.00036184630951014297</v>
       </c>
       <c r="FP3">
-        <v>0.00027582359068602903</v>
+        <v>0.00035748407548249491</v>
       </c>
       <c r="FQ3">
-        <v>7.260768943015407e-05</v>
+        <v>0.00040252188153014448</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0037362011671563666</v>
+        <v>0.003673113996503764</v>
       </c>
     </row>
     <row r="4">
@@ -6425,526 +6425,526 @@
         <v>176</v>
       </c>
       <c r="B4">
-        <v>0.00030905463776629779</v>
+        <v>0.00030077494442869401</v>
       </c>
       <c r="C4">
-        <v>0.00013478171246460223</v>
+        <v>0.00013117085823251702</v>
       </c>
       <c r="D4">
-        <v>0.0001973073497349331</v>
+        <v>0.00019202140948544258</v>
       </c>
       <c r="E4">
-        <v>0.00023335390817636061</v>
+        <v>0.00022710226667764077</v>
       </c>
       <c r="F4">
-        <v>0.0002135468336627374</v>
+        <v>0.00020782583135478704</v>
       </c>
       <c r="G4">
-        <v>0.00017864865690183301</v>
+        <v>0.00017386259025351276</v>
       </c>
       <c r="H4">
-        <v>0.00014479577538445453</v>
+        <v>0.0001409166405317027</v>
       </c>
       <c r="I4">
-        <v>0.00014396081779163728</v>
+        <v>0.00014010405177589236</v>
       </c>
       <c r="J4">
-        <v>0.0001519424502141948</v>
+        <v>0.00014787185317727551</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.00032963744161525091</v>
+        <v>0.00032080632699780777</v>
       </c>
       <c r="M4">
-        <v>0.00032963744161525091</v>
+        <v>0.00032080632699780777</v>
       </c>
       <c r="N4">
-        <v>0.00032963744161525096</v>
+        <v>0.00032080632699780782</v>
       </c>
       <c r="O4">
-        <v>0.00032963744161525102</v>
+        <v>0.00032080632699780788</v>
       </c>
       <c r="P4">
-        <v>0.00032963744161525096</v>
+        <v>0.00032080632699780782</v>
       </c>
       <c r="Q4">
-        <v>0.00032963744161525107</v>
+        <v>0.00032080632699780793</v>
       </c>
       <c r="R4">
-        <v>0.00032963744161525107</v>
+        <v>0.00032080632699780793</v>
       </c>
       <c r="S4">
-        <v>0.00032963744161525112</v>
+        <v>0.00032080632699780799</v>
       </c>
       <c r="T4">
-        <v>0.00032963744161525118</v>
+        <v>0.00032080632699780799</v>
       </c>
       <c r="U4">
-        <v>0.00032963744161525102</v>
+        <v>0.00032080632699780788</v>
       </c>
       <c r="V4">
-        <v>0.00032963744161525118</v>
+        <v>0.00032080632699780804</v>
       </c>
       <c r="W4">
-        <v>0.00032963744161525107</v>
+        <v>0.00032080632699780793</v>
       </c>
       <c r="X4">
-        <v>0.00032963744161525118</v>
+        <v>0.00032080632699780804</v>
       </c>
       <c r="Y4">
-        <v>0.00032963744161525118</v>
+        <v>0.00032080632699780799</v>
       </c>
       <c r="Z4">
-        <v>0.00032963744161525118</v>
+        <v>0.00032080632699780804</v>
       </c>
       <c r="AA4">
-        <v>0.00032963744161525118</v>
+        <v>0.00032080632699780804</v>
       </c>
       <c r="AB4">
-        <v>0.00032963744161525118</v>
+        <v>0.00032080632699780804</v>
       </c>
       <c r="AC4">
-        <v>0.00032963744161525118</v>
+        <v>0.00032080632699780804</v>
       </c>
       <c r="AD4">
-        <v>0.00032963744161525118</v>
+        <v>0.00032080632699780804</v>
       </c>
       <c r="AE4">
-        <v>0.00032963744161525123</v>
+        <v>0.00032080632699780809</v>
       </c>
       <c r="AF4">
-        <v>0.00032963744161525123</v>
+        <v>0.00032080632699780809</v>
       </c>
       <c r="AG4">
-        <v>0.00032963744161525123</v>
+        <v>0.00032080632699780809</v>
       </c>
       <c r="AH4">
-        <v>0.00032963744161525118</v>
+        <v>0.00032080632699780804</v>
       </c>
       <c r="AI4">
-        <v>0.00032963744161525118</v>
+        <v>0.00032080632699780804</v>
       </c>
       <c r="AJ4">
-        <v>0.00032963744161525123</v>
+        <v>0.00032080632699780809</v>
       </c>
       <c r="AK4">
-        <v>0.00032963744161525129</v>
+        <v>0.00032080632699780815</v>
       </c>
       <c r="AL4">
-        <v>0.00032963744161525129</v>
+        <v>0.00032080632699780815</v>
       </c>
       <c r="AM4">
-        <v>0.00032963744161525134</v>
+        <v>0.0003208063269978082</v>
       </c>
       <c r="AN4">
-        <v>0.00032963744161525129</v>
+        <v>0.00032080632699780815</v>
       </c>
       <c r="AO4">
-        <v>0.00032963744161525134</v>
+        <v>0.0003208063269978082</v>
       </c>
       <c r="AP4">
-        <v>0.00032963744161525134</v>
+        <v>0.0003208063269978082</v>
       </c>
       <c r="AQ4">
-        <v>0.0003296374416152514</v>
+        <v>0.0003208063269978082</v>
       </c>
       <c r="AR4">
-        <v>0.0003296374416152514</v>
+        <v>0.0003208063269978082</v>
       </c>
       <c r="AS4">
-        <v>0.0003296374416152514</v>
+        <v>0.0003208063269978082</v>
       </c>
       <c r="AT4">
-        <v>0.00032963744161525134</v>
+        <v>0.0003208063269978082</v>
       </c>
       <c r="AU4">
-        <v>0.00032963744161525134</v>
+        <v>0.0003208063269978082</v>
       </c>
       <c r="AV4">
-        <v>0.00032963744161525134</v>
+        <v>0.0003208063269978082</v>
       </c>
       <c r="AW4">
-        <v>0.00032963744161525134</v>
+        <v>0.0003208063269978082</v>
       </c>
       <c r="AX4">
-        <v>0.00032963744161525134</v>
+        <v>0.0003208063269978082</v>
       </c>
       <c r="AY4">
-        <v>0.00032963744161525134</v>
+        <v>0.0003208063269978082</v>
       </c>
       <c r="AZ4">
-        <v>0.00032963744161525134</v>
+        <v>0.0003208063269978082</v>
       </c>
       <c r="BA4">
-        <v>0.00032963744161525134</v>
+        <v>0.0003208063269978082</v>
       </c>
       <c r="BB4">
-        <v>0.00032963744161525134</v>
+        <v>0.0003208063269978082</v>
       </c>
       <c r="BC4">
-        <v>0.0003296374416152514</v>
+        <v>0.0003208063269978082</v>
       </c>
       <c r="BD4">
-        <v>0.00032963744161525134</v>
+        <v>0.0003208063269978082</v>
       </c>
       <c r="BE4">
-        <v>0.0003296374416152514</v>
+        <v>0.0003208063269978082</v>
       </c>
       <c r="BF4">
-        <v>0.00032963744161525134</v>
+        <v>0.0003208063269978082</v>
       </c>
       <c r="BG4">
-        <v>0.0003296374416152514</v>
+        <v>0.0003208063269978082</v>
       </c>
       <c r="BH4">
-        <v>0.00032963744161525134</v>
+        <v>0.0003208063269978082</v>
       </c>
       <c r="BI4">
-        <v>0.0003296374416152514</v>
+        <v>0.0003208063269978082</v>
       </c>
       <c r="BJ4">
-        <v>0.0003296374416152514</v>
+        <v>0.0003208063269978082</v>
       </c>
       <c r="BK4">
-        <v>0.0003296374416152514</v>
+        <v>0.00032080632699780826</v>
       </c>
       <c r="BL4">
-        <v>0.0003296374416152514</v>
+        <v>0.00032080632699780826</v>
       </c>
       <c r="BM4">
-        <v>0.00032963744161525145</v>
+        <v>0.00032080632699780826</v>
       </c>
       <c r="BN4">
-        <v>0.00032963744161525145</v>
+        <v>0.00032080632699780826</v>
       </c>
       <c r="BO4">
-        <v>0.0003296374416152515</v>
+        <v>0.00032080632699780837</v>
       </c>
       <c r="BP4">
-        <v>0.0003296374416152515</v>
+        <v>0.00032080632699780837</v>
       </c>
       <c r="BQ4">
-        <v>0.00032945080506898078</v>
+        <v>0.00032062469051683315</v>
       </c>
       <c r="BR4">
-        <v>0.00032945080506898078</v>
+        <v>0.00032062469051683315</v>
       </c>
       <c r="BS4">
-        <v>0.00032945080506898084</v>
+        <v>0.00032062469051683321</v>
       </c>
       <c r="BT4">
-        <v>0.00029892211464812804</v>
+        <v>0.00029091387552574317</v>
       </c>
       <c r="BU4">
-        <v>0.00029892211464812804</v>
+        <v>0.00029091387552574322</v>
       </c>
       <c r="BV4">
-        <v>0.0003466265607587277</v>
+        <v>0.0003373403010653178</v>
       </c>
       <c r="BW4">
-        <v>0.00033994005521278226</v>
+        <v>0.0003308329295903598</v>
       </c>
       <c r="BX4">
-        <v>0.00033994005521278226</v>
+        <v>0.0003308329295903598</v>
       </c>
       <c r="BY4">
-        <v>0.00033486939879515755</v>
+        <v>0.00032589811802030547</v>
       </c>
       <c r="BZ4">
-        <v>0.0003348693987951576</v>
+        <v>0.00032589811802030553</v>
       </c>
       <c r="CA4">
-        <v>0.0003348693987951576</v>
+        <v>0.00032589811802030553</v>
       </c>
       <c r="CB4">
-        <v>0.00033075690882960947</v>
+        <v>0.0003218958032523044</v>
       </c>
       <c r="CC4">
-        <v>0.00033075690882960958</v>
+        <v>0.00032189580325230451</v>
       </c>
       <c r="CD4">
-        <v>0.00033075690882960953</v>
+        <v>0.00032189580325230445</v>
       </c>
       <c r="CE4">
-        <v>0.00033075690882960953</v>
+        <v>0.00032189580325230445</v>
       </c>
       <c r="CF4">
-        <v>0.00033075690882960958</v>
+        <v>0.00032189580325230451</v>
       </c>
       <c r="CG4">
-        <v>0.00032986126607941336</v>
+        <v>0.0003210241551179641</v>
       </c>
       <c r="CH4">
-        <v>0.00032986126607941325</v>
+        <v>0.0003210241551179641</v>
       </c>
       <c r="CI4">
-        <v>0.00032986126607941331</v>
+        <v>0.0003210241551179641</v>
       </c>
       <c r="CJ4">
-        <v>0.00032986126607941336</v>
+        <v>0.00032102415511796415</v>
       </c>
       <c r="CK4">
-        <v>0.00033419588235706021</v>
+        <v>0.0003252426453482089</v>
       </c>
       <c r="CL4">
-        <v>0.00031541131929934053</v>
+        <v>0.00030696132800368375</v>
       </c>
       <c r="CM4">
-        <v>0.00031541131929934058</v>
+        <v>0.00030696132800368386</v>
       </c>
       <c r="CN4">
-        <v>0.00028656839554855556</v>
+        <v>0.0002788911173412459</v>
       </c>
       <c r="CO4">
         <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.00033603122968705283</v>
+        <v>0.00032702882301302458</v>
       </c>
       <c r="CQ4">
-        <v>0.00034005582998776186</v>
+        <v>0.0003309456027143175</v>
       </c>
       <c r="CR4">
-        <v>0.00034005582998776186</v>
+        <v>0.0003309456027143175</v>
       </c>
       <c r="CS4">
-        <v>0.00033498692604342972</v>
+        <v>0.00032601249666811807</v>
       </c>
       <c r="CT4">
-        <v>0.00033498692604342977</v>
+        <v>0.00032601249666811818</v>
       </c>
       <c r="CU4">
-        <v>0.00033498692604342972</v>
+        <v>0.00032601249666811807</v>
       </c>
       <c r="CV4">
-        <v>0.00033087589683915438</v>
+        <v>0.00032201160352702998</v>
       </c>
       <c r="CW4">
-        <v>0.00033087589683915432</v>
+        <v>0.00032201160352702992</v>
       </c>
       <c r="CX4">
-        <v>0.00033087589683915438</v>
+        <v>0.00032201160352702998</v>
       </c>
       <c r="CY4">
-        <v>0.00033087589683915427</v>
+        <v>0.00032201160352702987</v>
       </c>
       <c r="CZ4">
-        <v>0.00033087589683915438</v>
+        <v>0.00032201160352702998</v>
       </c>
       <c r="DA4">
-        <v>0.00033040527224206882</v>
+        <v>0.00032155358714501336</v>
       </c>
       <c r="DB4">
-        <v>0.00033040527224206876</v>
+        <v>0.0003215535871450133</v>
       </c>
       <c r="DC4">
-        <v>0.00033040527224206882</v>
+        <v>0.00032155358714501336</v>
       </c>
       <c r="DD4">
-        <v>0.00033040527224206882</v>
+        <v>0.0003215535871450133</v>
       </c>
       <c r="DE4">
-        <v>0.00033040527224206882</v>
+        <v>0.00032155358714501336</v>
       </c>
       <c r="DF4">
-        <v>0.00030941066068017152</v>
+        <v>0.00030112142935093838</v>
       </c>
       <c r="DG4">
-        <v>0.00030941066068017152</v>
+        <v>0.00030112142935093838</v>
       </c>
       <c r="DH4">
-        <v>0.00030941066068017152</v>
+        <v>0.00030112142935093838</v>
       </c>
       <c r="DI4">
-        <v>0.00030941066068017158</v>
+        <v>0.00030112142935093843</v>
       </c>
       <c r="DJ4">
-        <v>0.00030941066068017158</v>
+        <v>0.00030112142935093843</v>
       </c>
       <c r="DK4">
-        <v>0.00032987618231063718</v>
+        <v>0.00032103867173758152</v>
       </c>
       <c r="DL4">
-        <v>0.00032987618231063718</v>
+        <v>0.00032103867173758152</v>
       </c>
       <c r="DM4">
-        <v>0.00032987618231063718</v>
+        <v>0.00032103867173758152</v>
       </c>
       <c r="DN4">
-        <v>0.00032987618231063712</v>
+        <v>0.00032103867173758146</v>
       </c>
       <c r="DO4">
-        <v>0.00032987618231063723</v>
+        <v>0.00032103867173758152</v>
       </c>
       <c r="DP4">
-        <v>0.00032987618231063718</v>
+        <v>0.00032103867173758152</v>
       </c>
       <c r="DQ4">
-        <v>0.00032987618231063723</v>
+        <v>0.00032103867173758157</v>
       </c>
       <c r="DR4">
-        <v>0.00032987618231063723</v>
+        <v>0.00032103867173758152</v>
       </c>
       <c r="DS4">
-        <v>0.00032987618231063745</v>
+        <v>0.00032103867173758174</v>
       </c>
       <c r="DT4">
-        <v>0.00032987618231063729</v>
+        <v>0.00032103867173758157</v>
       </c>
       <c r="DU4">
-        <v>0.00032987618231063745</v>
+        <v>0.00032103867173758174</v>
       </c>
       <c r="DV4">
-        <v>0.00032987618231063745</v>
+        <v>0.00032103867173758174</v>
       </c>
       <c r="DW4">
-        <v>0.00032987618231063745</v>
+        <v>0.00032103867173758174</v>
       </c>
       <c r="DX4">
-        <v>0.0003298761823106374</v>
+        <v>0.00032103867173758174</v>
       </c>
       <c r="DY4">
-        <v>0.0003298761823106375</v>
+        <v>0.00032103867173758179</v>
       </c>
       <c r="DZ4">
-        <v>0.0003298761823106375</v>
+        <v>0.00032103867173758179</v>
       </c>
       <c r="EA4">
-        <v>0.00032987618231063756</v>
+        <v>0.0003210386717375819</v>
       </c>
       <c r="EB4">
-        <v>0.00032987618231063761</v>
+        <v>0.0003210386717375819</v>
       </c>
       <c r="EC4">
-        <v>0.00032987618231063756</v>
+        <v>0.0003210386717375819</v>
       </c>
       <c r="ED4">
-        <v>0.00032987618231063756</v>
+        <v>0.0003210386717375819</v>
       </c>
       <c r="EE4">
-        <v>0.00032987618231063756</v>
+        <v>0.0003210386717375819</v>
       </c>
       <c r="EF4">
-        <v>0.00032987618231063767</v>
+        <v>0.00032103867173758201</v>
       </c>
       <c r="EG4">
-        <v>0.00032987618231063761</v>
+        <v>0.0003210386717375819</v>
       </c>
       <c r="EH4">
-        <v>0.00032987618231063772</v>
+        <v>0.00032103867173758201</v>
       </c>
       <c r="EI4">
-        <v>0.00032987618231063767</v>
+        <v>0.00032103867173758195</v>
       </c>
       <c r="EJ4">
-        <v>0.00032987618231063772</v>
+        <v>0.00032103867173758201</v>
       </c>
       <c r="EK4">
-        <v>0.00032987618231063767</v>
+        <v>0.00032103867173758201</v>
       </c>
       <c r="EL4">
-        <v>0.00032987618231063772</v>
+        <v>0.00032103867173758201</v>
       </c>
       <c r="EM4">
-        <v>0.00032987618231063767</v>
+        <v>0.00032103867173758201</v>
       </c>
       <c r="EN4">
-        <v>0.00032987618231063778</v>
+        <v>0.00032103867173758212</v>
       </c>
       <c r="EO4">
-        <v>0.00032987618231063767</v>
+        <v>0.00032103867173758195</v>
       </c>
       <c r="EP4">
-        <v>0.00032987618231063772</v>
+        <v>0.00032103867173758201</v>
       </c>
       <c r="EQ4">
-        <v>0.00032987618231063783</v>
+        <v>0.00032103867173758212</v>
       </c>
       <c r="ER4">
-        <v>0.00032987618231063788</v>
+        <v>0.00032103867173758217</v>
       </c>
       <c r="ES4">
-        <v>0.00032987618231063783</v>
+        <v>0.00032103867173758212</v>
       </c>
       <c r="ET4">
-        <v>0.00032987618231063783</v>
+        <v>0.00032103867173758212</v>
       </c>
       <c r="EU4">
-        <v>0.00032987618231063783</v>
+        <v>0.00032103867173758212</v>
       </c>
       <c r="EV4">
-        <v>0.00032987618231063778</v>
+        <v>0.00032103867173758206</v>
       </c>
       <c r="EW4">
-        <v>0.00032987618231063767</v>
+        <v>0.00032103867173758201</v>
       </c>
       <c r="EX4">
-        <v>0.00032987618231063778</v>
+        <v>0.00032103867173758212</v>
       </c>
       <c r="EY4">
-        <v>0.00032987618231063788</v>
+        <v>0.00032103867173758217</v>
       </c>
       <c r="EZ4">
-        <v>0.00032987618231063788</v>
+        <v>0.00032103867173758217</v>
       </c>
       <c r="FA4">
-        <v>0.00032987618231063788</v>
+        <v>0.00032103867173758217</v>
       </c>
       <c r="FB4">
-        <v>0.00032987618231063788</v>
+        <v>0.00032103867173758217</v>
       </c>
       <c r="FC4">
-        <v>0.00032987618231063788</v>
+        <v>0.00032103867173758217</v>
       </c>
       <c r="FD4">
-        <v>0.00032987618231063788</v>
+        <v>0.00032103867173758217</v>
       </c>
       <c r="FE4">
-        <v>0.00032987618231063794</v>
+        <v>0.00032103867173758228</v>
       </c>
       <c r="FF4">
-        <v>0.00032987618231063788</v>
+        <v>0.00032103867173758217</v>
       </c>
       <c r="FG4">
-        <v>0.00032987618231063794</v>
+        <v>0.00032103867173758228</v>
       </c>
       <c r="FH4">
-        <v>0.00032987618231063794</v>
+        <v>0.00032103867173758222</v>
       </c>
       <c r="FI4">
-        <v>0.00032987618231063799</v>
+        <v>0.00032103867173758228</v>
       </c>
       <c r="FJ4">
-        <v>0.00032987618231063799</v>
+        <v>0.00032103867173758228</v>
       </c>
       <c r="FK4">
-        <v>0.0003298761823106381</v>
+        <v>0.00032103867173758239</v>
       </c>
       <c r="FL4">
-        <v>0.0003298761823106381</v>
+        <v>0.00032103867173758239</v>
       </c>
       <c r="FM4">
-        <v>0.0003298761823106381</v>
+        <v>0.00032103867173758239</v>
       </c>
       <c r="FN4">
-        <v>0.00032987618231063805</v>
+        <v>0.00032103867173758233</v>
       </c>
       <c r="FO4">
-        <v>0.0003298761823106381</v>
+        <v>0.00032103867173758239</v>
       </c>
       <c r="FP4">
-        <v>0.0003298761823106381</v>
+        <v>0.00032103867173758239</v>
       </c>
       <c r="FQ4">
-        <v>0.0003298761823106381</v>
+        <v>0.00032103867173758244</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.00026030284860558735</v>
+        <v>0.00025332923456460109</v>
       </c>
     </row>
   </sheetData>

--- a/tables/lpm_coefficients.xlsx
+++ b/tables/lpm_coefficients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4248" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4956" uniqueCount="180">
   <si>
     <t>y1</t>
   </si>
@@ -550,6 +550,12 @@
   </si>
   <si>
     <t>min6b</t>
+  </si>
+  <si>
+    <t>o.bin_57</t>
+  </si>
+  <si>
+    <t>bin_82</t>
   </si>
 </sst>
 </file>
@@ -799,7 +805,7 @@
         <v>66</v>
       </c>
       <c r="BP2" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="BQ2" t="s">
         <v>68</v>
@@ -874,7 +880,7 @@
         <v>91</v>
       </c>
       <c r="CO2" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="CP2" t="s">
         <v>93</v>
@@ -1128,526 +1134,526 @@
         <v>175</v>
       </c>
       <c r="B3">
-        <v>-1.9395045555487076e-05</v>
+        <v>3.1482064080860968e-06</v>
       </c>
       <c r="C3">
-        <v>-0.0032772682861628697</v>
+        <v>-0.0032815183023989381</v>
       </c>
       <c r="D3">
-        <v>-0.0033351706685129648</v>
+        <v>-0.0032711225939928406</v>
       </c>
       <c r="E3">
-        <v>-0.003329891339902196</v>
+        <v>-0.0032545557531673619</v>
       </c>
       <c r="F3">
-        <v>-3.0660452077399998e-05</v>
+        <v>-1.0927212510769431e-05</v>
       </c>
       <c r="G3">
-        <v>9.386357506266681e-06</v>
+        <v>7.284808343264954e-06</v>
       </c>
       <c r="H3">
-        <v>-1.9580311055478916e-05</v>
+        <v>1.27100745553995e-15</v>
       </c>
       <c r="I3">
-        <v>2.9325375169436365e-05</v>
+        <v>8.687439409994188e-16</v>
       </c>
       <c r="J3">
-        <v>-3.1126977876821948e-06</v>
+        <v>4.4515051286073145e-16</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.002137685975924686</v>
+        <v>0.0021122916330429077</v>
       </c>
       <c r="M3">
-        <v>0.0023944427483806223</v>
+        <v>0.0024906958480961938</v>
       </c>
       <c r="N3">
-        <v>-0.00019140152061932904</v>
+        <v>-0.00014931853296400687</v>
       </c>
       <c r="O3">
-        <v>-0.00015451646296561826</v>
+        <v>-0.0001149542226150852</v>
       </c>
       <c r="P3">
-        <v>-0.00014792881397581681</v>
+        <v>-0.00011216545931857973</v>
       </c>
       <c r="Q3">
-        <v>-0.00014140590490270915</v>
+        <v>-6.0332667147693695e-05</v>
       </c>
       <c r="R3">
-        <v>-0.00013997277003102395</v>
+        <v>-5.4612334407885875e-05</v>
       </c>
       <c r="S3">
-        <v>-0.00010740212835770073</v>
+        <v>-4.7206905190986262e-05</v>
       </c>
       <c r="T3">
-        <v>-0.00013406363813834785</v>
+        <v>-6.1373351000194076e-05</v>
       </c>
       <c r="U3">
-        <v>-0.00012907335873136157</v>
+        <v>-4.4820584548902394e-05</v>
       </c>
       <c r="V3">
-        <v>-6.8641031242645023e-05</v>
+        <v>-1.3616795279022551e-05</v>
       </c>
       <c r="W3">
-        <v>-9.4376723633869425e-05</v>
+        <v>1.2536128799373195e-05</v>
       </c>
       <c r="X3">
-        <v>-5.5624248862723277e-05</v>
+        <v>-1.6060356542366813e-05</v>
       </c>
       <c r="Y3">
-        <v>-0.00013240916632840594</v>
+        <v>-1.8745637533412087e-05</v>
       </c>
       <c r="Z3">
-        <v>-5.4328110974334491e-05</v>
+        <v>-7.4211660404124227e-06</v>
       </c>
       <c r="AA3">
-        <v>-8.7544149251491727e-05</v>
+        <v>-3.7953254117211385e-05</v>
       </c>
       <c r="AB3">
-        <v>-9.0051538715924187e-05</v>
+        <v>2.5384919949843885e-05</v>
       </c>
       <c r="AC3">
-        <v>-8.0405796292768472e-05</v>
+        <v>-2.7871227798525836e-05</v>
       </c>
       <c r="AD3">
-        <v>-7.513489928212277e-05</v>
+        <v>3.9441291334594325e-05</v>
       </c>
       <c r="AE3">
-        <v>-3.1097407437221518e-05</v>
+        <v>1.0915955159381591e-05</v>
       </c>
       <c r="AF3">
-        <v>-6.697366097486803e-05</v>
+        <v>2.2957610132328833e-05</v>
       </c>
       <c r="AG3">
-        <v>-4.1398732309839653e-05</v>
+        <v>5.7110251769901975e-06</v>
       </c>
       <c r="AH3">
-        <v>-0.00010288596827719813</v>
+        <v>3.8119401072896451e-05</v>
       </c>
       <c r="AI3">
-        <v>-4.2464405827450562e-05</v>
+        <v>1.2736204969300648e-05</v>
       </c>
       <c r="AJ3">
-        <v>-3.9726767873709976e-05</v>
+        <v>6.4557195762001687e-05</v>
       </c>
       <c r="AK3">
-        <v>-3.9560650140632086e-05</v>
+        <v>4.5260231249897165e-05</v>
       </c>
       <c r="AL3">
-        <v>-1.3137046799523842e-05</v>
+        <v>3.9169019773924852e-05</v>
       </c>
       <c r="AM3">
-        <v>-3.5001982457188932e-05</v>
+        <v>3.3118640259183701e-05</v>
       </c>
       <c r="AN3">
-        <v>-4.9075004074872533e-05</v>
+        <v>5.7748602027554961e-05</v>
       </c>
       <c r="AO3">
-        <v>-5.5761679047941625e-05</v>
+        <v>3.3834999741363006e-05</v>
       </c>
       <c r="AP3">
-        <v>2.937899050440012e-07</v>
+        <v>3.4996322424624456e-05</v>
       </c>
       <c r="AQ3">
-        <v>1.1136751489322877e-05</v>
+        <v>3.1792323776240888e-05</v>
       </c>
       <c r="AR3">
-        <v>-3.5538969155973245e-05</v>
+        <v>9.0536259203332492e-05</v>
       </c>
       <c r="AS3">
-        <v>1.728980650204522e-06</v>
+        <v>4.8137478422421095e-05</v>
       </c>
       <c r="AT3">
-        <v>-1.7204960197921479e-05</v>
+        <v>6.4300819277669961e-05</v>
       </c>
       <c r="AU3">
-        <v>1.0124732518542014e-05</v>
+        <v>3.8555217228065626e-05</v>
       </c>
       <c r="AV3">
-        <v>4.4411833625904052e-06</v>
+        <v>5.7449005516611776e-05</v>
       </c>
       <c r="AW3">
-        <v>-9.7100824267178697e-06</v>
+        <v>7.3336075138892359e-05</v>
       </c>
       <c r="AX3">
-        <v>-8.3207379373326971e-07</v>
+        <v>8.98694650973368e-05</v>
       </c>
       <c r="AY3">
-        <v>-4.4446112701370874e-05</v>
+        <v>-1.6743687986763966e-06</v>
       </c>
       <c r="AZ3">
-        <v>-3.0302781147831476e-05</v>
+        <v>4.7398940638499e-05</v>
       </c>
       <c r="BA3">
-        <v>-5.563011422489359e-05</v>
+        <v>0.00011813781583334843</v>
       </c>
       <c r="BB3">
-        <v>6.1088533178006884e-07</v>
+        <v>3.7603337152377765e-05</v>
       </c>
       <c r="BC3">
-        <v>-1.7039598280877541e-05</v>
+        <v>2.1003140395524378e-05</v>
       </c>
       <c r="BD3">
-        <v>-3.8439482950068753e-05</v>
+        <v>3.9770023344121314e-05</v>
       </c>
       <c r="BE3">
-        <v>-5.9111230986987469e-06</v>
+        <v>5.9499203302708145e-05</v>
       </c>
       <c r="BF3">
-        <v>-5.089250527657078e-05</v>
+        <v>8.250348724162814e-05</v>
       </c>
       <c r="BG3">
-        <v>-3.0890060614916804e-05</v>
+        <v>5.8249801198799875e-05</v>
       </c>
       <c r="BH3">
-        <v>-1.6465183362775683e-05</v>
+        <v>4.9903270847053369e-05</v>
       </c>
       <c r="BI3">
-        <v>-1.7786845974688965e-05</v>
+        <v>1.2487578000485323e-05</v>
       </c>
       <c r="BJ3">
-        <v>-3.5448908974107852e-07</v>
+        <v>-1.8324538639580295e-05</v>
       </c>
       <c r="BK3">
-        <v>1.3454172550710906e-05</v>
+        <v>3.0522342157546792e-05</v>
       </c>
       <c r="BL3">
-        <v>-1.4336410579565433e-05</v>
+        <v>7.9809946074586586e-05</v>
       </c>
       <c r="BM3">
-        <v>-4.7166491396816977e-05</v>
+        <v>5.4136406525985704e-05</v>
       </c>
       <c r="BN3">
-        <v>-3.4506927795559928e-05</v>
+        <v>3.9223666757109289e-05</v>
       </c>
       <c r="BO3">
-        <v>-7.5590567368514583e-05</v>
+        <v>1.4553520854776594e-05</v>
       </c>
       <c r="BP3">
-        <v>1.8611051181086423e-05</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>-1.8024438902055764e-05</v>
+        <v>2.5187428071951084e-05</v>
       </c>
       <c r="BR3">
-        <v>1.5631297660177603e-05</v>
+        <v>3.7104975416131183e-05</v>
       </c>
       <c r="BS3">
-        <v>-4.6133861722891374e-05</v>
+        <v>3.197493605959756e-05</v>
       </c>
       <c r="BT3">
-        <v>-2.6872168832078846e-06</v>
+        <v>-1.5707164696147671e-05</v>
       </c>
       <c r="BU3">
-        <v>4.8494749597676669e-05</v>
+        <v>8.1352662968180289e-05</v>
       </c>
       <c r="BV3">
-        <v>-6.1161818872947524e-05</v>
+        <v>2.5623094050605857e-05</v>
       </c>
       <c r="BW3">
-        <v>1.7685590476348309e-05</v>
+        <v>4.164871431764335e-05</v>
       </c>
       <c r="BX3">
-        <v>-2.0987738660074615e-05</v>
+        <v>1.1635434729382492e-05</v>
       </c>
       <c r="BY3">
-        <v>-5.8854217981249542e-05</v>
+        <v>-5.0286206080575421e-06</v>
       </c>
       <c r="BZ3">
-        <v>3.6305714505854275e-05</v>
+        <v>8.2914982059866912e-05</v>
       </c>
       <c r="CA3">
-        <v>-8.2576789416817007e-05</v>
+        <v>-4.8021491175196056e-05</v>
       </c>
       <c r="CB3">
-        <v>-3.2316975741102967e-05</v>
+        <v>-5.209479538289726e-05</v>
       </c>
       <c r="CC3">
-        <v>-1.0775962209463324e-05</v>
+        <v>5.2477946033412868e-05</v>
       </c>
       <c r="CD3">
-        <v>-2.5504529784004547e-05</v>
+        <v>9.4592418459273273e-05</v>
       </c>
       <c r="CE3">
-        <v>-7.1522324515259334e-05</v>
+        <v>0.0001299427002888469</v>
       </c>
       <c r="CF3">
-        <v>-4.8531410730378108e-05</v>
+        <v>0.00022070394874639326</v>
       </c>
       <c r="CG3">
-        <v>-7.8476127375781484e-05</v>
+        <v>1.2188880103411877e-05</v>
       </c>
       <c r="CH3">
-        <v>1.2357856482820241e-05</v>
+        <v>8.8676085885580443e-05</v>
       </c>
       <c r="CI3">
-        <v>1.8665726038652262e-05</v>
+        <v>9.638088464052706e-05</v>
       </c>
       <c r="CJ3">
-        <v>-6.0554087057556493e-05</v>
+        <v>0.00011810156550970985</v>
       </c>
       <c r="CK3">
-        <v>0.00015661959662656259</v>
+        <v>0.00019060692821968434</v>
       </c>
       <c r="CL3">
-        <v>-3.4479626768779577e-05</v>
+        <v>0.00010168483462382774</v>
       </c>
       <c r="CM3">
-        <v>5.3470165538195654e-05</v>
+        <v>-3.5207339607876933e-05</v>
       </c>
       <c r="CN3">
-        <v>-2.7626168286155037e-05</v>
+        <v>9.5052488157132173e-05</v>
       </c>
       <c r="CO3">
-        <v>0</v>
+        <v>-5.4603553822899967e-05</v>
       </c>
       <c r="CP3">
-        <v>4.7897213536126856e-05</v>
+        <v>8.7914654039158877e-05</v>
       </c>
       <c r="CQ3">
-        <v>4.3780184282444235e-05</v>
+        <v>4.0541079946826818e-05</v>
       </c>
       <c r="CR3">
-        <v>4.6976659848906172e-05</v>
+        <v>7.4956183537275647e-05</v>
       </c>
       <c r="CS3">
-        <v>-2.9421166838996582e-05</v>
+        <v>0.00019688431553792861</v>
       </c>
       <c r="CT3">
-        <v>-2.0959291474697182e-05</v>
+        <v>0.00028528525817879765</v>
       </c>
       <c r="CU3">
-        <v>-8.56748750027918e-05</v>
+        <v>-1.0586153080363422e-05</v>
       </c>
       <c r="CV3">
-        <v>4.2589357962700289e-05</v>
+        <v>-7.19153618323164e-06</v>
       </c>
       <c r="CW3">
-        <v>0.00011934015501861675</v>
+        <v>0.00010253582863031968</v>
       </c>
       <c r="CX3">
-        <v>-4.9141141546758427e-05</v>
+        <v>0.00010527651570121867</v>
       </c>
       <c r="CY3">
-        <v>1.8407947108098364e-05</v>
+        <v>0.00022715003775995924</v>
       </c>
       <c r="CZ3">
-        <v>-4.4706187256297437e-06</v>
+        <v>4.6808963200472266e-05</v>
       </c>
       <c r="DA3">
-        <v>-2.8140225936121454e-05</v>
+        <v>0.00020964062794252345</v>
       </c>
       <c r="DB3">
-        <v>-2.7419290352816862e-05</v>
+        <v>0.00010440963696324357</v>
       </c>
       <c r="DC3">
-        <v>-0.0001403039065377559</v>
+        <v>5.53353091365767e-05</v>
       </c>
       <c r="DD3">
-        <v>4.9360853436075616e-05</v>
+        <v>-7.9625549859274077e-05</v>
       </c>
       <c r="DE3">
-        <v>2.9156754747822729e-05</v>
+        <v>3.8792811365602082e-05</v>
       </c>
       <c r="DF3">
-        <v>-0.00012692273089761767</v>
+        <v>0.00013099305412976714</v>
       </c>
       <c r="DG3">
-        <v>-2.1294288223854278e-05</v>
+        <v>9.3719913355300497e-07</v>
       </c>
       <c r="DH3">
-        <v>1.6024446770896874e-05</v>
+        <v>0.00011355857352800375</v>
       </c>
       <c r="DI3">
-        <v>-7.5079793981984222e-05</v>
+        <v>0.00014675786581643059</v>
       </c>
       <c r="DJ3">
-        <v>-2.8688816096547352e-05</v>
+        <v>0.0001101159117910467</v>
       </c>
       <c r="DK3">
-        <v>-8.1935285469529885e-05</v>
+        <v>0.00010269366469519228</v>
       </c>
       <c r="DL3">
-        <v>-4.162825961976073e-05</v>
+        <v>4.9489743906297531e-05</v>
       </c>
       <c r="DM3">
-        <v>-9.8714896502735157e-05</v>
+        <v>9.761878107370964e-06</v>
       </c>
       <c r="DN3">
-        <v>0.0001238373687487587</v>
+        <v>1.1898729140679463e-06</v>
       </c>
       <c r="DO3">
-        <v>7.0672066486227711e-06</v>
+        <v>0.00018512405480673039</v>
       </c>
       <c r="DP3">
-        <v>-7.9308986031660354e-05</v>
+        <v>8.5058545463144932e-05</v>
       </c>
       <c r="DQ3">
-        <v>-0.00014597307574254343</v>
+        <v>-4.0439884326619694e-05</v>
       </c>
       <c r="DR3">
-        <v>-4.1178752083310855e-06</v>
+        <v>0.00018073043739798663</v>
       </c>
       <c r="DS3">
-        <v>5.0467473069540013e-05</v>
+        <v>6.4565380340540031e-05</v>
       </c>
       <c r="DT3">
-        <v>0.000105670384342593</v>
+        <v>4.2796258385297961e-05</v>
       </c>
       <c r="DU3">
-        <v>-6.0352948359140473e-05</v>
+        <v>8.7629408513204761e-05</v>
       </c>
       <c r="DV3">
-        <v>-7.4009743475921448e-06</v>
+        <v>0.00015262852507986151</v>
       </c>
       <c r="DW3">
-        <v>-2.4587744438676505e-05</v>
+        <v>8.0064071633654843e-05</v>
       </c>
       <c r="DX3">
-        <v>-9.4916264059818781e-05</v>
+        <v>4.1231521116118219e-05</v>
       </c>
       <c r="DY3">
-        <v>-0.0001429650785020446</v>
+        <v>0.00011474540184728017</v>
       </c>
       <c r="DZ3">
-        <v>-6.8341216585890969e-06</v>
+        <v>0.00017077180400898136</v>
       </c>
       <c r="EA3">
-        <v>-2.7932342667776407e-05</v>
+        <v>0.00016380913697465791</v>
       </c>
       <c r="EB3">
-        <v>-6.6156941701586957e-05</v>
+        <v>0.00018863003590611683</v>
       </c>
       <c r="EC3">
-        <v>-0.0001504473078035575</v>
+        <v>3.6368637072819759e-05</v>
       </c>
       <c r="ED3">
-        <v>1.1526747531739886e-06</v>
+        <v>5.3390802710800846e-05</v>
       </c>
       <c r="EE3">
-        <v>-8.617621595287577e-06</v>
+        <v>-2.3100818400805416e-05</v>
       </c>
       <c r="EF3">
-        <v>-0.00013977550235424836</v>
+        <v>7.1102467594829553e-06</v>
       </c>
       <c r="EG3">
-        <v>-0.00011494066659446965</v>
+        <v>9.2561912793862885e-05</v>
       </c>
       <c r="EH3">
-        <v>1.1657979320578681e-05</v>
+        <v>-5.0276470267669997e-05</v>
       </c>
       <c r="EI3">
-        <v>-6.4139622957625294e-05</v>
+        <v>7.1623226039446751e-05</v>
       </c>
       <c r="EJ3">
-        <v>0.00010196576344353593</v>
+        <v>6.6342599964057381e-05</v>
       </c>
       <c r="EK3">
-        <v>-4.7038027994656471e-05</v>
+        <v>0.00017088427033030277</v>
       </c>
       <c r="EL3">
-        <v>-7.900620306566439e-05</v>
+        <v>1.5506414804889249e-05</v>
       </c>
       <c r="EM3">
-        <v>-0.00012900874863162531</v>
+        <v>-4.6052567167725829e-06</v>
       </c>
       <c r="EN3">
-        <v>-6.1497731097814176e-05</v>
+        <v>-0.00010456081145488941</v>
       </c>
       <c r="EO3">
-        <v>-4.4591896504304082e-05</v>
+        <v>6.213154544668667e-05</v>
       </c>
       <c r="EP3">
-        <v>-0.00010936482776088251</v>
+        <v>0.00011678372836383747</v>
       </c>
       <c r="EQ3">
-        <v>-0.00011071101189867346</v>
+        <v>8.9748257441042532e-05</v>
       </c>
       <c r="ER3">
-        <v>-7.0897772199190315e-05</v>
+        <v>2.2770098055060728e-05</v>
       </c>
       <c r="ES3">
-        <v>-0.00025933211270192432</v>
+        <v>-5.4134268869560067e-05</v>
       </c>
       <c r="ET3">
-        <v>-0.00027655718878118304</v>
+        <v>-1.6116767490944058e-05</v>
       </c>
       <c r="EU3">
-        <v>1.0819363017246293e-05</v>
+        <v>-0.00013229934905630207</v>
       </c>
       <c r="EV3">
-        <v>-0.00016483337473667233</v>
+        <v>-0.00015134018180373065</v>
       </c>
       <c r="EW3">
-        <v>-0.00014876999766409135</v>
+        <v>9.3314540133772569e-05</v>
       </c>
       <c r="EX3">
-        <v>-0.00016196858481589858</v>
+        <v>-0.00015243714407515131</v>
       </c>
       <c r="EY3">
-        <v>-5.3664569048205875e-05</v>
+        <v>1.2757867048162976e-05</v>
       </c>
       <c r="EZ3">
-        <v>-0.00015521975379652998</v>
+        <v>3.1440724164569677e-05</v>
       </c>
       <c r="FA3">
-        <v>-2.3794848764587642e-05</v>
+        <v>-9.1334591219020548e-05</v>
       </c>
       <c r="FB3">
-        <v>-0.0001783542488390228</v>
+        <v>-3.4194528831042174e-05</v>
       </c>
       <c r="FC3">
-        <v>-4.8047373650553866e-05</v>
+        <v>-6.2835703675068102e-05</v>
       </c>
       <c r="FD3">
-        <v>-0.00011950188051442643</v>
+        <v>5.1449903624787689e-05</v>
       </c>
       <c r="FE3">
-        <v>-0.00025427317410608958</v>
+        <v>2.1249939560936437e-05</v>
       </c>
       <c r="FF3">
-        <v>-0.00015733161365545978</v>
+        <v>2.4835210486356337e-05</v>
       </c>
       <c r="FG3">
-        <v>-0.00017549913671469151</v>
+        <v>-7.4719621096267056e-05</v>
       </c>
       <c r="FH3">
-        <v>-0.00016908500385069163</v>
+        <v>6.5798902912904077e-06</v>
       </c>
       <c r="FI3">
-        <v>-0.0001223297886954542</v>
+        <v>-8.0598373251548582e-05</v>
       </c>
       <c r="FJ3">
-        <v>-0.00020811561529216534</v>
+        <v>-5.2934621165396367e-05</v>
       </c>
       <c r="FK3">
-        <v>-0.00020594949681921012</v>
+        <v>-3.2763059084252794e-05</v>
       </c>
       <c r="FL3">
-        <v>-0.00022519876374611954</v>
+        <v>-9.8146704946572367e-05</v>
       </c>
       <c r="FM3">
-        <v>-0.00018034934319447935</v>
+        <v>-0.00024655095666074726</v>
       </c>
       <c r="FN3">
-        <v>-0.00020946799474907412</v>
+        <v>-0.00021215354809133293</v>
       </c>
       <c r="FO3">
-        <v>-0.00016819346741558808</v>
+        <v>-7.4896978306883497e-05</v>
       </c>
       <c r="FP3">
-        <v>-0.00015808118639358207</v>
+        <v>-6.8681187434648804e-05</v>
       </c>
       <c r="FQ3">
-        <v>-0.00012213709989817467</v>
+        <v>-0.00012803840826177435</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0041647240383176215</v>
+        <v>0.0040809217872715443</v>
       </c>
     </row>
     <row r="4">
@@ -1655,526 +1661,526 @@
         <v>176</v>
       </c>
       <c r="B4">
-        <v>4.2240096958218983e-05</v>
+        <v>2.8696047869467302e-05</v>
       </c>
       <c r="C4">
-        <v>1.8421314249956967e-05</v>
+        <v>2.7024270975801704e-05</v>
       </c>
       <c r="D4">
-        <v>2.6967016717849897e-05</v>
+        <v>2.5969598703909655e-05</v>
       </c>
       <c r="E4">
-        <v>3.1893686430948908e-05</v>
+        <v>2.6414163667061689e-05</v>
       </c>
       <c r="F4">
-        <v>2.9186551039093774e-05</v>
+        <v>2.4205902428273221e-05</v>
       </c>
       <c r="G4">
-        <v>2.4416836594101819e-05</v>
+        <v>2.2921102729968557e-05</v>
       </c>
       <c r="H4">
-        <v>1.9789988060314501e-05</v>
+        <v>1.8913049874696312e-05</v>
       </c>
       <c r="I4">
-        <v>1.9675870084504442e-05</v>
+        <v>1.5442440557605871e-05</v>
       </c>
       <c r="J4">
-        <v>2.0766761099279111e-05</v>
+        <v>1.0919454436354004e-05</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>4.5053255293377906e-05</v>
+        <v>1.7265173412651221e-05</v>
       </c>
       <c r="M4">
-        <v>4.5053255293377906e-05</v>
+        <v>1.7265173412651224e-05</v>
       </c>
       <c r="N4">
-        <v>4.5053255293377913e-05</v>
+        <v>1.7265173412651224e-05</v>
       </c>
       <c r="O4">
-        <v>4.505325529337792e-05</v>
+        <v>1.7265173412651224e-05</v>
       </c>
       <c r="P4">
-        <v>4.5053255293377913e-05</v>
+        <v>1.7265173412651224e-05</v>
       </c>
       <c r="Q4">
-        <v>4.5053255293377933e-05</v>
+        <v>1.7265173412651224e-05</v>
       </c>
       <c r="R4">
-        <v>4.5053255293377933e-05</v>
+        <v>1.7265173412651231e-05</v>
       </c>
       <c r="S4">
-        <v>4.505325529337794e-05</v>
+        <v>1.7265173412651224e-05</v>
       </c>
       <c r="T4">
-        <v>4.505325529337794e-05</v>
+        <v>1.7265173412651231e-05</v>
       </c>
       <c r="U4">
-        <v>4.5053255293377926e-05</v>
+        <v>1.7265173412651228e-05</v>
       </c>
       <c r="V4">
-        <v>4.5053255293377947e-05</v>
+        <v>1.7265173412651231e-05</v>
       </c>
       <c r="W4">
-        <v>4.5053255293377933e-05</v>
+        <v>1.7265173412651228e-05</v>
       </c>
       <c r="X4">
-        <v>4.505325529337794e-05</v>
+        <v>1.7265173412651228e-05</v>
       </c>
       <c r="Y4">
-        <v>4.505325529337794e-05</v>
+        <v>1.7265173412651228e-05</v>
       </c>
       <c r="Z4">
-        <v>4.505325529337794e-05</v>
+        <v>1.7265173412651231e-05</v>
       </c>
       <c r="AA4">
-        <v>4.505325529337794e-05</v>
+        <v>1.7265173412651231e-05</v>
       </c>
       <c r="AB4">
-        <v>4.5053255293377947e-05</v>
+        <v>1.7265173412651231e-05</v>
       </c>
       <c r="AC4">
-        <v>4.5053255293377947e-05</v>
+        <v>1.7265173412651235e-05</v>
       </c>
       <c r="AD4">
-        <v>4.5053255293377947e-05</v>
+        <v>1.7265173412651231e-05</v>
       </c>
       <c r="AE4">
-        <v>4.5053255293377954e-05</v>
+        <v>1.7265173412651235e-05</v>
       </c>
       <c r="AF4">
-        <v>4.5053255293377954e-05</v>
+        <v>1.7265173412651235e-05</v>
       </c>
       <c r="AG4">
-        <v>4.5053255293377954e-05</v>
+        <v>1.7265173412651238e-05</v>
       </c>
       <c r="AH4">
-        <v>4.505325529337794e-05</v>
+        <v>1.7265173412651238e-05</v>
       </c>
       <c r="AI4">
-        <v>4.5053255293377947e-05</v>
+        <v>1.7265173412651238e-05</v>
       </c>
       <c r="AJ4">
-        <v>4.5053255293377954e-05</v>
+        <v>1.7265173412651238e-05</v>
       </c>
       <c r="AK4">
-        <v>4.5053255293377954e-05</v>
+        <v>1.7265173412651241e-05</v>
       </c>
       <c r="AL4">
-        <v>4.5053255293377954e-05</v>
+        <v>1.7265173412651241e-05</v>
       </c>
       <c r="AM4">
-        <v>4.5053255293377967e-05</v>
+        <v>1.7265173412651245e-05</v>
       </c>
       <c r="AN4">
-        <v>4.505325529337796e-05</v>
+        <v>1.7265173412651241e-05</v>
       </c>
       <c r="AO4">
-        <v>4.5053255293377967e-05</v>
+        <v>1.7265173412651245e-05</v>
       </c>
       <c r="AP4">
-        <v>4.5053255293377967e-05</v>
+        <v>1.7265173412651241e-05</v>
       </c>
       <c r="AQ4">
-        <v>4.5053255293377967e-05</v>
+        <v>1.7265173412651245e-05</v>
       </c>
       <c r="AR4">
-        <v>4.5053255293377967e-05</v>
+        <v>1.7265173412651241e-05</v>
       </c>
       <c r="AS4">
-        <v>4.5053255293377967e-05</v>
+        <v>1.7265173412651245e-05</v>
       </c>
       <c r="AT4">
-        <v>4.5053255293377967e-05</v>
+        <v>1.7265173412651241e-05</v>
       </c>
       <c r="AU4">
-        <v>4.5053255293377967e-05</v>
+        <v>1.7265173412651245e-05</v>
       </c>
       <c r="AV4">
-        <v>4.5053255293377967e-05</v>
+        <v>1.7265173412651245e-05</v>
       </c>
       <c r="AW4">
-        <v>4.5053255293377967e-05</v>
+        <v>1.7265173412651245e-05</v>
       </c>
       <c r="AX4">
-        <v>4.5053255293377967e-05</v>
+        <v>1.7265173412651245e-05</v>
       </c>
       <c r="AY4">
-        <v>4.5053255293377967e-05</v>
+        <v>1.7265173412651248e-05</v>
       </c>
       <c r="AZ4">
-        <v>4.5053255293377967e-05</v>
+        <v>1.7265173412651248e-05</v>
       </c>
       <c r="BA4">
-        <v>4.5053255293377967e-05</v>
+        <v>1.7265173412651248e-05</v>
       </c>
       <c r="BB4">
-        <v>4.5053255293377967e-05</v>
+        <v>1.7265173412651251e-05</v>
       </c>
       <c r="BC4">
-        <v>4.5053255293377967e-05</v>
+        <v>1.7265173412651251e-05</v>
       </c>
       <c r="BD4">
-        <v>4.5053255293377967e-05</v>
+        <v>1.7265173412651248e-05</v>
       </c>
       <c r="BE4">
-        <v>4.5053255293377967e-05</v>
+        <v>1.7265173412651251e-05</v>
       </c>
       <c r="BF4">
-        <v>4.5053255293377967e-05</v>
+        <v>1.7265173412651255e-05</v>
       </c>
       <c r="BG4">
-        <v>4.5053255293377967e-05</v>
+        <v>1.7265173412651251e-05</v>
       </c>
       <c r="BH4">
-        <v>4.5053255293377967e-05</v>
+        <v>1.7265173412651255e-05</v>
       </c>
       <c r="BI4">
-        <v>4.5053255293377967e-05</v>
+        <v>1.7265173412651255e-05</v>
       </c>
       <c r="BJ4">
-        <v>4.5053255293377967e-05</v>
+        <v>1.7265173412651251e-05</v>
       </c>
       <c r="BK4">
-        <v>4.5053255293377974e-05</v>
+        <v>1.7265173412651251e-05</v>
       </c>
       <c r="BL4">
-        <v>4.5053255293377974e-05</v>
+        <v>1.7265173412651255e-05</v>
       </c>
       <c r="BM4">
-        <v>4.5053255293377981e-05</v>
+        <v>1.7265173412651251e-05</v>
       </c>
       <c r="BN4">
-        <v>4.5053255293377981e-05</v>
+        <v>1.7265173412651255e-05</v>
       </c>
       <c r="BO4">
-        <v>4.5053255293377987e-05</v>
+        <v>1.7265173412651258e-05</v>
       </c>
       <c r="BP4">
-        <v>4.5053255293377987e-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>4.5027746710599875e-05</v>
+        <v>1.8439213287654229e-05</v>
       </c>
       <c r="BR4">
-        <v>4.5027746710599875e-05</v>
+        <v>1.8439213287654229e-05</v>
       </c>
       <c r="BS4">
-        <v>4.5027746710599882e-05</v>
+        <v>1.8439213287654229e-05</v>
       </c>
       <c r="BT4">
-        <v>4.0855232579427384e-05</v>
+        <v>1.8845205681284755e-05</v>
       </c>
       <c r="BU4">
-        <v>4.0855232579427391e-05</v>
+        <v>1.8845205681284755e-05</v>
       </c>
       <c r="BV4">
-        <v>4.7375246139533227e-05</v>
+        <v>2.2839677596136453e-05</v>
       </c>
       <c r="BW4">
-        <v>4.6461366818343497e-05</v>
+        <v>2.2245666757797138e-05</v>
       </c>
       <c r="BX4">
-        <v>4.6461366818343497e-05</v>
+        <v>2.2245666757797138e-05</v>
       </c>
       <c r="BY4">
-        <v>4.5768333960884012e-05</v>
+        <v>2.2660540104099276e-05</v>
       </c>
       <c r="BZ4">
-        <v>4.5768333960884018e-05</v>
+        <v>2.2660540104099265e-05</v>
       </c>
       <c r="CA4">
-        <v>4.5768333960884018e-05</v>
+        <v>2.4416642396889174e-05</v>
       </c>
       <c r="CB4">
-        <v>4.5206258671737852e-05</v>
+        <v>2.4440475142819437e-05</v>
       </c>
       <c r="CC4">
-        <v>4.5206258671737866e-05</v>
+        <v>2.4440475142819441e-05</v>
       </c>
       <c r="CD4">
-        <v>4.5206258671737859e-05</v>
+        <v>2.4511834346188394e-05</v>
       </c>
       <c r="CE4">
-        <v>4.5206258671737859e-05</v>
+        <v>2.4511834346188394e-05</v>
       </c>
       <c r="CF4">
-        <v>4.5206258671737866e-05</v>
+        <v>2.4511834346188394e-05</v>
       </c>
       <c r="CG4">
-        <v>4.5083846541372675e-05</v>
+        <v>2.646700966252559e-05</v>
       </c>
       <c r="CH4">
-        <v>4.5083846541372668e-05</v>
+        <v>2.6467009662525584e-05</v>
       </c>
       <c r="CI4">
-        <v>4.5083846541372675e-05</v>
+        <v>2.646700966252559e-05</v>
       </c>
       <c r="CJ4">
-        <v>4.5083846541372681e-05</v>
+        <v>2.646700966252559e-05</v>
       </c>
       <c r="CK4">
-        <v>4.5676280983281721e-05</v>
+        <v>2.6467009662525594e-05</v>
       </c>
       <c r="CL4">
-        <v>4.3108897524451828e-05</v>
+        <v>2.863105107507516e-05</v>
       </c>
       <c r="CM4">
-        <v>4.3108897524451835e-05</v>
+        <v>2.8631051075075163e-05</v>
       </c>
       <c r="CN4">
-        <v>3.9166785849321567e-05</v>
+        <v>2.8631051075075163e-05</v>
       </c>
       <c r="CO4">
-        <v>0</v>
+        <v>2.863105107507517e-05</v>
       </c>
       <c r="CP4">
-        <v>4.5927127402320155e-05</v>
+        <v>2.863105107507517e-05</v>
       </c>
       <c r="CQ4">
-        <v>4.6477190356070671e-05</v>
+        <v>3.0642643013469343e-05</v>
       </c>
       <c r="CR4">
-        <v>4.6477190356070671e-05</v>
+        <v>3.0642643013469343e-05</v>
       </c>
       <c r="CS4">
-        <v>4.5784397018206594e-05</v>
+        <v>3.0642643013469343e-05</v>
       </c>
       <c r="CT4">
-        <v>4.5784397018206601e-05</v>
+        <v>3.0642643013469343e-05</v>
       </c>
       <c r="CU4">
-        <v>4.5784397018206594e-05</v>
+        <v>3.0642643013469343e-05</v>
       </c>
       <c r="CV4">
-        <v>4.5222521378864231e-05</v>
+        <v>3.206863630935228e-05</v>
       </c>
       <c r="CW4">
-        <v>4.5222521378864224e-05</v>
+        <v>3.206863630935228e-05</v>
       </c>
       <c r="CX4">
-        <v>4.5222521378864231e-05</v>
+        <v>3.206863630935228e-05</v>
       </c>
       <c r="CY4">
-        <v>4.5222521378864217e-05</v>
+        <v>3.206863630935228e-05</v>
       </c>
       <c r="CZ4">
-        <v>4.5222521378864231e-05</v>
+        <v>3.206863630935228e-05</v>
       </c>
       <c r="DA4">
-        <v>4.5158198679306978e-05</v>
+        <v>3.206863630935228e-05</v>
       </c>
       <c r="DB4">
-        <v>4.5158198679306971e-05</v>
+        <v>3.206863630935228e-05</v>
       </c>
       <c r="DC4">
-        <v>4.5158198679306985e-05</v>
+        <v>3.2068636309352301e-05</v>
       </c>
       <c r="DD4">
-        <v>4.5158198679306978e-05</v>
+        <v>3.206863630935228e-05</v>
       </c>
       <c r="DE4">
-        <v>4.5158198679306978e-05</v>
+        <v>3.2068636309352301e-05</v>
       </c>
       <c r="DF4">
-        <v>4.2288756452572686e-05</v>
+        <v>3.2068636309352301e-05</v>
       </c>
       <c r="DG4">
-        <v>4.2288756452572679e-05</v>
+        <v>3.2068636309352301e-05</v>
       </c>
       <c r="DH4">
-        <v>4.2288756452572686e-05</v>
+        <v>3.2068636309352301e-05</v>
       </c>
       <c r="DI4">
-        <v>4.2288756452572692e-05</v>
+        <v>3.2068636309352301e-05</v>
       </c>
       <c r="DJ4">
-        <v>4.2288756452572692e-05</v>
+        <v>3.2068636309352301e-05</v>
       </c>
       <c r="DK4">
-        <v>4.5085885219897939e-05</v>
+        <v>3.2068636309352301e-05</v>
       </c>
       <c r="DL4">
-        <v>4.5085885219897939e-05</v>
+        <v>3.2068636309352301e-05</v>
       </c>
       <c r="DM4">
-        <v>4.5085885219897939e-05</v>
+        <v>3.2068636309352314e-05</v>
       </c>
       <c r="DN4">
-        <v>4.5085885219897926e-05</v>
+        <v>3.2068636309352301e-05</v>
       </c>
       <c r="DO4">
-        <v>4.5085885219897946e-05</v>
+        <v>3.2068636309352314e-05</v>
       </c>
       <c r="DP4">
-        <v>4.5085885219897939e-05</v>
+        <v>3.2068636309352314e-05</v>
       </c>
       <c r="DQ4">
-        <v>4.5085885219897946e-05</v>
+        <v>3.2068636309352321e-05</v>
       </c>
       <c r="DR4">
-        <v>4.5085885219897946e-05</v>
+        <v>3.2068636309352314e-05</v>
       </c>
       <c r="DS4">
-        <v>4.5085885219897973e-05</v>
+        <v>3.2068636309352314e-05</v>
       </c>
       <c r="DT4">
-        <v>4.5085885219897946e-05</v>
+        <v>3.2068636309352314e-05</v>
       </c>
       <c r="DU4">
-        <v>4.5085885219897973e-05</v>
+        <v>3.2068636309352321e-05</v>
       </c>
       <c r="DV4">
-        <v>4.5085885219897973e-05</v>
+        <v>3.2068636309352321e-05</v>
       </c>
       <c r="DW4">
-        <v>4.5085885219897973e-05</v>
+        <v>3.2068636309352328e-05</v>
       </c>
       <c r="DX4">
-        <v>4.5085885219897966e-05</v>
+        <v>3.2068636309352321e-05</v>
       </c>
       <c r="DY4">
-        <v>4.508588521989798e-05</v>
+        <v>3.2068636309352328e-05</v>
       </c>
       <c r="DZ4">
-        <v>4.508588521989798e-05</v>
+        <v>3.2068636309352321e-05</v>
       </c>
       <c r="EA4">
-        <v>4.5085885219897987e-05</v>
+        <v>3.2068636309352328e-05</v>
       </c>
       <c r="EB4">
-        <v>4.5085885219897993e-05</v>
+        <v>3.2068636309352335e-05</v>
       </c>
       <c r="EC4">
-        <v>4.5085885219897987e-05</v>
+        <v>3.2068636309352335e-05</v>
       </c>
       <c r="ED4">
-        <v>4.5085885219897987e-05</v>
+        <v>3.2068636309352328e-05</v>
       </c>
       <c r="EE4">
-        <v>4.5085885219897987e-05</v>
+        <v>3.2068636309352328e-05</v>
       </c>
       <c r="EF4">
-        <v>4.5085885219898007e-05</v>
+        <v>3.2068636309352341e-05</v>
       </c>
       <c r="EG4">
-        <v>4.5085885219897993e-05</v>
+        <v>3.2068636309352341e-05</v>
       </c>
       <c r="EH4">
-        <v>4.5085885219898007e-05</v>
+        <v>3.2068636309352335e-05</v>
       </c>
       <c r="EI4">
-        <v>4.5085885219898e-05</v>
+        <v>3.2068636309352341e-05</v>
       </c>
       <c r="EJ4">
-        <v>4.5085885219898007e-05</v>
+        <v>3.2068636309352335e-05</v>
       </c>
       <c r="EK4">
-        <v>4.5085885219898007e-05</v>
+        <v>3.2068636309352341e-05</v>
       </c>
       <c r="EL4">
-        <v>4.5085885219898014e-05</v>
+        <v>3.2068636309352341e-05</v>
       </c>
       <c r="EM4">
-        <v>4.5085885219898007e-05</v>
+        <v>3.2068636309352341e-05</v>
       </c>
       <c r="EN4">
-        <v>4.5085885219898021e-05</v>
+        <v>3.2068636309352348e-05</v>
       </c>
       <c r="EO4">
-        <v>4.5085885219898e-05</v>
+        <v>3.2068636309352341e-05</v>
       </c>
       <c r="EP4">
-        <v>4.5085885219898014e-05</v>
+        <v>3.2068636309352341e-05</v>
       </c>
       <c r="EQ4">
-        <v>4.5085885219898027e-05</v>
+        <v>3.2068636309352348e-05</v>
       </c>
       <c r="ER4">
-        <v>4.5085885219898027e-05</v>
+        <v>3.2068636309352348e-05</v>
       </c>
       <c r="ES4">
-        <v>4.5085885219898027e-05</v>
+        <v>3.2068636309352348e-05</v>
       </c>
       <c r="ET4">
-        <v>4.5085885219898027e-05</v>
+        <v>3.2068636309352355e-05</v>
       </c>
       <c r="EU4">
-        <v>4.5085885219898027e-05</v>
+        <v>3.2068636309352355e-05</v>
       </c>
       <c r="EV4">
-        <v>4.5085885219898014e-05</v>
+        <v>3.2068636309352348e-05</v>
       </c>
       <c r="EW4">
-        <v>4.5085885219898007e-05</v>
+        <v>3.2068636309352355e-05</v>
       </c>
       <c r="EX4">
-        <v>4.5085885219898021e-05</v>
+        <v>3.2068636309352348e-05</v>
       </c>
       <c r="EY4">
-        <v>4.5085885219898027e-05</v>
+        <v>3.2068636309352355e-05</v>
       </c>
       <c r="EZ4">
-        <v>4.5085885219898027e-05</v>
+        <v>3.2068636309352355e-05</v>
       </c>
       <c r="FA4">
-        <v>4.5085885219898034e-05</v>
+        <v>3.2068636309352362e-05</v>
       </c>
       <c r="FB4">
-        <v>4.5085885219898034e-05</v>
+        <v>3.2068636309352355e-05</v>
       </c>
       <c r="FC4">
-        <v>4.5085885219898034e-05</v>
+        <v>3.2068636309352362e-05</v>
       </c>
       <c r="FD4">
-        <v>4.5085885219898034e-05</v>
+        <v>3.2068636309352362e-05</v>
       </c>
       <c r="FE4">
-        <v>4.5085885219898041e-05</v>
+        <v>3.2068636309352362e-05</v>
       </c>
       <c r="FF4">
-        <v>4.5085885219898034e-05</v>
+        <v>3.2068636309352362e-05</v>
       </c>
       <c r="FG4">
-        <v>4.5085885219898041e-05</v>
+        <v>3.2068636309352362e-05</v>
       </c>
       <c r="FH4">
-        <v>4.5085885219898041e-05</v>
+        <v>3.2068636309352362e-05</v>
       </c>
       <c r="FI4">
-        <v>4.5085885219898048e-05</v>
+        <v>3.2068636309352362e-05</v>
       </c>
       <c r="FJ4">
-        <v>4.5085885219898048e-05</v>
+        <v>3.2068636309352362e-05</v>
       </c>
       <c r="FK4">
-        <v>4.5085885219898054e-05</v>
+        <v>3.2068636309352368e-05</v>
       </c>
       <c r="FL4">
-        <v>4.5085885219898054e-05</v>
+        <v>3.2068636309352368e-05</v>
       </c>
       <c r="FM4">
-        <v>4.5085885219898054e-05</v>
+        <v>3.2068636309352368e-05</v>
       </c>
       <c r="FN4">
-        <v>4.5085885219898054e-05</v>
+        <v>3.2068636309352368e-05</v>
       </c>
       <c r="FO4">
-        <v>4.5085885219898054e-05</v>
+        <v>3.2068636309352368e-05</v>
       </c>
       <c r="FP4">
-        <v>4.5085885219898054e-05</v>
+        <v>3.2068636309352368e-05</v>
       </c>
       <c r="FQ4">
-        <v>4.5085885219898068e-05</v>
+        <v>3.2068636309352368e-05</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>3.5576937602583449e-05</v>
+        <v>2.965390915641602e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2389,7 +2395,7 @@
         <v>66</v>
       </c>
       <c r="BP2" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="BQ2" t="s">
         <v>68</v>
@@ -2464,7 +2470,7 @@
         <v>91</v>
       </c>
       <c r="CO2" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="CP2" t="s">
         <v>93</v>
@@ -2718,526 +2724,526 @@
         <v>175</v>
       </c>
       <c r="B3">
-        <v>-3.5382707662420119e-05</v>
+        <v>2.4574879249966745e-05</v>
       </c>
       <c r="C3">
-        <v>-0.0020071081391974197</v>
+        <v>-0.0020073146186629226</v>
       </c>
       <c r="D3">
-        <v>-0.0020563999644462446</v>
+        <v>-0.0020443065698540304</v>
       </c>
       <c r="E3">
-        <v>-0.0020684378761115381</v>
+        <v>-0.0019868466468637705</v>
       </c>
       <c r="F3">
-        <v>-1.0584603694397451e-05</v>
+        <v>-2.785312142539195e-05</v>
       </c>
       <c r="G3">
-        <v>5.4893565821356221e-08</v>
+        <v>1.8568747618053368e-05</v>
       </c>
       <c r="H3">
-        <v>-1.1126341916925484e-05</v>
+        <v>5.3952473838200415e-16</v>
       </c>
       <c r="I3">
-        <v>3.0660470072410584e-05</v>
+        <v>3.7980144893738727e-16</v>
       </c>
       <c r="J3">
-        <v>-1.5333222817835302e-05</v>
+        <v>2.0011735074128093e-16</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0045868332695978035</v>
+        <v>0.0046014158344033548</v>
       </c>
       <c r="M3">
-        <v>0.0053918013794055</v>
+        <v>0.0055186380370184328</v>
       </c>
       <c r="N3">
-        <v>-0.00053544199307528802</v>
+        <v>-0.00052568035071081016</v>
       </c>
       <c r="O3">
-        <v>-0.0004735322318864092</v>
+        <v>-0.0004334469265310893</v>
       </c>
       <c r="P3">
-        <v>-0.00045436987997153389</v>
+        <v>-0.00047972267413798423</v>
       </c>
       <c r="Q3">
-        <v>-0.00046437419755836678</v>
+        <v>-0.00037122062948312417</v>
       </c>
       <c r="R3">
-        <v>-0.00036832636828146</v>
+        <v>-0.00033538476007834335</v>
       </c>
       <c r="S3">
-        <v>-0.00034598814497130973</v>
+        <v>-0.00032756180576338714</v>
       </c>
       <c r="T3">
-        <v>-0.00035212959635352349</v>
+        <v>-0.00027684771051668383</v>
       </c>
       <c r="U3">
-        <v>-0.00038974432962350078</v>
+        <v>-0.00029132401459167962</v>
       </c>
       <c r="V3">
-        <v>-0.00037440558595293658</v>
+        <v>-0.00024574068037217845</v>
       </c>
       <c r="W3">
-        <v>-0.00030685862097729521</v>
+        <v>-0.00027677276391102867</v>
       </c>
       <c r="X3">
-        <v>-0.00034850866080576208</v>
+        <v>-0.00026259538324205096</v>
       </c>
       <c r="Y3">
-        <v>-0.00031227564792392831</v>
+        <v>-0.00023986007214772055</v>
       </c>
       <c r="Z3">
-        <v>-0.00024292595983261655</v>
+        <v>-0.00022916704930166394</v>
       </c>
       <c r="AA3">
-        <v>-0.00019965907736760221</v>
+        <v>-0.00029920683085091405</v>
       </c>
       <c r="AB3">
-        <v>-0.00029059045852387389</v>
+        <v>-0.0002097549977649295</v>
       </c>
       <c r="AC3">
-        <v>-0.00028291920314693181</v>
+        <v>-0.00022246636328470703</v>
       </c>
       <c r="AD3">
-        <v>-0.00025806084787811847</v>
+        <v>-0.00018693735786220756</v>
       </c>
       <c r="AE3">
-        <v>-0.00022390166255320111</v>
+        <v>-0.00016261188038486636</v>
       </c>
       <c r="AF3">
-        <v>-0.00020954666597495052</v>
+        <v>-0.00012829539761328066</v>
       </c>
       <c r="AG3">
-        <v>-0.00018037523490610255</v>
+        <v>-0.00015020391062839662</v>
       </c>
       <c r="AH3">
-        <v>-0.00024635962136723152</v>
+        <v>-8.716992451875431e-05</v>
       </c>
       <c r="AI3">
-        <v>-0.00010450242399880114</v>
+        <v>-7.6795420514062969e-05</v>
       </c>
       <c r="AJ3">
-        <v>-0.00024068767805255975</v>
+        <v>-8.6277988476700463e-05</v>
       </c>
       <c r="AK3">
-        <v>-0.00015455508563645551</v>
+        <v>-0.00010982939739017136</v>
       </c>
       <c r="AL3">
-        <v>-0.00016203642578085697</v>
+        <v>-0.00016685153714397763</v>
       </c>
       <c r="AM3">
-        <v>-0.00010205785211871687</v>
+        <v>-8.8737867128184438e-07</v>
       </c>
       <c r="AN3">
-        <v>-0.00015814089435168112</v>
+        <v>-4.3038854449069431e-05</v>
       </c>
       <c r="AO3">
-        <v>-3.5559053160646413e-05</v>
+        <v>-0.00012370376437317255</v>
       </c>
       <c r="AP3">
-        <v>-7.752493412934721e-05</v>
+        <v>-7.580559960077174e-05</v>
       </c>
       <c r="AQ3">
-        <v>-9.3342055400913785e-05</v>
+        <v>-4.6683333434757235e-05</v>
       </c>
       <c r="AR3">
-        <v>-0.00015649952470208036</v>
+        <v>-2.801566106843026e-05</v>
       </c>
       <c r="AS3">
-        <v>-8.0415003090232573e-05</v>
+        <v>-6.8857977984531515e-05</v>
       </c>
       <c r="AT3">
-        <v>-9.9979614113133745e-05</v>
+        <v>-2.1725848496975254e-06</v>
       </c>
       <c r="AU3">
-        <v>-3.6520695361738936e-05</v>
+        <v>-5.9238300198988773e-05</v>
       </c>
       <c r="AV3">
-        <v>-3.6475526709481666e-05</v>
+        <v>2.0821319428948496e-06</v>
       </c>
       <c r="AW3">
-        <v>-2.1710763096827309e-05</v>
+        <v>-2.881797289704381e-05</v>
       </c>
       <c r="AX3">
-        <v>5.6681714955161006e-07</v>
+        <v>3.1059092081236491e-05</v>
       </c>
       <c r="AY3">
-        <v>-1.7663638121139544e-05</v>
+        <v>-6.2315409735577007e-06</v>
       </c>
       <c r="AZ3">
-        <v>-3.0470634920744901e-05</v>
+        <v>-4.4694894550537651e-05</v>
       </c>
       <c r="BA3">
-        <v>-6.3637409583078053e-05</v>
+        <v>-2.4715748590538224e-05</v>
       </c>
       <c r="BB3">
-        <v>-1.5393994672064728e-05</v>
+        <v>4.1347721887801471e-06</v>
       </c>
       <c r="BC3">
-        <v>-9.1222880460945784e-05</v>
+        <v>-9.9343220925788745e-05</v>
       </c>
       <c r="BD3">
-        <v>-4.661590854731344e-05</v>
+        <v>-2.6367574099266634e-05</v>
       </c>
       <c r="BE3">
-        <v>2.6490094162317075e-05</v>
+        <v>-2.3036386602557562e-05</v>
       </c>
       <c r="BF3">
-        <v>-0.00010127746355841416</v>
+        <v>2.3502072868717404e-05</v>
       </c>
       <c r="BG3">
-        <v>-2.3220644772100448e-05</v>
+        <v>-1.7733322139050191e-05</v>
       </c>
       <c r="BH3">
-        <v>-2.6775237995876692e-05</v>
+        <v>2.8603038684527345e-07</v>
       </c>
       <c r="BI3">
-        <v>-6.3042221852517067e-05</v>
+        <v>-0.00013345866791690769</v>
       </c>
       <c r="BJ3">
-        <v>-4.6664388574769089e-06</v>
+        <v>-6.8991655567797764e-05</v>
       </c>
       <c r="BK3">
-        <v>-4.1036249493497718e-05</v>
+        <v>-1.9352042754327971e-05</v>
       </c>
       <c r="BL3">
-        <v>-3.6149841277221384e-05</v>
+        <v>-8.5300467220482829e-06</v>
       </c>
       <c r="BM3">
-        <v>-4.8414363724450353e-05</v>
+        <v>-4.335721054450794e-05</v>
       </c>
       <c r="BN3">
-        <v>7.5087326960547376e-05</v>
+        <v>-3.9837288645838701e-05</v>
       </c>
       <c r="BO3">
-        <v>-9.0538212765202286e-05</v>
+        <v>-2.6358847841925787e-05</v>
       </c>
       <c r="BP3">
-        <v>-5.6654394489508805e-05</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>-5.4294964602564957e-05</v>
+        <v>-4.2676716048238351e-05</v>
       </c>
       <c r="BR3">
-        <v>-5.8253019238654248e-06</v>
+        <v>-1.2803872059283805e-05</v>
       </c>
       <c r="BS3">
-        <v>-8.8480614409140948e-05</v>
+        <v>-4.9353828638324556e-05</v>
       </c>
       <c r="BT3">
-        <v>-5.2903215199296064e-05</v>
+        <v>-7.5728321772242712e-05</v>
       </c>
       <c r="BU3">
-        <v>1.9659889963819502e-06</v>
+        <v>-5.0217267978384367e-05</v>
       </c>
       <c r="BV3">
-        <v>-3.9156983835846296e-05</v>
+        <v>-1.9944967049220494e-05</v>
       </c>
       <c r="BW3">
-        <v>-2.8523245924361053e-05</v>
+        <v>5.567178349237096e-05</v>
       </c>
       <c r="BX3">
-        <v>-2.6739238624817466e-05</v>
+        <v>1.0250049348995139e-05</v>
       </c>
       <c r="BY3">
-        <v>-8.0550353253355827e-06</v>
+        <v>-3.9850927065974761e-05</v>
       </c>
       <c r="BZ3">
-        <v>3.0928663541907983e-05</v>
+        <v>4.5174824889655786e-05</v>
       </c>
       <c r="CA3">
-        <v>-7.3606520201397664e-05</v>
+        <v>-8.3446818707929739e-05</v>
       </c>
       <c r="CB3">
-        <v>-5.0152618919558999e-05</v>
+        <v>-6.2701862399619255e-05</v>
       </c>
       <c r="CC3">
-        <v>-1.2058700499526927e-05</v>
+        <v>4.1870879016691457e-05</v>
       </c>
       <c r="CD3">
-        <v>-7.4635672784611469e-06</v>
+        <v>6.9880427347845711e-05</v>
       </c>
       <c r="CE3">
-        <v>-6.7555964975465622e-05</v>
+        <v>0.0001052307091774201</v>
       </c>
       <c r="CF3">
-        <v>-9.4157097887455208e-05</v>
+        <v>0.00019599195763496613</v>
       </c>
       <c r="CG3">
-        <v>-8.1136412554021453e-05</v>
+        <v>-6.8811413703765205e-06</v>
       </c>
       <c r="CH3">
-        <v>1.5391683775938376e-05</v>
+        <v>6.9606064411791897e-05</v>
       </c>
       <c r="CI3">
-        <v>5.364467247568506e-06</v>
+        <v>7.7310863166738501e-05</v>
       </c>
       <c r="CJ3">
-        <v>-5.9754190859051346e-05</v>
+        <v>9.9031544035920989e-05</v>
       </c>
       <c r="CK3">
-        <v>0.00017940222729085175</v>
+        <v>0.00017153690674589624</v>
       </c>
       <c r="CL3">
-        <v>1.0379865536722652e-05</v>
+        <v>8.2614813149795672e-05</v>
       </c>
       <c r="CM3">
-        <v>6.0230791854812702e-05</v>
+        <v>-5.4277361081908557e-05</v>
       </c>
       <c r="CN3">
-        <v>1.4837974816440631e-05</v>
+        <v>7.5982466683100698e-05</v>
       </c>
       <c r="CO3">
-        <v>0</v>
+        <v>-7.3673575296931415e-05</v>
       </c>
       <c r="CP3">
-        <v>6.6134911496451004e-05</v>
+        <v>6.8844632565127239e-05</v>
       </c>
       <c r="CQ3">
-        <v>3.7875864482724289e-05</v>
+        <v>2.1471058472550564e-05</v>
       </c>
       <c r="CR3">
-        <v>4.1072340049185596e-05</v>
+        <v>5.5886162062999217e-05</v>
       </c>
       <c r="CS3">
-        <v>-2.0621830476992681e-05</v>
+        <v>0.00017781429406365235</v>
       </c>
       <c r="CT3">
-        <v>-1.2159955112692971e-05</v>
+        <v>0.0002662152367045212</v>
       </c>
       <c r="CU3">
-        <v>-7.6875538640788058e-05</v>
+        <v>-2.9656174554639384e-05</v>
       </c>
       <c r="CV3">
-        <v>4.2495977785205463e-05</v>
+        <v>-2.6261557657630283e-05</v>
       </c>
       <c r="CW3">
-        <v>0.00011924677484112115</v>
+        <v>8.3465807155920906e-05</v>
       </c>
       <c r="CX3">
-        <v>-4.9234521724253396e-05</v>
+        <v>8.6206494226819864e-05</v>
       </c>
       <c r="CY3">
-        <v>1.8314566930602766e-05</v>
+        <v>0.00020808001628556079</v>
       </c>
       <c r="CZ3">
-        <v>-4.5639989031250218e-06</v>
+        <v>2.7738941726073622e-05</v>
       </c>
       <c r="DA3">
-        <v>-2.4674168995827025e-05</v>
+        <v>0.00019057060646812492</v>
       </c>
       <c r="DB3">
-        <v>-2.3953233412521813e-05</v>
+        <v>8.5339615488844614e-05</v>
       </c>
       <c r="DC3">
-        <v>-0.0001368378495974601</v>
+        <v>3.6265287662177599e-05</v>
       </c>
       <c r="DD3">
-        <v>5.2826910376370838e-05</v>
+        <v>-9.8695571333672812e-05</v>
       </c>
       <c r="DE3">
-        <v>3.2622811688117144e-05</v>
+        <v>1.9722789891203591e-05</v>
       </c>
       <c r="DF3">
-        <v>-0.00011667886399075813</v>
+        <v>0.00011192303265536819</v>
       </c>
       <c r="DG3">
-        <v>-1.1050421316996425e-05</v>
+        <v>-1.813282234084596e-05</v>
       </c>
       <c r="DH3">
-        <v>2.6268313677754717e-05</v>
+        <v>9.4488552053604484e-05</v>
       </c>
       <c r="DI3">
-        <v>-6.4835927075125921e-05</v>
+        <v>0.00012768784434203224</v>
       </c>
       <c r="DJ3">
-        <v>-1.8444949189688584e-05</v>
+        <v>9.1045890316647385e-05</v>
       </c>
       <c r="DK3">
-        <v>-7.7801681077747906e-05</v>
+        <v>8.3623643220793152e-05</v>
       </c>
       <c r="DL3">
-        <v>-3.7494655227978432e-05</v>
+        <v>3.0419722431898854e-05</v>
       </c>
       <c r="DM3">
-        <v>-9.4581292110951931e-05</v>
+        <v>-9.3081433670276998e-06</v>
       </c>
       <c r="DN3">
-        <v>0.00012797097314054144</v>
+        <v>-1.7880148560330736e-05</v>
       </c>
       <c r="DO3">
-        <v>1.1200811040404286e-05</v>
+        <v>0.00016605403333233123</v>
       </c>
       <c r="DP3">
-        <v>-7.5175381639877779e-05</v>
+        <v>6.5988523988745317e-05</v>
       </c>
       <c r="DQ3">
-        <v>-0.00014183947135075993</v>
+        <v>-5.9509905801018219e-05</v>
       </c>
       <c r="DR3">
-        <v>1.5729183451353272e-08</v>
+        <v>0.00016166041592358748</v>
       </c>
       <c r="DS3">
-        <v>5.4601077461322324e-05</v>
+        <v>4.5495358866141668e-05</v>
       </c>
       <c r="DT3">
-        <v>0.00010980398873437608</v>
+        <v>2.3726236910899125e-05</v>
       </c>
       <c r="DU3">
-        <v>-5.6219343967357247e-05</v>
+        <v>6.8559387038805795e-05</v>
       </c>
       <c r="DV3">
-        <v>-3.2673699558098518e-06</v>
+        <v>0.00013355850360546314</v>
       </c>
       <c r="DW3">
-        <v>-2.0454140046893012e-05</v>
+        <v>6.0994050159256156e-05</v>
       </c>
       <c r="DX3">
-        <v>-9.078265966803527e-05</v>
+        <v>2.216149964171922e-05</v>
       </c>
       <c r="DY3">
-        <v>-0.00013883147411026094</v>
+        <v>9.5675380372881516e-05</v>
       </c>
       <c r="DZ3">
-        <v>-2.7005172668055986e-06</v>
+        <v>0.00015170178253458221</v>
       </c>
       <c r="EA3">
-        <v>-2.379873827599276e-05</v>
+        <v>0.000144739115500259</v>
       </c>
       <c r="EB3">
-        <v>-6.2023337309803311e-05</v>
+        <v>0.00016956001443171786</v>
       </c>
       <c r="EC3">
-        <v>-0.00014631370341177384</v>
+        <v>1.7298615598421071e-05</v>
       </c>
       <c r="ED3">
-        <v>5.2862791449567053e-06</v>
+        <v>3.4320781236402301e-05</v>
       </c>
       <c r="EE3">
-        <v>-4.4840172035045534e-06</v>
+        <v>-4.2170839875203955e-05</v>
       </c>
       <c r="EF3">
-        <v>-0.00013564189796246454</v>
+        <v>-1.1959774714915593e-05</v>
       </c>
       <c r="EG3">
-        <v>-0.00011080706220268584</v>
+        <v>7.3491891319464028e-05</v>
       </c>
       <c r="EH3">
-        <v>1.5791583712361082e-05</v>
+        <v>-6.934649174206899e-05</v>
       </c>
       <c r="EI3">
-        <v>-6.0006018565842116e-05</v>
+        <v>5.2553204565047752e-05</v>
       </c>
       <c r="EJ3">
-        <v>0.00010609936783531757</v>
+        <v>4.7272578489658558e-05</v>
       </c>
       <c r="EK3">
-        <v>-4.2904423602872995e-05</v>
+        <v>0.00015181424885590383</v>
       </c>
       <c r="EL3">
-        <v>-7.4872598673881191e-05</v>
+        <v>-3.5636066695091405e-06</v>
       </c>
       <c r="EM3">
-        <v>-0.00012487514423984168</v>
+        <v>-2.3675278191171277e-05</v>
       </c>
       <c r="EN3">
-        <v>-5.7364126706031167e-05</v>
+        <v>-0.00012363083292928797</v>
       </c>
       <c r="EO3">
-        <v>-4.0458292112521073e-05</v>
+        <v>4.3061523972287989e-05</v>
       </c>
       <c r="EP3">
-        <v>-0.00010523122336909934</v>
+        <v>9.771370688943878e-05</v>
       </c>
       <c r="EQ3">
-        <v>-0.00010657740750689027</v>
+        <v>7.0678235966644177e-05</v>
       </c>
       <c r="ER3">
-        <v>-6.6764167807407333e-05</v>
+        <v>3.7000765806620339e-06</v>
       </c>
       <c r="ES3">
-        <v>-0.00025519850831014115</v>
+        <v>-7.3204290343959052e-05</v>
       </c>
       <c r="ET3">
-        <v>-0.00027242358438940031</v>
+        <v>-3.5186788965342613e-05</v>
       </c>
       <c r="EU3">
-        <v>1.4952967409028362e-05</v>
+        <v>-0.00015136937053070044</v>
       </c>
       <c r="EV3">
-        <v>-0.00016069977034488918</v>
+        <v>-0.00017041020327812916</v>
       </c>
       <c r="EW3">
-        <v>-0.00014463639327230824</v>
+        <v>7.4244518659373536e-05</v>
       </c>
       <c r="EX3">
-        <v>-0.00015783498042411609</v>
+        <v>-0.00017150716554954952</v>
       </c>
       <c r="EY3">
-        <v>-4.9530964656423509e-05</v>
+        <v>-6.3121544262349881e-06</v>
       </c>
       <c r="EZ3">
-        <v>-0.00015108614940474729</v>
+        <v>1.2370702690171408e-05</v>
       </c>
       <c r="FA3">
-        <v>-1.9661244372805903e-05</v>
+        <v>-0.00011040461269341889</v>
       </c>
       <c r="FB3">
-        <v>-0.00017422064444724028</v>
+        <v>-5.3264550305440448e-05</v>
       </c>
       <c r="FC3">
-        <v>-4.3913769258771847e-05</v>
+        <v>-8.1905725149466362e-05</v>
       </c>
       <c r="FD3">
-        <v>-0.00011536827612264379</v>
+        <v>3.2379882150389421e-05</v>
       </c>
       <c r="FE3">
-        <v>-0.00025013956971430733</v>
+        <v>2.1799180865381601e-06</v>
       </c>
       <c r="FF3">
-        <v>-0.00015319800926367729</v>
+        <v>5.7651890119580344e-06</v>
       </c>
       <c r="FG3">
-        <v>-0.00017136553232290888</v>
+        <v>-9.3789642570665262e-05</v>
       </c>
       <c r="FH3">
-        <v>-0.00016495139945890916</v>
+        <v>-1.2490131183107717e-05</v>
       </c>
       <c r="FI3">
-        <v>-0.00011819618430367159</v>
+        <v>-9.9668394725946545e-05</v>
       </c>
       <c r="FJ3">
-        <v>-0.00020398201090038255</v>
+        <v>-7.2004642639794661e-05</v>
       </c>
       <c r="FK3">
-        <v>-0.00020181589242742747</v>
+        <v>-5.1833080558650791e-05</v>
       </c>
       <c r="FL3">
-        <v>-0.00022106515935433666</v>
+        <v>-0.00011721672642097022</v>
       </c>
       <c r="FM3">
-        <v>-0.00017621573880269658</v>
+        <v>-0.00026562097813514492</v>
       </c>
       <c r="FN3">
-        <v>-0.00020533439035729149</v>
+        <v>-0.0002312235695657304</v>
       </c>
       <c r="FO3">
-        <v>-0.00016405986302380575</v>
+        <v>-9.3966999781281812e-05</v>
       </c>
       <c r="FP3">
-        <v>-0.00015394758200180006</v>
+        <v>-8.7751208909047105e-05</v>
       </c>
       <c r="FQ3">
-        <v>-0.00011800349550639238</v>
+        <v>-0.00014710842973617212</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0041605904339258393</v>
+        <v>0.0040999918087459434</v>
       </c>
     </row>
     <row r="4">
@@ -3245,526 +3251,526 @@
         <v>176</v>
       </c>
       <c r="B4">
-        <v>4.8656730213782544e-05</v>
+        <v>4.0029440272394001e-05</v>
       </c>
       <c r="C4">
-        <v>2.1219669986317583e-05</v>
+        <v>3.7697401602185381e-05</v>
       </c>
       <c r="D4">
-        <v>3.1063538002975046e-05</v>
+        <v>3.6226190621959327e-05</v>
       </c>
       <c r="E4">
-        <v>3.6738611128867306e-05</v>
+        <v>3.6846334786780993e-05</v>
       </c>
       <c r="F4">
-        <v>3.3620238636873113e-05</v>
+        <v>3.37659293676787e-05</v>
       </c>
       <c r="G4">
-        <v>2.8125963631389306e-05</v>
+        <v>3.1973703029779473e-05</v>
       </c>
       <c r="H4">
-        <v>2.2796257095175498e-05</v>
+        <v>2.6382685301187396e-05</v>
       </c>
       <c r="I4">
-        <v>2.2664803619417015e-05</v>
+        <v>2.1541372344112759e-05</v>
       </c>
       <c r="J4">
-        <v>2.3921410341959173e-05</v>
+        <v>1.5232050460587498e-05</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.1897231444115251e-05</v>
+        <v>2.4083986445032246e-05</v>
       </c>
       <c r="M4">
-        <v>5.1897231444115251e-05</v>
+        <v>2.4083986445032249e-05</v>
       </c>
       <c r="N4">
-        <v>5.1897231444115251e-05</v>
+        <v>2.4083986445032249e-05</v>
       </c>
       <c r="O4">
-        <v>5.1897231444115258e-05</v>
+        <v>2.4083986445032249e-05</v>
       </c>
       <c r="P4">
-        <v>5.1897231444115251e-05</v>
+        <v>2.4083986445032249e-05</v>
       </c>
       <c r="Q4">
-        <v>5.1897231444115271e-05</v>
+        <v>2.4083986445032249e-05</v>
       </c>
       <c r="R4">
-        <v>5.1897231444115271e-05</v>
+        <v>2.4083986445032259e-05</v>
       </c>
       <c r="S4">
-        <v>5.1897231444115278e-05</v>
+        <v>2.4083986445032252e-05</v>
       </c>
       <c r="T4">
-        <v>5.1897231444115278e-05</v>
+        <v>2.4083986445032259e-05</v>
       </c>
       <c r="U4">
-        <v>5.1897231444115264e-05</v>
+        <v>2.4083986445032256e-05</v>
       </c>
       <c r="V4">
-        <v>5.1897231444115292e-05</v>
+        <v>2.4083986445032263e-05</v>
       </c>
       <c r="W4">
-        <v>5.1897231444115271e-05</v>
+        <v>2.4083986445032256e-05</v>
       </c>
       <c r="X4">
-        <v>5.1897231444115285e-05</v>
+        <v>2.4083986445032256e-05</v>
       </c>
       <c r="Y4">
-        <v>5.1897231444115278e-05</v>
+        <v>2.4083986445032256e-05</v>
       </c>
       <c r="Z4">
-        <v>5.1897231444115285e-05</v>
+        <v>2.4083986445032256e-05</v>
       </c>
       <c r="AA4">
-        <v>5.1897231444115285e-05</v>
+        <v>2.4083986445032259e-05</v>
       </c>
       <c r="AB4">
-        <v>5.1897231444115292e-05</v>
+        <v>2.4083986445032259e-05</v>
       </c>
       <c r="AC4">
-        <v>5.1897231444115292e-05</v>
+        <v>2.4083986445032266e-05</v>
       </c>
       <c r="AD4">
-        <v>5.1897231444115292e-05</v>
+        <v>2.4083986445032259e-05</v>
       </c>
       <c r="AE4">
-        <v>5.1897231444115298e-05</v>
+        <v>2.4083986445032266e-05</v>
       </c>
       <c r="AF4">
-        <v>5.1897231444115298e-05</v>
+        <v>2.4083986445032266e-05</v>
       </c>
       <c r="AG4">
-        <v>5.1897231444115298e-05</v>
+        <v>2.4083986445032273e-05</v>
       </c>
       <c r="AH4">
-        <v>5.1897231444115285e-05</v>
+        <v>2.4083986445032273e-05</v>
       </c>
       <c r="AI4">
-        <v>5.1897231444115292e-05</v>
+        <v>2.4083986445032273e-05</v>
       </c>
       <c r="AJ4">
-        <v>5.1897231444115298e-05</v>
+        <v>2.4083986445032273e-05</v>
       </c>
       <c r="AK4">
-        <v>5.1897231444115305e-05</v>
+        <v>2.4083986445032276e-05</v>
       </c>
       <c r="AL4">
-        <v>5.1897231444115305e-05</v>
+        <v>2.4083986445032273e-05</v>
       </c>
       <c r="AM4">
-        <v>5.1897231444115312e-05</v>
+        <v>2.408398644503228e-05</v>
       </c>
       <c r="AN4">
-        <v>5.1897231444115305e-05</v>
+        <v>2.4083986445032273e-05</v>
       </c>
       <c r="AO4">
-        <v>5.1897231444115312e-05</v>
+        <v>2.408398644503228e-05</v>
       </c>
       <c r="AP4">
-        <v>5.1897231444115312e-05</v>
+        <v>2.4083986445032273e-05</v>
       </c>
       <c r="AQ4">
-        <v>5.1897231444115319e-05</v>
+        <v>2.408398644503228e-05</v>
       </c>
       <c r="AR4">
-        <v>5.1897231444115319e-05</v>
+        <v>2.4083986445032276e-05</v>
       </c>
       <c r="AS4">
-        <v>5.1897231444115319e-05</v>
+        <v>2.408398644503228e-05</v>
       </c>
       <c r="AT4">
-        <v>5.1897231444115312e-05</v>
+        <v>2.4083986445032276e-05</v>
       </c>
       <c r="AU4">
-        <v>5.1897231444115312e-05</v>
+        <v>2.408398644503228e-05</v>
       </c>
       <c r="AV4">
-        <v>5.1897231444115312e-05</v>
+        <v>2.408398644503228e-05</v>
       </c>
       <c r="AW4">
-        <v>5.1897231444115312e-05</v>
+        <v>2.408398644503228e-05</v>
       </c>
       <c r="AX4">
-        <v>5.1897231444115312e-05</v>
+        <v>2.408398644503228e-05</v>
       </c>
       <c r="AY4">
-        <v>5.1897231444115312e-05</v>
+        <v>2.4083986445032283e-05</v>
       </c>
       <c r="AZ4">
-        <v>5.1897231444115312e-05</v>
+        <v>2.4083986445032283e-05</v>
       </c>
       <c r="BA4">
-        <v>5.1897231444115312e-05</v>
+        <v>2.4083986445032283e-05</v>
       </c>
       <c r="BB4">
-        <v>5.1897231444115312e-05</v>
+        <v>2.4083986445032286e-05</v>
       </c>
       <c r="BC4">
-        <v>5.1897231444115319e-05</v>
+        <v>2.4083986445032286e-05</v>
       </c>
       <c r="BD4">
-        <v>5.1897231444115312e-05</v>
+        <v>2.4083986445032286e-05</v>
       </c>
       <c r="BE4">
-        <v>5.1897231444115319e-05</v>
+        <v>2.4083986445032286e-05</v>
       </c>
       <c r="BF4">
-        <v>5.1897231444115312e-05</v>
+        <v>2.4083986445032293e-05</v>
       </c>
       <c r="BG4">
-        <v>5.1897231444115319e-05</v>
+        <v>2.408398644503229e-05</v>
       </c>
       <c r="BH4">
-        <v>5.1897231444115312e-05</v>
+        <v>2.408398644503229e-05</v>
       </c>
       <c r="BI4">
-        <v>5.1897231444115319e-05</v>
+        <v>2.4083986445032293e-05</v>
       </c>
       <c r="BJ4">
-        <v>5.1897231444115319e-05</v>
+        <v>2.408398644503229e-05</v>
       </c>
       <c r="BK4">
-        <v>5.1897231444115319e-05</v>
+        <v>2.4083986445032286e-05</v>
       </c>
       <c r="BL4">
-        <v>5.1897231444115319e-05</v>
+        <v>2.4083986445032293e-05</v>
       </c>
       <c r="BM4">
-        <v>5.1897231444115325e-05</v>
+        <v>2.408398644503229e-05</v>
       </c>
       <c r="BN4">
-        <v>5.1897231444115325e-05</v>
+        <v>2.4083986445032297e-05</v>
       </c>
       <c r="BO4">
-        <v>5.1897231444115339e-05</v>
+        <v>2.40839864450323e-05</v>
       </c>
       <c r="BP4">
-        <v>5.1897231444115339e-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>5.1867847888684627e-05</v>
+        <v>2.5721708798563926e-05</v>
       </c>
       <c r="BR4">
-        <v>5.186784788868462e-05</v>
+        <v>2.572170879856393e-05</v>
       </c>
       <c r="BS4">
-        <v>5.1867847888684634e-05</v>
+        <v>2.572170879856393e-05</v>
       </c>
       <c r="BT4">
-        <v>4.7061493050189119e-05</v>
+        <v>2.6288046307680339e-05</v>
       </c>
       <c r="BU4">
-        <v>4.7061493050189119e-05</v>
+        <v>2.6288046307680343e-05</v>
       </c>
       <c r="BV4">
-        <v>5.4571952628396729e-05</v>
+        <v>3.1860119356298367e-05</v>
       </c>
       <c r="BW4">
-        <v>5.3519247194906207e-05</v>
+        <v>3.1031506249621815e-05</v>
       </c>
       <c r="BX4">
-        <v>5.3519247194906207e-05</v>
+        <v>3.1031506249621815e-05</v>
       </c>
       <c r="BY4">
-        <v>5.2720936698411676e-05</v>
+        <v>3.1610232209097217e-05</v>
       </c>
       <c r="BZ4">
-        <v>5.2720936698411683e-05</v>
+        <v>3.1610232209097203e-05</v>
       </c>
       <c r="CA4">
-        <v>5.2720936698411683e-05</v>
+        <v>3.4059900266566638e-05</v>
       </c>
       <c r="CB4">
-        <v>5.2073477348806723e-05</v>
+        <v>3.4093145662729979e-05</v>
       </c>
       <c r="CC4">
-        <v>5.2073477348806744e-05</v>
+        <v>3.4093145662729979e-05</v>
       </c>
       <c r="CD4">
-        <v>5.2073477348806737e-05</v>
+        <v>3.4192687905694471e-05</v>
       </c>
       <c r="CE4">
-        <v>5.2073477348806737e-05</v>
+        <v>3.4192687905694471e-05</v>
       </c>
       <c r="CF4">
-        <v>5.2073477348806744e-05</v>
+        <v>3.4192687905694471e-05</v>
       </c>
       <c r="CG4">
-        <v>5.1932469765231242e-05</v>
+        <v>3.6920052102443412e-05</v>
       </c>
       <c r="CH4">
-        <v>5.1932469765231228e-05</v>
+        <v>3.6920052102443405e-05</v>
       </c>
       <c r="CI4">
-        <v>5.1932469765231235e-05</v>
+        <v>3.6920052102443412e-05</v>
       </c>
       <c r="CJ4">
-        <v>5.1932469765231242e-05</v>
+        <v>3.6920052102443412e-05</v>
       </c>
       <c r="CK4">
-        <v>5.2614900083462605e-05</v>
+        <v>3.6920052102443418e-05</v>
       </c>
       <c r="CL4">
-        <v>4.9657509042547693e-05</v>
+        <v>3.9938773247065203e-05</v>
       </c>
       <c r="CM4">
-        <v>4.96575090425477e-05</v>
+        <v>3.993877324706521e-05</v>
       </c>
       <c r="CN4">
-        <v>4.5116556770607103e-05</v>
+        <v>3.993877324706521e-05</v>
       </c>
       <c r="CO4">
-        <v>0</v>
+        <v>3.9938773247065217e-05</v>
       </c>
       <c r="CP4">
-        <v>5.2903852226454112e-05</v>
+        <v>3.9938773247065217e-05</v>
       </c>
       <c r="CQ4">
-        <v>5.3537474463820398e-05</v>
+        <v>4.2744835591143461e-05</v>
       </c>
       <c r="CR4">
-        <v>5.3537474463820398e-05</v>
+        <v>4.2744835591143454e-05</v>
       </c>
       <c r="CS4">
-        <v>5.2739439872003497e-05</v>
+        <v>4.2744835591143454e-05</v>
       </c>
       <c r="CT4">
-        <v>5.2739439872003504e-05</v>
+        <v>4.2744835591143454e-05</v>
       </c>
       <c r="CU4">
-        <v>5.2739439872003497e-05</v>
+        <v>4.2744835591143461e-05</v>
       </c>
       <c r="CV4">
-        <v>5.2092210500721043e-05</v>
+        <v>4.4734019388369954e-05</v>
       </c>
       <c r="CW4">
-        <v>5.2092210500721036e-05</v>
+        <v>4.4734019388369954e-05</v>
       </c>
       <c r="CX4">
-        <v>5.209221050072105e-05</v>
+        <v>4.4734019388369954e-05</v>
       </c>
       <c r="CY4">
-        <v>5.2092210500721029e-05</v>
+        <v>4.4734019388369954e-05</v>
       </c>
       <c r="CZ4">
-        <v>5.209221050072105e-05</v>
+        <v>4.4734019388369954e-05</v>
       </c>
       <c r="DA4">
-        <v>5.201811663104847e-05</v>
+        <v>4.4734019388369961e-05</v>
       </c>
       <c r="DB4">
-        <v>5.2018116631048456e-05</v>
+        <v>4.4734019388369961e-05</v>
       </c>
       <c r="DC4">
-        <v>5.2018116631048476e-05</v>
+        <v>4.4734019388369988e-05</v>
       </c>
       <c r="DD4">
-        <v>5.2018116631048463e-05</v>
+        <v>4.4734019388369961e-05</v>
       </c>
       <c r="DE4">
-        <v>5.201811663104847e-05</v>
+        <v>4.4734019388369981e-05</v>
       </c>
       <c r="DF4">
-        <v>4.8712781502950953e-05</v>
+        <v>4.4734019388369988e-05</v>
       </c>
       <c r="DG4">
-        <v>4.8712781502950953e-05</v>
+        <v>4.4734019388369988e-05</v>
       </c>
       <c r="DH4">
-        <v>4.8712781502950953e-05</v>
+        <v>4.4734019388369988e-05</v>
       </c>
       <c r="DI4">
-        <v>4.8712781502950966e-05</v>
+        <v>4.4734019388369988e-05</v>
       </c>
       <c r="DJ4">
-        <v>4.8712781502950966e-05</v>
+        <v>4.4734019388369988e-05</v>
       </c>
       <c r="DK4">
-        <v>5.1934818136521544e-05</v>
+        <v>4.4734019388369981e-05</v>
       </c>
       <c r="DL4">
-        <v>5.1934818136521544e-05</v>
+        <v>4.4734019388369981e-05</v>
       </c>
       <c r="DM4">
-        <v>5.1934818136521544e-05</v>
+        <v>4.4734019388370001e-05</v>
       </c>
       <c r="DN4">
-        <v>5.193481813652153e-05</v>
+        <v>4.4734019388369988e-05</v>
       </c>
       <c r="DO4">
-        <v>5.1934818136521544e-05</v>
+        <v>4.4734019388370008e-05</v>
       </c>
       <c r="DP4">
-        <v>5.1934818136521544e-05</v>
+        <v>4.4734019388370001e-05</v>
       </c>
       <c r="DQ4">
-        <v>5.193481813652155e-05</v>
+        <v>4.4734019388370015e-05</v>
       </c>
       <c r="DR4">
-        <v>5.1934818136521544e-05</v>
+        <v>4.4734019388370001e-05</v>
       </c>
       <c r="DS4">
-        <v>5.1934818136521584e-05</v>
+        <v>4.4734019388370008e-05</v>
       </c>
       <c r="DT4">
-        <v>5.1934818136521557e-05</v>
+        <v>4.4734019388370001e-05</v>
       </c>
       <c r="DU4">
-        <v>5.1934818136521584e-05</v>
+        <v>4.4734019388370015e-05</v>
       </c>
       <c r="DV4">
-        <v>5.1934818136521584e-05</v>
+        <v>4.4734019388370015e-05</v>
       </c>
       <c r="DW4">
-        <v>5.1934818136521584e-05</v>
+        <v>4.4734019388370028e-05</v>
       </c>
       <c r="DX4">
-        <v>5.1934818136521571e-05</v>
+        <v>4.4734019388370015e-05</v>
       </c>
       <c r="DY4">
-        <v>5.1934818136521591e-05</v>
+        <v>4.4734019388370028e-05</v>
       </c>
       <c r="DZ4">
-        <v>5.1934818136521591e-05</v>
+        <v>4.4734019388370015e-05</v>
       </c>
       <c r="EA4">
-        <v>5.1934818136521605e-05</v>
+        <v>4.4734019388370028e-05</v>
       </c>
       <c r="EB4">
-        <v>5.1934818136521605e-05</v>
+        <v>4.4734019388370035e-05</v>
       </c>
       <c r="EC4">
-        <v>5.1934818136521605e-05</v>
+        <v>4.4734019388370035e-05</v>
       </c>
       <c r="ED4">
-        <v>5.1934818136521605e-05</v>
+        <v>4.4734019388370022e-05</v>
       </c>
       <c r="EE4">
-        <v>5.1934818136521605e-05</v>
+        <v>4.4734019388370022e-05</v>
       </c>
       <c r="EF4">
-        <v>5.1934818136521618e-05</v>
+        <v>4.4734019388370035e-05</v>
       </c>
       <c r="EG4">
-        <v>5.1934818136521605e-05</v>
+        <v>4.4734019388370035e-05</v>
       </c>
       <c r="EH4">
-        <v>5.1934818136521625e-05</v>
+        <v>4.4734019388370035e-05</v>
       </c>
       <c r="EI4">
-        <v>5.1934818136521611e-05</v>
+        <v>4.4734019388370035e-05</v>
       </c>
       <c r="EJ4">
-        <v>5.1934818136521625e-05</v>
+        <v>4.4734019388370035e-05</v>
       </c>
       <c r="EK4">
-        <v>5.1934818136521618e-05</v>
+        <v>4.4734019388370035e-05</v>
       </c>
       <c r="EL4">
-        <v>5.1934818136521632e-05</v>
+        <v>4.4734019388370035e-05</v>
       </c>
       <c r="EM4">
-        <v>5.1934818136521618e-05</v>
+        <v>4.4734019388370035e-05</v>
       </c>
       <c r="EN4">
-        <v>5.1934818136521639e-05</v>
+        <v>4.4734019388370049e-05</v>
       </c>
       <c r="EO4">
-        <v>5.1934818136521611e-05</v>
+        <v>4.4734019388370035e-05</v>
       </c>
       <c r="EP4">
-        <v>5.1934818136521632e-05</v>
+        <v>4.4734019388370035e-05</v>
       </c>
       <c r="EQ4">
-        <v>5.1934818136521639e-05</v>
+        <v>4.4734019388370049e-05</v>
       </c>
       <c r="ER4">
-        <v>5.1934818136521645e-05</v>
+        <v>4.4734019388370049e-05</v>
       </c>
       <c r="ES4">
-        <v>5.1934818136521639e-05</v>
+        <v>4.4734019388370049e-05</v>
       </c>
       <c r="ET4">
-        <v>5.1934818136521639e-05</v>
+        <v>4.4734019388370062e-05</v>
       </c>
       <c r="EU4">
-        <v>5.1934818136521639e-05</v>
+        <v>4.4734019388370062e-05</v>
       </c>
       <c r="EV4">
-        <v>5.1934818136521632e-05</v>
+        <v>4.4734019388370049e-05</v>
       </c>
       <c r="EW4">
-        <v>5.1934818136521618e-05</v>
+        <v>4.4734019388370062e-05</v>
       </c>
       <c r="EX4">
-        <v>5.1934818136521639e-05</v>
+        <v>4.4734019388370049e-05</v>
       </c>
       <c r="EY4">
-        <v>5.1934818136521652e-05</v>
+        <v>4.4734019388370062e-05</v>
       </c>
       <c r="EZ4">
-        <v>5.1934818136521652e-05</v>
+        <v>4.4734019388370062e-05</v>
       </c>
       <c r="FA4">
-        <v>5.1934818136521652e-05</v>
+        <v>4.4734019388370069e-05</v>
       </c>
       <c r="FB4">
-        <v>5.1934818136521652e-05</v>
+        <v>4.4734019388370062e-05</v>
       </c>
       <c r="FC4">
-        <v>5.1934818136521652e-05</v>
+        <v>4.4734019388370069e-05</v>
       </c>
       <c r="FD4">
-        <v>5.1934818136521652e-05</v>
+        <v>4.4734019388370076e-05</v>
       </c>
       <c r="FE4">
-        <v>5.1934818136521659e-05</v>
+        <v>4.4734019388370069e-05</v>
       </c>
       <c r="FF4">
-        <v>5.1934818136521652e-05</v>
+        <v>4.4734019388370076e-05</v>
       </c>
       <c r="FG4">
-        <v>5.1934818136521659e-05</v>
+        <v>4.4734019388370076e-05</v>
       </c>
       <c r="FH4">
-        <v>5.1934818136521659e-05</v>
+        <v>4.4734019388370076e-05</v>
       </c>
       <c r="FI4">
-        <v>5.1934818136521666e-05</v>
+        <v>4.4734019388370076e-05</v>
       </c>
       <c r="FJ4">
-        <v>5.1934818136521666e-05</v>
+        <v>4.4734019388370076e-05</v>
       </c>
       <c r="FK4">
-        <v>5.1934818136521679e-05</v>
+        <v>4.4734019388370076e-05</v>
       </c>
       <c r="FL4">
-        <v>5.1934818136521679e-05</v>
+        <v>4.4734019388370076e-05</v>
       </c>
       <c r="FM4">
-        <v>5.1934818136521679e-05</v>
+        <v>4.4734019388370082e-05</v>
       </c>
       <c r="FN4">
-        <v>5.1934818136521679e-05</v>
+        <v>4.4734019388370076e-05</v>
       </c>
       <c r="FO4">
-        <v>5.1934818136521679e-05</v>
+        <v>4.4734019388370076e-05</v>
       </c>
       <c r="FP4">
-        <v>5.1934818136521679e-05</v>
+        <v>4.4734019388370082e-05</v>
       </c>
       <c r="FQ4">
-        <v>5.1934818136521686e-05</v>
+        <v>4.4734019388370076e-05</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>4.0981379765148784e-05</v>
+        <v>4.1365605146022784e-05</v>
       </c>
     </row>
   </sheetData>
@@ -3979,7 +3985,7 @@
         <v>66</v>
       </c>
       <c r="BP2" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="BQ2" t="s">
         <v>68</v>
@@ -4054,7 +4060,7 @@
         <v>91</v>
       </c>
       <c r="CO2" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="CP2" t="s">
         <v>93</v>
@@ -4308,526 +4314,526 @@
         <v>175</v>
       </c>
       <c r="B3">
-        <v>0.10052389663273584</v>
+        <v>0.090948013795729796</v>
       </c>
       <c r="C3">
-        <v>-0.0023629411928344892</v>
+        <v>-0.0025189904255523443</v>
       </c>
       <c r="D3">
-        <v>-0.0033241758342423531</v>
+        <v>-0.0020400876755362926</v>
       </c>
       <c r="E3">
-        <v>-0.0036166583669064371</v>
+        <v>-0.0031845020628933924</v>
       </c>
       <c r="F3">
-        <v>0.00047921342472266918</v>
+        <v>0.00065481992487413957</v>
       </c>
       <c r="G3">
-        <v>0.00048799617155874885</v>
+        <v>-0.00043654661658201299</v>
       </c>
       <c r="H3">
-        <v>0.00048579616718944342</v>
+        <v>4.4495933149735982e-16</v>
       </c>
       <c r="I3">
-        <v>0.0004416628159203893</v>
+        <v>3.6582867381859196e-16</v>
       </c>
       <c r="J3">
-        <v>-0.0014119420559345858</v>
+        <v>2.1720471896784865e-16</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.00013840612180921708</v>
+        <v>0.0018757278869708355</v>
       </c>
       <c r="M3">
-        <v>0.00038200194697694497</v>
+        <v>0.0021373502367126366</v>
       </c>
       <c r="N3">
-        <v>-0.0019761310248399191</v>
+        <v>-0.00014002043636359069</v>
       </c>
       <c r="O3">
-        <v>-0.001919555224355202</v>
+        <v>-0.00013208150165442572</v>
       </c>
       <c r="P3">
-        <v>-0.0019289874655185068</v>
+        <v>-0.00011882465615943381</v>
       </c>
       <c r="Q3">
-        <v>-0.0019107657582671629</v>
+        <v>-0.00010684277835690788</v>
       </c>
       <c r="R3">
-        <v>-0.0018678271464439102</v>
+        <v>-0.00012028403881625481</v>
       </c>
       <c r="S3">
-        <v>-0.0018752060756726196</v>
+        <v>-0.00012038116678282754</v>
       </c>
       <c r="T3">
-        <v>-0.0019076261350357744</v>
+        <v>-7.0165534479174667e-05</v>
       </c>
       <c r="U3">
-        <v>-0.0019068896184011193</v>
+        <v>-0.00011032086019834715</v>
       </c>
       <c r="V3">
-        <v>-0.0018813400527752807</v>
+        <v>-6.3360244360996583e-05</v>
       </c>
       <c r="W3">
-        <v>-0.001877627441617061</v>
+        <v>-6.1621704090263034e-05</v>
       </c>
       <c r="X3">
-        <v>-0.0018533046098508853</v>
+        <v>-3.5561621601627275e-05</v>
       </c>
       <c r="Y3">
-        <v>-0.0018629335682048894</v>
+        <v>-3.6631268105694833e-05</v>
       </c>
       <c r="Z3">
-        <v>-0.0018305715261049786</v>
+        <v>-3.2698236076852102e-05</v>
       </c>
       <c r="AA3">
-        <v>-0.0018280405208757602</v>
+        <v>-7.5310306634645771e-05</v>
       </c>
       <c r="AB3">
-        <v>-0.0018465619038752507</v>
+        <v>-6.369014768087436e-05</v>
       </c>
       <c r="AC3">
-        <v>-0.0018815035760411433</v>
+        <v>-1.9188311671990628e-05</v>
       </c>
       <c r="AD3">
-        <v>-0.0018629050023116634</v>
+        <v>-5.5606278794906468e-05</v>
       </c>
       <c r="AE3">
-        <v>-0.0018582311683015514</v>
+        <v>-3.703359842299592e-05</v>
       </c>
       <c r="AF3">
-        <v>-0.0018520088969398267</v>
+        <v>2.402422585865399e-05</v>
       </c>
       <c r="AG3">
-        <v>-0.0018565793283984839</v>
+        <v>-3.0472316529279474e-05</v>
       </c>
       <c r="AH3">
-        <v>-0.0018584438267302906</v>
+        <v>-4.6667398425014978e-06</v>
       </c>
       <c r="AI3">
-        <v>-0.0018448803547008365</v>
+        <v>-1.1925880961906072e-05</v>
       </c>
       <c r="AJ3">
-        <v>-0.0018365288342384214</v>
+        <v>3.5007261582339526e-06</v>
       </c>
       <c r="AK3">
-        <v>-0.001808188107105262</v>
+        <v>6.4231461353750058e-06</v>
       </c>
       <c r="AL3">
-        <v>-0.0018287533253314074</v>
+        <v>-5.1922643674837384e-05</v>
       </c>
       <c r="AM3">
-        <v>-0.0018226506233442632</v>
+        <v>1.0381733236443495e-05</v>
       </c>
       <c r="AN3">
-        <v>-0.0018003558182493303</v>
+        <v>-3.0905918052066061e-06</v>
       </c>
       <c r="AO3">
-        <v>-0.0018086088967103702</v>
+        <v>-1.4838894712618605e-05</v>
       </c>
       <c r="AP3">
-        <v>-0.0018218791667404201</v>
+        <v>-2.3055815355336272e-05</v>
       </c>
       <c r="AQ3">
-        <v>-0.0018392362026867259</v>
+        <v>-3.7902351286727664e-05</v>
       </c>
       <c r="AR3">
-        <v>-0.0018434622409630949</v>
+        <v>1.5984585144979249e-05</v>
       </c>
       <c r="AS3">
-        <v>-0.0017922121209240794</v>
+        <v>-3.0138700614940398e-06</v>
       </c>
       <c r="AT3">
-        <v>-0.0017972556512574399</v>
+        <v>3.4425325179082801e-05</v>
       </c>
       <c r="AU3">
-        <v>-0.0017454786846269226</v>
+        <v>5.2685517394732917e-06</v>
       </c>
       <c r="AV3">
-        <v>-0.0017960518806159008</v>
+        <v>-2.9607636842429858e-05</v>
       </c>
       <c r="AW3">
-        <v>-0.0018007946369263765</v>
+        <v>3.0936774472017486e-05</v>
       </c>
       <c r="AX3">
-        <v>-0.0017350603129390016</v>
+        <v>2.0755392228389071e-05</v>
       </c>
       <c r="AY3">
-        <v>-0.0017964968154249262</v>
+        <v>3.1424782523360823e-05</v>
       </c>
       <c r="AZ3">
-        <v>-0.0018348242479257028</v>
+        <v>-4.5587235903097623e-05</v>
       </c>
       <c r="BA3">
-        <v>-0.0018256248158979131</v>
+        <v>1.0720700812724974e-05</v>
       </c>
       <c r="BB3">
-        <v>-0.001794294872619456</v>
+        <v>2.4545347749848174e-05</v>
       </c>
       <c r="BC3">
-        <v>-0.0018131082068865245</v>
+        <v>-4.7681783160938911e-05</v>
       </c>
       <c r="BD3">
-        <v>-0.0018161295895349156</v>
+        <v>8.9716816198051077e-06</v>
       </c>
       <c r="BE3">
-        <v>-0.0018056001351561574</v>
+        <v>-1.5332848258437052e-05</v>
       </c>
       <c r="BF3">
-        <v>-0.0018080205551522382</v>
+        <v>1.4511058544904786e-05</v>
       </c>
       <c r="BG3">
-        <v>-0.001857515381756899</v>
+        <v>2.3400978827675986e-05</v>
       </c>
       <c r="BH3">
-        <v>-0.0018118192399499686</v>
+        <v>-2.915552953911108e-06</v>
       </c>
       <c r="BI3">
-        <v>-0.001772726732705502</v>
+        <v>-2.1484093789121952e-05</v>
       </c>
       <c r="BJ3">
-        <v>-0.001769072930351592</v>
+        <v>-3.065689829883776e-05</v>
       </c>
       <c r="BK3">
-        <v>-0.0018177966387380074</v>
+        <v>-2.9196707645657929e-05</v>
       </c>
       <c r="BL3">
-        <v>-0.0017803445914671479</v>
+        <v>-2.705865400220707e-05</v>
       </c>
       <c r="BM3">
-        <v>-0.0018400198827431258</v>
+        <v>7.7097440220123183e-06</v>
       </c>
       <c r="BN3">
-        <v>-0.0017811355518032299</v>
+        <v>-5.8528317096583764e-08</v>
       </c>
       <c r="BO3">
-        <v>-0.0018031150882997916</v>
+        <v>-2.3858361253530681e-06</v>
       </c>
       <c r="BP3">
-        <v>-0.0017607634714963247</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>-0.0013239922600110411</v>
+        <v>-0.00023771658748543949</v>
       </c>
       <c r="BR3">
-        <v>-0.001341570977566695</v>
+        <v>-0.00024381372109340111</v>
       </c>
       <c r="BS3">
-        <v>-0.0013582852702538502</v>
+        <v>-0.00026064994764279356</v>
       </c>
       <c r="BT3">
-        <v>-0.0011507972213823504</v>
+        <v>0.00032968282722157681</v>
       </c>
       <c r="BU3">
-        <v>-0.001214608852934598</v>
+        <v>0.00033701840770444108</v>
       </c>
       <c r="BV3">
-        <v>-0.0080390684199052372</v>
+        <v>-0.0018092449262031793</v>
       </c>
       <c r="BW3">
-        <v>-0.0015476950582127638</v>
+        <v>-0.00018875524595204476</v>
       </c>
       <c r="BX3">
-        <v>-0.0015648818321104417</v>
+        <v>-0.0001820798339266779</v>
       </c>
       <c r="BY3">
-        <v>-0.0015562714592873286</v>
+        <v>0.00091153887663542098</v>
       </c>
       <c r="BZ3">
-        <v>-0.0014989166617498111</v>
+        <v>0.00098112614557171432</v>
       </c>
       <c r="CA3">
-        <v>-0.0015731610027001179</v>
+        <v>0.0024941245350767094</v>
       </c>
       <c r="CB3">
-        <v>-0.0015902546743066003</v>
+        <v>0.00040159272753996413</v>
       </c>
       <c r="CC3">
-        <v>-0.0015449951235069976</v>
+        <v>0.00050616546895627511</v>
       </c>
       <c r="CD3">
-        <v>-0.0015480757787449159</v>
+        <v>0.0011030692225372318</v>
       </c>
       <c r="CE3">
-        <v>-0.0016433598543458901</v>
+        <v>0.001138419504366806</v>
       </c>
       <c r="CF3">
-        <v>-0.0016014221382610809</v>
+        <v>0.0012291807528243511</v>
       </c>
       <c r="CG3">
-        <v>-0.0015653620409547717</v>
+        <v>0.00079874997171898139</v>
       </c>
       <c r="CH3">
-        <v>-0.0014874790470287228</v>
+        <v>0.00087523717750115013</v>
       </c>
       <c r="CI3">
-        <v>-0.0014789286298245352</v>
+        <v>0.00088294197625609706</v>
       </c>
       <c r="CJ3">
-        <v>-0.0015405102088508777</v>
+        <v>0.00090466265712528006</v>
       </c>
       <c r="CK3">
-        <v>-0.00092077069360688179</v>
+        <v>0.00097716801983525393</v>
       </c>
       <c r="CL3">
-        <v>-0.00015477597533356384</v>
+        <v>0.00088824592623909851</v>
       </c>
       <c r="CM3">
-        <v>-9.3809562719108258e-05</v>
+        <v>0.00075135375200739392</v>
       </c>
       <c r="CN3">
-        <v>5.1997639346278145e-06</v>
+        <v>0.00088161357977240397</v>
       </c>
       <c r="CO3">
-        <v>0</v>
+        <v>0.00073195753779237117</v>
       </c>
       <c r="CP3">
-        <v>0.006899734764891057</v>
+        <v>0.00087447574565443034</v>
       </c>
       <c r="CQ3">
-        <v>-0.0010009833099872308</v>
+        <v>0.00082710217156184657</v>
       </c>
       <c r="CR3">
-        <v>-0.0009977868344207691</v>
+        <v>0.00086151727515229538</v>
       </c>
       <c r="CS3">
-        <v>-0.0010585526297348794</v>
+        <v>0.00098344540715294883</v>
       </c>
       <c r="CT3">
-        <v>-0.0010500907543705797</v>
+        <v>0.0010718463497938165</v>
       </c>
       <c r="CU3">
-        <v>-0.0011148063378986735</v>
+        <v>0.0007759749385346567</v>
       </c>
       <c r="CV3">
-        <v>-0.00099992543702939665</v>
+        <v>0.00077936955543167485</v>
       </c>
       <c r="CW3">
-        <v>-0.00092317463997347994</v>
+        <v>0.00088909692024522619</v>
       </c>
       <c r="CX3">
-        <v>-0.0010916559365388551</v>
+        <v>0.00089183760731612494</v>
       </c>
       <c r="CY3">
-        <v>-0.0010241068478839999</v>
+        <v>0.0010137111293748652</v>
       </c>
       <c r="CZ3">
-        <v>-0.0010469854137177272</v>
+        <v>0.00083337005481537874</v>
       </c>
       <c r="DA3">
-        <v>-0.0010241355021812348</v>
+        <v>0.00099620171955742943</v>
       </c>
       <c r="DB3">
-        <v>-0.0010234145665979301</v>
+        <v>0.00089097072857815</v>
       </c>
       <c r="DC3">
-        <v>-0.0011362991827828682</v>
+        <v>0.00084189640075148329</v>
       </c>
       <c r="DD3">
-        <v>-0.00094663442280903693</v>
+        <v>0.00070693554175563277</v>
       </c>
       <c r="DE3">
-        <v>-0.00096683852149729091</v>
+        <v>0.00082535390298050929</v>
       </c>
       <c r="DF3">
-        <v>-0.0002123346076938133</v>
+        <v>0.00091755414574467415</v>
       </c>
       <c r="DG3">
-        <v>-0.00010670616502005227</v>
+        <v>0.00078749829074845946</v>
       </c>
       <c r="DH3">
-        <v>-6.9387430025300692e-05</v>
+        <v>0.00090011966514291048</v>
       </c>
       <c r="DI3">
-        <v>-0.00016049167077818085</v>
+        <v>0.00093331895743133803</v>
       </c>
       <c r="DJ3">
-        <v>-0.00011410069289274482</v>
+        <v>0.00089667700340595382</v>
       </c>
       <c r="DK3">
-        <v>-0.00087176184133916921</v>
+        <v>0.00088925475631009975</v>
       </c>
       <c r="DL3">
-        <v>-0.00083145481548940053</v>
+        <v>0.00083605083552120503</v>
       </c>
       <c r="DM3">
-        <v>-0.0008885414523723739</v>
+        <v>0.0007963229697222783</v>
       </c>
       <c r="DN3">
-        <v>-0.00066598918712087985</v>
+        <v>0.0007877509645289755</v>
       </c>
       <c r="DO3">
-        <v>-0.00078275934922101772</v>
+        <v>0.0009716851464216372</v>
       </c>
       <c r="DP3">
-        <v>-0.00086913554190129938</v>
+        <v>0.00087161963707805244</v>
       </c>
       <c r="DQ3">
-        <v>-0.00093579963161218146</v>
+        <v>0.00074612120728828851</v>
       </c>
       <c r="DR3">
-        <v>-0.00079394443107797018</v>
+        <v>0.00096729152901289393</v>
       </c>
       <c r="DS3">
-        <v>-0.00073935908280009944</v>
+        <v>0.00085112647195544815</v>
       </c>
       <c r="DT3">
-        <v>-0.0006841561715270455</v>
+        <v>0.00082935735000020609</v>
       </c>
       <c r="DU3">
-        <v>-0.00085017950422877923</v>
+        <v>0.00087419050012811303</v>
       </c>
       <c r="DV3">
-        <v>-0.0007972275302172313</v>
+        <v>0.00093918961669476979</v>
       </c>
       <c r="DW3">
-        <v>-0.00081441430030831539</v>
+        <v>0.0008666251632485632</v>
       </c>
       <c r="DX3">
-        <v>-0.00088474281992945711</v>
+        <v>0.00082779261273102655</v>
       </c>
       <c r="DY3">
-        <v>-0.00093279163437168288</v>
+        <v>0.00090130649346218858</v>
       </c>
       <c r="DZ3">
-        <v>-0.00079666067752822767</v>
+        <v>0.00095733289562388905</v>
       </c>
       <c r="EA3">
-        <v>-0.00081775889853741507</v>
+        <v>0.00095037022858956608</v>
       </c>
       <c r="EB3">
-        <v>-0.00085598349757122526</v>
+        <v>0.00097519112752102513</v>
       </c>
       <c r="EC3">
-        <v>-0.00094027386367319529</v>
+        <v>0.00082292972868772813</v>
       </c>
       <c r="ED3">
-        <v>-0.0007886738811164651</v>
+        <v>0.00083995189432570921</v>
       </c>
       <c r="EE3">
-        <v>-0.00079844417746492615</v>
+        <v>0.00076346027321410302</v>
       </c>
       <c r="EF3">
-        <v>-0.00092960205822388629</v>
+        <v>0.00079367133837439147</v>
       </c>
       <c r="EG3">
-        <v>-0.00090476722246410758</v>
+        <v>0.00087912300440877119</v>
       </c>
       <c r="EH3">
-        <v>-0.00077816857654906086</v>
+        <v>0.00073628462134723812</v>
       </c>
       <c r="EI3">
-        <v>-0.00085396617882726425</v>
+        <v>0.00085818431765435498</v>
       </c>
       <c r="EJ3">
-        <v>-0.00068786079242610346</v>
+        <v>0.00085290369157896577</v>
       </c>
       <c r="EK3">
-        <v>-0.00083686458386429566</v>
+        <v>0.00095744536194521145</v>
       </c>
       <c r="EL3">
-        <v>-0.00086883275893530354</v>
+        <v>0.00080206750641979797</v>
       </c>
       <c r="EM3">
-        <v>-0.00091883530450126427</v>
+        <v>0.00078195583489813628</v>
       </c>
       <c r="EN3">
-        <v>-0.00085132428696745401</v>
+        <v>0.00068200028016001963</v>
       </c>
       <c r="EO3">
-        <v>-0.00083441845237394372</v>
+        <v>0.00084869263706159527</v>
       </c>
       <c r="EP3">
-        <v>-0.00089919138363052202</v>
+        <v>0.00090334481997874651</v>
       </c>
       <c r="EQ3">
-        <v>-0.00090053756776831357</v>
+        <v>0.00087630934905595203</v>
       </c>
       <c r="ER3">
-        <v>-0.00086072432806883023</v>
+        <v>0.00080933118966996988</v>
       </c>
       <c r="ES3">
-        <v>-0.0010491586685715641</v>
+        <v>0.00073242682274534863</v>
       </c>
       <c r="ET3">
-        <v>-0.0010663837446508232</v>
+        <v>0.0007704443241239652</v>
       </c>
       <c r="EU3">
-        <v>-0.00077900719285239407</v>
+        <v>0.00065426174255860743</v>
       </c>
       <c r="EV3">
-        <v>-0.00095465993060631234</v>
+        <v>0.00063522090981117901</v>
       </c>
       <c r="EW3">
-        <v>-0.00093859655353373099</v>
+        <v>0.00087987563174868214</v>
       </c>
       <c r="EX3">
-        <v>-0.00095179514068553903</v>
+        <v>0.00063412394753975857</v>
       </c>
       <c r="EY3">
-        <v>-0.00084349112491784628</v>
+        <v>0.00079931895866307311</v>
       </c>
       <c r="EZ3">
-        <v>-0.00094504630966617037</v>
+        <v>0.00081800181577947972</v>
       </c>
       <c r="FA3">
-        <v>-0.00081362140463422862</v>
+        <v>0.00069522650039588972</v>
       </c>
       <c r="FB3">
-        <v>-0.00096818080470866333</v>
+        <v>0.00075236656278386787</v>
       </c>
       <c r="FC3">
-        <v>-0.0008378739295201948</v>
+        <v>0.00072372538793984218</v>
       </c>
       <c r="FD3">
-        <v>-0.00090932843638406652</v>
+        <v>0.0008380109952396982</v>
       </c>
       <c r="FE3">
-        <v>-0.0010440997299757304</v>
+        <v>0.0008078110311758467</v>
       </c>
       <c r="FF3">
-        <v>-0.00094715816952510037</v>
+        <v>0.00081139630210126646</v>
       </c>
       <c r="FG3">
-        <v>-0.00096532569258433196</v>
+        <v>0.00071184147051864374</v>
       </c>
       <c r="FH3">
-        <v>-0.00095891155972033227</v>
+        <v>0.00079314098190620078</v>
       </c>
       <c r="FI3">
-        <v>-0.00091215634456509489</v>
+        <v>0.00070596271836336226</v>
       </c>
       <c r="FJ3">
-        <v>-0.00099794217116180601</v>
+        <v>0.00073362647044951412</v>
       </c>
       <c r="FK3">
-        <v>-0.00099577605268885054</v>
+        <v>0.00075379803253065837</v>
       </c>
       <c r="FL3">
-        <v>-0.00101502531961576</v>
+        <v>0.00068841438666833877</v>
       </c>
       <c r="FM3">
-        <v>-0.00097017589906411991</v>
+        <v>0.00054001013495416389</v>
       </c>
       <c r="FN3">
-        <v>-0.00099929455061871465</v>
+        <v>0.00057440754352357855</v>
       </c>
       <c r="FO3">
-        <v>-0.00095802002328522896</v>
+        <v>0.00071166411330802744</v>
       </c>
       <c r="FP3">
-        <v>-0.00094790774226322333</v>
+        <v>0.00071787990418026174</v>
       </c>
       <c r="FQ3">
-        <v>-0.00091196365576781582</v>
+        <v>0.00065852268335313681</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0049545505941872639</v>
+        <v>0.0032943606956566331</v>
       </c>
     </row>
     <row r="4">
@@ -4835,526 +4841,526 @@
         <v>176</v>
       </c>
       <c r="B4">
-        <v>0.0011400982016784649</v>
+        <v>0.00040870468358737672</v>
       </c>
       <c r="C4">
-        <v>0.00049720783713407826</v>
+        <v>0.00038489432999923404</v>
       </c>
       <c r="D4">
-        <v>0.00072786403154009491</v>
+        <v>0.00036987311526148411</v>
       </c>
       <c r="E4">
-        <v>0.00086083927744740854</v>
+        <v>0.00037620485067764957</v>
       </c>
       <c r="F4">
-        <v>0.00078777125880609194</v>
+        <v>0.0003447535959619226</v>
       </c>
       <c r="G4">
-        <v>0.00065903237672838356</v>
+        <v>0.00032645478155523649</v>
       </c>
       <c r="H4">
-        <v>0.00053414957406750679</v>
+        <v>0.00026936991811107977</v>
       </c>
       <c r="I4">
-        <v>0.00053106942727880664</v>
+        <v>0.00021993961714248915</v>
       </c>
       <c r="J4">
-        <v>0.00056051355676084837</v>
+        <v>0.00015552079473303744</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0012160278749016086</v>
+        <v>0.00024589996743791314</v>
       </c>
       <c r="M4">
-        <v>0.0012160278749016086</v>
+        <v>0.00024589996743791314</v>
       </c>
       <c r="N4">
-        <v>0.0012160278749016088</v>
+        <v>0.00024589996743791314</v>
       </c>
       <c r="O4">
-        <v>0.001216027874901609</v>
+        <v>0.0002458999674379132</v>
       </c>
       <c r="P4">
-        <v>0.0012160278749016088</v>
+        <v>0.0002458999674379132</v>
       </c>
       <c r="Q4">
-        <v>0.0012160278749016092</v>
+        <v>0.00024589996743791314</v>
       </c>
       <c r="R4">
-        <v>0.0012160278749016092</v>
+        <v>0.00024589996743791325</v>
       </c>
       <c r="S4">
-        <v>0.0012160278749016094</v>
+        <v>0.0002458999674379132</v>
       </c>
       <c r="T4">
-        <v>0.0012160278749016094</v>
+        <v>0.00024589996743791331</v>
       </c>
       <c r="U4">
-        <v>0.001216027874901609</v>
+        <v>0.00024589996743791325</v>
       </c>
       <c r="V4">
-        <v>0.0012160278749016097</v>
+        <v>0.00024589996743791331</v>
       </c>
       <c r="W4">
-        <v>0.0012160278749016092</v>
+        <v>0.00024589996743791325</v>
       </c>
       <c r="X4">
-        <v>0.0012160278749016097</v>
+        <v>0.00024589996743791325</v>
       </c>
       <c r="Y4">
-        <v>0.0012160278749016094</v>
+        <v>0.00024589996743791325</v>
       </c>
       <c r="Z4">
-        <v>0.0012160278749016097</v>
+        <v>0.00024589996743791325</v>
       </c>
       <c r="AA4">
-        <v>0.0012160278749016097</v>
+        <v>0.00024589996743791331</v>
       </c>
       <c r="AB4">
-        <v>0.0012160278749016097</v>
+        <v>0.00024589996743791325</v>
       </c>
       <c r="AC4">
-        <v>0.0012160278749016097</v>
+        <v>0.00024589996743791336</v>
       </c>
       <c r="AD4">
-        <v>0.0012160278749016097</v>
+        <v>0.00024589996743791331</v>
       </c>
       <c r="AE4">
-        <v>0.0012160278749016099</v>
+        <v>0.00024589996743791336</v>
       </c>
       <c r="AF4">
-        <v>0.0012160278749016099</v>
+        <v>0.00024589996743791336</v>
       </c>
       <c r="AG4">
-        <v>0.0012160278749016099</v>
+        <v>0.00024589996743791341</v>
       </c>
       <c r="AH4">
-        <v>0.0012160278749016097</v>
+        <v>0.00024589996743791341</v>
       </c>
       <c r="AI4">
-        <v>0.0012160278749016097</v>
+        <v>0.00024589996743791341</v>
       </c>
       <c r="AJ4">
-        <v>0.0012160278749016099</v>
+        <v>0.00024589996743791341</v>
       </c>
       <c r="AK4">
-        <v>0.0012160278749016099</v>
+        <v>0.00024589996743791347</v>
       </c>
       <c r="AL4">
-        <v>0.0012160278749016099</v>
+        <v>0.00024589996743791341</v>
       </c>
       <c r="AM4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791347</v>
       </c>
       <c r="AN4">
-        <v>0.0012160278749016101</v>
+        <v>0.00024589996743791341</v>
       </c>
       <c r="AO4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791347</v>
       </c>
       <c r="AP4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791341</v>
       </c>
       <c r="AQ4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791347</v>
       </c>
       <c r="AR4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791341</v>
       </c>
       <c r="AS4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791347</v>
       </c>
       <c r="AT4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791347</v>
       </c>
       <c r="AU4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791347</v>
       </c>
       <c r="AV4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791347</v>
       </c>
       <c r="AW4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791347</v>
       </c>
       <c r="AX4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791347</v>
       </c>
       <c r="AY4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791352</v>
       </c>
       <c r="AZ4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791352</v>
       </c>
       <c r="BA4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791352</v>
       </c>
       <c r="BB4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791358</v>
       </c>
       <c r="BC4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791358</v>
       </c>
       <c r="BD4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791352</v>
       </c>
       <c r="BE4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791358</v>
       </c>
       <c r="BF4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791363</v>
       </c>
       <c r="BG4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791358</v>
       </c>
       <c r="BH4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791358</v>
       </c>
       <c r="BI4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791363</v>
       </c>
       <c r="BJ4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791358</v>
       </c>
       <c r="BK4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791358</v>
       </c>
       <c r="BL4">
-        <v>0.0012160278749016103</v>
+        <v>0.00024589996743791363</v>
       </c>
       <c r="BM4">
-        <v>0.0012160278749016105</v>
+        <v>0.00024589996743791358</v>
       </c>
       <c r="BN4">
-        <v>0.0012160278749016105</v>
+        <v>0.00024589996743791363</v>
       </c>
       <c r="BO4">
-        <v>0.0012160278749016107</v>
+        <v>0.00024589996743791369</v>
       </c>
       <c r="BP4">
-        <v>0.0012160278749016107</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0012153393753136137</v>
+        <v>0.00026262128034534713</v>
       </c>
       <c r="BR4">
-        <v>0.0012153393753136137</v>
+        <v>0.00026262128034534713</v>
       </c>
       <c r="BS4">
-        <v>0.0012153393753136139</v>
+        <v>0.00026262128034534713</v>
       </c>
       <c r="BT4">
-        <v>0.0011027194667434909</v>
+        <v>0.00026840364429777828</v>
       </c>
       <c r="BU4">
-        <v>0.0011027194667434911</v>
+        <v>0.00026840364429777828</v>
       </c>
       <c r="BV4">
-        <v>0.0012787004959098904</v>
+        <v>0.00032529508061975265</v>
       </c>
       <c r="BW4">
-        <v>0.0012540340712170178</v>
+        <v>0.00031683485596319789</v>
       </c>
       <c r="BX4">
-        <v>0.0012540340712170178</v>
+        <v>0.00031683485596319789</v>
       </c>
       <c r="BY4">
-        <v>0.001235328491178336</v>
+        <v>0.00032274370726218335</v>
       </c>
       <c r="BZ4">
-        <v>0.0012353284911783362</v>
+        <v>0.00032274370726218324</v>
       </c>
       <c r="CA4">
-        <v>0.0012353284911783362</v>
+        <v>0.00034775506893772011</v>
       </c>
       <c r="CB4">
-        <v>0.0012201575736731679</v>
+        <v>0.00034809450783637106</v>
       </c>
       <c r="CC4">
-        <v>0.0012201575736731684</v>
+        <v>0.00034809450783637106</v>
       </c>
       <c r="CD4">
-        <v>0.0012201575736731681</v>
+        <v>0.00034911084432865113</v>
       </c>
       <c r="CE4">
-        <v>0.0012201575736731681</v>
+        <v>0.00034911084432865113</v>
       </c>
       <c r="CF4">
-        <v>0.0012201575736731684</v>
+        <v>0.00034911084432865113</v>
       </c>
       <c r="CG4">
-        <v>0.0012168535601944344</v>
+        <v>0.00037695751201809549</v>
       </c>
       <c r="CH4">
-        <v>0.0012168535601944342</v>
+        <v>0.00037695751201809538</v>
       </c>
       <c r="CI4">
-        <v>0.0012168535601944342</v>
+        <v>0.00037695751201809549</v>
       </c>
       <c r="CJ4">
-        <v>0.0012168535601944346</v>
+        <v>0.00037695751201809549</v>
       </c>
       <c r="CK4">
-        <v>0.0012328438985334061</v>
+        <v>0.00037695751201809554</v>
       </c>
       <c r="CL4">
-        <v>0.0011635479102375871</v>
+        <v>0.00040777896397584449</v>
       </c>
       <c r="CM4">
-        <v>0.0011635479102375874</v>
+        <v>0.00040777896397584454</v>
       </c>
       <c r="CN4">
-        <v>0.0010571467711474652</v>
+        <v>0.00040777896397584454</v>
       </c>
       <c r="CO4">
-        <v>0</v>
+        <v>0.00040777896397584459</v>
       </c>
       <c r="CP4">
-        <v>0.0012396144689590866</v>
+        <v>0.00040777896397584465</v>
       </c>
       <c r="CQ4">
-        <v>0.0012544611627297287</v>
+        <v>0.00043642914780701517</v>
       </c>
       <c r="CR4">
-        <v>0.0012544611627297287</v>
+        <v>0.00043642914780701511</v>
       </c>
       <c r="CS4">
-        <v>0.001235762047540317</v>
+        <v>0.00043642914780701511</v>
       </c>
       <c r="CT4">
-        <v>0.0012357620475403172</v>
+        <v>0.00043642914780701511</v>
       </c>
       <c r="CU4">
-        <v>0.001235762047540317</v>
+        <v>0.00043642914780701517</v>
       </c>
       <c r="CV4">
-        <v>0.0012205965187628903</v>
+        <v>0.00045673891803888275</v>
       </c>
       <c r="CW4">
-        <v>0.0012205965187628901</v>
+        <v>0.0004567389180388828</v>
       </c>
       <c r="CX4">
-        <v>0.0012205965187628903</v>
+        <v>0.0004567389180388828</v>
       </c>
       <c r="CY4">
-        <v>0.0012205965187628901</v>
+        <v>0.0004567389180388828</v>
       </c>
       <c r="CZ4">
-        <v>0.0012205965187628903</v>
+        <v>0.0004567389180388828</v>
       </c>
       <c r="DA4">
-        <v>0.0012188603912590907</v>
+        <v>0.00045673891803888286</v>
       </c>
       <c r="DB4">
-        <v>0.0012188603912590904</v>
+        <v>0.00045673891803888286</v>
       </c>
       <c r="DC4">
-        <v>0.0012188603912590909</v>
+        <v>0.00045673891803888313</v>
       </c>
       <c r="DD4">
-        <v>0.0012188603912590907</v>
+        <v>0.00045673891803888286</v>
       </c>
       <c r="DE4">
-        <v>0.0012188603912590907</v>
+        <v>0.00045673891803888308</v>
       </c>
       <c r="DF4">
-        <v>0.0011414115651885465</v>
+        <v>0.00045673891803888313</v>
       </c>
       <c r="DG4">
-        <v>0.0011414115651885465</v>
+        <v>0.00045673891803888313</v>
       </c>
       <c r="DH4">
-        <v>0.0011414115651885465</v>
+        <v>0.00045673891803888313</v>
       </c>
       <c r="DI4">
-        <v>0.001141411565188547</v>
+        <v>0.00045673891803888313</v>
       </c>
       <c r="DJ4">
-        <v>0.001141411565188547</v>
+        <v>0.00045673891803888313</v>
       </c>
       <c r="DK4">
-        <v>0.0012169085859611308</v>
+        <v>0.00045673891803888308</v>
       </c>
       <c r="DL4">
-        <v>0.0012169085859611308</v>
+        <v>0.00045673891803888308</v>
       </c>
       <c r="DM4">
-        <v>0.0012169085859611308</v>
+        <v>0.00045673891803888335</v>
       </c>
       <c r="DN4">
-        <v>0.0012169085859611304</v>
+        <v>0.00045673891803888313</v>
       </c>
       <c r="DO4">
-        <v>0.0012169085859611308</v>
+        <v>0.00045673891803888335</v>
       </c>
       <c r="DP4">
-        <v>0.0012169085859611308</v>
+        <v>0.00045673891803888335</v>
       </c>
       <c r="DQ4">
-        <v>0.0012169085859611308</v>
+        <v>0.0004567389180388834</v>
       </c>
       <c r="DR4">
-        <v>0.0012169085859611308</v>
+        <v>0.00045673891803888335</v>
       </c>
       <c r="DS4">
-        <v>0.0012169085859611317</v>
+        <v>0.00045673891803888335</v>
       </c>
       <c r="DT4">
-        <v>0.001216908585961131</v>
+        <v>0.00045673891803888335</v>
       </c>
       <c r="DU4">
-        <v>0.0012169085859611317</v>
+        <v>0.0004567389180388834</v>
       </c>
       <c r="DV4">
-        <v>0.0012169085859611317</v>
+        <v>0.0004567389180388834</v>
       </c>
       <c r="DW4">
-        <v>0.0012169085859611317</v>
+        <v>0.00045673891803888351</v>
       </c>
       <c r="DX4">
-        <v>0.0012169085859611314</v>
+        <v>0.0004567389180388834</v>
       </c>
       <c r="DY4">
-        <v>0.0012169085859611317</v>
+        <v>0.00045673891803888351</v>
       </c>
       <c r="DZ4">
-        <v>0.0012169085859611317</v>
+        <v>0.0004567389180388834</v>
       </c>
       <c r="EA4">
-        <v>0.0012169085859611321</v>
+        <v>0.00045673891803888351</v>
       </c>
       <c r="EB4">
-        <v>0.0012169085859611321</v>
+        <v>0.00045673891803888356</v>
       </c>
       <c r="EC4">
-        <v>0.0012169085859611321</v>
+        <v>0.00045673891803888356</v>
       </c>
       <c r="ED4">
-        <v>0.0012169085859611321</v>
+        <v>0.00045673891803888346</v>
       </c>
       <c r="EE4">
-        <v>0.0012169085859611321</v>
+        <v>0.00045673891803888346</v>
       </c>
       <c r="EF4">
-        <v>0.0012169085859611325</v>
+        <v>0.00045673891803888362</v>
       </c>
       <c r="EG4">
-        <v>0.0012169085859611321</v>
+        <v>0.00045673891803888362</v>
       </c>
       <c r="EH4">
-        <v>0.0012169085859611325</v>
+        <v>0.00045673891803888356</v>
       </c>
       <c r="EI4">
-        <v>0.0012169085859611323</v>
+        <v>0.00045673891803888362</v>
       </c>
       <c r="EJ4">
-        <v>0.0012169085859611325</v>
+        <v>0.00045673891803888356</v>
       </c>
       <c r="EK4">
-        <v>0.0012169085859611325</v>
+        <v>0.00045673891803888362</v>
       </c>
       <c r="EL4">
-        <v>0.0012169085859611327</v>
+        <v>0.00045673891803888362</v>
       </c>
       <c r="EM4">
-        <v>0.0012169085859611325</v>
+        <v>0.00045673891803888362</v>
       </c>
       <c r="EN4">
-        <v>0.001216908585961133</v>
+        <v>0.00045673891803888378</v>
       </c>
       <c r="EO4">
-        <v>0.0012169085859611323</v>
+        <v>0.00045673891803888362</v>
       </c>
       <c r="EP4">
-        <v>0.0012169085859611327</v>
+        <v>0.00045673891803888362</v>
       </c>
       <c r="EQ4">
-        <v>0.001216908585961133</v>
+        <v>0.00045673891803888378</v>
       </c>
       <c r="ER4">
-        <v>0.0012169085859611332</v>
+        <v>0.00045673891803888378</v>
       </c>
       <c r="ES4">
-        <v>0.001216908585961133</v>
+        <v>0.00045673891803888378</v>
       </c>
       <c r="ET4">
-        <v>0.001216908585961133</v>
+        <v>0.00045673891803888394</v>
       </c>
       <c r="EU4">
-        <v>0.001216908585961133</v>
+        <v>0.00045673891803888394</v>
       </c>
       <c r="EV4">
-        <v>0.0012169085859611327</v>
+        <v>0.00045673891803888378</v>
       </c>
       <c r="EW4">
-        <v>0.0012169085859611325</v>
+        <v>0.00045673891803888394</v>
       </c>
       <c r="EX4">
-        <v>0.001216908585961133</v>
+        <v>0.00045673891803888378</v>
       </c>
       <c r="EY4">
-        <v>0.0012169085859611332</v>
+        <v>0.00045673891803888394</v>
       </c>
       <c r="EZ4">
-        <v>0.0012169085859611332</v>
+        <v>0.00045673891803888389</v>
       </c>
       <c r="FA4">
-        <v>0.0012169085859611334</v>
+        <v>0.00045673891803888394</v>
       </c>
       <c r="FB4">
-        <v>0.0012169085859611334</v>
+        <v>0.00045673891803888394</v>
       </c>
       <c r="FC4">
-        <v>0.0012169085859611334</v>
+        <v>0.00045673891803888394</v>
       </c>
       <c r="FD4">
-        <v>0.0012169085859611334</v>
+        <v>0.000456738918038884</v>
       </c>
       <c r="FE4">
-        <v>0.0012169085859611334</v>
+        <v>0.00045673891803888394</v>
       </c>
       <c r="FF4">
-        <v>0.0012169085859611334</v>
+        <v>0.000456738918038884</v>
       </c>
       <c r="FG4">
-        <v>0.0012169085859611334</v>
+        <v>0.000456738918038884</v>
       </c>
       <c r="FH4">
-        <v>0.0012169085859611334</v>
+        <v>0.000456738918038884</v>
       </c>
       <c r="FI4">
-        <v>0.0012169085859611336</v>
+        <v>0.000456738918038884</v>
       </c>
       <c r="FJ4">
-        <v>0.0012169085859611336</v>
+        <v>0.000456738918038884</v>
       </c>
       <c r="FK4">
-        <v>0.0012169085859611338</v>
+        <v>0.00045673891803888405</v>
       </c>
       <c r="FL4">
-        <v>0.0012169085859611338</v>
+        <v>0.00045673891803888405</v>
       </c>
       <c r="FM4">
-        <v>0.0012169085859611338</v>
+        <v>0.00045673891803888411</v>
       </c>
       <c r="FN4">
-        <v>0.0012169085859611338</v>
+        <v>0.00045673891803888405</v>
       </c>
       <c r="FO4">
-        <v>0.0012169085859611338</v>
+        <v>0.00045673891803888405</v>
       </c>
       <c r="FP4">
-        <v>0.0012169085859611338</v>
+        <v>0.00045673891803888411</v>
       </c>
       <c r="FQ4">
-        <v>0.0012169085859611341</v>
+        <v>0.00045673891803888405</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.00096025353876561209</v>
+        <v>0.00042234706375009987</v>
       </c>
     </row>
   </sheetData>
@@ -5569,7 +5575,7 @@
         <v>66</v>
       </c>
       <c r="BP2" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="BQ2" t="s">
         <v>68</v>
@@ -5644,7 +5650,7 @@
         <v>91</v>
       </c>
       <c r="CO2" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="CP2" t="s">
         <v>93</v>
@@ -5898,526 +5904,526 @@
         <v>175</v>
       </c>
       <c r="B3">
-        <v>0.0087975008449648461</v>
+        <v>0.0083860166438653374</v>
       </c>
       <c r="C3">
-        <v>-0.0030658577257634844</v>
+        <v>-0.0034281029528622524</v>
       </c>
       <c r="D3">
-        <v>-0.003111082877305819</v>
+        <v>-0.0034564334629011715</v>
       </c>
       <c r="E3">
-        <v>-0.0029956829778639</v>
+        <v>-0.0034532756347304371</v>
       </c>
       <c r="F3">
-        <v>0.0068267752712041696</v>
+        <v>0.0065435312679569015</v>
       </c>
       <c r="G3">
-        <v>0.0055884879913141693</v>
+        <v>0.0056834965403120127</v>
       </c>
       <c r="H3">
-        <v>0.0039893736581575511</v>
+        <v>0.0034758573097005076</v>
       </c>
       <c r="I3">
-        <v>0.0027235013518929351</v>
+        <v>0.0018075891005083558</v>
       </c>
       <c r="J3">
-        <v>0.0018445636712084135</v>
+        <v>0.00066544756607613432</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0020943857198864658</v>
+        <v>0.0019154791478488593</v>
       </c>
       <c r="M3">
-        <v>0.0023433673650840982</v>
+        <v>0.0022037251702022843</v>
       </c>
       <c r="N3">
-        <v>8.4290444380103615e-06</v>
+        <v>-0.00013922347054854271</v>
       </c>
       <c r="O3">
-        <v>2.5016484694396861e-05</v>
+        <v>-0.00016764912434483531</v>
       </c>
       <c r="P3">
-        <v>4.8509724776311971e-05</v>
+        <v>-0.00013614008971882583</v>
       </c>
       <c r="Q3">
-        <v>9.6215207147406256e-05</v>
+        <v>-0.00013905106647455547</v>
       </c>
       <c r="R3">
-        <v>9.8567616853794071e-05</v>
+        <v>-9.0506502203547293e-05</v>
       </c>
       <c r="S3">
-        <v>0.00010247255601776795</v>
+        <v>-0.00011381454819839706</v>
       </c>
       <c r="T3">
-        <v>4.0831560483319474e-05</v>
+        <v>-8.0768596288355955e-05</v>
       </c>
       <c r="U3">
-        <v>0.00014040212712277466</v>
+        <v>-8.1012941112468625e-05</v>
       </c>
       <c r="V3">
-        <v>8.0447045027194319e-05</v>
+        <v>-4.034260263827579e-05</v>
       </c>
       <c r="W3">
-        <v>9.837525956720507e-05</v>
+        <v>-9.339375245362536e-05</v>
       </c>
       <c r="X3">
-        <v>0.00010803059195618224</v>
+        <v>-9.7614999617541849e-05</v>
       </c>
       <c r="Y3">
-        <v>0.00010935372601271904</v>
+        <v>-4.7570617690045373e-05</v>
       </c>
       <c r="Z3">
-        <v>0.00011809910123609116</v>
+        <v>-5.9820491104754872e-05</v>
       </c>
       <c r="AA3">
-        <v>0.0001220355952104218</v>
+        <v>-9.3233692824149403e-05</v>
       </c>
       <c r="AB3">
-        <v>0.00013374621664696929</v>
+        <v>-4.0515645620442823e-05</v>
       </c>
       <c r="AC3">
-        <v>0.00012848391200706989</v>
+        <v>-5.3125534373232015e-05</v>
       </c>
       <c r="AD3">
-        <v>0.00012539750208777521</v>
+        <v>-4.5430049757085839e-05</v>
       </c>
       <c r="AE3">
-        <v>0.00012557461650745551</v>
+        <v>-5.2060651819308414e-05</v>
       </c>
       <c r="AF3">
-        <v>0.00013274076624850031</v>
+        <v>-1.0993522190492115e-05</v>
       </c>
       <c r="AG3">
-        <v>0.00015166073216775898</v>
+        <v>-7.9014698648757461e-06</v>
       </c>
       <c r="AH3">
-        <v>0.0001467365092704106</v>
+        <v>-1.7432748505778675e-05</v>
       </c>
       <c r="AI3">
-        <v>0.0001290217515648972</v>
+        <v>-4.9033386681256293e-05</v>
       </c>
       <c r="AJ3">
-        <v>0.0001347362862698572</v>
+        <v>-1.3919237290215102e-05</v>
       </c>
       <c r="AK3">
-        <v>0.0001593332656509619</v>
+        <v>-4.3918316432408795e-05</v>
       </c>
       <c r="AL3">
-        <v>0.00013911584944692004</v>
+        <v>-5.0391514292493797e-05</v>
       </c>
       <c r="AM3">
-        <v>0.00015830011289468278</v>
+        <v>1.3244939815855304e-05</v>
       </c>
       <c r="AN3">
-        <v>0.00018370189557999591</v>
+        <v>3.2796943739454869e-06</v>
       </c>
       <c r="AO3">
-        <v>0.00015693389800086778</v>
+        <v>-4.2590551703790471e-05</v>
       </c>
       <c r="AP3">
-        <v>0.00015579364100917414</v>
+        <v>-1.9704741194052053e-05</v>
       </c>
       <c r="AQ3">
-        <v>0.00015080300404942586</v>
+        <v>-1.2116299830374347e-05</v>
       </c>
       <c r="AR3">
-        <v>0.00013520222776748126</v>
+        <v>-6.2116858501884804e-06</v>
       </c>
       <c r="AS3">
-        <v>0.00018160595743420057</v>
+        <v>-5.7201154238652554e-05</v>
       </c>
       <c r="AT3">
-        <v>0.00017164117674118795</v>
+        <v>-6.2142373818730001e-06</v>
       </c>
       <c r="AU3">
-        <v>0.00016368257720543293</v>
+        <v>-6.5453999794217114e-05</v>
       </c>
       <c r="AV3">
-        <v>0.00017991172317906575</v>
+        <v>6.3150238914773616e-06</v>
       </c>
       <c r="AW3">
-        <v>0.00020339214934841405</v>
+        <v>3.2748565105404038e-06</v>
       </c>
       <c r="AX3">
-        <v>0.00017641908094132927</v>
+        <v>1.0263106054955796e-05</v>
       </c>
       <c r="AY3">
-        <v>0.00019754479890577269</v>
+        <v>-5.6274546815859889e-05</v>
       </c>
       <c r="AZ3">
-        <v>0.0001648581244210214</v>
+        <v>-1.5161177305552252e-05</v>
       </c>
       <c r="BA3">
-        <v>0.0001789083527523537</v>
+        <v>1.9954781103879059e-05</v>
       </c>
       <c r="BB3">
-        <v>0.00015973252957607233</v>
+        <v>8.052348336079699e-06</v>
       </c>
       <c r="BC3">
-        <v>0.00015133328850308538</v>
+        <v>-2.5188166786940216e-05</v>
       </c>
       <c r="BD3">
-        <v>0.0001728747895532303</v>
+        <v>2.746004634745791e-06</v>
       </c>
       <c r="BE3">
-        <v>0.00017909766771108786</v>
+        <v>-2.3452086025340211e-05</v>
       </c>
       <c r="BF3">
-        <v>0.00018555582298423277</v>
+        <v>2.740312778077663e-05</v>
       </c>
       <c r="BG3">
-        <v>0.00013784867803528467</v>
+        <v>-1.7415809728450715e-05</v>
       </c>
       <c r="BH3">
-        <v>0.00013370366346734434</v>
+        <v>2.9107020336709839e-06</v>
       </c>
       <c r="BI3">
-        <v>0.00016883660200734619</v>
+        <v>-5.6469175478993137e-05</v>
       </c>
       <c r="BJ3">
-        <v>0.00020435903751401843</v>
+        <v>-6.3634540233461096e-05</v>
       </c>
       <c r="BK3">
-        <v>0.00016102417301597742</v>
+        <v>2.08807119835666e-05</v>
       </c>
       <c r="BL3">
-        <v>0.00016902965213868757</v>
+        <v>1.1838607868278735e-05</v>
       </c>
       <c r="BM3">
-        <v>0.00017895963205216198</v>
+        <v>-3.0178386372066642e-06</v>
       </c>
       <c r="BN3">
-        <v>0.00023037052993454433</v>
+        <v>1.2391432801070573e-05</v>
       </c>
       <c r="BO3">
-        <v>0.00013222060546948285</v>
+        <v>1.3201140113708226e-05</v>
       </c>
       <c r="BP3">
-        <v>0.00017702314201522684</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.00018043030345874829</v>
+        <v>-2.7467466453625288e-05</v>
       </c>
       <c r="BR3">
-        <v>0.00017434354691114141</v>
+        <v>-3.4812095817868598e-05</v>
       </c>
       <c r="BS3">
-        <v>0.00019820113786271802</v>
+        <v>-4.3249084339597655e-05</v>
       </c>
       <c r="BT3">
-        <v>0.00011777074330172251</v>
+        <v>-3.275039478021205e-05</v>
       </c>
       <c r="BU3">
-        <v>0.0001300524099446278</v>
+        <v>-1.0385303608095055e-05</v>
       </c>
       <c r="BV3">
-        <v>-0.00010750448592362469</v>
+        <v>-0.00024019661043237067</v>
       </c>
       <c r="BW3">
-        <v>0.00038644869424354043</v>
+        <v>0.0002394588630800824</v>
       </c>
       <c r="BX3">
-        <v>0.00024993040843857798</v>
+        <v>-9.0069505217666596e-06</v>
       </c>
       <c r="BY3">
-        <v>0.00054963805737385412</v>
+        <v>0.00011037881190077559</v>
       </c>
       <c r="BZ3">
-        <v>0.00019938389748463031</v>
+        <v>-0.00018383828849615228</v>
       </c>
       <c r="CA3">
-        <v>-0.00010945237128497654</v>
+        <v>-0.00064845254250894748</v>
       </c>
       <c r="CB3">
-        <v>0.00049544950916147396</v>
+        <v>0.00074442278138722436</v>
       </c>
       <c r="CC3">
-        <v>0.00031520998435265928</v>
+        <v>0.0004176062155220401</v>
       </c>
       <c r="CD3">
-        <v>0.0001527094261619822</v>
+        <v>0.00034898970641881051</v>
       </c>
       <c r="CE3">
-        <v>-9.1060685307460017e-05</v>
+        <v>8.0359135567878711e-06</v>
       </c>
       <c r="CF3">
-        <v>-0.00021161380822411091</v>
+        <v>-0.00047430163946988676</v>
       </c>
       <c r="CG3">
-        <v>0.000286298770550248</v>
+        <v>0.00098638410683622225</v>
       </c>
       <c r="CH3">
-        <v>0.00025206706101238142</v>
+        <v>0.00077396830888989119</v>
       </c>
       <c r="CI3">
-        <v>0.00016854083874026188</v>
+        <v>0.00040107556143226871</v>
       </c>
       <c r="CJ3">
-        <v>-3.7774700826154977e-05</v>
+        <v>0.00021532234350960406</v>
       </c>
       <c r="CK3">
-        <v>0.00010608545862845021</v>
+        <v>1.5950537673755587e-05</v>
       </c>
       <c r="CL3">
-        <v>0.00029449975651345175</v>
+        <v>0.0010966084000533516</v>
       </c>
       <c r="CM3">
-        <v>0.00019854429985747632</v>
+        <v>0.00082393464775289192</v>
       </c>
       <c r="CN3">
-        <v>8.0879720310159307e-05</v>
+        <v>0.00080861753755759357</v>
       </c>
       <c r="CO3">
-        <v>0</v>
+        <v>0.0005114229744879287</v>
       </c>
       <c r="CP3">
-        <v>0.00025075309172743033</v>
+        <v>0.00032391547203030854</v>
       </c>
       <c r="CQ3">
-        <v>0.0017252510352242574</v>
+        <v>0.0010895449416681174</v>
       </c>
       <c r="CR3">
-        <v>0.0012830858403020087</v>
+        <v>0.0010282781426460765</v>
       </c>
       <c r="CS3">
-        <v>0.0016158753244856655</v>
+        <v>0.0010561251676623991</v>
       </c>
       <c r="CT3">
-        <v>0.0013737613309030056</v>
+        <v>0.001040206951426631</v>
       </c>
       <c r="CU3">
-        <v>0.00095815266706382484</v>
+        <v>0.00064943319015554879</v>
       </c>
       <c r="CV3">
-        <v>0.0016733581699062768</v>
+        <v>0.00086440921657274304</v>
       </c>
       <c r="CW3">
-        <v>0.0014892640025401624</v>
+        <v>0.00086551790615023547</v>
       </c>
       <c r="CX3">
-        <v>0.001028546608547648</v>
+        <v>0.00085642452448818763</v>
       </c>
       <c r="CY3">
-        <v>0.00093439720523202918</v>
+        <v>0.00091981989376215792</v>
       </c>
       <c r="CZ3">
-        <v>0.00074466595100331672</v>
+        <v>0.00065705666947728485</v>
       </c>
       <c r="DA3">
-        <v>0.001203155220843552</v>
+        <v>0.0007991211236454607</v>
       </c>
       <c r="DB3">
-        <v>0.0010983687509346217</v>
+        <v>0.00058464807533527047</v>
       </c>
       <c r="DC3">
-        <v>0.00083667060243063996</v>
+        <v>0.00049806194270425044</v>
       </c>
       <c r="DD3">
-        <v>0.00083285956011486489</v>
+        <v>0.00033780550812112639</v>
       </c>
       <c r="DE3">
-        <v>0.00074066924989710009</v>
+        <v>0.00041922797876322936</v>
       </c>
       <c r="DF3">
-        <v>0.00087953144773160648</v>
+        <v>0.00046226629548247136</v>
       </c>
       <c r="DG3">
-        <v>0.00089755144512438626</v>
+        <v>0.00029599352806475206</v>
       </c>
       <c r="DH3">
-        <v>0.00088648628322383005</v>
+        <v>0.00036476704582940803</v>
       </c>
       <c r="DI3">
-        <v>0.00063698978942102922</v>
+        <v>0.00037587723831580095</v>
       </c>
       <c r="DJ3">
-        <v>0.00062558338785165843</v>
+        <v>0.00030855959911156979</v>
       </c>
       <c r="DK3">
-        <v>0.0014056390553978154</v>
+        <v>0.00028469412481507152</v>
       </c>
       <c r="DL3">
-        <v>0.0013515353690710219</v>
+        <v>0.00021105226786625718</v>
       </c>
       <c r="DM3">
-        <v>0.0012766449777359163</v>
+        <v>0.00017412805534279552</v>
       </c>
       <c r="DN3">
-        <v>0.0014139568813589286</v>
+        <v>0.00012079931123052247</v>
       </c>
       <c r="DO3">
-        <v>0.0012547912883485101</v>
+        <v>0.00029038077765892783</v>
       </c>
       <c r="DP3">
-        <v>0.0010816436044625338</v>
+        <v>0.00017449308996676143</v>
       </c>
       <c r="DQ3">
-        <v>0.00096629788253624154</v>
+        <v>8.9323668601524878e-06</v>
       </c>
       <c r="DR3">
-        <v>0.0011226810329969404</v>
+        <v>0.00025028360618761629</v>
       </c>
       <c r="DS3">
-        <v>0.0011050804192490197</v>
+        <v>0.00010961846177809143</v>
       </c>
       <c r="DT3">
-        <v>0.0011315989481051737</v>
+        <v>6.4338243842088034e-05</v>
       </c>
       <c r="DU3">
-        <v>0.00091323639490910715</v>
+        <v>0.00010876257623526416</v>
       </c>
       <c r="DV3">
-        <v>0.00095815603159211569</v>
+        <v>0.00016269069128125089</v>
       </c>
       <c r="DW3">
-        <v>0.00088221903358142524</v>
+        <v>8.0870557929927088e-05</v>
       </c>
       <c r="DX3">
-        <v>0.00081694888345540742</v>
+        <v>3.9979016044383376e-05</v>
       </c>
       <c r="DY3">
-        <v>0.00073773290630994523</v>
+        <v>0.0001020535561512345</v>
       </c>
       <c r="DZ3">
-        <v>0.00083203829035577166</v>
+        <v>0.00015235581950174011</v>
       </c>
       <c r="EA3">
-        <v>0.00079191017573036694</v>
+        <v>0.00013054061250692249</v>
       </c>
       <c r="EB3">
-        <v>0.00072194183959110544</v>
+        <v>0.00014444930904523312</v>
       </c>
       <c r="EC3">
-        <v>0.00065073748919464722</v>
+        <v>1.007170500645848e-05</v>
       </c>
       <c r="ED3">
-        <v>0.00075984181745965284</v>
+        <v>1.2739000088382082e-05</v>
       </c>
       <c r="EE3">
-        <v>0.00073140217971454395</v>
+        <v>-7.0516577434618215e-05</v>
       </c>
       <c r="EF3">
-        <v>0.00061071467953365682</v>
+        <v>-4.9875093285240663e-05</v>
       </c>
       <c r="EG3">
-        <v>0.00057898527385304491</v>
+        <v>3.6114432029093022e-05</v>
       </c>
       <c r="EH3">
-        <v>0.00071117977540886997</v>
+        <v>-0.00011451827120161397</v>
       </c>
       <c r="EI3">
-        <v>0.00061691408973624121</v>
+        <v>3.4874939590138628e-06</v>
       </c>
       <c r="EJ3">
-        <v>0.00077811242981248559</v>
+        <v>-9.053581553824653e-06</v>
       </c>
       <c r="EK3">
-        <v>0.00060011614626782504</v>
+        <v>0.00010109709732376138</v>
       </c>
       <c r="EL3">
-        <v>0.00057480302030812034</v>
+        <v>-6.7597609237580059e-05</v>
       </c>
       <c r="EM3">
-        <v>0.00051938029606638794</v>
+        <v>-9.0797429375375551e-05</v>
       </c>
       <c r="EN3">
-        <v>0.00058281107425946796</v>
+        <v>-0.00019293729008615652</v>
       </c>
       <c r="EO3">
-        <v>0.00059484024610445606</v>
+        <v>-3.0452494523147298e-05</v>
       </c>
       <c r="EP3">
-        <v>0.00051289075987149884</v>
+        <v>2.0043874283275399e-05</v>
       </c>
       <c r="EQ3">
-        <v>0.00051005948943919099</v>
+        <v>4.8084507322881699e-07</v>
       </c>
       <c r="ER3">
-        <v>0.00053569642064001241</v>
+        <v>-7.4166087942447372e-05</v>
       </c>
       <c r="ES3">
-        <v>0.00034868312493164589</v>
+        <v>-0.00015703771652888661</v>
       </c>
       <c r="ET3">
-        <v>0.00030723170203853536</v>
+        <v>-0.00011699720529537542</v>
       </c>
       <c r="EU3">
-        <v>0.00059299976158169591</v>
+        <v>-0.00023740040625591031</v>
       </c>
       <c r="EV3">
-        <v>0.00041122039669900899</v>
+        <v>-0.00024708797862109779</v>
       </c>
       <c r="EW3">
-        <v>0.00041154645768039103</v>
+        <v>-8.6846979458010819e-06</v>
       </c>
       <c r="EX3">
-        <v>0.00041727394106893606</v>
+        <v>-0.00026142478771925447</v>
       </c>
       <c r="EY3">
-        <v>0.00051327384716456784</v>
+        <v>-0.00010258845979029609</v>
       </c>
       <c r="EZ3">
-        <v>0.0004088321525695414</v>
+        <v>-7.0795242541896156e-05</v>
       </c>
       <c r="FA3">
-        <v>0.00054160928743429563</v>
+        <v>-0.0001979290280793285</v>
       </c>
       <c r="FB3">
-        <v>0.00037672767224000247</v>
+        <v>-0.00015276356514388093</v>
       </c>
       <c r="FC3">
-        <v>0.00049150873096581466</v>
+        <v>-0.00017377486182423033</v>
       </c>
       <c r="FD3">
-        <v>0.00044310580809856398</v>
+        <v>-6.8788775228692241e-05</v>
       </c>
       <c r="FE3">
-        <v>0.00029778232511310627</v>
+        <v>-9.3203671335541027e-05</v>
       </c>
       <c r="FF3">
-        <v>0.00039985808965572176</v>
+        <v>-8.092276123679911e-05</v>
       </c>
       <c r="FG3">
-        <v>0.00036323296253330264</v>
+        <v>-0.00019168565990674362</v>
       </c>
       <c r="FH3">
-        <v>0.0003719559401898519</v>
+        <v>-0.0001141249075292315</v>
       </c>
       <c r="FI3">
-        <v>0.00042291683856249805</v>
+        <v>-0.00020118884537707397</v>
       </c>
       <c r="FJ3">
-        <v>0.00032803521717852415</v>
+        <v>-0.00017634299875541196</v>
       </c>
       <c r="FK3">
-        <v>0.00032767432787288425</v>
+        <v>-0.00015514055643091383</v>
       </c>
       <c r="FL3">
-        <v>0.00030588009523610022</v>
+        <v>-0.00021945887586507793</v>
       </c>
       <c r="FM3">
-        <v>0.00034906711192804615</v>
+        <v>-0.00037165623840452024</v>
       </c>
       <c r="FN3">
-        <v>0.00031931185224386475</v>
+        <v>-0.00033230957076578715</v>
       </c>
       <c r="FO3">
-        <v>0.00036184630951014297</v>
+        <v>-0.0001989386852026719</v>
       </c>
       <c r="FP3">
-        <v>0.00035748407548249491</v>
+        <v>-0.00018969626397326083</v>
       </c>
       <c r="FQ3">
-        <v>0.00040252188153014448</v>
+        <v>-0.00025293039807905134</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.003673113996503764</v>
+        <v>0.0042119236246595335</v>
       </c>
     </row>
     <row r="4">
@@ -6425,526 +6431,526 @@
         <v>176</v>
       </c>
       <c r="B4">
-        <v>0.00030077494442869401</v>
+        <v>0.00018906506180546743</v>
       </c>
       <c r="C4">
-        <v>0.00013117085823251702</v>
+        <v>0.00017805049272042828</v>
       </c>
       <c r="D4">
-        <v>0.00019202140948544258</v>
+        <v>0.00017110174217551622</v>
       </c>
       <c r="E4">
-        <v>0.00022710226667764077</v>
+        <v>0.0001740307762577431</v>
       </c>
       <c r="F4">
-        <v>0.00020782583135478704</v>
+        <v>0.00015948155855733683</v>
       </c>
       <c r="G4">
-        <v>0.00017386259025351276</v>
+        <v>0.00015101660423775352</v>
       </c>
       <c r="H4">
-        <v>0.0001409166405317027</v>
+        <v>0.00012460938731894184</v>
       </c>
       <c r="I4">
-        <v>0.00014010405177589236</v>
+        <v>0.00010174313869741983</v>
       </c>
       <c r="J4">
-        <v>0.00014787185317727551</v>
+        <v>7.1943263312153764e-05</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.00032080632699780777</v>
+        <v>0.00011375228718579677</v>
       </c>
       <c r="M4">
-        <v>0.00032080632699780777</v>
+        <v>0.00011375228718579678</v>
       </c>
       <c r="N4">
-        <v>0.00032080632699780782</v>
+        <v>0.00011375228718579678</v>
       </c>
       <c r="O4">
-        <v>0.00032080632699780788</v>
+        <v>0.00011375228718579678</v>
       </c>
       <c r="P4">
-        <v>0.00032080632699780782</v>
+        <v>0.00011375228718579678</v>
       </c>
       <c r="Q4">
-        <v>0.00032080632699780793</v>
+        <v>0.00011375228718579678</v>
       </c>
       <c r="R4">
-        <v>0.00032080632699780793</v>
+        <v>0.00011375228718579682</v>
       </c>
       <c r="S4">
-        <v>0.00032080632699780799</v>
+        <v>0.0001137522871857968</v>
       </c>
       <c r="T4">
-        <v>0.00032080632699780799</v>
+        <v>0.00011375228718579684</v>
       </c>
       <c r="U4">
-        <v>0.00032080632699780788</v>
+        <v>0.00011375228718579681</v>
       </c>
       <c r="V4">
-        <v>0.00032080632699780804</v>
+        <v>0.00011375228718579685</v>
       </c>
       <c r="W4">
-        <v>0.00032080632699780793</v>
+        <v>0.00011375228718579681</v>
       </c>
       <c r="X4">
-        <v>0.00032080632699780804</v>
+        <v>0.00011375228718579681</v>
       </c>
       <c r="Y4">
-        <v>0.00032080632699780799</v>
+        <v>0.00011375228718579681</v>
       </c>
       <c r="Z4">
-        <v>0.00032080632699780804</v>
+        <v>0.00011375228718579682</v>
       </c>
       <c r="AA4">
-        <v>0.00032080632699780804</v>
+        <v>0.00011375228718579682</v>
       </c>
       <c r="AB4">
-        <v>0.00032080632699780804</v>
+        <v>0.00011375228718579682</v>
       </c>
       <c r="AC4">
-        <v>0.00032080632699780804</v>
+        <v>0.00011375228718579686</v>
       </c>
       <c r="AD4">
-        <v>0.00032080632699780804</v>
+        <v>0.00011375228718579684</v>
       </c>
       <c r="AE4">
-        <v>0.00032080632699780809</v>
+        <v>0.00011375228718579686</v>
       </c>
       <c r="AF4">
-        <v>0.00032080632699780809</v>
+        <v>0.00011375228718579686</v>
       </c>
       <c r="AG4">
-        <v>0.00032080632699780809</v>
+        <v>0.00011375228718579688</v>
       </c>
       <c r="AH4">
-        <v>0.00032080632699780804</v>
+        <v>0.00011375228718579688</v>
       </c>
       <c r="AI4">
-        <v>0.00032080632699780804</v>
+        <v>0.00011375228718579688</v>
       </c>
       <c r="AJ4">
-        <v>0.00032080632699780809</v>
+        <v>0.00011375228718579688</v>
       </c>
       <c r="AK4">
-        <v>0.00032080632699780815</v>
+        <v>0.0001137522871857969</v>
       </c>
       <c r="AL4">
-        <v>0.00032080632699780815</v>
+        <v>0.00011375228718579689</v>
       </c>
       <c r="AM4">
-        <v>0.0003208063269978082</v>
+        <v>0.00011375228718579692</v>
       </c>
       <c r="AN4">
-        <v>0.00032080632699780815</v>
+        <v>0.00011375228718579689</v>
       </c>
       <c r="AO4">
-        <v>0.0003208063269978082</v>
+        <v>0.00011375228718579692</v>
       </c>
       <c r="AP4">
-        <v>0.0003208063269978082</v>
+        <v>0.00011375228718579689</v>
       </c>
       <c r="AQ4">
-        <v>0.0003208063269978082</v>
+        <v>0.00011375228718579692</v>
       </c>
       <c r="AR4">
-        <v>0.0003208063269978082</v>
+        <v>0.0001137522871857969</v>
       </c>
       <c r="AS4">
-        <v>0.0003208063269978082</v>
+        <v>0.00011375228718579692</v>
       </c>
       <c r="AT4">
-        <v>0.0003208063269978082</v>
+        <v>0.0001137522871857969</v>
       </c>
       <c r="AU4">
-        <v>0.0003208063269978082</v>
+        <v>0.00011375228718579692</v>
       </c>
       <c r="AV4">
-        <v>0.0003208063269978082</v>
+        <v>0.00011375228718579692</v>
       </c>
       <c r="AW4">
-        <v>0.0003208063269978082</v>
+        <v>0.00011375228718579692</v>
       </c>
       <c r="AX4">
-        <v>0.0003208063269978082</v>
+        <v>0.00011375228718579692</v>
       </c>
       <c r="AY4">
-        <v>0.0003208063269978082</v>
+        <v>0.00011375228718579694</v>
       </c>
       <c r="AZ4">
-        <v>0.0003208063269978082</v>
+        <v>0.00011375228718579694</v>
       </c>
       <c r="BA4">
-        <v>0.0003208063269978082</v>
+        <v>0.00011375228718579694</v>
       </c>
       <c r="BB4">
-        <v>0.0003208063269978082</v>
+        <v>0.00011375228718579696</v>
       </c>
       <c r="BC4">
-        <v>0.0003208063269978082</v>
+        <v>0.00011375228718579696</v>
       </c>
       <c r="BD4">
-        <v>0.0003208063269978082</v>
+        <v>0.00011375228718579696</v>
       </c>
       <c r="BE4">
-        <v>0.0003208063269978082</v>
+        <v>0.00011375228718579696</v>
       </c>
       <c r="BF4">
-        <v>0.0003208063269978082</v>
+        <v>0.00011375228718579698</v>
       </c>
       <c r="BG4">
-        <v>0.0003208063269978082</v>
+        <v>0.00011375228718579697</v>
       </c>
       <c r="BH4">
-        <v>0.0003208063269978082</v>
+        <v>0.00011375228718579697</v>
       </c>
       <c r="BI4">
-        <v>0.0003208063269978082</v>
+        <v>0.00011375228718579698</v>
       </c>
       <c r="BJ4">
-        <v>0.0003208063269978082</v>
+        <v>0.00011375228718579697</v>
       </c>
       <c r="BK4">
-        <v>0.00032080632699780826</v>
+        <v>0.00011375228718579696</v>
       </c>
       <c r="BL4">
-        <v>0.00032080632699780826</v>
+        <v>0.00011375228718579698</v>
       </c>
       <c r="BM4">
-        <v>0.00032080632699780826</v>
+        <v>0.00011375228718579697</v>
       </c>
       <c r="BN4">
-        <v>0.00032080632699780826</v>
+        <v>0.000113752287185797</v>
       </c>
       <c r="BO4">
-        <v>0.00032080632699780837</v>
+        <v>0.00011375228718579701</v>
       </c>
       <c r="BP4">
-        <v>0.00032080632699780837</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.00032062469051683315</v>
+        <v>0.00012148749596922313</v>
       </c>
       <c r="BR4">
-        <v>0.00032062469051683315</v>
+        <v>0.00012148749596922313</v>
       </c>
       <c r="BS4">
-        <v>0.00032062469051683321</v>
+        <v>0.00012148749596922313</v>
       </c>
       <c r="BT4">
-        <v>0.00029091387552574317</v>
+        <v>0.00012416239313079279</v>
       </c>
       <c r="BU4">
-        <v>0.00029091387552574322</v>
+        <v>0.00012416239313079279</v>
       </c>
       <c r="BV4">
-        <v>0.0003373403010653178</v>
+        <v>0.00015048013147918717</v>
       </c>
       <c r="BW4">
-        <v>0.0003308329295903598</v>
+        <v>0.00014656646725704059</v>
       </c>
       <c r="BX4">
-        <v>0.0003308329295903598</v>
+        <v>0.00014656646725704056</v>
       </c>
       <c r="BY4">
-        <v>0.00032589811802030547</v>
+        <v>0.00014929987693132233</v>
       </c>
       <c r="BZ4">
-        <v>0.00032589811802030553</v>
+        <v>0.00014929987693132227</v>
       </c>
       <c r="CA4">
-        <v>0.00032589811802030553</v>
+        <v>0.0001608700272890764</v>
       </c>
       <c r="CB4">
-        <v>0.0003218958032523044</v>
+        <v>0.00016102705029108686</v>
       </c>
       <c r="CC4">
-        <v>0.00032189580325230451</v>
+        <v>0.00016102705029108689</v>
       </c>
       <c r="CD4">
-        <v>0.00032189580325230445</v>
+        <v>0.00016149720326325608</v>
       </c>
       <c r="CE4">
-        <v>0.00032189580325230445</v>
+        <v>0.00016149720326325608</v>
       </c>
       <c r="CF4">
-        <v>0.00032189580325230451</v>
+        <v>0.00016149720326325608</v>
       </c>
       <c r="CG4">
-        <v>0.0003210241551179641</v>
+        <v>0.00017437895421743994</v>
       </c>
       <c r="CH4">
-        <v>0.0003210241551179641</v>
+        <v>0.00017437895421743992</v>
       </c>
       <c r="CI4">
-        <v>0.0003210241551179641</v>
+        <v>0.00017437895421743994</v>
       </c>
       <c r="CJ4">
-        <v>0.00032102415511796415</v>
+        <v>0.00017437895421743994</v>
       </c>
       <c r="CK4">
-        <v>0.0003252426453482089</v>
+        <v>0.00017437895421743997</v>
       </c>
       <c r="CL4">
-        <v>0.00030696132800368375</v>
+        <v>0.00018863682781990933</v>
       </c>
       <c r="CM4">
-        <v>0.00030696132800368386</v>
+        <v>0.00018863682781990936</v>
       </c>
       <c r="CN4">
-        <v>0.0002788911173412459</v>
+        <v>0.00018863682781990936</v>
       </c>
       <c r="CO4">
-        <v>0</v>
+        <v>0.00018863682781990941</v>
       </c>
       <c r="CP4">
-        <v>0.00032702882301302458</v>
+        <v>0.00018863682781990941</v>
       </c>
       <c r="CQ4">
-        <v>0.0003309456027143175</v>
+        <v>0.00020189028195024411</v>
       </c>
       <c r="CR4">
-        <v>0.0003309456027143175</v>
+        <v>0.00020189028195024408</v>
       </c>
       <c r="CS4">
-        <v>0.00032601249666811807</v>
+        <v>0.00020189028195024408</v>
       </c>
       <c r="CT4">
-        <v>0.00032601249666811818</v>
+        <v>0.00020189028195024408</v>
       </c>
       <c r="CU4">
-        <v>0.00032601249666811807</v>
+        <v>0.00020189028195024414</v>
       </c>
       <c r="CV4">
-        <v>0.00032201160352702998</v>
+        <v>0.00021128549594788838</v>
       </c>
       <c r="CW4">
-        <v>0.00032201160352702992</v>
+        <v>0.00021128549594788838</v>
       </c>
       <c r="CX4">
-        <v>0.00032201160352702998</v>
+        <v>0.00021128549594788838</v>
       </c>
       <c r="CY4">
-        <v>0.00032201160352702987</v>
+        <v>0.00021128549594788838</v>
       </c>
       <c r="CZ4">
-        <v>0.00032201160352702998</v>
+        <v>0.00021128549594788838</v>
       </c>
       <c r="DA4">
-        <v>0.00032155358714501336</v>
+        <v>0.00021128549594788841</v>
       </c>
       <c r="DB4">
-        <v>0.0003215535871450133</v>
+        <v>0.00021128549594788841</v>
       </c>
       <c r="DC4">
-        <v>0.00032155358714501336</v>
+        <v>0.00021128549594788855</v>
       </c>
       <c r="DD4">
-        <v>0.0003215535871450133</v>
+        <v>0.00021128549594788841</v>
       </c>
       <c r="DE4">
-        <v>0.00032155358714501336</v>
+        <v>0.00021128549594788852</v>
       </c>
       <c r="DF4">
-        <v>0.00030112142935093838</v>
+        <v>0.00021128549594788855</v>
       </c>
       <c r="DG4">
-        <v>0.00030112142935093838</v>
+        <v>0.00021128549594788855</v>
       </c>
       <c r="DH4">
-        <v>0.00030112142935093838</v>
+        <v>0.00021128549594788855</v>
       </c>
       <c r="DI4">
-        <v>0.00030112142935093843</v>
+        <v>0.00021128549594788855</v>
       </c>
       <c r="DJ4">
-        <v>0.00030112142935093843</v>
+        <v>0.00021128549594788855</v>
       </c>
       <c r="DK4">
-        <v>0.00032103867173758152</v>
+        <v>0.00021128549594788852</v>
       </c>
       <c r="DL4">
-        <v>0.00032103867173758152</v>
+        <v>0.00021128549594788852</v>
       </c>
       <c r="DM4">
-        <v>0.00032103867173758152</v>
+        <v>0.00021128549594788863</v>
       </c>
       <c r="DN4">
-        <v>0.00032103867173758146</v>
+        <v>0.00021128549594788857</v>
       </c>
       <c r="DO4">
-        <v>0.00032103867173758152</v>
+        <v>0.00021128549594788865</v>
       </c>
       <c r="DP4">
-        <v>0.00032103867173758152</v>
+        <v>0.00021128549594788863</v>
       </c>
       <c r="DQ4">
-        <v>0.00032103867173758157</v>
+        <v>0.00021128549594788868</v>
       </c>
       <c r="DR4">
-        <v>0.00032103867173758152</v>
+        <v>0.00021128549594788863</v>
       </c>
       <c r="DS4">
-        <v>0.00032103867173758174</v>
+        <v>0.00021128549594788865</v>
       </c>
       <c r="DT4">
-        <v>0.00032103867173758157</v>
+        <v>0.00021128549594788863</v>
       </c>
       <c r="DU4">
-        <v>0.00032103867173758174</v>
+        <v>0.00021128549594788868</v>
       </c>
       <c r="DV4">
-        <v>0.00032103867173758174</v>
+        <v>0.00021128549594788868</v>
       </c>
       <c r="DW4">
-        <v>0.00032103867173758174</v>
+        <v>0.00021128549594788873</v>
       </c>
       <c r="DX4">
-        <v>0.00032103867173758174</v>
+        <v>0.00021128549594788868</v>
       </c>
       <c r="DY4">
-        <v>0.00032103867173758179</v>
+        <v>0.00021128549594788873</v>
       </c>
       <c r="DZ4">
-        <v>0.00032103867173758179</v>
+        <v>0.00021128549594788868</v>
       </c>
       <c r="EA4">
-        <v>0.0003210386717375819</v>
+        <v>0.00021128549594788873</v>
       </c>
       <c r="EB4">
-        <v>0.0003210386717375819</v>
+        <v>0.00021128549594788876</v>
       </c>
       <c r="EC4">
-        <v>0.0003210386717375819</v>
+        <v>0.00021128549594788876</v>
       </c>
       <c r="ED4">
-        <v>0.0003210386717375819</v>
+        <v>0.00021128549594788871</v>
       </c>
       <c r="EE4">
-        <v>0.0003210386717375819</v>
+        <v>0.00021128549594788871</v>
       </c>
       <c r="EF4">
-        <v>0.00032103867173758201</v>
+        <v>0.00021128549594788879</v>
       </c>
       <c r="EG4">
-        <v>0.0003210386717375819</v>
+        <v>0.00021128549594788879</v>
       </c>
       <c r="EH4">
-        <v>0.00032103867173758201</v>
+        <v>0.00021128549594788876</v>
       </c>
       <c r="EI4">
-        <v>0.00032103867173758195</v>
+        <v>0.00021128549594788879</v>
       </c>
       <c r="EJ4">
-        <v>0.00032103867173758201</v>
+        <v>0.00021128549594788876</v>
       </c>
       <c r="EK4">
-        <v>0.00032103867173758201</v>
+        <v>0.00021128549594788879</v>
       </c>
       <c r="EL4">
-        <v>0.00032103867173758201</v>
+        <v>0.00021128549594788879</v>
       </c>
       <c r="EM4">
-        <v>0.00032103867173758201</v>
+        <v>0.00021128549594788879</v>
       </c>
       <c r="EN4">
-        <v>0.00032103867173758212</v>
+        <v>0.00021128549594788884</v>
       </c>
       <c r="EO4">
-        <v>0.00032103867173758195</v>
+        <v>0.00021128549594788879</v>
       </c>
       <c r="EP4">
-        <v>0.00032103867173758201</v>
+        <v>0.00021128549594788879</v>
       </c>
       <c r="EQ4">
-        <v>0.00032103867173758212</v>
+        <v>0.00021128549594788884</v>
       </c>
       <c r="ER4">
-        <v>0.00032103867173758217</v>
+        <v>0.00021128549594788884</v>
       </c>
       <c r="ES4">
-        <v>0.00032103867173758212</v>
+        <v>0.00021128549594788884</v>
       </c>
       <c r="ET4">
-        <v>0.00032103867173758212</v>
+        <v>0.00021128549594788892</v>
       </c>
       <c r="EU4">
-        <v>0.00032103867173758212</v>
+        <v>0.00021128549594788892</v>
       </c>
       <c r="EV4">
-        <v>0.00032103867173758206</v>
+        <v>0.00021128549594788884</v>
       </c>
       <c r="EW4">
-        <v>0.00032103867173758201</v>
+        <v>0.00021128549594788892</v>
       </c>
       <c r="EX4">
-        <v>0.00032103867173758212</v>
+        <v>0.00021128549594788884</v>
       </c>
       <c r="EY4">
-        <v>0.00032103867173758217</v>
+        <v>0.00021128549594788892</v>
       </c>
       <c r="EZ4">
-        <v>0.00032103867173758217</v>
+        <v>0.0002112854959478889</v>
       </c>
       <c r="FA4">
-        <v>0.00032103867173758217</v>
+        <v>0.00021128549594788892</v>
       </c>
       <c r="FB4">
-        <v>0.00032103867173758217</v>
+        <v>0.00021128549594788892</v>
       </c>
       <c r="FC4">
-        <v>0.00032103867173758217</v>
+        <v>0.00021128549594788892</v>
       </c>
       <c r="FD4">
-        <v>0.00032103867173758217</v>
+        <v>0.00021128549594788895</v>
       </c>
       <c r="FE4">
-        <v>0.00032103867173758228</v>
+        <v>0.00021128549594788892</v>
       </c>
       <c r="FF4">
-        <v>0.00032103867173758217</v>
+        <v>0.00021128549594788895</v>
       </c>
       <c r="FG4">
-        <v>0.00032103867173758228</v>
+        <v>0.00021128549594788895</v>
       </c>
       <c r="FH4">
-        <v>0.00032103867173758222</v>
+        <v>0.00021128549594788895</v>
       </c>
       <c r="FI4">
-        <v>0.00032103867173758228</v>
+        <v>0.00021128549594788895</v>
       </c>
       <c r="FJ4">
-        <v>0.00032103867173758228</v>
+        <v>0.00021128549594788895</v>
       </c>
       <c r="FK4">
-        <v>0.00032103867173758239</v>
+        <v>0.00021128549594788898</v>
       </c>
       <c r="FL4">
-        <v>0.00032103867173758239</v>
+        <v>0.00021128549594788898</v>
       </c>
       <c r="FM4">
-        <v>0.00032103867173758239</v>
+        <v>0.00021128549594788901</v>
       </c>
       <c r="FN4">
-        <v>0.00032103867173758233</v>
+        <v>0.00021128549594788898</v>
       </c>
       <c r="FO4">
-        <v>0.00032103867173758239</v>
+        <v>0.00021128549594788898</v>
       </c>
       <c r="FP4">
-        <v>0.00032103867173758239</v>
+        <v>0.00021128549594788901</v>
       </c>
       <c r="FQ4">
-        <v>0.00032103867173758244</v>
+        <v>0.00021128549594788898</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.00025332923456460109</v>
+        <v>0.00019537596929495183</v>
       </c>
     </row>
   </sheetData>
